--- a/Deliverable 2/Deliverable2/Costs task 8.xlsx
+++ b/Deliverable 2/Deliverable2/Costs task 8.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Santi/Documents/GitHub/projectsGroup3/Deliverable 2/Deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CDC25578-99BD-2E46-B4F9-B182174D0729}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{07F7AB29-3308-2142-B38C-30DB8F533EB9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{9A462BF7-F855-3543-8421-29C9FE395588}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="2" xr2:uid="{9A462BF7-F855-3543-8421-29C9FE395588}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="CONCLUSIONS" sheetId="2" r:id="rId2"/>
+    <sheet name="COST PER TASK" sheetId="3" r:id="rId3"/>
+    <sheet name="DATOS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="154">
   <si>
     <t>Resource Cost</t>
   </si>
@@ -128,6 +130,366 @@
   </si>
   <si>
     <t>https://www.payscale.com/rccountries.aspx</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>SENIOR</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>JUNIOR</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>QL</t>
+  </si>
+  <si>
+    <t>SOFT.1</t>
+  </si>
+  <si>
+    <t>SOFT.2</t>
+  </si>
+  <si>
+    <t>SOFT.3</t>
+  </si>
+  <si>
+    <t>SOFT.4</t>
+  </si>
+  <si>
+    <t>SOFT.5</t>
+  </si>
+  <si>
+    <t>SOFT.6</t>
+  </si>
+  <si>
+    <t>SOFT.7</t>
+  </si>
+  <si>
+    <t>SOFT.8</t>
+  </si>
+  <si>
+    <t>SOFT.9</t>
+  </si>
+  <si>
+    <t>SOFT.10</t>
+  </si>
+  <si>
+    <t>HARDW.1</t>
+  </si>
+  <si>
+    <t>HARDW.2</t>
+  </si>
+  <si>
+    <t>HARDW.4</t>
+  </si>
+  <si>
+    <t>HARDW.5</t>
+  </si>
+  <si>
+    <t>HARDW.6</t>
+  </si>
+  <si>
+    <t>HARDW.7</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>2.2.1.1</t>
+  </si>
+  <si>
+    <t>2.2.1.2</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
+  </si>
+  <si>
+    <t>2.2.5</t>
+  </si>
+  <si>
+    <t>2.3.1.</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>3.3.1.1</t>
+  </si>
+  <si>
+    <t>3.3.1.2</t>
+  </si>
+  <si>
+    <t>3.3.1.3</t>
+  </si>
+  <si>
+    <t>3.3.2</t>
+  </si>
+  <si>
+    <t>4.1.1.1</t>
+  </si>
+  <si>
+    <t>4.1.1.2</t>
+  </si>
+  <si>
+    <t>4.1.2.1</t>
+  </si>
+  <si>
+    <t>4.1.2.2</t>
+  </si>
+  <si>
+    <t>4.1.2.3</t>
+  </si>
+  <si>
+    <t>4.1.2.4</t>
+  </si>
+  <si>
+    <t>4.1.3.1</t>
+  </si>
+  <si>
+    <t>4.1.3.2</t>
+  </si>
+  <si>
+    <t>4.1.3.3</t>
+  </si>
+  <si>
+    <t>4.2.1.1</t>
+  </si>
+  <si>
+    <t>4.2.1.2</t>
+  </si>
+  <si>
+    <t>4.2.2.1</t>
+  </si>
+  <si>
+    <t>4.2.2.2</t>
+  </si>
+  <si>
+    <t>4.2.2.3</t>
+  </si>
+  <si>
+    <t>4.2.3.1</t>
+  </si>
+  <si>
+    <t>4.2.3.2</t>
+  </si>
+  <si>
+    <t>4.2.3.3</t>
+  </si>
+  <si>
+    <t>4.2.3.4</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>5.1.2</t>
+  </si>
+  <si>
+    <t>5.1.3</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>6.1.2</t>
+  </si>
+  <si>
+    <t>6.1.3</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2.1</t>
+  </si>
+  <si>
+    <t>7.2.2</t>
+  </si>
+  <si>
+    <t>7.3.1</t>
+  </si>
+  <si>
+    <t>7.3.2</t>
+  </si>
+  <si>
+    <t>7.4.1</t>
+  </si>
+  <si>
+    <t>7.4.2</t>
+  </si>
+  <si>
+    <t>DAYS</t>
+  </si>
+  <si>
+    <t>HOURS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORNADA </t>
+  </si>
+  <si>
+    <t>horas</t>
+  </si>
+  <si>
+    <t>HORAS POR EMPLEADO</t>
+  </si>
+  <si>
+    <t>COSTE PERSONAL</t>
+  </si>
+  <si>
+    <t>€/h</t>
+  </si>
+  <si>
+    <t>COSTE SOFTWARE</t>
+  </si>
+  <si>
+    <t>COSTE HARDWARE</t>
+  </si>
+  <si>
+    <t>COSTE OTROS EQUIPOS</t>
+  </si>
+  <si>
+    <t>COSTE TOTAL</t>
+  </si>
+  <si>
+    <t>HARDW.3</t>
+  </si>
+  <si>
+    <t>ORDEN TAREA</t>
+  </si>
+  <si>
+    <t>SOFT2</t>
+  </si>
+  <si>
+    <t>SOFT4</t>
+  </si>
+  <si>
+    <t>SOFT5</t>
+  </si>
+  <si>
+    <t>SOFT6</t>
+  </si>
+  <si>
+    <t>SOFT7</t>
+  </si>
+  <si>
+    <t>SOFT8</t>
+  </si>
+  <si>
+    <t>SOFT9</t>
+  </si>
+  <si>
+    <t>SOFT10</t>
+  </si>
+  <si>
+    <t>SOFT3</t>
+  </si>
+  <si>
+    <t>SOFT1</t>
+  </si>
+  <si>
+    <t>HARDW1</t>
+  </si>
+  <si>
+    <t>HARDW2</t>
+  </si>
+  <si>
+    <t>HARDW3</t>
+  </si>
+  <si>
+    <t>HARDW4</t>
+  </si>
+  <si>
+    <t>HARDW5</t>
+  </si>
+  <si>
+    <t>HARDW6</t>
+  </si>
+  <si>
+    <t>HARDW7</t>
+  </si>
+  <si>
+    <t>€</t>
   </si>
 </sst>
 </file>
@@ -138,7 +500,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,8 +529,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,12 +559,64 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -195,13 +625,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -578,7 +1028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C498B270-6EB5-C845-9243-E1C485BEDE83}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -864,7 +1314,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -913,4 +1363,3805 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F63103-BA4A-034D-A5D7-99AF2FC30E8C}">
+  <dimension ref="A1:AK65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3.83203125" customWidth="1"/>
+    <col min="6" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="128" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>20</v>
+      </c>
+      <c r="AE2">
+        <f>AD2*DATOS!$B$2</f>
+        <v>160</v>
+      </c>
+      <c r="AF2" s="7">
+        <f>AE2/SUM(C2:E2)</f>
+        <v>80</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>AF2*C2*DATOS!$B$3+'COST PER TASK'!AF2*'COST PER TASK'!D2*DATOS!B4+'COST PER TASK'!AF2*'COST PER TASK'!E2*DATOS!$B$5</f>
+        <v>3280</v>
+      </c>
+      <c r="AH2" s="3">
+        <f>F2*AE2*DATOS!$D$6+'COST PER TASK'!G2*'COST PER TASK'!AE2*DATOS!$D$7+'COST PER TASK'!H2*'COST PER TASK'!AE2*DATOS!$D$8+'COST PER TASK'!I2*'COST PER TASK'!AE2*DATOS!$D$9+'COST PER TASK'!J2*'COST PER TASK'!AE2*DATOS!$D$10+'COST PER TASK'!K2*'COST PER TASK'!AE2*DATOS!$D$11+'COST PER TASK'!L2*'COST PER TASK'!AE2*DATOS!$D$12+'COST PER TASK'!M2*'COST PER TASK'!AE2*DATOS!$D$13+'COST PER TASK'!N2*'COST PER TASK'!AE2*DATOS!$D$14+'COST PER TASK'!O2*'COST PER TASK'!AE2*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="3">
+        <f>'COST PER TASK'!P2*'COST PER TASK'!AE2*DATOS!$D$16+'COST PER TASK'!Q2*'COST PER TASK'!AE2*DATOS!$D$17+'COST PER TASK'!R2*'COST PER TASK'!AE2*DATOS!$D$18+'COST PER TASK'!S2*'COST PER TASK'!AE2*DATOS!$D$19+'COST PER TASK'!T2*'COST PER TASK'!AE2*DATOS!$D$20+'COST PER TASK'!U2*'COST PER TASK'!AE2*DATOS!$D$21+'COST PER TASK'!V2*'COST PER TASK'!AE2*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK2" s="9">
+        <f>AG2+AH2+AI2+AJ2</f>
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>880</v>
+      </c>
+      <c r="AE3">
+        <f>AD3*DATOS!$B$2</f>
+        <v>7040</v>
+      </c>
+      <c r="AF3" s="7">
+        <f t="shared" ref="AF3:AF64" si="0">AE3/SUM(C3:E3)</f>
+        <v>1760</v>
+      </c>
+      <c r="AG3" s="4">
+        <f>AF3*C3*DATOS!$B$3+'COST PER TASK'!AF3*'COST PER TASK'!D3*DATOS!B5+'COST PER TASK'!AF3*'COST PER TASK'!E3*DATOS!$B$5</f>
+        <v>133760</v>
+      </c>
+      <c r="AH3" s="3">
+        <f>F3*AE3*DATOS!$D$6+'COST PER TASK'!G3*'COST PER TASK'!AE3*DATOS!$D$7+'COST PER TASK'!H3*'COST PER TASK'!AE3*DATOS!$D$8+'COST PER TASK'!I3*'COST PER TASK'!AE3*DATOS!$D$9+'COST PER TASK'!J3*'COST PER TASK'!AE3*DATOS!$D$10+'COST PER TASK'!K3*'COST PER TASK'!AE3*DATOS!$D$11+'COST PER TASK'!L3*'COST PER TASK'!AE3*DATOS!$D$12+'COST PER TASK'!M3*'COST PER TASK'!AE3*DATOS!$D$13+'COST PER TASK'!N3*'COST PER TASK'!AE3*DATOS!$D$14+'COST PER TASK'!O3*'COST PER TASK'!AE3*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3">
+        <f>'COST PER TASK'!P3*'COST PER TASK'!AE3*DATOS!$D$16+'COST PER TASK'!Q3*'COST PER TASK'!AE3*DATOS!$D$17+'COST PER TASK'!R3*'COST PER TASK'!AE3*DATOS!$D$18+'COST PER TASK'!S3*'COST PER TASK'!AE3*DATOS!$D$19+'COST PER TASK'!T3*'COST PER TASK'!AE3*DATOS!$D$20+'COST PER TASK'!U3*'COST PER TASK'!AE3*DATOS!$D$21+'COST PER TASK'!V3*'COST PER TASK'!AE3*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="9">
+        <f t="shared" ref="AK3:AK64" si="1">AG3+AH3+AI3+AJ3</f>
+        <v>133760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>880</v>
+      </c>
+      <c r="AE4">
+        <f>AD4*DATOS!$B$2</f>
+        <v>7040</v>
+      </c>
+      <c r="AF4" s="7">
+        <f t="shared" si="0"/>
+        <v>1760</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>AF4*C4*DATOS!$B$3+AF4*D4*DATOS!$B$4+AF4*E4*DATOS!$B$5</f>
+        <v>144320</v>
+      </c>
+      <c r="AH4" s="3">
+        <f>F4*AE4*DATOS!$D$6+'COST PER TASK'!G4*'COST PER TASK'!AE4*DATOS!$D$7+'COST PER TASK'!H4*'COST PER TASK'!AE4*DATOS!$D$8+'COST PER TASK'!I4*'COST PER TASK'!AE4*DATOS!$D$9+'COST PER TASK'!J4*'COST PER TASK'!AE4*DATOS!$D$10+'COST PER TASK'!K4*'COST PER TASK'!AE4*DATOS!$D$11+'COST PER TASK'!L4*'COST PER TASK'!AE4*DATOS!$D$12+'COST PER TASK'!M4*'COST PER TASK'!AE4*DATOS!$D$13+'COST PER TASK'!N4*'COST PER TASK'!AE4*DATOS!$D$14+'COST PER TASK'!O4*'COST PER TASK'!AE4*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3">
+        <f>'COST PER TASK'!P4*'COST PER TASK'!AE4*DATOS!$D$16+'COST PER TASK'!Q4*'COST PER TASK'!AE4*DATOS!$D$17+'COST PER TASK'!R4*'COST PER TASK'!AE4*DATOS!$D$18+'COST PER TASK'!S4*'COST PER TASK'!AE4*DATOS!$D$19+'COST PER TASK'!T4*'COST PER TASK'!AE4*DATOS!$D$20+'COST PER TASK'!U4*'COST PER TASK'!AE4*DATOS!$D$21+'COST PER TASK'!V4*'COST PER TASK'!AE4*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="9">
+        <f t="shared" si="1"/>
+        <v>144320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>880</v>
+      </c>
+      <c r="AE5">
+        <f>AD5*DATOS!$B$2</f>
+        <v>7040</v>
+      </c>
+      <c r="AF5" s="7">
+        <f t="shared" si="0"/>
+        <v>1760</v>
+      </c>
+      <c r="AG5" s="4">
+        <f>AF5*C5*DATOS!$B$3+'COST PER TASK'!AF5*'COST PER TASK'!D5*DATOS!B7+'COST PER TASK'!AF5*'COST PER TASK'!E5*DATOS!$B$5</f>
+        <v>88000</v>
+      </c>
+      <c r="AH5" s="3">
+        <f>F5*AE5*DATOS!$D$6+'COST PER TASK'!G5*'COST PER TASK'!AE5*DATOS!$D$7+'COST PER TASK'!H5*'COST PER TASK'!AE5*DATOS!$D$8+'COST PER TASK'!I5*'COST PER TASK'!AE5*DATOS!$D$9+'COST PER TASK'!J5*'COST PER TASK'!AE5*DATOS!$D$10+'COST PER TASK'!K5*'COST PER TASK'!AE5*DATOS!$D$11+'COST PER TASK'!L5*'COST PER TASK'!AE5*DATOS!$D$12+'COST PER TASK'!M5*'COST PER TASK'!AE5*DATOS!$D$13+'COST PER TASK'!N5*'COST PER TASK'!AE5*DATOS!$D$14+'COST PER TASK'!O5*'COST PER TASK'!AE5*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3">
+        <f>'COST PER TASK'!P5*'COST PER TASK'!AE5*DATOS!$D$16+'COST PER TASK'!Q5*'COST PER TASK'!AE5*DATOS!$D$17+'COST PER TASK'!R5*'COST PER TASK'!AE5*DATOS!$D$18+'COST PER TASK'!S5*'COST PER TASK'!AE5*DATOS!$D$19+'COST PER TASK'!T5*'COST PER TASK'!AE5*DATOS!$D$20+'COST PER TASK'!U5*'COST PER TASK'!AE5*DATOS!$D$21+'COST PER TASK'!V5*'COST PER TASK'!AE5*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="9">
+        <f t="shared" si="1"/>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>880</v>
+      </c>
+      <c r="AE6">
+        <f>AD6*DATOS!$B$2</f>
+        <v>7040</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="0"/>
+        <v>3520</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>AF6*C6*DATOS!$B$3+'COST PER TASK'!AF6*'COST PER TASK'!D6*DATOS!B8+'COST PER TASK'!AF6*'COST PER TASK'!E6*DATOS!$B$5</f>
+        <v>88000</v>
+      </c>
+      <c r="AH6" s="3">
+        <f>F6*AE6*DATOS!$D$6+'COST PER TASK'!G6*'COST PER TASK'!AE6*DATOS!$D$7+'COST PER TASK'!H6*'COST PER TASK'!AE6*DATOS!$D$8+'COST PER TASK'!I6*'COST PER TASK'!AE6*DATOS!$D$9+'COST PER TASK'!J6*'COST PER TASK'!AE6*DATOS!$D$10+'COST PER TASK'!K6*'COST PER TASK'!AE6*DATOS!$D$11+'COST PER TASK'!L6*'COST PER TASK'!AE6*DATOS!$D$12+'COST PER TASK'!M6*'COST PER TASK'!AE6*DATOS!$D$13+'COST PER TASK'!N6*'COST PER TASK'!AE6*DATOS!$D$14+'COST PER TASK'!O6*'COST PER TASK'!AE6*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3">
+        <f>'COST PER TASK'!P6*'COST PER TASK'!AE6*DATOS!$D$16+'COST PER TASK'!Q6*'COST PER TASK'!AE6*DATOS!$D$17+'COST PER TASK'!R6*'COST PER TASK'!AE6*DATOS!$D$18+'COST PER TASK'!S6*'COST PER TASK'!AE6*DATOS!$D$19+'COST PER TASK'!T6*'COST PER TASK'!AE6*DATOS!$D$20+'COST PER TASK'!U6*'COST PER TASK'!AE6*DATOS!$D$21+'COST PER TASK'!V6*'COST PER TASK'!AE6*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="9">
+        <f t="shared" si="1"/>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>30</v>
+      </c>
+      <c r="AE7">
+        <f>AD7*DATOS!$B$2</f>
+        <v>240</v>
+      </c>
+      <c r="AF7" s="7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>AF7*C7*DATOS!$B$3+'COST PER TASK'!AF7*'COST PER TASK'!D7*DATOS!B9+'COST PER TASK'!AF7*'COST PER TASK'!E7*DATOS!$B$5</f>
+        <v>3000</v>
+      </c>
+      <c r="AH7" s="3">
+        <f>F7*AE7*DATOS!$D$6+'COST PER TASK'!G7*'COST PER TASK'!AE7*DATOS!$D$7+'COST PER TASK'!H7*'COST PER TASK'!AE7*DATOS!$D$8+'COST PER TASK'!I7*'COST PER TASK'!AE7*DATOS!$D$9+'COST PER TASK'!J7*'COST PER TASK'!AE7*DATOS!$D$10+'COST PER TASK'!K7*'COST PER TASK'!AE7*DATOS!$D$11+'COST PER TASK'!L7*'COST PER TASK'!AE7*DATOS!$D$12+'COST PER TASK'!M7*'COST PER TASK'!AE7*DATOS!$D$13+'COST PER TASK'!N7*'COST PER TASK'!AE7*DATOS!$D$14+'COST PER TASK'!O7*'COST PER TASK'!AE7*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="3">
+        <f>'COST PER TASK'!P7*'COST PER TASK'!AE7*DATOS!$D$16+'COST PER TASK'!Q7*'COST PER TASK'!AE7*DATOS!$D$17+'COST PER TASK'!R7*'COST PER TASK'!AE7*DATOS!$D$18+'COST PER TASK'!S7*'COST PER TASK'!AE7*DATOS!$D$19+'COST PER TASK'!T7*'COST PER TASK'!AE7*DATOS!$D$20+'COST PER TASK'!U7*'COST PER TASK'!AE7*DATOS!$D$21+'COST PER TASK'!V7*'COST PER TASK'!AE7*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>830</v>
+      </c>
+      <c r="AE8">
+        <f>AD8*DATOS!$B$2</f>
+        <v>6640</v>
+      </c>
+      <c r="AF8" s="7">
+        <f t="shared" si="0"/>
+        <v>3320</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>AF8*C8*DATOS!$B$3+'COST PER TASK'!AF8*'COST PER TASK'!D8*DATOS!B10+'COST PER TASK'!AF8*'COST PER TASK'!E8*DATOS!$B$5</f>
+        <v>83000</v>
+      </c>
+      <c r="AH8" s="3">
+        <f>F8*AE8*DATOS!$D$6+'COST PER TASK'!G8*'COST PER TASK'!AE8*DATOS!$D$7+'COST PER TASK'!H8*'COST PER TASK'!AE8*DATOS!$D$8+'COST PER TASK'!I8*'COST PER TASK'!AE8*DATOS!$D$9+'COST PER TASK'!J8*'COST PER TASK'!AE8*DATOS!$D$10+'COST PER TASK'!K8*'COST PER TASK'!AE8*DATOS!$D$11+'COST PER TASK'!L8*'COST PER TASK'!AE8*DATOS!$D$12+'COST PER TASK'!M8*'COST PER TASK'!AE8*DATOS!$D$13+'COST PER TASK'!N8*'COST PER TASK'!AE8*DATOS!$D$14+'COST PER TASK'!O8*'COST PER TASK'!AE8*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3">
+        <f>'COST PER TASK'!P8*'COST PER TASK'!AE8*DATOS!$D$16+'COST PER TASK'!Q8*'COST PER TASK'!AE8*DATOS!$D$17+'COST PER TASK'!R8*'COST PER TASK'!AE8*DATOS!$D$18+'COST PER TASK'!S8*'COST PER TASK'!AE8*DATOS!$D$19+'COST PER TASK'!T8*'COST PER TASK'!AE8*DATOS!$D$20+'COST PER TASK'!U8*'COST PER TASK'!AE8*DATOS!$D$21+'COST PER TASK'!V8*'COST PER TASK'!AE8*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="9">
+        <f t="shared" si="1"/>
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <f>AD9*DATOS!$B$2</f>
+        <v>16</v>
+      </c>
+      <c r="AF9" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AG9" s="4">
+        <f>AF9*C9*DATOS!$B$3+'COST PER TASK'!AF9*'COST PER TASK'!D9*DATOS!B11+'COST PER TASK'!AF9*'COST PER TASK'!E9*DATOS!$B$5</f>
+        <v>200</v>
+      </c>
+      <c r="AH9" s="3">
+        <f>F9*AE9*DATOS!$D$6+'COST PER TASK'!G9*'COST PER TASK'!AE9*DATOS!$D$7+'COST PER TASK'!H9*'COST PER TASK'!AE9*DATOS!$D$8+'COST PER TASK'!I9*'COST PER TASK'!AE9*DATOS!$D$9+'COST PER TASK'!J9*'COST PER TASK'!AE9*DATOS!$D$10+'COST PER TASK'!K9*'COST PER TASK'!AE9*DATOS!$D$11+'COST PER TASK'!L9*'COST PER TASK'!AE9*DATOS!$D$12+'COST PER TASK'!M9*'COST PER TASK'!AE9*DATOS!$D$13+'COST PER TASK'!N9*'COST PER TASK'!AE9*DATOS!$D$14+'COST PER TASK'!O9*'COST PER TASK'!AE9*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <f>'COST PER TASK'!P9*'COST PER TASK'!AE9*DATOS!$D$16+'COST PER TASK'!Q9*'COST PER TASK'!AE9*DATOS!$D$17+'COST PER TASK'!R9*'COST PER TASK'!AE9*DATOS!$D$18+'COST PER TASK'!S9*'COST PER TASK'!AE9*DATOS!$D$19+'COST PER TASK'!T9*'COST PER TASK'!AE9*DATOS!$D$20+'COST PER TASK'!U9*'COST PER TASK'!AE9*DATOS!$D$21+'COST PER TASK'!V9*'COST PER TASK'!AE9*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="9">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <f>AD10*DATOS!$B$2</f>
+        <v>16</v>
+      </c>
+      <c r="AF10" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AG10" s="4">
+        <f>AF10*C10*DATOS!$B$3+'COST PER TASK'!AF10*'COST PER TASK'!D10*DATOS!B12+'COST PER TASK'!AF10*'COST PER TASK'!E10*DATOS!$B$5</f>
+        <v>200</v>
+      </c>
+      <c r="AH10" s="3">
+        <f>F10*AE10*DATOS!$D$6+'COST PER TASK'!G10*'COST PER TASK'!AE10*DATOS!$D$7+'COST PER TASK'!H10*'COST PER TASK'!AE10*DATOS!$D$8+'COST PER TASK'!I10*'COST PER TASK'!AE10*DATOS!$D$9+'COST PER TASK'!J10*'COST PER TASK'!AE10*DATOS!$D$10+'COST PER TASK'!K10*'COST PER TASK'!AE10*DATOS!$D$11+'COST PER TASK'!L10*'COST PER TASK'!AE10*DATOS!$D$12+'COST PER TASK'!M10*'COST PER TASK'!AE10*DATOS!$D$13+'COST PER TASK'!N10*'COST PER TASK'!AE10*DATOS!$D$14+'COST PER TASK'!O10*'COST PER TASK'!AE10*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3">
+        <f>'COST PER TASK'!P10*'COST PER TASK'!AE10*DATOS!$D$16+'COST PER TASK'!Q10*'COST PER TASK'!AE10*DATOS!$D$17+'COST PER TASK'!R10*'COST PER TASK'!AE10*DATOS!$D$18+'COST PER TASK'!S10*'COST PER TASK'!AE10*DATOS!$D$19+'COST PER TASK'!T10*'COST PER TASK'!AE10*DATOS!$D$20+'COST PER TASK'!U10*'COST PER TASK'!AE10*DATOS!$D$21+'COST PER TASK'!V10*'COST PER TASK'!AE10*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="9">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
+      </c>
+      <c r="AE11">
+        <f>AD11*DATOS!$B$2</f>
+        <v>24</v>
+      </c>
+      <c r="AF11" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AG11" s="4">
+        <f>AF11*C11*DATOS!$B$3+'COST PER TASK'!AF11*'COST PER TASK'!D11*DATOS!B13+'COST PER TASK'!AF11*'COST PER TASK'!E11*DATOS!$B$5</f>
+        <v>300</v>
+      </c>
+      <c r="AH11" s="3">
+        <f>F11*AE11*DATOS!$D$6+'COST PER TASK'!G11*'COST PER TASK'!AE11*DATOS!$D$7+'COST PER TASK'!H11*'COST PER TASK'!AE11*DATOS!$D$8+'COST PER TASK'!I11*'COST PER TASK'!AE11*DATOS!$D$9+'COST PER TASK'!J11*'COST PER TASK'!AE11*DATOS!$D$10+'COST PER TASK'!K11*'COST PER TASK'!AE11*DATOS!$D$11+'COST PER TASK'!L11*'COST PER TASK'!AE11*DATOS!$D$12+'COST PER TASK'!M11*'COST PER TASK'!AE11*DATOS!$D$13+'COST PER TASK'!N11*'COST PER TASK'!AE11*DATOS!$D$14+'COST PER TASK'!O11*'COST PER TASK'!AE11*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3">
+        <f>'COST PER TASK'!P11*'COST PER TASK'!AE11*DATOS!$D$16+'COST PER TASK'!Q11*'COST PER TASK'!AE11*DATOS!$D$17+'COST PER TASK'!R11*'COST PER TASK'!AE11*DATOS!$D$18+'COST PER TASK'!S11*'COST PER TASK'!AE11*DATOS!$D$19+'COST PER TASK'!T11*'COST PER TASK'!AE11*DATOS!$D$20+'COST PER TASK'!U11*'COST PER TASK'!AE11*DATOS!$D$21+'COST PER TASK'!V11*'COST PER TASK'!AE11*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="9">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>5</v>
+      </c>
+      <c r="AE12">
+        <f>AD12*DATOS!$B$2</f>
+        <v>40</v>
+      </c>
+      <c r="AF12" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AG12" s="4">
+        <f>AF12*C12*DATOS!$B$3+'COST PER TASK'!AF12*'COST PER TASK'!D12*DATOS!B14+'COST PER TASK'!AF12*'COST PER TASK'!E12*DATOS!$B$5</f>
+        <v>500</v>
+      </c>
+      <c r="AH12" s="3">
+        <f>F12*AE12*DATOS!$D$6+'COST PER TASK'!G12*'COST PER TASK'!AE12*DATOS!$D$7+'COST PER TASK'!H12*'COST PER TASK'!AE12*DATOS!$D$8+'COST PER TASK'!I12*'COST PER TASK'!AE12*DATOS!$D$9+'COST PER TASK'!J12*'COST PER TASK'!AE12*DATOS!$D$10+'COST PER TASK'!K12*'COST PER TASK'!AE12*DATOS!$D$11+'COST PER TASK'!L12*'COST PER TASK'!AE12*DATOS!$D$12+'COST PER TASK'!M12*'COST PER TASK'!AE12*DATOS!$D$13+'COST PER TASK'!N12*'COST PER TASK'!AE12*DATOS!$D$14+'COST PER TASK'!O12*'COST PER TASK'!AE12*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="3">
+        <f>'COST PER TASK'!P12*'COST PER TASK'!AE12*DATOS!$D$16+'COST PER TASK'!Q12*'COST PER TASK'!AE12*DATOS!$D$17+'COST PER TASK'!R12*'COST PER TASK'!AE12*DATOS!$D$18+'COST PER TASK'!S12*'COST PER TASK'!AE12*DATOS!$D$19+'COST PER TASK'!T12*'COST PER TASK'!AE12*DATOS!$D$20+'COST PER TASK'!U12*'COST PER TASK'!AE12*DATOS!$D$21+'COST PER TASK'!V12*'COST PER TASK'!AE12*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="9">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>5</v>
+      </c>
+      <c r="AE13">
+        <f>AD13*DATOS!$B$2</f>
+        <v>40</v>
+      </c>
+      <c r="AF13" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AG13" s="4">
+        <f>AF13*C13*DATOS!$B$3+'COST PER TASK'!AF13*'COST PER TASK'!D13*DATOS!B15+'COST PER TASK'!AF13*'COST PER TASK'!E13*DATOS!$B$5</f>
+        <v>500</v>
+      </c>
+      <c r="AH13" s="3">
+        <f>F13*AE13*DATOS!$D$6+'COST PER TASK'!G13*'COST PER TASK'!AE13*DATOS!$D$7+'COST PER TASK'!H13*'COST PER TASK'!AE13*DATOS!$D$8+'COST PER TASK'!I13*'COST PER TASK'!AE13*DATOS!$D$9+'COST PER TASK'!J13*'COST PER TASK'!AE13*DATOS!$D$10+'COST PER TASK'!K13*'COST PER TASK'!AE13*DATOS!$D$11+'COST PER TASK'!L13*'COST PER TASK'!AE13*DATOS!$D$12+'COST PER TASK'!M13*'COST PER TASK'!AE13*DATOS!$D$13+'COST PER TASK'!N13*'COST PER TASK'!AE13*DATOS!$D$14+'COST PER TASK'!O13*'COST PER TASK'!AE13*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="3">
+        <f>'COST PER TASK'!P13*'COST PER TASK'!AE13*DATOS!$D$16+'COST PER TASK'!Q13*'COST PER TASK'!AE13*DATOS!$D$17+'COST PER TASK'!R13*'COST PER TASK'!AE13*DATOS!$D$18+'COST PER TASK'!S13*'COST PER TASK'!AE13*DATOS!$D$19+'COST PER TASK'!T13*'COST PER TASK'!AE13*DATOS!$D$20+'COST PER TASK'!U13*'COST PER TASK'!AE13*DATOS!$D$21+'COST PER TASK'!V13*'COST PER TASK'!AE13*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="9">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>3</v>
+      </c>
+      <c r="AE14">
+        <f>AD14*DATOS!$B$2</f>
+        <v>24</v>
+      </c>
+      <c r="AF14" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AG14" s="4">
+        <f>AF14*C14*DATOS!$B$3+'COST PER TASK'!AF14*'COST PER TASK'!D14*DATOS!B16+'COST PER TASK'!AF14*'COST PER TASK'!E14*DATOS!$B$5</f>
+        <v>300</v>
+      </c>
+      <c r="AH14" s="3">
+        <f>F14*AE14*DATOS!$D$6+'COST PER TASK'!G14*'COST PER TASK'!AE14*DATOS!$D$7+'COST PER TASK'!H14*'COST PER TASK'!AE14*DATOS!$D$8+'COST PER TASK'!I14*'COST PER TASK'!AE14*DATOS!$D$9+'COST PER TASK'!J14*'COST PER TASK'!AE14*DATOS!$D$10+'COST PER TASK'!K14*'COST PER TASK'!AE14*DATOS!$D$11+'COST PER TASK'!L14*'COST PER TASK'!AE14*DATOS!$D$12+'COST PER TASK'!M14*'COST PER TASK'!AE14*DATOS!$D$13+'COST PER TASK'!N14*'COST PER TASK'!AE14*DATOS!$D$14+'COST PER TASK'!O14*'COST PER TASK'!AE14*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="3">
+        <f>'COST PER TASK'!P14*'COST PER TASK'!AE14*DATOS!$D$16+'COST PER TASK'!Q14*'COST PER TASK'!AE14*DATOS!$D$17+'COST PER TASK'!R14*'COST PER TASK'!AE14*DATOS!$D$18+'COST PER TASK'!S14*'COST PER TASK'!AE14*DATOS!$D$19+'COST PER TASK'!T14*'COST PER TASK'!AE14*DATOS!$D$20+'COST PER TASK'!U14*'COST PER TASK'!AE14*DATOS!$D$21+'COST PER TASK'!V14*'COST PER TASK'!AE14*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="9">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>880</v>
+      </c>
+      <c r="AE15">
+        <f>AD15*DATOS!$B$2</f>
+        <v>7040</v>
+      </c>
+      <c r="AF15" s="7">
+        <f t="shared" si="0"/>
+        <v>3520</v>
+      </c>
+      <c r="AG15" s="4">
+        <f>AF15*C15*DATOS!$B$3+'COST PER TASK'!AF15*'COST PER TASK'!D15*DATOS!B17+'COST PER TASK'!AF15*'COST PER TASK'!E15*DATOS!$B$5</f>
+        <v>88000</v>
+      </c>
+      <c r="AH15" s="3">
+        <f>F15*AE15*DATOS!$D$6+'COST PER TASK'!G15*'COST PER TASK'!AE15*DATOS!$D$7+'COST PER TASK'!H15*'COST PER TASK'!AE15*DATOS!$D$8+'COST PER TASK'!I15*'COST PER TASK'!AE15*DATOS!$D$9+'COST PER TASK'!J15*'COST PER TASK'!AE15*DATOS!$D$10+'COST PER TASK'!K15*'COST PER TASK'!AE15*DATOS!$D$11+'COST PER TASK'!L15*'COST PER TASK'!AE15*DATOS!$D$12+'COST PER TASK'!M15*'COST PER TASK'!AE15*DATOS!$D$13+'COST PER TASK'!N15*'COST PER TASK'!AE15*DATOS!$D$14+'COST PER TASK'!O15*'COST PER TASK'!AE15*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3">
+        <f>'COST PER TASK'!P15*'COST PER TASK'!AE15*DATOS!$D$16+'COST PER TASK'!Q15*'COST PER TASK'!AE15*DATOS!$D$17+'COST PER TASK'!R15*'COST PER TASK'!AE15*DATOS!$D$18+'COST PER TASK'!S15*'COST PER TASK'!AE15*DATOS!$D$19+'COST PER TASK'!T15*'COST PER TASK'!AE15*DATOS!$D$20+'COST PER TASK'!U15*'COST PER TASK'!AE15*DATOS!$D$21+'COST PER TASK'!V15*'COST PER TASK'!AE15*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="9">
+        <f t="shared" si="1"/>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>880</v>
+      </c>
+      <c r="AE16">
+        <f>AD16*DATOS!$B$2</f>
+        <v>7040</v>
+      </c>
+      <c r="AF16" s="7">
+        <f t="shared" si="0"/>
+        <v>3520</v>
+      </c>
+      <c r="AG16" s="4">
+        <f>AF16*C16*DATOS!$B$3+'COST PER TASK'!AF16*'COST PER TASK'!D16*DATOS!B18+'COST PER TASK'!AF16*'COST PER TASK'!E16*DATOS!$B$5</f>
+        <v>88000</v>
+      </c>
+      <c r="AH16" s="3">
+        <f>F16*AE16*DATOS!$D$6+'COST PER TASK'!G16*'COST PER TASK'!AE16*DATOS!$D$7+'COST PER TASK'!H16*'COST PER TASK'!AE16*DATOS!$D$8+'COST PER TASK'!I16*'COST PER TASK'!AE16*DATOS!$D$9+'COST PER TASK'!J16*'COST PER TASK'!AE16*DATOS!$D$10+'COST PER TASK'!K16*'COST PER TASK'!AE16*DATOS!$D$11+'COST PER TASK'!L16*'COST PER TASK'!AE16*DATOS!$D$12+'COST PER TASK'!M16*'COST PER TASK'!AE16*DATOS!$D$13+'COST PER TASK'!N16*'COST PER TASK'!AE16*DATOS!$D$14+'COST PER TASK'!O16*'COST PER TASK'!AE16*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <f>'COST PER TASK'!P16*'COST PER TASK'!AE16*DATOS!$D$16+'COST PER TASK'!Q16*'COST PER TASK'!AE16*DATOS!$D$17+'COST PER TASK'!R16*'COST PER TASK'!AE16*DATOS!$D$18+'COST PER TASK'!S16*'COST PER TASK'!AE16*DATOS!$D$19+'COST PER TASK'!T16*'COST PER TASK'!AE16*DATOS!$D$20+'COST PER TASK'!U16*'COST PER TASK'!AE16*DATOS!$D$21+'COST PER TASK'!V16*'COST PER TASK'!AE16*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="9">
+        <f t="shared" si="1"/>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>880</v>
+      </c>
+      <c r="AE17">
+        <f>AD17*DATOS!$B$2</f>
+        <v>7040</v>
+      </c>
+      <c r="AF17" s="7">
+        <f t="shared" si="0"/>
+        <v>3520</v>
+      </c>
+      <c r="AG17" s="4">
+        <f>AF17*C17*DATOS!$B$3+'COST PER TASK'!AF17*'COST PER TASK'!D17*DATOS!B19+'COST PER TASK'!AF17*'COST PER TASK'!E17*DATOS!$B$5</f>
+        <v>88000</v>
+      </c>
+      <c r="AH17" s="3">
+        <f>F17*AE17*DATOS!$D$6+'COST PER TASK'!G17*'COST PER TASK'!AE17*DATOS!$D$7+'COST PER TASK'!H17*'COST PER TASK'!AE17*DATOS!$D$8+'COST PER TASK'!I17*'COST PER TASK'!AE17*DATOS!$D$9+'COST PER TASK'!J17*'COST PER TASK'!AE17*DATOS!$D$10+'COST PER TASK'!K17*'COST PER TASK'!AE17*DATOS!$D$11+'COST PER TASK'!L17*'COST PER TASK'!AE17*DATOS!$D$12+'COST PER TASK'!M17*'COST PER TASK'!AE17*DATOS!$D$13+'COST PER TASK'!N17*'COST PER TASK'!AE17*DATOS!$D$14+'COST PER TASK'!O17*'COST PER TASK'!AE17*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3">
+        <f>'COST PER TASK'!P17*'COST PER TASK'!AE17*DATOS!$D$16+'COST PER TASK'!Q17*'COST PER TASK'!AE17*DATOS!$D$17+'COST PER TASK'!R17*'COST PER TASK'!AE17*DATOS!$D$18+'COST PER TASK'!S17*'COST PER TASK'!AE17*DATOS!$D$19+'COST PER TASK'!T17*'COST PER TASK'!AE17*DATOS!$D$20+'COST PER TASK'!U17*'COST PER TASK'!AE17*DATOS!$D$21+'COST PER TASK'!V17*'COST PER TASK'!AE17*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="9">
+        <f t="shared" si="1"/>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>880</v>
+      </c>
+      <c r="AE18">
+        <f>AD18*DATOS!$B$2</f>
+        <v>7040</v>
+      </c>
+      <c r="AF18" s="7">
+        <f t="shared" si="0"/>
+        <v>3520</v>
+      </c>
+      <c r="AG18" s="4">
+        <f>AF18*C18*DATOS!$B$3+'COST PER TASK'!AF18*'COST PER TASK'!D18*DATOS!B20+'COST PER TASK'!AF18*'COST PER TASK'!E18*DATOS!$B$5</f>
+        <v>88000</v>
+      </c>
+      <c r="AH18" s="3">
+        <f>F18*AE18*DATOS!$D$6+'COST PER TASK'!G18*'COST PER TASK'!AE18*DATOS!$D$7+'COST PER TASK'!H18*'COST PER TASK'!AE18*DATOS!$D$8+'COST PER TASK'!I18*'COST PER TASK'!AE18*DATOS!$D$9+'COST PER TASK'!J18*'COST PER TASK'!AE18*DATOS!$D$10+'COST PER TASK'!K18*'COST PER TASK'!AE18*DATOS!$D$11+'COST PER TASK'!L18*'COST PER TASK'!AE18*DATOS!$D$12+'COST PER TASK'!M18*'COST PER TASK'!AE18*DATOS!$D$13+'COST PER TASK'!N18*'COST PER TASK'!AE18*DATOS!$D$14+'COST PER TASK'!O18*'COST PER TASK'!AE18*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3">
+        <f>'COST PER TASK'!P18*'COST PER TASK'!AE18*DATOS!$D$16+'COST PER TASK'!Q18*'COST PER TASK'!AE18*DATOS!$D$17+'COST PER TASK'!R18*'COST PER TASK'!AE18*DATOS!$D$18+'COST PER TASK'!S18*'COST PER TASK'!AE18*DATOS!$D$19+'COST PER TASK'!T18*'COST PER TASK'!AE18*DATOS!$D$20+'COST PER TASK'!U18*'COST PER TASK'!AE18*DATOS!$D$21+'COST PER TASK'!V18*'COST PER TASK'!AE18*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="9">
+        <f t="shared" si="1"/>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>880</v>
+      </c>
+      <c r="AE19">
+        <f>AD19*DATOS!$B$2</f>
+        <v>7040</v>
+      </c>
+      <c r="AF19" s="7">
+        <f t="shared" si="0"/>
+        <v>3520</v>
+      </c>
+      <c r="AG19" s="4">
+        <f>AF19*C19*DATOS!$B$3+'COST PER TASK'!AF19*'COST PER TASK'!D19*DATOS!B21+'COST PER TASK'!AF19*'COST PER TASK'!E19*DATOS!$B$5</f>
+        <v>88000</v>
+      </c>
+      <c r="AH19" s="3">
+        <f>F19*AE19*DATOS!$D$6+'COST PER TASK'!G19*'COST PER TASK'!AE19*DATOS!$D$7+'COST PER TASK'!H19*'COST PER TASK'!AE19*DATOS!$D$8+'COST PER TASK'!I19*'COST PER TASK'!AE19*DATOS!$D$9+'COST PER TASK'!J19*'COST PER TASK'!AE19*DATOS!$D$10+'COST PER TASK'!K19*'COST PER TASK'!AE19*DATOS!$D$11+'COST PER TASK'!L19*'COST PER TASK'!AE19*DATOS!$D$12+'COST PER TASK'!M19*'COST PER TASK'!AE19*DATOS!$D$13+'COST PER TASK'!N19*'COST PER TASK'!AE19*DATOS!$D$14+'COST PER TASK'!O19*'COST PER TASK'!AE19*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <f>'COST PER TASK'!P19*'COST PER TASK'!AE19*DATOS!$D$16+'COST PER TASK'!Q19*'COST PER TASK'!AE19*DATOS!$D$17+'COST PER TASK'!R19*'COST PER TASK'!AE19*DATOS!$D$18+'COST PER TASK'!S19*'COST PER TASK'!AE19*DATOS!$D$19+'COST PER TASK'!T19*'COST PER TASK'!AE19*DATOS!$D$20+'COST PER TASK'!U19*'COST PER TASK'!AE19*DATOS!$D$21+'COST PER TASK'!V19*'COST PER TASK'!AE19*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="9">
+        <f t="shared" si="1"/>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>30</v>
+      </c>
+      <c r="AE20">
+        <f>AD20*DATOS!$B$2</f>
+        <v>240</v>
+      </c>
+      <c r="AF20" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AG20" s="4">
+        <f>AF20*C20*DATOS!$B$3+'COST PER TASK'!AF20*'COST PER TASK'!D20*DATOS!B22+'COST PER TASK'!AF20*'COST PER TASK'!E20*DATOS!$B$5</f>
+        <v>2448</v>
+      </c>
+      <c r="AH20" s="3">
+        <f>F20*AE20*DATOS!$D$6+'COST PER TASK'!G20*'COST PER TASK'!AE20*DATOS!$D$7+'COST PER TASK'!H20*'COST PER TASK'!AE20*DATOS!$D$8+'COST PER TASK'!I20*'COST PER TASK'!AE20*DATOS!$D$9+'COST PER TASK'!J20*'COST PER TASK'!AE20*DATOS!$D$10+'COST PER TASK'!K20*'COST PER TASK'!AE20*DATOS!$D$11+'COST PER TASK'!L20*'COST PER TASK'!AE20*DATOS!$D$12+'COST PER TASK'!M20*'COST PER TASK'!AE20*DATOS!$D$13+'COST PER TASK'!N20*'COST PER TASK'!AE20*DATOS!$D$14+'COST PER TASK'!O20*'COST PER TASK'!AE20*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="3">
+        <f>'COST PER TASK'!P20*'COST PER TASK'!AE20*DATOS!$D$16+'COST PER TASK'!Q20*'COST PER TASK'!AE20*DATOS!$D$17+'COST PER TASK'!R20*'COST PER TASK'!AE20*DATOS!$D$18+'COST PER TASK'!S20*'COST PER TASK'!AE20*DATOS!$D$19+'COST PER TASK'!T20*'COST PER TASK'!AE20*DATOS!$D$20+'COST PER TASK'!U20*'COST PER TASK'!AE20*DATOS!$D$21+'COST PER TASK'!V20*'COST PER TASK'!AE20*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="9">
+        <f t="shared" si="1"/>
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>25</v>
+      </c>
+      <c r="AE21">
+        <f>AD21*DATOS!$B$2</f>
+        <v>200</v>
+      </c>
+      <c r="AF21" s="7">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="AG21" s="4">
+        <f>AF21*C21*DATOS!$B$3+'COST PER TASK'!AF21*'COST PER TASK'!D21*DATOS!B23+'COST PER TASK'!AF21*'COST PER TASK'!E21*DATOS!$B$5</f>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="AH21" s="3">
+        <f>F21*AE21*DATOS!$D$6+'COST PER TASK'!G21*'COST PER TASK'!AE21*DATOS!$D$7+'COST PER TASK'!H21*'COST PER TASK'!AE21*DATOS!$D$8+'COST PER TASK'!I21*'COST PER TASK'!AE21*DATOS!$D$9+'COST PER TASK'!J21*'COST PER TASK'!AE21*DATOS!$D$10+'COST PER TASK'!K21*'COST PER TASK'!AE21*DATOS!$D$11+'COST PER TASK'!L21*'COST PER TASK'!AE21*DATOS!$D$12+'COST PER TASK'!M21*'COST PER TASK'!AE21*DATOS!$D$13+'COST PER TASK'!N21*'COST PER TASK'!AE21*DATOS!$D$14+'COST PER TASK'!O21*'COST PER TASK'!AE21*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3">
+        <f>'COST PER TASK'!P21*'COST PER TASK'!AE21*DATOS!$D$16+'COST PER TASK'!Q21*'COST PER TASK'!AE21*DATOS!$D$17+'COST PER TASK'!R21*'COST PER TASK'!AE21*DATOS!$D$18+'COST PER TASK'!S21*'COST PER TASK'!AE21*DATOS!$D$19+'COST PER TASK'!T21*'COST PER TASK'!AE21*DATOS!$D$20+'COST PER TASK'!U21*'COST PER TASK'!AE21*DATOS!$D$21+'COST PER TASK'!V21*'COST PER TASK'!AE21*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="9">
+        <f t="shared" si="1"/>
+        <v>1666.6666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>25</v>
+      </c>
+      <c r="AE22">
+        <f>AD22*DATOS!$B$2</f>
+        <v>200</v>
+      </c>
+      <c r="AF22" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AG22" s="4">
+        <f>AF22*C22*DATOS!$B$3+'COST PER TASK'!AF22*'COST PER TASK'!D22*DATOS!B24+'COST PER TASK'!AF22*'COST PER TASK'!E22*DATOS!$B$5</f>
+        <v>2040</v>
+      </c>
+      <c r="AH22" s="3">
+        <f>F22*AE22*DATOS!$D$6+'COST PER TASK'!G22*'COST PER TASK'!AE22*DATOS!$D$7+'COST PER TASK'!H22*'COST PER TASK'!AE22*DATOS!$D$8+'COST PER TASK'!I22*'COST PER TASK'!AE22*DATOS!$D$9+'COST PER TASK'!J22*'COST PER TASK'!AE22*DATOS!$D$10+'COST PER TASK'!K22*'COST PER TASK'!AE22*DATOS!$D$11+'COST PER TASK'!L22*'COST PER TASK'!AE22*DATOS!$D$12+'COST PER TASK'!M22*'COST PER TASK'!AE22*DATOS!$D$13+'COST PER TASK'!N22*'COST PER TASK'!AE22*DATOS!$D$14+'COST PER TASK'!O22*'COST PER TASK'!AE22*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
+        <f>'COST PER TASK'!P22*'COST PER TASK'!AE22*DATOS!$D$16+'COST PER TASK'!Q22*'COST PER TASK'!AE22*DATOS!$D$17+'COST PER TASK'!R22*'COST PER TASK'!AE22*DATOS!$D$18+'COST PER TASK'!S22*'COST PER TASK'!AE22*DATOS!$D$19+'COST PER TASK'!T22*'COST PER TASK'!AE22*DATOS!$D$20+'COST PER TASK'!U22*'COST PER TASK'!AE22*DATOS!$D$21+'COST PER TASK'!V22*'COST PER TASK'!AE22*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="9">
+        <f t="shared" si="1"/>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>30</v>
+      </c>
+      <c r="AE23">
+        <f>AD23*DATOS!$B$2</f>
+        <v>240</v>
+      </c>
+      <c r="AF23" s="7">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="AG23" s="4">
+        <f>AF23*C23*DATOS!$B$3+'COST PER TASK'!AF23*'COST PER TASK'!D23*DATOS!B25+'COST PER TASK'!AF23*'COST PER TASK'!E23*DATOS!$B$5</f>
+        <v>2000</v>
+      </c>
+      <c r="AH23" s="3">
+        <f>F23*AE23*DATOS!$D$6+'COST PER TASK'!G23*'COST PER TASK'!AE23*DATOS!$D$7+'COST PER TASK'!H23*'COST PER TASK'!AE23*DATOS!$D$8+'COST PER TASK'!I23*'COST PER TASK'!AE23*DATOS!$D$9+'COST PER TASK'!J23*'COST PER TASK'!AE23*DATOS!$D$10+'COST PER TASK'!K23*'COST PER TASK'!AE23*DATOS!$D$11+'COST PER TASK'!L23*'COST PER TASK'!AE23*DATOS!$D$12+'COST PER TASK'!M23*'COST PER TASK'!AE23*DATOS!$D$13+'COST PER TASK'!N23*'COST PER TASK'!AE23*DATOS!$D$14+'COST PER TASK'!O23*'COST PER TASK'!AE23*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="3">
+        <f>'COST PER TASK'!P23*'COST PER TASK'!AE23*DATOS!$D$16+'COST PER TASK'!Q23*'COST PER TASK'!AE23*DATOS!$D$17+'COST PER TASK'!R23*'COST PER TASK'!AE23*DATOS!$D$18+'COST PER TASK'!S23*'COST PER TASK'!AE23*DATOS!$D$19+'COST PER TASK'!T23*'COST PER TASK'!AE23*DATOS!$D$20+'COST PER TASK'!U23*'COST PER TASK'!AE23*DATOS!$D$21+'COST PER TASK'!V23*'COST PER TASK'!AE23*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="9">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>20</v>
+      </c>
+      <c r="AE24">
+        <f>AD24*DATOS!$B$2</f>
+        <v>160</v>
+      </c>
+      <c r="AF24" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AG24" s="4">
+        <f>AF24*C24*DATOS!$B$3+'COST PER TASK'!AF24*'COST PER TASK'!D24*DATOS!B26+'COST PER TASK'!AF24*'COST PER TASK'!E24*DATOS!$B$5</f>
+        <v>1632</v>
+      </c>
+      <c r="AH24" s="3">
+        <f>F24*AE24*DATOS!$D$6+'COST PER TASK'!G24*'COST PER TASK'!AE24*DATOS!$D$7+'COST PER TASK'!H24*'COST PER TASK'!AE24*DATOS!$D$8+'COST PER TASK'!I24*'COST PER TASK'!AE24*DATOS!$D$9+'COST PER TASK'!J24*'COST PER TASK'!AE24*DATOS!$D$10+'COST PER TASK'!K24*'COST PER TASK'!AE24*DATOS!$D$11+'COST PER TASK'!L24*'COST PER TASK'!AE24*DATOS!$D$12+'COST PER TASK'!M24*'COST PER TASK'!AE24*DATOS!$D$13+'COST PER TASK'!N24*'COST PER TASK'!AE24*DATOS!$D$14+'COST PER TASK'!O24*'COST PER TASK'!AE24*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3">
+        <f>'COST PER TASK'!P24*'COST PER TASK'!AE24*DATOS!$D$16+'COST PER TASK'!Q24*'COST PER TASK'!AE24*DATOS!$D$17+'COST PER TASK'!R24*'COST PER TASK'!AE24*DATOS!$D$18+'COST PER TASK'!S24*'COST PER TASK'!AE24*DATOS!$D$19+'COST PER TASK'!T24*'COST PER TASK'!AE24*DATOS!$D$20+'COST PER TASK'!U24*'COST PER TASK'!AE24*DATOS!$D$21+'COST PER TASK'!V24*'COST PER TASK'!AE24*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="9">
+        <f t="shared" si="1"/>
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>20</v>
+      </c>
+      <c r="AE25">
+        <f>AD25*DATOS!$B$2</f>
+        <v>160</v>
+      </c>
+      <c r="AF25" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AG25" s="4">
+        <f>AF25*C25*DATOS!$B$3+'COST PER TASK'!AF25*'COST PER TASK'!D25*DATOS!B27+'COST PER TASK'!AF25*'COST PER TASK'!E25*DATOS!$B$5</f>
+        <v>1632</v>
+      </c>
+      <c r="AH25" s="3">
+        <f>F25*AE25*DATOS!$D$6+'COST PER TASK'!G25*'COST PER TASK'!AE25*DATOS!$D$7+'COST PER TASK'!H25*'COST PER TASK'!AE25*DATOS!$D$8+'COST PER TASK'!I25*'COST PER TASK'!AE25*DATOS!$D$9+'COST PER TASK'!J25*'COST PER TASK'!AE25*DATOS!$D$10+'COST PER TASK'!K25*'COST PER TASK'!AE25*DATOS!$D$11+'COST PER TASK'!L25*'COST PER TASK'!AE25*DATOS!$D$12+'COST PER TASK'!M25*'COST PER TASK'!AE25*DATOS!$D$13+'COST PER TASK'!N25*'COST PER TASK'!AE25*DATOS!$D$14+'COST PER TASK'!O25*'COST PER TASK'!AE25*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="3">
+        <f>'COST PER TASK'!P25*'COST PER TASK'!AE25*DATOS!$D$16+'COST PER TASK'!Q25*'COST PER TASK'!AE25*DATOS!$D$17+'COST PER TASK'!R25*'COST PER TASK'!AE25*DATOS!$D$18+'COST PER TASK'!S25*'COST PER TASK'!AE25*DATOS!$D$19+'COST PER TASK'!T25*'COST PER TASK'!AE25*DATOS!$D$20+'COST PER TASK'!U25*'COST PER TASK'!AE25*DATOS!$D$21+'COST PER TASK'!V25*'COST PER TASK'!AE25*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="9">
+        <f t="shared" si="1"/>
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>20</v>
+      </c>
+      <c r="AE26">
+        <f>AD26*DATOS!$B$2</f>
+        <v>160</v>
+      </c>
+      <c r="AF26" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AG26" s="4">
+        <f>AF26*C26*DATOS!$B$3+'COST PER TASK'!AF26*'COST PER TASK'!D26*DATOS!B28+'COST PER TASK'!AF26*'COST PER TASK'!E26*DATOS!$B$5</f>
+        <v>1632</v>
+      </c>
+      <c r="AH26" s="3">
+        <f>F26*AE26*DATOS!$D$6+'COST PER TASK'!G26*'COST PER TASK'!AE26*DATOS!$D$7+'COST PER TASK'!H26*'COST PER TASK'!AE26*DATOS!$D$8+'COST PER TASK'!I26*'COST PER TASK'!AE26*DATOS!$D$9+'COST PER TASK'!J26*'COST PER TASK'!AE26*DATOS!$D$10+'COST PER TASK'!K26*'COST PER TASK'!AE26*DATOS!$D$11+'COST PER TASK'!L26*'COST PER TASK'!AE26*DATOS!$D$12+'COST PER TASK'!M26*'COST PER TASK'!AE26*DATOS!$D$13+'COST PER TASK'!N26*'COST PER TASK'!AE26*DATOS!$D$14+'COST PER TASK'!O26*'COST PER TASK'!AE26*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="3">
+        <f>'COST PER TASK'!P26*'COST PER TASK'!AE26*DATOS!$D$16+'COST PER TASK'!Q26*'COST PER TASK'!AE26*DATOS!$D$17+'COST PER TASK'!R26*'COST PER TASK'!AE26*DATOS!$D$18+'COST PER TASK'!S26*'COST PER TASK'!AE26*DATOS!$D$19+'COST PER TASK'!T26*'COST PER TASK'!AE26*DATOS!$D$20+'COST PER TASK'!U26*'COST PER TASK'!AE26*DATOS!$D$21+'COST PER TASK'!V26*'COST PER TASK'!AE26*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="9">
+        <f t="shared" si="1"/>
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>40</v>
+      </c>
+      <c r="AE27">
+        <f>AD27*DATOS!$B$2</f>
+        <v>320</v>
+      </c>
+      <c r="AF27" s="7">
+        <f t="shared" si="0"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="AG27" s="4">
+        <f>AF27*C27*DATOS!$B$3+'COST PER TASK'!AF27*'COST PER TASK'!D27*DATOS!B29+'COST PER TASK'!AF27*'COST PER TASK'!E27*DATOS!$B$5</f>
+        <v>2666.666666666667</v>
+      </c>
+      <c r="AH27" s="3">
+        <f>F27*AE27*DATOS!$D$6+'COST PER TASK'!G27*'COST PER TASK'!AE27*DATOS!$D$7+'COST PER TASK'!H27*'COST PER TASK'!AE27*DATOS!$D$8+'COST PER TASK'!I27*'COST PER TASK'!AE27*DATOS!$D$9+'COST PER TASK'!J27*'COST PER TASK'!AE27*DATOS!$D$10+'COST PER TASK'!K27*'COST PER TASK'!AE27*DATOS!$D$11+'COST PER TASK'!L27*'COST PER TASK'!AE27*DATOS!$D$12+'COST PER TASK'!M27*'COST PER TASK'!AE27*DATOS!$D$13+'COST PER TASK'!N27*'COST PER TASK'!AE27*DATOS!$D$14+'COST PER TASK'!O27*'COST PER TASK'!AE27*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="3">
+        <f>'COST PER TASK'!P27*'COST PER TASK'!AE27*DATOS!$D$16+'COST PER TASK'!Q27*'COST PER TASK'!AE27*DATOS!$D$17+'COST PER TASK'!R27*'COST PER TASK'!AE27*DATOS!$D$18+'COST PER TASK'!S27*'COST PER TASK'!AE27*DATOS!$D$19+'COST PER TASK'!T27*'COST PER TASK'!AE27*DATOS!$D$20+'COST PER TASK'!U27*'COST PER TASK'!AE27*DATOS!$D$21+'COST PER TASK'!V27*'COST PER TASK'!AE27*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="9">
+        <f t="shared" si="1"/>
+        <v>2666.666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>5</v>
+      </c>
+      <c r="AD28">
+        <v>30</v>
+      </c>
+      <c r="AE28">
+        <f>AD28*DATOS!$B$2</f>
+        <v>240</v>
+      </c>
+      <c r="AF28" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AG28" s="4">
+        <f>AF28*C28*DATOS!$B$3+'COST PER TASK'!AF28*'COST PER TASK'!D28*DATOS!B30+'COST PER TASK'!AF28*'COST PER TASK'!E28*DATOS!$B$5</f>
+        <v>1500</v>
+      </c>
+      <c r="AH28" s="3">
+        <f>F28*AE28*DATOS!$D$6+'COST PER TASK'!G28*'COST PER TASK'!AE28*DATOS!$D$7+'COST PER TASK'!H28*'COST PER TASK'!AE28*DATOS!$D$8+'COST PER TASK'!I28*'COST PER TASK'!AE28*DATOS!$D$9+'COST PER TASK'!J28*'COST PER TASK'!AE28*DATOS!$D$10+'COST PER TASK'!K28*'COST PER TASK'!AE28*DATOS!$D$11+'COST PER TASK'!L28*'COST PER TASK'!AE28*DATOS!$D$12+'COST PER TASK'!M28*'COST PER TASK'!AE28*DATOS!$D$13+'COST PER TASK'!N28*'COST PER TASK'!AE28*DATOS!$D$14+'COST PER TASK'!O28*'COST PER TASK'!AE28*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="3">
+        <f>'COST PER TASK'!P28*'COST PER TASK'!AE28*DATOS!$D$16+'COST PER TASK'!Q28*'COST PER TASK'!AE28*DATOS!$D$17+'COST PER TASK'!R28*'COST PER TASK'!AE28*DATOS!$D$18+'COST PER TASK'!S28*'COST PER TASK'!AE28*DATOS!$D$19+'COST PER TASK'!T28*'COST PER TASK'!AE28*DATOS!$D$20+'COST PER TASK'!U28*'COST PER TASK'!AE28*DATOS!$D$21+'COST PER TASK'!V28*'COST PER TASK'!AE28*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="9">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>5</v>
+      </c>
+      <c r="AD29">
+        <v>50</v>
+      </c>
+      <c r="AE29">
+        <f>AD29*DATOS!$B$2</f>
+        <v>400</v>
+      </c>
+      <c r="AF29" s="7">
+        <f t="shared" si="0"/>
+        <v>57.142857142857146</v>
+      </c>
+      <c r="AG29" s="4">
+        <f>AF29*C29*DATOS!$B$3+'COST PER TASK'!AF29*'COST PER TASK'!D29*DATOS!B31+'COST PER TASK'!AF29*'COST PER TASK'!E29*DATOS!$B$5</f>
+        <v>2914.2857142857147</v>
+      </c>
+      <c r="AH29" s="3">
+        <f>F29*AE29*DATOS!$D$6+'COST PER TASK'!G29*'COST PER TASK'!AE29*DATOS!$D$7+'COST PER TASK'!H29*'COST PER TASK'!AE29*DATOS!$D$8+'COST PER TASK'!I29*'COST PER TASK'!AE29*DATOS!$D$9+'COST PER TASK'!J29*'COST PER TASK'!AE29*DATOS!$D$10+'COST PER TASK'!K29*'COST PER TASK'!AE29*DATOS!$D$11+'COST PER TASK'!L29*'COST PER TASK'!AE29*DATOS!$D$12+'COST PER TASK'!M29*'COST PER TASK'!AE29*DATOS!$D$13+'COST PER TASK'!N29*'COST PER TASK'!AE29*DATOS!$D$14+'COST PER TASK'!O29*'COST PER TASK'!AE29*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="3">
+        <f>'COST PER TASK'!P29*'COST PER TASK'!AE29*DATOS!$D$16+'COST PER TASK'!Q29*'COST PER TASK'!AE29*DATOS!$D$17+'COST PER TASK'!R29*'COST PER TASK'!AE29*DATOS!$D$18+'COST PER TASK'!S29*'COST PER TASK'!AE29*DATOS!$D$19+'COST PER TASK'!T29*'COST PER TASK'!AE29*DATOS!$D$20+'COST PER TASK'!U29*'COST PER TASK'!AE29*DATOS!$D$21+'COST PER TASK'!V29*'COST PER TASK'!AE29*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="9">
+        <f t="shared" si="1"/>
+        <v>2914.2857142857147</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>30</v>
+      </c>
+      <c r="AE30">
+        <f>AD30*DATOS!$B$2</f>
+        <v>240</v>
+      </c>
+      <c r="AF30" s="7">
+        <f t="shared" si="0"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="AG30" s="4">
+        <f>AF30*C30*DATOS!$B$3+'COST PER TASK'!AF30*'COST PER TASK'!D30*DATOS!B32+'COST PER TASK'!AF30*'COST PER TASK'!E30*DATOS!$B$5</f>
+        <v>1748.5714285714284</v>
+      </c>
+      <c r="AH30" s="3">
+        <f>F30*AE30*DATOS!$D$6+'COST PER TASK'!G30*'COST PER TASK'!AE30*DATOS!$D$7+'COST PER TASK'!H30*'COST PER TASK'!AE30*DATOS!$D$8+'COST PER TASK'!I30*'COST PER TASK'!AE30*DATOS!$D$9+'COST PER TASK'!J30*'COST PER TASK'!AE30*DATOS!$D$10+'COST PER TASK'!K30*'COST PER TASK'!AE30*DATOS!$D$11+'COST PER TASK'!L30*'COST PER TASK'!AE30*DATOS!$D$12+'COST PER TASK'!M30*'COST PER TASK'!AE30*DATOS!$D$13+'COST PER TASK'!N30*'COST PER TASK'!AE30*DATOS!$D$14+'COST PER TASK'!O30*'COST PER TASK'!AE30*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="3">
+        <f>'COST PER TASK'!P30*'COST PER TASK'!AE30*DATOS!$D$16+'COST PER TASK'!Q30*'COST PER TASK'!AE30*DATOS!$D$17+'COST PER TASK'!R30*'COST PER TASK'!AE30*DATOS!$D$18+'COST PER TASK'!S30*'COST PER TASK'!AE30*DATOS!$D$19+'COST PER TASK'!T30*'COST PER TASK'!AE30*DATOS!$D$20+'COST PER TASK'!U30*'COST PER TASK'!AE30*DATOS!$D$21+'COST PER TASK'!V30*'COST PER TASK'!AE30*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="9">
+        <f t="shared" si="1"/>
+        <v>1748.5714285714284</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>30</v>
+      </c>
+      <c r="AE31">
+        <f>AD31*DATOS!$B$2</f>
+        <v>240</v>
+      </c>
+      <c r="AF31" s="7">
+        <f t="shared" si="0"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="AG31" s="4">
+        <f>AF31*C31*DATOS!$B$3+'COST PER TASK'!AF31*'COST PER TASK'!D31*DATOS!B33+'COST PER TASK'!AF31*'COST PER TASK'!E31*DATOS!$B$5</f>
+        <v>1748.5714285714284</v>
+      </c>
+      <c r="AH31" s="3">
+        <f>F31*AE31*DATOS!$D$6+'COST PER TASK'!G31*'COST PER TASK'!AE31*DATOS!$D$7+'COST PER TASK'!H31*'COST PER TASK'!AE31*DATOS!$D$8+'COST PER TASK'!I31*'COST PER TASK'!AE31*DATOS!$D$9+'COST PER TASK'!J31*'COST PER TASK'!AE31*DATOS!$D$10+'COST PER TASK'!K31*'COST PER TASK'!AE31*DATOS!$D$11+'COST PER TASK'!L31*'COST PER TASK'!AE31*DATOS!$D$12+'COST PER TASK'!M31*'COST PER TASK'!AE31*DATOS!$D$13+'COST PER TASK'!N31*'COST PER TASK'!AE31*DATOS!$D$14+'COST PER TASK'!O31*'COST PER TASK'!AE31*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="3">
+        <f>'COST PER TASK'!P31*'COST PER TASK'!AE31*DATOS!$D$16+'COST PER TASK'!Q31*'COST PER TASK'!AE31*DATOS!$D$17+'COST PER TASK'!R31*'COST PER TASK'!AE31*DATOS!$D$18+'COST PER TASK'!S31*'COST PER TASK'!AE31*DATOS!$D$19+'COST PER TASK'!T31*'COST PER TASK'!AE31*DATOS!$D$20+'COST PER TASK'!U31*'COST PER TASK'!AE31*DATOS!$D$21+'COST PER TASK'!V31*'COST PER TASK'!AE31*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="9">
+        <f t="shared" si="1"/>
+        <v>1748.5714285714284</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>20</v>
+      </c>
+      <c r="AE32">
+        <f>AD32*DATOS!$B$2</f>
+        <v>160</v>
+      </c>
+      <c r="AF32" s="7">
+        <f t="shared" si="0"/>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="AG32" s="4">
+        <f>AF32*C32*DATOS!$B$3+'COST PER TASK'!AF32*'COST PER TASK'!D32*DATOS!B34+'COST PER TASK'!AF32*'COST PER TASK'!E32*DATOS!$B$5</f>
+        <v>1165.7142857142858</v>
+      </c>
+      <c r="AH32" s="3">
+        <f>F32*AE32*DATOS!$D$6+'COST PER TASK'!G32*'COST PER TASK'!AE32*DATOS!$D$7+'COST PER TASK'!H32*'COST PER TASK'!AE32*DATOS!$D$8+'COST PER TASK'!I32*'COST PER TASK'!AE32*DATOS!$D$9+'COST PER TASK'!J32*'COST PER TASK'!AE32*DATOS!$D$10+'COST PER TASK'!K32*'COST PER TASK'!AE32*DATOS!$D$11+'COST PER TASK'!L32*'COST PER TASK'!AE32*DATOS!$D$12+'COST PER TASK'!M32*'COST PER TASK'!AE32*DATOS!$D$13+'COST PER TASK'!N32*'COST PER TASK'!AE32*DATOS!$D$14+'COST PER TASK'!O32*'COST PER TASK'!AE32*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="3">
+        <f>'COST PER TASK'!P32*'COST PER TASK'!AE32*DATOS!$D$16+'COST PER TASK'!Q32*'COST PER TASK'!AE32*DATOS!$D$17+'COST PER TASK'!R32*'COST PER TASK'!AE32*DATOS!$D$18+'COST PER TASK'!S32*'COST PER TASK'!AE32*DATOS!$D$19+'COST PER TASK'!T32*'COST PER TASK'!AE32*DATOS!$D$20+'COST PER TASK'!U32*'COST PER TASK'!AE32*DATOS!$D$21+'COST PER TASK'!V32*'COST PER TASK'!AE32*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="9">
+        <f t="shared" si="1"/>
+        <v>1165.7142857142858</v>
+      </c>
+    </row>
+    <row r="33" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>10</v>
+      </c>
+      <c r="AE33">
+        <f>AD33*DATOS!$B$2</f>
+        <v>80</v>
+      </c>
+      <c r="AF33" s="7">
+        <f t="shared" si="0"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="AG33" s="4">
+        <f>AF33*C33*DATOS!$B$3+'COST PER TASK'!AF33*'COST PER TASK'!D33*DATOS!B35+'COST PER TASK'!AF33*'COST PER TASK'!E33*DATOS!$B$5</f>
+        <v>666.66666666666674</v>
+      </c>
+      <c r="AH33" s="3">
+        <f>F33*AE33*DATOS!$D$6+'COST PER TASK'!G33*'COST PER TASK'!AE33*DATOS!$D$7+'COST PER TASK'!H33*'COST PER TASK'!AE33*DATOS!$D$8+'COST PER TASK'!I33*'COST PER TASK'!AE33*DATOS!$D$9+'COST PER TASK'!J33*'COST PER TASK'!AE33*DATOS!$D$10+'COST PER TASK'!K33*'COST PER TASK'!AE33*DATOS!$D$11+'COST PER TASK'!L33*'COST PER TASK'!AE33*DATOS!$D$12+'COST PER TASK'!M33*'COST PER TASK'!AE33*DATOS!$D$13+'COST PER TASK'!N33*'COST PER TASK'!AE33*DATOS!$D$14+'COST PER TASK'!O33*'COST PER TASK'!AE33*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="3">
+        <f>'COST PER TASK'!P33*'COST PER TASK'!AE33*DATOS!$D$16+'COST PER TASK'!Q33*'COST PER TASK'!AE33*DATOS!$D$17+'COST PER TASK'!R33*'COST PER TASK'!AE33*DATOS!$D$18+'COST PER TASK'!S33*'COST PER TASK'!AE33*DATOS!$D$19+'COST PER TASK'!T33*'COST PER TASK'!AE33*DATOS!$D$20+'COST PER TASK'!U33*'COST PER TASK'!AE33*DATOS!$D$21+'COST PER TASK'!V33*'COST PER TASK'!AE33*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="9">
+        <f t="shared" si="1"/>
+        <v>666.66666666666674</v>
+      </c>
+    </row>
+    <row r="34" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>20</v>
+      </c>
+      <c r="AE34">
+        <f>AD34*DATOS!$B$2</f>
+        <v>160</v>
+      </c>
+      <c r="AF34" s="7">
+        <f t="shared" si="0"/>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="AG34" s="4">
+        <f>AF34*C34*DATOS!$B$3+'COST PER TASK'!AF34*'COST PER TASK'!D34*DATOS!B36+'COST PER TASK'!AF34*'COST PER TASK'!E34*DATOS!$B$5</f>
+        <v>1165.7142857142858</v>
+      </c>
+      <c r="AH34" s="3">
+        <f>F34*AE34*DATOS!$D$6+'COST PER TASK'!G34*'COST PER TASK'!AE34*DATOS!$D$7+'COST PER TASK'!H34*'COST PER TASK'!AE34*DATOS!$D$8+'COST PER TASK'!I34*'COST PER TASK'!AE34*DATOS!$D$9+'COST PER TASK'!J34*'COST PER TASK'!AE34*DATOS!$D$10+'COST PER TASK'!K34*'COST PER TASK'!AE34*DATOS!$D$11+'COST PER TASK'!L34*'COST PER TASK'!AE34*DATOS!$D$12+'COST PER TASK'!M34*'COST PER TASK'!AE34*DATOS!$D$13+'COST PER TASK'!N34*'COST PER TASK'!AE34*DATOS!$D$14+'COST PER TASK'!O34*'COST PER TASK'!AE34*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="3">
+        <f>'COST PER TASK'!P34*'COST PER TASK'!AE34*DATOS!$D$16+'COST PER TASK'!Q34*'COST PER TASK'!AE34*DATOS!$D$17+'COST PER TASK'!R34*'COST PER TASK'!AE34*DATOS!$D$18+'COST PER TASK'!S34*'COST PER TASK'!AE34*DATOS!$D$19+'COST PER TASK'!T34*'COST PER TASK'!AE34*DATOS!$D$20+'COST PER TASK'!U34*'COST PER TASK'!AE34*DATOS!$D$21+'COST PER TASK'!V34*'COST PER TASK'!AE34*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="9">
+        <f t="shared" si="1"/>
+        <v>1165.7142857142858</v>
+      </c>
+    </row>
+    <row r="35" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>40</v>
+      </c>
+      <c r="AE35">
+        <f>AD35*DATOS!$B$2</f>
+        <v>320</v>
+      </c>
+      <c r="AF35" s="7">
+        <f t="shared" si="0"/>
+        <v>45.714285714285715</v>
+      </c>
+      <c r="AG35" s="4">
+        <f>AF35*C35*DATOS!$B$3+'COST PER TASK'!AF35*'COST PER TASK'!D35*DATOS!B37+'COST PER TASK'!AF35*'COST PER TASK'!E35*DATOS!$B$5</f>
+        <v>2331.4285714285716</v>
+      </c>
+      <c r="AH35" s="3">
+        <f>F35*AE35*DATOS!$D$6+'COST PER TASK'!G35*'COST PER TASK'!AE35*DATOS!$D$7+'COST PER TASK'!H35*'COST PER TASK'!AE35*DATOS!$D$8+'COST PER TASK'!I35*'COST PER TASK'!AE35*DATOS!$D$9+'COST PER TASK'!J35*'COST PER TASK'!AE35*DATOS!$D$10+'COST PER TASK'!K35*'COST PER TASK'!AE35*DATOS!$D$11+'COST PER TASK'!L35*'COST PER TASK'!AE35*DATOS!$D$12+'COST PER TASK'!M35*'COST PER TASK'!AE35*DATOS!$D$13+'COST PER TASK'!N35*'COST PER TASK'!AE35*DATOS!$D$14+'COST PER TASK'!O35*'COST PER TASK'!AE35*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="3">
+        <f>'COST PER TASK'!P35*'COST PER TASK'!AE35*DATOS!$D$16+'COST PER TASK'!Q35*'COST PER TASK'!AE35*DATOS!$D$17+'COST PER TASK'!R35*'COST PER TASK'!AE35*DATOS!$D$18+'COST PER TASK'!S35*'COST PER TASK'!AE35*DATOS!$D$19+'COST PER TASK'!T35*'COST PER TASK'!AE35*DATOS!$D$20+'COST PER TASK'!U35*'COST PER TASK'!AE35*DATOS!$D$21+'COST PER TASK'!V35*'COST PER TASK'!AE35*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="9">
+        <f t="shared" si="1"/>
+        <v>2331.4285714285716</v>
+      </c>
+    </row>
+    <row r="36" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>20</v>
+      </c>
+      <c r="AE36">
+        <f>AD36*DATOS!$B$2</f>
+        <v>160</v>
+      </c>
+      <c r="AF36" s="7">
+        <f t="shared" si="0"/>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="AG36" s="4">
+        <f>AF36*C36*DATOS!$B$3+'COST PER TASK'!AF36*'COST PER TASK'!D36*DATOS!B38+'COST PER TASK'!AF36*'COST PER TASK'!E36*DATOS!$B$5</f>
+        <v>1165.7142857142858</v>
+      </c>
+      <c r="AH36" s="3">
+        <f>F36*AE36*DATOS!$D$6+'COST PER TASK'!G36*'COST PER TASK'!AE36*DATOS!$D$7+'COST PER TASK'!H36*'COST PER TASK'!AE36*DATOS!$D$8+'COST PER TASK'!I36*'COST PER TASK'!AE36*DATOS!$D$9+'COST PER TASK'!J36*'COST PER TASK'!AE36*DATOS!$D$10+'COST PER TASK'!K36*'COST PER TASK'!AE36*DATOS!$D$11+'COST PER TASK'!L36*'COST PER TASK'!AE36*DATOS!$D$12+'COST PER TASK'!M36*'COST PER TASK'!AE36*DATOS!$D$13+'COST PER TASK'!N36*'COST PER TASK'!AE36*DATOS!$D$14+'COST PER TASK'!O36*'COST PER TASK'!AE36*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="3">
+        <f>'COST PER TASK'!P36*'COST PER TASK'!AE36*DATOS!$D$16+'COST PER TASK'!Q36*'COST PER TASK'!AE36*DATOS!$D$17+'COST PER TASK'!R36*'COST PER TASK'!AE36*DATOS!$D$18+'COST PER TASK'!S36*'COST PER TASK'!AE36*DATOS!$D$19+'COST PER TASK'!T36*'COST PER TASK'!AE36*DATOS!$D$20+'COST PER TASK'!U36*'COST PER TASK'!AE36*DATOS!$D$21+'COST PER TASK'!V36*'COST PER TASK'!AE36*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="9">
+        <f t="shared" si="1"/>
+        <v>1165.7142857142858</v>
+      </c>
+    </row>
+    <row r="37" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>5</v>
+      </c>
+      <c r="AD37">
+        <v>200</v>
+      </c>
+      <c r="AE37">
+        <f>AD37*DATOS!$B$2</f>
+        <v>1600</v>
+      </c>
+      <c r="AF37" s="7">
+        <f t="shared" si="0"/>
+        <v>228.57142857142858</v>
+      </c>
+      <c r="AG37" s="4">
+        <f>AF37*C37*DATOS!$B$3+'COST PER TASK'!AF37*'COST PER TASK'!D37*DATOS!B39+'COST PER TASK'!AF37*'COST PER TASK'!E37*DATOS!$B$5</f>
+        <v>11657.142857142859</v>
+      </c>
+      <c r="AH37" s="3">
+        <f>F37*AE37*DATOS!$D$6+'COST PER TASK'!G37*'COST PER TASK'!AE37*DATOS!$D$7+'COST PER TASK'!H37*'COST PER TASK'!AE37*DATOS!$D$8+'COST PER TASK'!I37*'COST PER TASK'!AE37*DATOS!$D$9+'COST PER TASK'!J37*'COST PER TASK'!AE37*DATOS!$D$10+'COST PER TASK'!K37*'COST PER TASK'!AE37*DATOS!$D$11+'COST PER TASK'!L37*'COST PER TASK'!AE37*DATOS!$D$12+'COST PER TASK'!M37*'COST PER TASK'!AE37*DATOS!$D$13+'COST PER TASK'!N37*'COST PER TASK'!AE37*DATOS!$D$14+'COST PER TASK'!O37*'COST PER TASK'!AE37*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="3">
+        <f>'COST PER TASK'!P37*'COST PER TASK'!AE37*DATOS!$D$16+'COST PER TASK'!Q37*'COST PER TASK'!AE37*DATOS!$D$17+'COST PER TASK'!R37*'COST PER TASK'!AE37*DATOS!$D$18+'COST PER TASK'!S37*'COST PER TASK'!AE37*DATOS!$D$19+'COST PER TASK'!T37*'COST PER TASK'!AE37*DATOS!$D$20+'COST PER TASK'!U37*'COST PER TASK'!AE37*DATOS!$D$21+'COST PER TASK'!V37*'COST PER TASK'!AE37*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="9">
+        <f t="shared" si="1"/>
+        <v>11657.142857142859</v>
+      </c>
+    </row>
+    <row r="38" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>60</v>
+      </c>
+      <c r="AE38">
+        <f>AD38*DATOS!$B$2</f>
+        <v>480</v>
+      </c>
+      <c r="AF38" s="7">
+        <f t="shared" si="0"/>
+        <v>68.571428571428569</v>
+      </c>
+      <c r="AG38" s="4">
+        <f>AF38*C38*DATOS!$B$3+'COST PER TASK'!AF38*'COST PER TASK'!D38*DATOS!B40+'COST PER TASK'!AF38*'COST PER TASK'!E38*DATOS!$B$5</f>
+        <v>3497.1428571428569</v>
+      </c>
+      <c r="AH38" s="3">
+        <f>F38*AE38*DATOS!$D$6+'COST PER TASK'!G38*'COST PER TASK'!AE38*DATOS!$D$7+'COST PER TASK'!H38*'COST PER TASK'!AE38*DATOS!$D$8+'COST PER TASK'!I38*'COST PER TASK'!AE38*DATOS!$D$9+'COST PER TASK'!J38*'COST PER TASK'!AE38*DATOS!$D$10+'COST PER TASK'!K38*'COST PER TASK'!AE38*DATOS!$D$11+'COST PER TASK'!L38*'COST PER TASK'!AE38*DATOS!$D$12+'COST PER TASK'!M38*'COST PER TASK'!AE38*DATOS!$D$13+'COST PER TASK'!N38*'COST PER TASK'!AE38*DATOS!$D$14+'COST PER TASK'!O38*'COST PER TASK'!AE38*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="3">
+        <f>'COST PER TASK'!P38*'COST PER TASK'!AE38*DATOS!$D$16+'COST PER TASK'!Q38*'COST PER TASK'!AE38*DATOS!$D$17+'COST PER TASK'!R38*'COST PER TASK'!AE38*DATOS!$D$18+'COST PER TASK'!S38*'COST PER TASK'!AE38*DATOS!$D$19+'COST PER TASK'!T38*'COST PER TASK'!AE38*DATOS!$D$20+'COST PER TASK'!U38*'COST PER TASK'!AE38*DATOS!$D$21+'COST PER TASK'!V38*'COST PER TASK'!AE38*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="9">
+        <f t="shared" si="1"/>
+        <v>3497.1428571428569</v>
+      </c>
+    </row>
+    <row r="39" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AD39">
+        <v>200</v>
+      </c>
+      <c r="AE39">
+        <f>AD39*DATOS!$B$2</f>
+        <v>1600</v>
+      </c>
+      <c r="AF39" s="7">
+        <f t="shared" si="0"/>
+        <v>228.57142857142858</v>
+      </c>
+      <c r="AG39" s="4">
+        <f>AF39*C39*DATOS!$B$3+'COST PER TASK'!AF39*'COST PER TASK'!D39*DATOS!B41+'COST PER TASK'!AF39*'COST PER TASK'!E39*DATOS!$B$5</f>
+        <v>11657.142857142859</v>
+      </c>
+      <c r="AH39" s="3">
+        <f>F39*AE39*DATOS!$D$6+'COST PER TASK'!G39*'COST PER TASK'!AE39*DATOS!$D$7+'COST PER TASK'!H39*'COST PER TASK'!AE39*DATOS!$D$8+'COST PER TASK'!I39*'COST PER TASK'!AE39*DATOS!$D$9+'COST PER TASK'!J39*'COST PER TASK'!AE39*DATOS!$D$10+'COST PER TASK'!K39*'COST PER TASK'!AE39*DATOS!$D$11+'COST PER TASK'!L39*'COST PER TASK'!AE39*DATOS!$D$12+'COST PER TASK'!M39*'COST PER TASK'!AE39*DATOS!$D$13+'COST PER TASK'!N39*'COST PER TASK'!AE39*DATOS!$D$14+'COST PER TASK'!O39*'COST PER TASK'!AE39*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="3">
+        <f>'COST PER TASK'!P39*'COST PER TASK'!AE39*DATOS!$D$16+'COST PER TASK'!Q39*'COST PER TASK'!AE39*DATOS!$D$17+'COST PER TASK'!R39*'COST PER TASK'!AE39*DATOS!$D$18+'COST PER TASK'!S39*'COST PER TASK'!AE39*DATOS!$D$19+'COST PER TASK'!T39*'COST PER TASK'!AE39*DATOS!$D$20+'COST PER TASK'!U39*'COST PER TASK'!AE39*DATOS!$D$21+'COST PER TASK'!V39*'COST PER TASK'!AE39*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK39" s="9">
+        <f t="shared" si="1"/>
+        <v>11657.142857142859</v>
+      </c>
+    </row>
+    <row r="40" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>200</v>
+      </c>
+      <c r="AE40">
+        <f>AD40*DATOS!$B$2</f>
+        <v>1600</v>
+      </c>
+      <c r="AF40" s="7">
+        <f t="shared" si="0"/>
+        <v>228.57142857142858</v>
+      </c>
+      <c r="AG40" s="4">
+        <f>AF40*C40*DATOS!$B$3+'COST PER TASK'!AF40*'COST PER TASK'!D40*DATOS!B42+'COST PER TASK'!AF40*'COST PER TASK'!E40*DATOS!$B$5</f>
+        <v>11657.142857142859</v>
+      </c>
+      <c r="AH40" s="3">
+        <f>F40*AE40*DATOS!$D$6+'COST PER TASK'!G40*'COST PER TASK'!AE40*DATOS!$D$7+'COST PER TASK'!H40*'COST PER TASK'!AE40*DATOS!$D$8+'COST PER TASK'!I40*'COST PER TASK'!AE40*DATOS!$D$9+'COST PER TASK'!J40*'COST PER TASK'!AE40*DATOS!$D$10+'COST PER TASK'!K40*'COST PER TASK'!AE40*DATOS!$D$11+'COST PER TASK'!L40*'COST PER TASK'!AE40*DATOS!$D$12+'COST PER TASK'!M40*'COST PER TASK'!AE40*DATOS!$D$13+'COST PER TASK'!N40*'COST PER TASK'!AE40*DATOS!$D$14+'COST PER TASK'!O40*'COST PER TASK'!AE40*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI40" s="3">
+        <f>'COST PER TASK'!P40*'COST PER TASK'!AE40*DATOS!$D$16+'COST PER TASK'!Q40*'COST PER TASK'!AE40*DATOS!$D$17+'COST PER TASK'!R40*'COST PER TASK'!AE40*DATOS!$D$18+'COST PER TASK'!S40*'COST PER TASK'!AE40*DATOS!$D$19+'COST PER TASK'!T40*'COST PER TASK'!AE40*DATOS!$D$20+'COST PER TASK'!U40*'COST PER TASK'!AE40*DATOS!$D$21+'COST PER TASK'!V40*'COST PER TASK'!AE40*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="9">
+        <f t="shared" si="1"/>
+        <v>11657.142857142859</v>
+      </c>
+    </row>
+    <row r="41" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>60</v>
+      </c>
+      <c r="AE41">
+        <f>AD41*DATOS!$B$2</f>
+        <v>480</v>
+      </c>
+      <c r="AF41" s="7">
+        <f t="shared" si="0"/>
+        <v>68.571428571428569</v>
+      </c>
+      <c r="AG41" s="4">
+        <f>AF41*C41*DATOS!$B$3+'COST PER TASK'!AF41*'COST PER TASK'!D41*DATOS!B43+'COST PER TASK'!AF41*'COST PER TASK'!E41*DATOS!$B$5</f>
+        <v>3497.1428571428569</v>
+      </c>
+      <c r="AH41" s="3">
+        <f>F41*AE41*DATOS!$D$6+'COST PER TASK'!G41*'COST PER TASK'!AE41*DATOS!$D$7+'COST PER TASK'!H41*'COST PER TASK'!AE41*DATOS!$D$8+'COST PER TASK'!I41*'COST PER TASK'!AE41*DATOS!$D$9+'COST PER TASK'!J41*'COST PER TASK'!AE41*DATOS!$D$10+'COST PER TASK'!K41*'COST PER TASK'!AE41*DATOS!$D$11+'COST PER TASK'!L41*'COST PER TASK'!AE41*DATOS!$D$12+'COST PER TASK'!M41*'COST PER TASK'!AE41*DATOS!$D$13+'COST PER TASK'!N41*'COST PER TASK'!AE41*DATOS!$D$14+'COST PER TASK'!O41*'COST PER TASK'!AE41*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI41" s="3">
+        <f>'COST PER TASK'!P41*'COST PER TASK'!AE41*DATOS!$D$16+'COST PER TASK'!Q41*'COST PER TASK'!AE41*DATOS!$D$17+'COST PER TASK'!R41*'COST PER TASK'!AE41*DATOS!$D$18+'COST PER TASK'!S41*'COST PER TASK'!AE41*DATOS!$D$19+'COST PER TASK'!T41*'COST PER TASK'!AE41*DATOS!$D$20+'COST PER TASK'!U41*'COST PER TASK'!AE41*DATOS!$D$21+'COST PER TASK'!V41*'COST PER TASK'!AE41*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK41" s="9">
+        <f t="shared" si="1"/>
+        <v>3497.1428571428569</v>
+      </c>
+    </row>
+    <row r="42" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AD42">
+        <v>100</v>
+      </c>
+      <c r="AE42">
+        <f>AD42*DATOS!$B$2</f>
+        <v>800</v>
+      </c>
+      <c r="AF42" s="7">
+        <f t="shared" si="0"/>
+        <v>114.28571428571429</v>
+      </c>
+      <c r="AG42" s="4">
+        <f>AF42*C42*DATOS!$B$3+'COST PER TASK'!AF42*'COST PER TASK'!D42*DATOS!B44+'COST PER TASK'!AF42*'COST PER TASK'!E42*DATOS!$B$5</f>
+        <v>5828.5714285714294</v>
+      </c>
+      <c r="AH42" s="3">
+        <f>F42*AE42*DATOS!$D$6+'COST PER TASK'!G42*'COST PER TASK'!AE42*DATOS!$D$7+'COST PER TASK'!H42*'COST PER TASK'!AE42*DATOS!$D$8+'COST PER TASK'!I42*'COST PER TASK'!AE42*DATOS!$D$9+'COST PER TASK'!J42*'COST PER TASK'!AE42*DATOS!$D$10+'COST PER TASK'!K42*'COST PER TASK'!AE42*DATOS!$D$11+'COST PER TASK'!L42*'COST PER TASK'!AE42*DATOS!$D$12+'COST PER TASK'!M42*'COST PER TASK'!AE42*DATOS!$D$13+'COST PER TASK'!N42*'COST PER TASK'!AE42*DATOS!$D$14+'COST PER TASK'!O42*'COST PER TASK'!AE42*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="3">
+        <f>'COST PER TASK'!P42*'COST PER TASK'!AE42*DATOS!$D$16+'COST PER TASK'!Q42*'COST PER TASK'!AE42*DATOS!$D$17+'COST PER TASK'!R42*'COST PER TASK'!AE42*DATOS!$D$18+'COST PER TASK'!S42*'COST PER TASK'!AE42*DATOS!$D$19+'COST PER TASK'!T42*'COST PER TASK'!AE42*DATOS!$D$20+'COST PER TASK'!U42*'COST PER TASK'!AE42*DATOS!$D$21+'COST PER TASK'!V42*'COST PER TASK'!AE42*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="9">
+        <f t="shared" si="1"/>
+        <v>5828.5714285714294</v>
+      </c>
+    </row>
+    <row r="43" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AD43">
+        <v>180</v>
+      </c>
+      <c r="AE43">
+        <f>AD43*DATOS!$B$2</f>
+        <v>1440</v>
+      </c>
+      <c r="AF43" s="7">
+        <f t="shared" si="0"/>
+        <v>205.71428571428572</v>
+      </c>
+      <c r="AG43" s="4">
+        <f>AF43*C43*DATOS!$B$3+'COST PER TASK'!AF43*'COST PER TASK'!D43*DATOS!B45+'COST PER TASK'!AF43*'COST PER TASK'!E43*DATOS!$B$5</f>
+        <v>10491.428571428572</v>
+      </c>
+      <c r="AH43" s="3">
+        <f>F43*AE43*DATOS!$D$6+'COST PER TASK'!G43*'COST PER TASK'!AE43*DATOS!$D$7+'COST PER TASK'!H43*'COST PER TASK'!AE43*DATOS!$D$8+'COST PER TASK'!I43*'COST PER TASK'!AE43*DATOS!$D$9+'COST PER TASK'!J43*'COST PER TASK'!AE43*DATOS!$D$10+'COST PER TASK'!K43*'COST PER TASK'!AE43*DATOS!$D$11+'COST PER TASK'!L43*'COST PER TASK'!AE43*DATOS!$D$12+'COST PER TASK'!M43*'COST PER TASK'!AE43*DATOS!$D$13+'COST PER TASK'!N43*'COST PER TASK'!AE43*DATOS!$D$14+'COST PER TASK'!O43*'COST PER TASK'!AE43*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="3">
+        <f>'COST PER TASK'!P43*'COST PER TASK'!AE43*DATOS!$D$16+'COST PER TASK'!Q43*'COST PER TASK'!AE43*DATOS!$D$17+'COST PER TASK'!R43*'COST PER TASK'!AE43*DATOS!$D$18+'COST PER TASK'!S43*'COST PER TASK'!AE43*DATOS!$D$19+'COST PER TASK'!T43*'COST PER TASK'!AE43*DATOS!$D$20+'COST PER TASK'!U43*'COST PER TASK'!AE43*DATOS!$D$21+'COST PER TASK'!V43*'COST PER TASK'!AE43*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="9">
+        <f t="shared" si="1"/>
+        <v>10491.428571428572</v>
+      </c>
+    </row>
+    <row r="44" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AD44">
+        <v>135</v>
+      </c>
+      <c r="AE44">
+        <f>AD44*DATOS!$B$2</f>
+        <v>1080</v>
+      </c>
+      <c r="AF44" s="7">
+        <f t="shared" si="0"/>
+        <v>154.28571428571428</v>
+      </c>
+      <c r="AG44" s="4">
+        <f>AF44*C44*DATOS!$B$3+'COST PER TASK'!AF44*'COST PER TASK'!D44*DATOS!B46+'COST PER TASK'!AF44*'COST PER TASK'!E44*DATOS!$B$5</f>
+        <v>7868.5714285714275</v>
+      </c>
+      <c r="AH44" s="3">
+        <f>F44*AE44*DATOS!$D$6+'COST PER TASK'!G44*'COST PER TASK'!AE44*DATOS!$D$7+'COST PER TASK'!H44*'COST PER TASK'!AE44*DATOS!$D$8+'COST PER TASK'!I44*'COST PER TASK'!AE44*DATOS!$D$9+'COST PER TASK'!J44*'COST PER TASK'!AE44*DATOS!$D$10+'COST PER TASK'!K44*'COST PER TASK'!AE44*DATOS!$D$11+'COST PER TASK'!L44*'COST PER TASK'!AE44*DATOS!$D$12+'COST PER TASK'!M44*'COST PER TASK'!AE44*DATOS!$D$13+'COST PER TASK'!N44*'COST PER TASK'!AE44*DATOS!$D$14+'COST PER TASK'!O44*'COST PER TASK'!AE44*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI44" s="3">
+        <f>'COST PER TASK'!P44*'COST PER TASK'!AE44*DATOS!$D$16+'COST PER TASK'!Q44*'COST PER TASK'!AE44*DATOS!$D$17+'COST PER TASK'!R44*'COST PER TASK'!AE44*DATOS!$D$18+'COST PER TASK'!S44*'COST PER TASK'!AE44*DATOS!$D$19+'COST PER TASK'!T44*'COST PER TASK'!AE44*DATOS!$D$20+'COST PER TASK'!U44*'COST PER TASK'!AE44*DATOS!$D$21+'COST PER TASK'!V44*'COST PER TASK'!AE44*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="9">
+        <f t="shared" si="1"/>
+        <v>7868.5714285714275</v>
+      </c>
+    </row>
+    <row r="45" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="AD45">
+        <v>25</v>
+      </c>
+      <c r="AE45">
+        <f>AD45*DATOS!$B$2</f>
+        <v>200</v>
+      </c>
+      <c r="AF45" s="7">
+        <f t="shared" si="0"/>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="AG45" s="4">
+        <f>AF45*C45*DATOS!$B$3+'COST PER TASK'!AF45*'COST PER TASK'!D45*DATOS!B47+'COST PER TASK'!AF45*'COST PER TASK'!E45*DATOS!$B$5</f>
+        <v>1457.1428571428573</v>
+      </c>
+      <c r="AH45" s="3">
+        <f>F45*AE45*DATOS!$D$6+'COST PER TASK'!G45*'COST PER TASK'!AE45*DATOS!$D$7+'COST PER TASK'!H45*'COST PER TASK'!AE45*DATOS!$D$8+'COST PER TASK'!I45*'COST PER TASK'!AE45*DATOS!$D$9+'COST PER TASK'!J45*'COST PER TASK'!AE45*DATOS!$D$10+'COST PER TASK'!K45*'COST PER TASK'!AE45*DATOS!$D$11+'COST PER TASK'!L45*'COST PER TASK'!AE45*DATOS!$D$12+'COST PER TASK'!M45*'COST PER TASK'!AE45*DATOS!$D$13+'COST PER TASK'!N45*'COST PER TASK'!AE45*DATOS!$D$14+'COST PER TASK'!O45*'COST PER TASK'!AE45*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI45" s="3">
+        <f>'COST PER TASK'!P45*'COST PER TASK'!AE45*DATOS!$D$16+'COST PER TASK'!Q45*'COST PER TASK'!AE45*DATOS!$D$17+'COST PER TASK'!R45*'COST PER TASK'!AE45*DATOS!$D$18+'COST PER TASK'!S45*'COST PER TASK'!AE45*DATOS!$D$19+'COST PER TASK'!T45*'COST PER TASK'!AE45*DATOS!$D$20+'COST PER TASK'!U45*'COST PER TASK'!AE45*DATOS!$D$21+'COST PER TASK'!V45*'COST PER TASK'!AE45*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK45" s="9">
+        <f t="shared" si="1"/>
+        <v>1457.1428571428573</v>
+      </c>
+    </row>
+    <row r="46" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AD46">
+        <v>200</v>
+      </c>
+      <c r="AE46">
+        <f>AD46*DATOS!$B$2</f>
+        <v>1600</v>
+      </c>
+      <c r="AF46" s="7">
+        <f t="shared" si="0"/>
+        <v>533.33333333333337</v>
+      </c>
+      <c r="AG46" s="4">
+        <f>AF46*C46*DATOS!$B$3+'COST PER TASK'!AF46*'COST PER TASK'!D46*DATOS!B48+'COST PER TASK'!AF46*'COST PER TASK'!E46*DATOS!$B$5</f>
+        <v>13866.666666666668</v>
+      </c>
+      <c r="AH46" s="3">
+        <f>F46*AE46*DATOS!$D$6+'COST PER TASK'!G46*'COST PER TASK'!AE46*DATOS!$D$7+'COST PER TASK'!H46*'COST PER TASK'!AE46*DATOS!$D$8+'COST PER TASK'!I46*'COST PER TASK'!AE46*DATOS!$D$9+'COST PER TASK'!J46*'COST PER TASK'!AE46*DATOS!$D$10+'COST PER TASK'!K46*'COST PER TASK'!AE46*DATOS!$D$11+'COST PER TASK'!L46*'COST PER TASK'!AE46*DATOS!$D$12+'COST PER TASK'!M46*'COST PER TASK'!AE46*DATOS!$D$13+'COST PER TASK'!N46*'COST PER TASK'!AE46*DATOS!$D$14+'COST PER TASK'!O46*'COST PER TASK'!AE46*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="3">
+        <f>'COST PER TASK'!P46*'COST PER TASK'!AE46*DATOS!$D$16+'COST PER TASK'!Q46*'COST PER TASK'!AE46*DATOS!$D$17+'COST PER TASK'!R46*'COST PER TASK'!AE46*DATOS!$D$18+'COST PER TASK'!S46*'COST PER TASK'!AE46*DATOS!$D$19+'COST PER TASK'!T46*'COST PER TASK'!AE46*DATOS!$D$20+'COST PER TASK'!U46*'COST PER TASK'!AE46*DATOS!$D$21+'COST PER TASK'!V46*'COST PER TASK'!AE46*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK46" s="9">
+        <f t="shared" si="1"/>
+        <v>13866.666666666668</v>
+      </c>
+    </row>
+    <row r="47" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AD47">
+        <v>150</v>
+      </c>
+      <c r="AE47">
+        <f>AD47*DATOS!$B$2</f>
+        <v>1200</v>
+      </c>
+      <c r="AF47" s="7">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AG47" s="4">
+        <f>AF47*C47*DATOS!$B$3+'COST PER TASK'!AF47*'COST PER TASK'!D47*DATOS!B49+'COST PER TASK'!AF47*'COST PER TASK'!E47*DATOS!$B$5</f>
+        <v>10400</v>
+      </c>
+      <c r="AH47" s="3">
+        <f>F47*AE47*DATOS!$D$6+'COST PER TASK'!G47*'COST PER TASK'!AE47*DATOS!$D$7+'COST PER TASK'!H47*'COST PER TASK'!AE47*DATOS!$D$8+'COST PER TASK'!I47*'COST PER TASK'!AE47*DATOS!$D$9+'COST PER TASK'!J47*'COST PER TASK'!AE47*DATOS!$D$10+'COST PER TASK'!K47*'COST PER TASK'!AE47*DATOS!$D$11+'COST PER TASK'!L47*'COST PER TASK'!AE47*DATOS!$D$12+'COST PER TASK'!M47*'COST PER TASK'!AE47*DATOS!$D$13+'COST PER TASK'!N47*'COST PER TASK'!AE47*DATOS!$D$14+'COST PER TASK'!O47*'COST PER TASK'!AE47*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="3">
+        <f>'COST PER TASK'!P47*'COST PER TASK'!AE47*DATOS!$D$16+'COST PER TASK'!Q47*'COST PER TASK'!AE47*DATOS!$D$17+'COST PER TASK'!R47*'COST PER TASK'!AE47*DATOS!$D$18+'COST PER TASK'!S47*'COST PER TASK'!AE47*DATOS!$D$19+'COST PER TASK'!T47*'COST PER TASK'!AE47*DATOS!$D$20+'COST PER TASK'!U47*'COST PER TASK'!AE47*DATOS!$D$21+'COST PER TASK'!V47*'COST PER TASK'!AE47*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK47" s="9">
+        <f t="shared" si="1"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AD48">
+        <v>100</v>
+      </c>
+      <c r="AE48">
+        <f>AD48*DATOS!$B$2</f>
+        <v>800</v>
+      </c>
+      <c r="AF48" s="7">
+        <f t="shared" si="0"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="AG48" s="4">
+        <f>AF48*C48*DATOS!$B$3+'COST PER TASK'!AF48*'COST PER TASK'!D48*DATOS!B50+'COST PER TASK'!AF48*'COST PER TASK'!E48*DATOS!$B$5</f>
+        <v>6933.3333333333339</v>
+      </c>
+      <c r="AH48" s="3">
+        <f>F48*AE48*DATOS!$D$6+'COST PER TASK'!G48*'COST PER TASK'!AE48*DATOS!$D$7+'COST PER TASK'!H48*'COST PER TASK'!AE48*DATOS!$D$8+'COST PER TASK'!I48*'COST PER TASK'!AE48*DATOS!$D$9+'COST PER TASK'!J48*'COST PER TASK'!AE48*DATOS!$D$10+'COST PER TASK'!K48*'COST PER TASK'!AE48*DATOS!$D$11+'COST PER TASK'!L48*'COST PER TASK'!AE48*DATOS!$D$12+'COST PER TASK'!M48*'COST PER TASK'!AE48*DATOS!$D$13+'COST PER TASK'!N48*'COST PER TASK'!AE48*DATOS!$D$14+'COST PER TASK'!O48*'COST PER TASK'!AE48*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="3">
+        <f>'COST PER TASK'!P48*'COST PER TASK'!AE48*DATOS!$D$16+'COST PER TASK'!Q48*'COST PER TASK'!AE48*DATOS!$D$17+'COST PER TASK'!R48*'COST PER TASK'!AE48*DATOS!$D$18+'COST PER TASK'!S48*'COST PER TASK'!AE48*DATOS!$D$19+'COST PER TASK'!T48*'COST PER TASK'!AE48*DATOS!$D$20+'COST PER TASK'!U48*'COST PER TASK'!AE48*DATOS!$D$21+'COST PER TASK'!V48*'COST PER TASK'!AE48*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="9">
+        <f t="shared" si="1"/>
+        <v>6933.3333333333339</v>
+      </c>
+    </row>
+    <row r="49" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <v>5</v>
+      </c>
+      <c r="AD49">
+        <v>60</v>
+      </c>
+      <c r="AE49">
+        <f>AD49*DATOS!$B$2</f>
+        <v>480</v>
+      </c>
+      <c r="AF49" s="7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="AG49" s="4">
+        <f>AF49*C49*DATOS!$B$3+'COST PER TASK'!AF49*'COST PER TASK'!D49*DATOS!B51+'COST PER TASK'!AF49*'COST PER TASK'!E49*DATOS!$B$5</f>
+        <v>3120</v>
+      </c>
+      <c r="AH49" s="3">
+        <f>F49*AE49*DATOS!$D$6+'COST PER TASK'!G49*'COST PER TASK'!AE49*DATOS!$D$7+'COST PER TASK'!H49*'COST PER TASK'!AE49*DATOS!$D$8+'COST PER TASK'!I49*'COST PER TASK'!AE49*DATOS!$D$9+'COST PER TASK'!J49*'COST PER TASK'!AE49*DATOS!$D$10+'COST PER TASK'!K49*'COST PER TASK'!AE49*DATOS!$D$11+'COST PER TASK'!L49*'COST PER TASK'!AE49*DATOS!$D$12+'COST PER TASK'!M49*'COST PER TASK'!AE49*DATOS!$D$13+'COST PER TASK'!N49*'COST PER TASK'!AE49*DATOS!$D$14+'COST PER TASK'!O49*'COST PER TASK'!AE49*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="3">
+        <f>'COST PER TASK'!P49*'COST PER TASK'!AE49*DATOS!$D$16+'COST PER TASK'!Q49*'COST PER TASK'!AE49*DATOS!$D$17+'COST PER TASK'!R49*'COST PER TASK'!AE49*DATOS!$D$18+'COST PER TASK'!S49*'COST PER TASK'!AE49*DATOS!$D$19+'COST PER TASK'!T49*'COST PER TASK'!AE49*DATOS!$D$20+'COST PER TASK'!U49*'COST PER TASK'!AE49*DATOS!$D$21+'COST PER TASK'!V49*'COST PER TASK'!AE49*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK49" s="9">
+        <f t="shared" si="1"/>
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="50" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AD50">
+        <v>60</v>
+      </c>
+      <c r="AE50">
+        <f>AD50*DATOS!$B$2</f>
+        <v>480</v>
+      </c>
+      <c r="AF50" s="7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="AG50" s="4">
+        <f>AF50*C50*DATOS!$B$3+'COST PER TASK'!AF50*'COST PER TASK'!D50*DATOS!B52+'COST PER TASK'!AF50*'COST PER TASK'!E50*DATOS!$B$5</f>
+        <v>3120</v>
+      </c>
+      <c r="AH50" s="3">
+        <f>F50*AE50*DATOS!$D$6+'COST PER TASK'!G50*'COST PER TASK'!AE50*DATOS!$D$7+'COST PER TASK'!H50*'COST PER TASK'!AE50*DATOS!$D$8+'COST PER TASK'!I50*'COST PER TASK'!AE50*DATOS!$D$9+'COST PER TASK'!J50*'COST PER TASK'!AE50*DATOS!$D$10+'COST PER TASK'!K50*'COST PER TASK'!AE50*DATOS!$D$11+'COST PER TASK'!L50*'COST PER TASK'!AE50*DATOS!$D$12+'COST PER TASK'!M50*'COST PER TASK'!AE50*DATOS!$D$13+'COST PER TASK'!N50*'COST PER TASK'!AE50*DATOS!$D$14+'COST PER TASK'!O50*'COST PER TASK'!AE50*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI50" s="3">
+        <f>'COST PER TASK'!P50*'COST PER TASK'!AE50*DATOS!$D$16+'COST PER TASK'!Q50*'COST PER TASK'!AE50*DATOS!$D$17+'COST PER TASK'!R50*'COST PER TASK'!AE50*DATOS!$D$18+'COST PER TASK'!S50*'COST PER TASK'!AE50*DATOS!$D$19+'COST PER TASK'!T50*'COST PER TASK'!AE50*DATOS!$D$20+'COST PER TASK'!U50*'COST PER TASK'!AE50*DATOS!$D$21+'COST PER TASK'!V50*'COST PER TASK'!AE50*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK50" s="9">
+        <f t="shared" si="1"/>
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="51" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
+        <v>45</v>
+      </c>
+      <c r="AE51">
+        <f>AD51*DATOS!$B$2</f>
+        <v>360</v>
+      </c>
+      <c r="AF51" s="7">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="AG51" s="4">
+        <f>AF51*C51*DATOS!$B$3+'COST PER TASK'!AF51*'COST PER TASK'!D51*DATOS!B53+'COST PER TASK'!AF51*'COST PER TASK'!E51*DATOS!$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="AH51" s="3">
+        <f>F51*AE51*DATOS!$D$6+'COST PER TASK'!G51*'COST PER TASK'!AE51*DATOS!$D$7+'COST PER TASK'!H51*'COST PER TASK'!AE51*DATOS!$D$8+'COST PER TASK'!I51*'COST PER TASK'!AE51*DATOS!$D$9+'COST PER TASK'!J51*'COST PER TASK'!AE51*DATOS!$D$10+'COST PER TASK'!K51*'COST PER TASK'!AE51*DATOS!$D$11+'COST PER TASK'!L51*'COST PER TASK'!AE51*DATOS!$D$12+'COST PER TASK'!M51*'COST PER TASK'!AE51*DATOS!$D$13+'COST PER TASK'!N51*'COST PER TASK'!AE51*DATOS!$D$14+'COST PER TASK'!O51*'COST PER TASK'!AE51*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI51" s="3">
+        <f>'COST PER TASK'!P51*'COST PER TASK'!AE51*DATOS!$D$16+'COST PER TASK'!Q51*'COST PER TASK'!AE51*DATOS!$D$17+'COST PER TASK'!R51*'COST PER TASK'!AE51*DATOS!$D$18+'COST PER TASK'!S51*'COST PER TASK'!AE51*DATOS!$D$19+'COST PER TASK'!T51*'COST PER TASK'!AE51*DATOS!$D$20+'COST PER TASK'!U51*'COST PER TASK'!AE51*DATOS!$D$21+'COST PER TASK'!V51*'COST PER TASK'!AE51*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK51" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <v>1</v>
+      </c>
+      <c r="AD52">
+        <v>80</v>
+      </c>
+      <c r="AE52">
+        <f>AD52*DATOS!$B$2</f>
+        <v>640</v>
+      </c>
+      <c r="AF52" s="7">
+        <f t="shared" si="0"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="AG52" s="4">
+        <f>AF52*C52*DATOS!$B$3+'COST PER TASK'!AF52*'COST PER TASK'!D52*DATOS!B54+'COST PER TASK'!AF52*'COST PER TASK'!E52*DATOS!$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="AH52" s="3">
+        <f>F52*AE52*DATOS!$D$6+'COST PER TASK'!G52*'COST PER TASK'!AE52*DATOS!$D$7+'COST PER TASK'!H52*'COST PER TASK'!AE52*DATOS!$D$8+'COST PER TASK'!I52*'COST PER TASK'!AE52*DATOS!$D$9+'COST PER TASK'!J52*'COST PER TASK'!AE52*DATOS!$D$10+'COST PER TASK'!K52*'COST PER TASK'!AE52*DATOS!$D$11+'COST PER TASK'!L52*'COST PER TASK'!AE52*DATOS!$D$12+'COST PER TASK'!M52*'COST PER TASK'!AE52*DATOS!$D$13+'COST PER TASK'!N52*'COST PER TASK'!AE52*DATOS!$D$14+'COST PER TASK'!O52*'COST PER TASK'!AE52*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="3">
+        <f>'COST PER TASK'!P52*'COST PER TASK'!AE52*DATOS!$D$16+'COST PER TASK'!Q52*'COST PER TASK'!AE52*DATOS!$D$17+'COST PER TASK'!R52*'COST PER TASK'!AE52*DATOS!$D$18+'COST PER TASK'!S52*'COST PER TASK'!AE52*DATOS!$D$19+'COST PER TASK'!T52*'COST PER TASK'!AE52*DATOS!$D$20+'COST PER TASK'!U52*'COST PER TASK'!AE52*DATOS!$D$21+'COST PER TASK'!V52*'COST PER TASK'!AE52*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
+      <c r="AD53">
+        <v>60</v>
+      </c>
+      <c r="AE53">
+        <f>AD53*DATOS!$B$2</f>
+        <v>480</v>
+      </c>
+      <c r="AF53" s="7">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="AG53" s="4">
+        <f>AF53*C53*DATOS!$B$3+'COST PER TASK'!AF53*'COST PER TASK'!D53*DATOS!B55+'COST PER TASK'!AF53*'COST PER TASK'!E53*DATOS!$B$5</f>
+        <v>6000</v>
+      </c>
+      <c r="AH53" s="3">
+        <f>F53*AE53*DATOS!$D$6+'COST PER TASK'!G53*'COST PER TASK'!AE53*DATOS!$D$7+'COST PER TASK'!H53*'COST PER TASK'!AE53*DATOS!$D$8+'COST PER TASK'!I53*'COST PER TASK'!AE53*DATOS!$D$9+'COST PER TASK'!J53*'COST PER TASK'!AE53*DATOS!$D$10+'COST PER TASK'!K53*'COST PER TASK'!AE53*DATOS!$D$11+'COST PER TASK'!L53*'COST PER TASK'!AE53*DATOS!$D$12+'COST PER TASK'!M53*'COST PER TASK'!AE53*DATOS!$D$13+'COST PER TASK'!N53*'COST PER TASK'!AE53*DATOS!$D$14+'COST PER TASK'!O53*'COST PER TASK'!AE53*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI53" s="3">
+        <f>'COST PER TASK'!P53*'COST PER TASK'!AE53*DATOS!$D$16+'COST PER TASK'!Q53*'COST PER TASK'!AE53*DATOS!$D$17+'COST PER TASK'!R53*'COST PER TASK'!AE53*DATOS!$D$18+'COST PER TASK'!S53*'COST PER TASK'!AE53*DATOS!$D$19+'COST PER TASK'!T53*'COST PER TASK'!AE53*DATOS!$D$20+'COST PER TASK'!U53*'COST PER TASK'!AE53*DATOS!$D$21+'COST PER TASK'!V53*'COST PER TASK'!AE53*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK53" s="9">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="AD54">
+        <v>8</v>
+      </c>
+      <c r="AE54">
+        <f>AD54*DATOS!$B$2</f>
+        <v>64</v>
+      </c>
+      <c r="AF54" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AG54" s="4">
+        <f>AF54*C54*DATOS!$B$3+'COST PER TASK'!AF54*'COST PER TASK'!D54*DATOS!B56+'COST PER TASK'!AF54*'COST PER TASK'!E54*DATOS!$B$5</f>
+        <v>400</v>
+      </c>
+      <c r="AH54" s="3">
+        <f>F54*AE54*DATOS!$D$6+'COST PER TASK'!G54*'COST PER TASK'!AE54*DATOS!$D$7+'COST PER TASK'!H54*'COST PER TASK'!AE54*DATOS!$D$8+'COST PER TASK'!I54*'COST PER TASK'!AE54*DATOS!$D$9+'COST PER TASK'!J54*'COST PER TASK'!AE54*DATOS!$D$10+'COST PER TASK'!K54*'COST PER TASK'!AE54*DATOS!$D$11+'COST PER TASK'!L54*'COST PER TASK'!AE54*DATOS!$D$12+'COST PER TASK'!M54*'COST PER TASK'!AE54*DATOS!$D$13+'COST PER TASK'!N54*'COST PER TASK'!AE54*DATOS!$D$14+'COST PER TASK'!O54*'COST PER TASK'!AE54*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI54" s="3">
+        <f>'COST PER TASK'!P54*'COST PER TASK'!AE54*DATOS!$D$16+'COST PER TASK'!Q54*'COST PER TASK'!AE54*DATOS!$D$17+'COST PER TASK'!R54*'COST PER TASK'!AE54*DATOS!$D$18+'COST PER TASK'!S54*'COST PER TASK'!AE54*DATOS!$D$19+'COST PER TASK'!T54*'COST PER TASK'!AE54*DATOS!$D$20+'COST PER TASK'!U54*'COST PER TASK'!AE54*DATOS!$D$21+'COST PER TASK'!V54*'COST PER TASK'!AE54*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK54" s="9">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="AD55">
+        <v>5</v>
+      </c>
+      <c r="AE55">
+        <f>AD55*DATOS!$B$2</f>
+        <v>40</v>
+      </c>
+      <c r="AF55" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AG55" s="4">
+        <f>AF55*C55*DATOS!$B$3+'COST PER TASK'!AF55*'COST PER TASK'!D55*DATOS!B57+'COST PER TASK'!AF55*'COST PER TASK'!E55*DATOS!$B$5</f>
+        <v>250</v>
+      </c>
+      <c r="AH55" s="3">
+        <f>F55*AE55*DATOS!$D$6+'COST PER TASK'!G55*'COST PER TASK'!AE55*DATOS!$D$7+'COST PER TASK'!H55*'COST PER TASK'!AE55*DATOS!$D$8+'COST PER TASK'!I55*'COST PER TASK'!AE55*DATOS!$D$9+'COST PER TASK'!J55*'COST PER TASK'!AE55*DATOS!$D$10+'COST PER TASK'!K55*'COST PER TASK'!AE55*DATOS!$D$11+'COST PER TASK'!L55*'COST PER TASK'!AE55*DATOS!$D$12+'COST PER TASK'!M55*'COST PER TASK'!AE55*DATOS!$D$13+'COST PER TASK'!N55*'COST PER TASK'!AE55*DATOS!$D$14+'COST PER TASK'!O55*'COST PER TASK'!AE55*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI55" s="3">
+        <f>'COST PER TASK'!P55*'COST PER TASK'!AE55*DATOS!$D$16+'COST PER TASK'!Q55*'COST PER TASK'!AE55*DATOS!$D$17+'COST PER TASK'!R55*'COST PER TASK'!AE55*DATOS!$D$18+'COST PER TASK'!S55*'COST PER TASK'!AE55*DATOS!$D$19+'COST PER TASK'!T55*'COST PER TASK'!AE55*DATOS!$D$20+'COST PER TASK'!U55*'COST PER TASK'!AE55*DATOS!$D$21+'COST PER TASK'!V55*'COST PER TASK'!AE55*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK55" s="9">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="AD56">
+        <v>10</v>
+      </c>
+      <c r="AE56">
+        <f>AD56*DATOS!$B$2</f>
+        <v>80</v>
+      </c>
+      <c r="AF56" s="7">
+        <f t="shared" si="0"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="AG56" s="4">
+        <f>AF56*C56*DATOS!$B$3+'COST PER TASK'!AF56*'COST PER TASK'!D56*DATOS!B58+'COST PER TASK'!AF56*'COST PER TASK'!E56*DATOS!$B$5</f>
+        <v>666.66666666666674</v>
+      </c>
+      <c r="AH56" s="3">
+        <f>F56*AE56*DATOS!$D$6+'COST PER TASK'!G56*'COST PER TASK'!AE56*DATOS!$D$7+'COST PER TASK'!H56*'COST PER TASK'!AE56*DATOS!$D$8+'COST PER TASK'!I56*'COST PER TASK'!AE56*DATOS!$D$9+'COST PER TASK'!J56*'COST PER TASK'!AE56*DATOS!$D$10+'COST PER TASK'!K56*'COST PER TASK'!AE56*DATOS!$D$11+'COST PER TASK'!L56*'COST PER TASK'!AE56*DATOS!$D$12+'COST PER TASK'!M56*'COST PER TASK'!AE56*DATOS!$D$13+'COST PER TASK'!N56*'COST PER TASK'!AE56*DATOS!$D$14+'COST PER TASK'!O56*'COST PER TASK'!AE56*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI56" s="3">
+        <f>'COST PER TASK'!P56*'COST PER TASK'!AE56*DATOS!$D$16+'COST PER TASK'!Q56*'COST PER TASK'!AE56*DATOS!$D$17+'COST PER TASK'!R56*'COST PER TASK'!AE56*DATOS!$D$18+'COST PER TASK'!S56*'COST PER TASK'!AE56*DATOS!$D$19+'COST PER TASK'!T56*'COST PER TASK'!AE56*DATOS!$D$20+'COST PER TASK'!U56*'COST PER TASK'!AE56*DATOS!$D$21+'COST PER TASK'!V56*'COST PER TASK'!AE56*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK56" s="9">
+        <f t="shared" si="1"/>
+        <v>666.66666666666674</v>
+      </c>
+    </row>
+    <row r="57" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>8</v>
+      </c>
+      <c r="AE57">
+        <f>AD57*DATOS!$B$2</f>
+        <v>64</v>
+      </c>
+      <c r="AF57" s="7">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+      <c r="AG57" s="15">
+        <f>AF57*C57*DATOS!$B$3+'COST PER TASK'!AF57*'COST PER TASK'!D57*DATOS!B59+'COST PER TASK'!AF57*'COST PER TASK'!E57*DATOS!$B$5</f>
+        <v>640</v>
+      </c>
+      <c r="AH57" s="3">
+        <f>F57*AE57*DATOS!$D$6+'COST PER TASK'!G57*'COST PER TASK'!AE57*DATOS!$D$7+'COST PER TASK'!H57*'COST PER TASK'!AE57*DATOS!$D$8+'COST PER TASK'!I57*'COST PER TASK'!AE57*DATOS!$D$9+'COST PER TASK'!J57*'COST PER TASK'!AE57*DATOS!$D$10+'COST PER TASK'!K57*'COST PER TASK'!AE57*DATOS!$D$11+'COST PER TASK'!L57*'COST PER TASK'!AE57*DATOS!$D$12+'COST PER TASK'!M57*'COST PER TASK'!AE57*DATOS!$D$13+'COST PER TASK'!N57*'COST PER TASK'!AE57*DATOS!$D$14+'COST PER TASK'!O57*'COST PER TASK'!AE57*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI57" s="3">
+        <f>'COST PER TASK'!P57*'COST PER TASK'!AE57*DATOS!$D$16+'COST PER TASK'!Q57*'COST PER TASK'!AE57*DATOS!$D$17+'COST PER TASK'!R57*'COST PER TASK'!AE57*DATOS!$D$18+'COST PER TASK'!S57*'COST PER TASK'!AE57*DATOS!$D$19+'COST PER TASK'!T57*'COST PER TASK'!AE57*DATOS!$D$20+'COST PER TASK'!U57*'COST PER TASK'!AE57*DATOS!$D$21+'COST PER TASK'!V57*'COST PER TASK'!AE57*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK57" s="9">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="58" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="AD58">
+        <v>25</v>
+      </c>
+      <c r="AE58">
+        <f>AD58*DATOS!$B$2</f>
+        <v>200</v>
+      </c>
+      <c r="AF58" s="7">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="AG58" s="4">
+        <f>AF58*C58*DATOS!$B$3+'COST PER TASK'!AF58*'COST PER TASK'!D58*DATOS!B60+'COST PER TASK'!AF58*'COST PER TASK'!E58*DATOS!$B$5</f>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="AH58" s="3">
+        <f>F58*AE58*DATOS!$D$6+'COST PER TASK'!G58*'COST PER TASK'!AE58*DATOS!$D$7+'COST PER TASK'!H58*'COST PER TASK'!AE58*DATOS!$D$8+'COST PER TASK'!I58*'COST PER TASK'!AE58*DATOS!$D$9+'COST PER TASK'!J58*'COST PER TASK'!AE58*DATOS!$D$10+'COST PER TASK'!K58*'COST PER TASK'!AE58*DATOS!$D$11+'COST PER TASK'!L58*'COST PER TASK'!AE58*DATOS!$D$12+'COST PER TASK'!M58*'COST PER TASK'!AE58*DATOS!$D$13+'COST PER TASK'!N58*'COST PER TASK'!AE58*DATOS!$D$14+'COST PER TASK'!O58*'COST PER TASK'!AE58*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI58" s="3">
+        <f>'COST PER TASK'!P58*'COST PER TASK'!AE58*DATOS!$D$16+'COST PER TASK'!Q58*'COST PER TASK'!AE58*DATOS!$D$17+'COST PER TASK'!R58*'COST PER TASK'!AE58*DATOS!$D$18+'COST PER TASK'!S58*'COST PER TASK'!AE58*DATOS!$D$19+'COST PER TASK'!T58*'COST PER TASK'!AE58*DATOS!$D$20+'COST PER TASK'!U58*'COST PER TASK'!AE58*DATOS!$D$21+'COST PER TASK'!V58*'COST PER TASK'!AE58*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK58" s="9">
+        <f t="shared" si="1"/>
+        <v>1666.6666666666667</v>
+      </c>
+    </row>
+    <row r="59" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="AD59">
+        <v>90</v>
+      </c>
+      <c r="AE59">
+        <f>AD59*DATOS!$B$2</f>
+        <v>720</v>
+      </c>
+      <c r="AF59" s="7">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="AG59" s="4">
+        <f>AF59*C59*DATOS!$B$3+'COST PER TASK'!AF59*'COST PER TASK'!D59*DATOS!B61+'COST PER TASK'!AF59*'COST PER TASK'!E59*DATOS!$B$5</f>
+        <v>6000</v>
+      </c>
+      <c r="AH59" s="3">
+        <f>F59*AE59*DATOS!$D$6+'COST PER TASK'!G59*'COST PER TASK'!AE59*DATOS!$D$7+'COST PER TASK'!H59*'COST PER TASK'!AE59*DATOS!$D$8+'COST PER TASK'!I59*'COST PER TASK'!AE59*DATOS!$D$9+'COST PER TASK'!J59*'COST PER TASK'!AE59*DATOS!$D$10+'COST PER TASK'!K59*'COST PER TASK'!AE59*DATOS!$D$11+'COST PER TASK'!L59*'COST PER TASK'!AE59*DATOS!$D$12+'COST PER TASK'!M59*'COST PER TASK'!AE59*DATOS!$D$13+'COST PER TASK'!N59*'COST PER TASK'!AE59*DATOS!$D$14+'COST PER TASK'!O59*'COST PER TASK'!AE59*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI59" s="3">
+        <f>'COST PER TASK'!P59*'COST PER TASK'!AE59*DATOS!$D$16+'COST PER TASK'!Q59*'COST PER TASK'!AE59*DATOS!$D$17+'COST PER TASK'!R59*'COST PER TASK'!AE59*DATOS!$D$18+'COST PER TASK'!S59*'COST PER TASK'!AE59*DATOS!$D$19+'COST PER TASK'!T59*'COST PER TASK'!AE59*DATOS!$D$20+'COST PER TASK'!U59*'COST PER TASK'!AE59*DATOS!$D$21+'COST PER TASK'!V59*'COST PER TASK'!AE59*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK59" s="9">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="AD60">
+        <v>770</v>
+      </c>
+      <c r="AE60">
+        <f>AD60*DATOS!$B$2</f>
+        <v>6160</v>
+      </c>
+      <c r="AF60" s="7">
+        <f t="shared" si="0"/>
+        <v>2053.3333333333335</v>
+      </c>
+      <c r="AG60" s="4">
+        <f>AF60*C60*DATOS!$B$3+'COST PER TASK'!AF60*'COST PER TASK'!D60*DATOS!B62+'COST PER TASK'!AF60*'COST PER TASK'!E60*DATOS!$B$5</f>
+        <v>51333.333333333336</v>
+      </c>
+      <c r="AH60" s="3">
+        <f>F60*AE60*DATOS!$D$6+'COST PER TASK'!G60*'COST PER TASK'!AE60*DATOS!$D$7+'COST PER TASK'!H60*'COST PER TASK'!AE60*DATOS!$D$8+'COST PER TASK'!I60*'COST PER TASK'!AE60*DATOS!$D$9+'COST PER TASK'!J60*'COST PER TASK'!AE60*DATOS!$D$10+'COST PER TASK'!K60*'COST PER TASK'!AE60*DATOS!$D$11+'COST PER TASK'!L60*'COST PER TASK'!AE60*DATOS!$D$12+'COST PER TASK'!M60*'COST PER TASK'!AE60*DATOS!$D$13+'COST PER TASK'!N60*'COST PER TASK'!AE60*DATOS!$D$14+'COST PER TASK'!O60*'COST PER TASK'!AE60*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI60" s="3">
+        <f>'COST PER TASK'!P60*'COST PER TASK'!AE60*DATOS!$D$16+'COST PER TASK'!Q60*'COST PER TASK'!AE60*DATOS!$D$17+'COST PER TASK'!R60*'COST PER TASK'!AE60*DATOS!$D$18+'COST PER TASK'!S60*'COST PER TASK'!AE60*DATOS!$D$19+'COST PER TASK'!T60*'COST PER TASK'!AE60*DATOS!$D$20+'COST PER TASK'!U60*'COST PER TASK'!AE60*DATOS!$D$21+'COST PER TASK'!V60*'COST PER TASK'!AE60*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK60" s="9">
+        <f t="shared" si="1"/>
+        <v>51333.333333333336</v>
+      </c>
+    </row>
+    <row r="61" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="AD61">
+        <v>860</v>
+      </c>
+      <c r="AE61">
+        <f>AD61*DATOS!$B$2</f>
+        <v>6880</v>
+      </c>
+      <c r="AF61" s="7">
+        <f t="shared" si="0"/>
+        <v>2293.3333333333335</v>
+      </c>
+      <c r="AG61" s="4">
+        <f>AF61*C61*DATOS!$B$3+'COST PER TASK'!AF61*'COST PER TASK'!D61*DATOS!B63+'COST PER TASK'!AF61*'COST PER TASK'!E61*DATOS!$B$5</f>
+        <v>57333.333333333336</v>
+      </c>
+      <c r="AH61" s="3">
+        <f>F61*AE61*DATOS!$D$6+'COST PER TASK'!G61*'COST PER TASK'!AE61*DATOS!$D$7+'COST PER TASK'!H61*'COST PER TASK'!AE61*DATOS!$D$8+'COST PER TASK'!I61*'COST PER TASK'!AE61*DATOS!$D$9+'COST PER TASK'!J61*'COST PER TASK'!AE61*DATOS!$D$10+'COST PER TASK'!K61*'COST PER TASK'!AE61*DATOS!$D$11+'COST PER TASK'!L61*'COST PER TASK'!AE61*DATOS!$D$12+'COST PER TASK'!M61*'COST PER TASK'!AE61*DATOS!$D$13+'COST PER TASK'!N61*'COST PER TASK'!AE61*DATOS!$D$14+'COST PER TASK'!O61*'COST PER TASK'!AE61*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI61" s="3">
+        <f>'COST PER TASK'!P61*'COST PER TASK'!AE61*DATOS!$D$16+'COST PER TASK'!Q61*'COST PER TASK'!AE61*DATOS!$D$17+'COST PER TASK'!R61*'COST PER TASK'!AE61*DATOS!$D$18+'COST PER TASK'!S61*'COST PER TASK'!AE61*DATOS!$D$19+'COST PER TASK'!T61*'COST PER TASK'!AE61*DATOS!$D$20+'COST PER TASK'!U61*'COST PER TASK'!AE61*DATOS!$D$21+'COST PER TASK'!V61*'COST PER TASK'!AE61*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK61" s="9">
+        <f t="shared" si="1"/>
+        <v>57333.333333333336</v>
+      </c>
+    </row>
+    <row r="62" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="AD62">
+        <v>860</v>
+      </c>
+      <c r="AE62">
+        <f>AD62*DATOS!$B$2</f>
+        <v>6880</v>
+      </c>
+      <c r="AF62" s="7">
+        <f t="shared" si="0"/>
+        <v>2293.3333333333335</v>
+      </c>
+      <c r="AG62" s="4">
+        <f>AF62*C62*DATOS!$B$3+'COST PER TASK'!AF62*'COST PER TASK'!D62*DATOS!B64+'COST PER TASK'!AF62*'COST PER TASK'!E62*DATOS!$B$5</f>
+        <v>57333.333333333336</v>
+      </c>
+      <c r="AH62" s="3">
+        <f>F62*AE62*DATOS!$D$6+'COST PER TASK'!G62*'COST PER TASK'!AE62*DATOS!$D$7+'COST PER TASK'!H62*'COST PER TASK'!AE62*DATOS!$D$8+'COST PER TASK'!I62*'COST PER TASK'!AE62*DATOS!$D$9+'COST PER TASK'!J62*'COST PER TASK'!AE62*DATOS!$D$10+'COST PER TASK'!K62*'COST PER TASK'!AE62*DATOS!$D$11+'COST PER TASK'!L62*'COST PER TASK'!AE62*DATOS!$D$12+'COST PER TASK'!M62*'COST PER TASK'!AE62*DATOS!$D$13+'COST PER TASK'!N62*'COST PER TASK'!AE62*DATOS!$D$14+'COST PER TASK'!O62*'COST PER TASK'!AE62*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI62" s="3">
+        <f>'COST PER TASK'!P62*'COST PER TASK'!AE62*DATOS!$D$16+'COST PER TASK'!Q62*'COST PER TASK'!AE62*DATOS!$D$17+'COST PER TASK'!R62*'COST PER TASK'!AE62*DATOS!$D$18+'COST PER TASK'!S62*'COST PER TASK'!AE62*DATOS!$D$19+'COST PER TASK'!T62*'COST PER TASK'!AE62*DATOS!$D$20+'COST PER TASK'!U62*'COST PER TASK'!AE62*DATOS!$D$21+'COST PER TASK'!V62*'COST PER TASK'!AE62*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK62" s="9">
+        <f t="shared" si="1"/>
+        <v>57333.333333333336</v>
+      </c>
+    </row>
+    <row r="63" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <v>1</v>
+      </c>
+      <c r="AD63">
+        <v>860</v>
+      </c>
+      <c r="AE63">
+        <f>AD63*DATOS!$B$2</f>
+        <v>6880</v>
+      </c>
+      <c r="AF63" s="7">
+        <f t="shared" si="0"/>
+        <v>2293.3333333333335</v>
+      </c>
+      <c r="AG63" s="4">
+        <f>AF63*C63*DATOS!$B$3+'COST PER TASK'!AF63*'COST PER TASK'!D63*DATOS!B65+'COST PER TASK'!AF63*'COST PER TASK'!E63*DATOS!$B$5</f>
+        <v>57333.333333333336</v>
+      </c>
+      <c r="AH63" s="3">
+        <f>F63*AE63*DATOS!$D$6+'COST PER TASK'!G63*'COST PER TASK'!AE63*DATOS!$D$7+'COST PER TASK'!H63*'COST PER TASK'!AE63*DATOS!$D$8+'COST PER TASK'!I63*'COST PER TASK'!AE63*DATOS!$D$9+'COST PER TASK'!J63*'COST PER TASK'!AE63*DATOS!$D$10+'COST PER TASK'!K63*'COST PER TASK'!AE63*DATOS!$D$11+'COST PER TASK'!L63*'COST PER TASK'!AE63*DATOS!$D$12+'COST PER TASK'!M63*'COST PER TASK'!AE63*DATOS!$D$13+'COST PER TASK'!N63*'COST PER TASK'!AE63*DATOS!$D$14+'COST PER TASK'!O63*'COST PER TASK'!AE63*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI63" s="3">
+        <f>'COST PER TASK'!P63*'COST PER TASK'!AE63*DATOS!$D$16+'COST PER TASK'!Q63*'COST PER TASK'!AE63*DATOS!$D$17+'COST PER TASK'!R63*'COST PER TASK'!AE63*DATOS!$D$18+'COST PER TASK'!S63*'COST PER TASK'!AE63*DATOS!$D$19+'COST PER TASK'!T63*'COST PER TASK'!AE63*DATOS!$D$20+'COST PER TASK'!U63*'COST PER TASK'!AE63*DATOS!$D$21+'COST PER TASK'!V63*'COST PER TASK'!AE63*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK63" s="9">
+        <f t="shared" si="1"/>
+        <v>57333.333333333336</v>
+      </c>
+    </row>
+    <row r="64" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+      <c r="AD64">
+        <v>860</v>
+      </c>
+      <c r="AE64">
+        <f>AD64*DATOS!$B$2</f>
+        <v>6880</v>
+      </c>
+      <c r="AF64" s="7">
+        <f t="shared" si="0"/>
+        <v>2293.3333333333335</v>
+      </c>
+      <c r="AG64" s="4">
+        <f>AF64*C64*DATOS!$B$3+'COST PER TASK'!AF64*'COST PER TASK'!D64*DATOS!B66+'COST PER TASK'!AF64*'COST PER TASK'!E64*DATOS!$B$5</f>
+        <v>57333.333333333336</v>
+      </c>
+      <c r="AH64" s="3">
+        <f>F64*AE64*DATOS!$D$6+'COST PER TASK'!G64*'COST PER TASK'!AE64*DATOS!$D$7+'COST PER TASK'!H64*'COST PER TASK'!AE64*DATOS!$D$8+'COST PER TASK'!I64*'COST PER TASK'!AE64*DATOS!$D$9+'COST PER TASK'!J64*'COST PER TASK'!AE64*DATOS!$D$10+'COST PER TASK'!K64*'COST PER TASK'!AE64*DATOS!$D$11+'COST PER TASK'!L64*'COST PER TASK'!AE64*DATOS!$D$12+'COST PER TASK'!M64*'COST PER TASK'!AE64*DATOS!$D$13+'COST PER TASK'!N64*'COST PER TASK'!AE64*DATOS!$D$14+'COST PER TASK'!O64*'COST PER TASK'!AE64*DATOS!$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="AI64" s="3">
+        <f>'COST PER TASK'!P64*'COST PER TASK'!AE64*DATOS!$D$16+'COST PER TASK'!Q64*'COST PER TASK'!AE64*DATOS!$D$17+'COST PER TASK'!R64*'COST PER TASK'!AE64*DATOS!$D$18+'COST PER TASK'!S64*'COST PER TASK'!AE64*DATOS!$D$19+'COST PER TASK'!T64*'COST PER TASK'!AE64*DATOS!$D$20+'COST PER TASK'!U64*'COST PER TASK'!AE64*DATOS!$D$21+'COST PER TASK'!V64*'COST PER TASK'!AE64*DATOS!$D$22</f>
+        <v>0</v>
+      </c>
+      <c r="AK64" s="9">
+        <f t="shared" si="1"/>
+        <v>57333.333333333336</v>
+      </c>
+    </row>
+    <row r="65" spans="6:29" x14ac:dyDescent="0.2">
+      <c r="F65" s="14">
+        <f>F2*$AE2+F3*$AE3+F4*$AE4+F5*$AE5+F6*$AE6+F7*$AE7+F8*$AE8+F9*$AE9+F10*$AE10+F11*$AE11+F12*$AE12+F13*$AE13+F14*$AE14+F15*$AE15+F16*$AE16+F17*$AE17+F18*$AE18+F19*$AE19+F20*$AE20+F21*$AE21+F22*$AE22+F23*$AE23+F24*$AE24+F25*$AE25+F26*$AE26+F27*$AE27+F28*$AE28+F29*$AE29+F30*$AE30+F31*$AE31+F32*$AE32+F33*$AE33+F34*$AE34+F35*$AE35+F36*$AE36+F37*$AE37+F38*$AE38+F39*$AE39+F40*$AE40+F41*$AE41+F42*$AE42+F43*$AE43+F44*$AE44+F45*$AE45+F46*$AE46+F47*$AE47+F48*$AE48+F49*$AE49+F50*$AE50+F51*$AE51+F52*$AE52+F53*$AE53+F54*$AE54+F55*$AE55+F56*$AE56+F57*$AE57+F58*$AE58+F59*$AE59+F60*$AE60+F61*$AE61+F62*$AE62+F63*$AE63+F64*$AE64</f>
+        <v>62664</v>
+      </c>
+      <c r="G65" s="14">
+        <f t="shared" ref="G65:O65" si="2">G2*$AE2+G3*$AE3+G4*$AE4+G5*$AE5+G6*$AE6+G7*$AE7+G8*$AE8+G9*$AE9+G10*$AE10+G11*$AE11+G12*$AE12+G13*$AE13+G14*$AE14+G15*$AE15+G16*$AE16+G17*$AE17+G18*$AE18+G19*$AE19+G20*$AE20+G21*$AE21+G22*$AE22+G23*$AE23+G24*$AE24+G25*$AE25+G26*$AE26+G27*$AE27+G28*$AE28+G29*$AE29+G30*$AE30+G31*$AE31+G32*$AE32+G33*$AE33+G34*$AE34+G35*$AE35+G36*$AE36+G37*$AE37+G38*$AE38+G39*$AE39+G40*$AE40+G41*$AE41+G42*$AE42+G43*$AE43+G44*$AE44+G45*$AE45+G46*$AE46+G47*$AE47+G48*$AE48+G49*$AE49+G50*$AE50+G51*$AE51+G52*$AE52+G53*$AE53+G54*$AE54+G55*$AE55+G56*$AE56+G57*$AE57+G58*$AE58+G59*$AE59+G60*$AE60+G61*$AE61+G62*$AE62+G63*$AE63+G64*$AE64</f>
+        <v>48520</v>
+      </c>
+      <c r="H65" s="14">
+        <f t="shared" si="2"/>
+        <v>48904</v>
+      </c>
+      <c r="I65" s="14">
+        <f t="shared" si="2"/>
+        <v>14080</v>
+      </c>
+      <c r="J65" s="14">
+        <f t="shared" si="2"/>
+        <v>7120</v>
+      </c>
+      <c r="K65" s="14">
+        <f t="shared" si="2"/>
+        <v>4160</v>
+      </c>
+      <c r="L65" s="14">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="M65" s="14">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="N65" s="14">
+        <f>N2*$AE2+N3*$AE3+N4*$AE4+N5*$AE5+N6*$AE6+N7*$AE7+N8*$AE8+N9*$AE9+N10*$AE10+N11*$AE11+N12*$AE12+N13*$AE13+N14*$AE14+N15*$AE15+N16*$AE16+N17*$AE17+N18*$AE18+N19*$AE19+N20*$AE20+N21*$AE21+N22*$AE22+N23*$AE23+N24*$AE24+N25*$AE25+N26*$AE26+N27*$AE27+N28*$AE28+N29*$AE29+N30*$AE30+N31*$AE31+N32*$AE32+N33*$AE33+N34*$AE34+N35*$AE35+N36*$AE36+N37*$AE37+N38*$AE38+N39*$AE39+N40*$AE40+N41*$AE41+N42*$AE42+N43*$AE43+N44*$AE44+N45*$AE45+N46*$AE46+N47*$AE47+N48*$AE48+N49*$AE49+N50*$AE50+N51*$AE51+N52*$AE52+N53*$AE53+N54*$AE54+N55*$AE55+N56*$AE56+N57*$AE57+N58*$AE58+N59*$AE59+N60*$AE60+N61*$AE61+N62*$AE62+N63*$AE63+N64*$AE64</f>
+        <v>13920</v>
+      </c>
+      <c r="O65" s="14">
+        <f t="shared" si="2"/>
+        <v>13760</v>
+      </c>
+      <c r="P65" s="14">
+        <f t="shared" ref="P65" si="3">P2*$AE2+P3*$AE3+P4*$AE4+P5*$AE5+P6*$AE6+P7*$AE7+P8*$AE8+P9*$AE9+P10*$AE10+P11*$AE11+P12*$AE12+P13*$AE13+P14*$AE14+P15*$AE15+P16*$AE16+P17*$AE17+P18*$AE18+P19*$AE19+P20*$AE20+P21*$AE21+P22*$AE22+P23*$AE23+P24*$AE24+P25*$AE25+P26*$AE26+P27*$AE27+P28*$AE28+P29*$AE29+P30*$AE30+P31*$AE31+P32*$AE32+P33*$AE33+P34*$AE34+P35*$AE35+P36*$AE36+P37*$AE37+P38*$AE38+P39*$AE39+P40*$AE40+P41*$AE41+P42*$AE42+P43*$AE43+P44*$AE44+P45*$AE45+P46*$AE46+P47*$AE47+P48*$AE48+P49*$AE49+P50*$AE50+P51*$AE51+P52*$AE52+P53*$AE53+P54*$AE54+P55*$AE55+P56*$AE56+P57*$AE57+P58*$AE58+P59*$AE59+P60*$AE60+P61*$AE61+P62*$AE62+P63*$AE63+P64*$AE64</f>
+        <v>3200</v>
+      </c>
+      <c r="Q65" s="14">
+        <f t="shared" ref="Q65" si="4">Q2*$AE2+Q3*$AE3+Q4*$AE4+Q5*$AE5+Q6*$AE6+Q7*$AE7+Q8*$AE8+Q9*$AE9+Q10*$AE10+Q11*$AE11+Q12*$AE12+Q13*$AE13+Q14*$AE14+Q15*$AE15+Q16*$AE16+Q17*$AE17+Q18*$AE18+Q19*$AE19+Q20*$AE20+Q21*$AE21+Q22*$AE22+Q23*$AE23+Q24*$AE24+Q25*$AE25+Q26*$AE26+Q27*$AE27+Q28*$AE28+Q29*$AE29+Q30*$AE30+Q31*$AE31+Q32*$AE32+Q33*$AE33+Q34*$AE34+Q35*$AE35+Q36*$AE36+Q37*$AE37+Q38*$AE38+Q39*$AE39+Q40*$AE40+Q41*$AE41+Q42*$AE42+Q43*$AE43+Q44*$AE44+Q45*$AE45+Q46*$AE46+Q47*$AE47+Q48*$AE48+Q49*$AE49+Q50*$AE50+Q51*$AE51+Q52*$AE52+Q53*$AE53+Q54*$AE54+Q55*$AE55+Q56*$AE56+Q57*$AE57+Q58*$AE58+Q59*$AE59+Q60*$AE60+Q61*$AE61+Q62*$AE62+Q63*$AE63+Q64*$AE64</f>
+        <v>2800</v>
+      </c>
+      <c r="R65" s="14">
+        <f t="shared" ref="R65" si="5">R2*$AE2+R3*$AE3+R4*$AE4+R5*$AE5+R6*$AE6+R7*$AE7+R8*$AE8+R9*$AE9+R10*$AE10+R11*$AE11+R12*$AE12+R13*$AE13+R14*$AE14+R15*$AE15+R16*$AE16+R17*$AE17+R18*$AE18+R19*$AE19+R20*$AE20+R21*$AE21+R22*$AE22+R23*$AE23+R24*$AE24+R25*$AE25+R26*$AE26+R27*$AE27+R28*$AE28+R29*$AE29+R30*$AE30+R31*$AE31+R32*$AE32+R33*$AE33+R34*$AE34+R35*$AE35+R36*$AE36+R37*$AE37+R38*$AE38+R39*$AE39+R40*$AE40+R41*$AE41+R42*$AE42+R43*$AE43+R44*$AE44+R45*$AE45+R46*$AE46+R47*$AE47+R48*$AE48+R49*$AE49+R50*$AE50+R51*$AE51+R52*$AE52+R53*$AE53+R54*$AE54+R55*$AE55+R56*$AE56+R57*$AE57+R58*$AE58+R59*$AE59+R60*$AE60+R61*$AE61+R62*$AE62+R63*$AE63+R64*$AE64</f>
+        <v>2800</v>
+      </c>
+      <c r="S65" s="14">
+        <f t="shared" ref="S65" si="6">S2*$AE2+S3*$AE3+S4*$AE4+S5*$AE5+S6*$AE6+S7*$AE7+S8*$AE8+S9*$AE9+S10*$AE10+S11*$AE11+S12*$AE12+S13*$AE13+S14*$AE14+S15*$AE15+S16*$AE16+S17*$AE17+S18*$AE18+S19*$AE19+S20*$AE20+S21*$AE21+S22*$AE22+S23*$AE23+S24*$AE24+S25*$AE25+S26*$AE26+S27*$AE27+S28*$AE28+S29*$AE29+S30*$AE30+S31*$AE31+S32*$AE32+S33*$AE33+S34*$AE34+S35*$AE35+S36*$AE36+S37*$AE37+S38*$AE38+S39*$AE39+S40*$AE40+S41*$AE41+S42*$AE42+S43*$AE43+S44*$AE44+S45*$AE45+S46*$AE46+S47*$AE47+S48*$AE48+S49*$AE49+S50*$AE50+S51*$AE51+S52*$AE52+S53*$AE53+S54*$AE54+S55*$AE55+S56*$AE56+S57*$AE57+S58*$AE58+S59*$AE59+S60*$AE60+S61*$AE61+S62*$AE62+S63*$AE63+S64*$AE64</f>
+        <v>2800</v>
+      </c>
+      <c r="T65" s="14">
+        <f t="shared" ref="T65" si="7">T2*$AE2+T3*$AE3+T4*$AE4+T5*$AE5+T6*$AE6+T7*$AE7+T8*$AE8+T9*$AE9+T10*$AE10+T11*$AE11+T12*$AE12+T13*$AE13+T14*$AE14+T15*$AE15+T16*$AE16+T17*$AE17+T18*$AE18+T19*$AE19+T20*$AE20+T21*$AE21+T22*$AE22+T23*$AE23+T24*$AE24+T25*$AE25+T26*$AE26+T27*$AE27+T28*$AE28+T29*$AE29+T30*$AE30+T31*$AE31+T32*$AE32+T33*$AE33+T34*$AE34+T35*$AE35+T36*$AE36+T37*$AE37+T38*$AE38+T39*$AE39+T40*$AE40+T41*$AE41+T42*$AE42+T43*$AE43+T44*$AE44+T45*$AE45+T46*$AE46+T47*$AE47+T48*$AE48+T49*$AE49+T50*$AE50+T51*$AE51+T52*$AE52+T53*$AE53+T54*$AE54+T55*$AE55+T56*$AE56+T57*$AE57+T58*$AE58+T59*$AE59+T60*$AE60+T61*$AE61+T62*$AE62+T63*$AE63+T64*$AE64</f>
+        <v>2800</v>
+      </c>
+      <c r="U65" s="14">
+        <f t="shared" ref="U65" si="8">U2*$AE2+U3*$AE3+U4*$AE4+U5*$AE5+U6*$AE6+U7*$AE7+U8*$AE8+U9*$AE9+U10*$AE10+U11*$AE11+U12*$AE12+U13*$AE13+U14*$AE14+U15*$AE15+U16*$AE16+U17*$AE17+U18*$AE18+U19*$AE19+U20*$AE20+U21*$AE21+U22*$AE22+U23*$AE23+U24*$AE24+U25*$AE25+U26*$AE26+U27*$AE27+U28*$AE28+U29*$AE29+U30*$AE30+U31*$AE31+U32*$AE32+U33*$AE33+U34*$AE34+U35*$AE35+U36*$AE36+U37*$AE37+U38*$AE38+U39*$AE39+U40*$AE40+U41*$AE41+U42*$AE42+U43*$AE43+U44*$AE44+U45*$AE45+U46*$AE46+U47*$AE47+U48*$AE48+U49*$AE49+U50*$AE50+U51*$AE51+U52*$AE52+U53*$AE53+U54*$AE54+U55*$AE55+U56*$AE56+U57*$AE57+U58*$AE58+U59*$AE59+U60*$AE60+U61*$AE61+U62*$AE62+U63*$AE63+U64*$AE64</f>
+        <v>2280</v>
+      </c>
+      <c r="V65" s="14">
+        <f t="shared" ref="V65:AC65" si="9">V2*$AE2+V3*$AE3+V4*$AE4+V5*$AE5+V6*$AE6+V7*$AE7+V8*$AE8+V9*$AE9+V10*$AE10+V11*$AE11+V12*$AE12+V13*$AE13+V14*$AE14+V15*$AE15+V16*$AE16+V17*$AE17+V18*$AE18+V19*$AE19+V20*$AE20+V21*$AE21+V22*$AE22+V23*$AE23+V24*$AE24+V25*$AE25+V26*$AE26+V27*$AE27+V28*$AE28+V29*$AE29+V30*$AE30+V31*$AE31+V32*$AE32+V33*$AE33+V34*$AE34+V35*$AE35+V36*$AE36+V37*$AE37+V38*$AE38+V39*$AE39+V40*$AE40+V41*$AE41+V42*$AE42+V43*$AE43+V44*$AE44+V45*$AE45+V46*$AE46+V47*$AE47+V48*$AE48+V49*$AE49+V50*$AE50+V51*$AE51+V52*$AE52+V53*$AE53+V54*$AE54+V55*$AE55+V56*$AE56+V57*$AE57+V58*$AE58+V59*$AE59+V60*$AE60+V61*$AE61+V62*$AE62+V63*$AE63+V64*$AE64</f>
+        <v>2280</v>
+      </c>
+      <c r="W65" s="14">
+        <f t="shared" si="9"/>
+        <v>59528</v>
+      </c>
+      <c r="X65" s="14">
+        <f t="shared" si="9"/>
+        <v>35040</v>
+      </c>
+      <c r="Y65" s="14">
+        <f t="shared" si="9"/>
+        <v>13920</v>
+      </c>
+      <c r="Z65" s="14">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="AA65" s="14">
+        <f t="shared" si="9"/>
+        <v>28280</v>
+      </c>
+      <c r="AB65" s="14">
+        <f t="shared" si="9"/>
+        <v>3880</v>
+      </c>
+      <c r="AC65" s="14">
+        <f t="shared" si="9"/>
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE878835-55AC-F340-BA81-54AC84F1938A}">
+  <dimension ref="A2:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="13">
+        <f>B6/'COST PER TASK'!F65</f>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="13">
+        <f>B7/'COST PER TASK'!G65</f>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="13">
+        <f>B8/'COST PER TASK'!H65</f>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="13">
+        <f>B9/'COST PER TASK'!I65</f>
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="13">
+        <f>B10/'COST PER TASK'!J65</f>
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="13">
+        <f>B11/'COST PER TASK'!K65</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="13">
+        <f>B12/'COST PER TASK'!L65</f>
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="13">
+        <f>B13/'COST PER TASK'!M65</f>
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="13">
+        <f>B14/'COST PER TASK'!N65</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="13">
+        <f>B15/'COST PER TASK'!O65</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="13">
+        <f>B16/'COST PER TASK'!P65</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="13">
+        <f>B17/'COST PER TASK'!Q65</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="13">
+        <f>B18/'COST PER TASK'!R65</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="13">
+        <f>B19/'COST PER TASK'!S65</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="13">
+        <f>B20/'COST PER TASK'!T65</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="13">
+        <f>B21/'COST PER TASK'!U65</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="13">
+        <f>B22/'COST PER TASK'!V65</f>
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Deliverable 2/Deliverable2/Costs task 8.xlsx
+++ b/Deliverable 2/Deliverable2/Costs task 8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Santi/Documents/GitHub/projectsGroup3/Deliverable 2/Deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{07F7AB29-3308-2142-B38C-30DB8F533EB9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DAB61128-241A-C14F-AF3B-9250DEBDF818}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="2" xr2:uid="{9A462BF7-F855-3543-8421-29C9FE395588}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" activeTab="2" xr2:uid="{9A462BF7-F855-3543-8421-29C9FE395588}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>

--- a/Deliverable 2/Deliverable2/Costs task 8.xlsx
+++ b/Deliverable 2/Deliverable2/Costs task 8.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Santi/Documents/GitHub/projectsGroup3/Deliverable 2/Deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DAB61128-241A-C14F-AF3B-9250DEBDF818}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{560D539C-257F-7345-B7E5-D4C704E94B4D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" activeTab="2" xr2:uid="{9A462BF7-F855-3543-8421-29C9FE395588}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="2" xr2:uid="{9A462BF7-F855-3543-8421-29C9FE395588}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="CONCLUSIONS" sheetId="2" r:id="rId2"/>
     <sheet name="COST PER TASK" sheetId="3" r:id="rId3"/>
-    <sheet name="DATOS" sheetId="4" r:id="rId4"/>
+    <sheet name="COST CURVE" sheetId="5" r:id="rId4"/>
+    <sheet name="DATOS" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="155">
   <si>
     <t>Resource Cost</t>
   </si>
@@ -435,9 +436,6 @@
     <t>HARDW.3</t>
   </si>
   <si>
-    <t>ORDEN TAREA</t>
-  </si>
-  <si>
     <t>SOFT2</t>
   </si>
   <si>
@@ -490,6 +488,12 @@
   </si>
   <si>
     <t>€</t>
+  </si>
+  <si>
+    <t>DIA INICIO</t>
+  </si>
+  <si>
+    <t>COSTE DIARIO</t>
   </si>
 </sst>
 </file>
@@ -546,7 +550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,6 +566,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,9 +646,6 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -652,6 +659,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1367,13 +1377,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F63103-BA4A-034D-A5D7-99AF2FC30E8C}">
-  <dimension ref="A1:AK65"/>
+  <dimension ref="A1:AL65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1395,91 +1405,92 @@
     <col min="34" max="35" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="128" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
         <v>44</v>
       </c>
       <c r="AD1" s="6" t="s">
@@ -1503,11 +1514,14 @@
       <c r="AJ1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="15" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL1" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -1555,12 +1569,16 @@
         <f>'COST PER TASK'!P2*'COST PER TASK'!AE2*DATOS!$D$16+'COST PER TASK'!Q2*'COST PER TASK'!AE2*DATOS!$D$17+'COST PER TASK'!R2*'COST PER TASK'!AE2*DATOS!$D$18+'COST PER TASK'!S2*'COST PER TASK'!AE2*DATOS!$D$19+'COST PER TASK'!T2*'COST PER TASK'!AE2*DATOS!$D$20+'COST PER TASK'!U2*'COST PER TASK'!AE2*DATOS!$D$21+'COST PER TASK'!V2*'COST PER TASK'!AE2*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK2" s="9">
+      <c r="AK2" s="8">
         <f>AG2+AH2+AI2+AJ2</f>
         <v>3280</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL2" s="8">
+        <f>AK2/AD2</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -1602,12 +1620,16 @@
         <f>'COST PER TASK'!P3*'COST PER TASK'!AE3*DATOS!$D$16+'COST PER TASK'!Q3*'COST PER TASK'!AE3*DATOS!$D$17+'COST PER TASK'!R3*'COST PER TASK'!AE3*DATOS!$D$18+'COST PER TASK'!S3*'COST PER TASK'!AE3*DATOS!$D$19+'COST PER TASK'!T3*'COST PER TASK'!AE3*DATOS!$D$20+'COST PER TASK'!U3*'COST PER TASK'!AE3*DATOS!$D$21+'COST PER TASK'!V3*'COST PER TASK'!AE3*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="9">
+      <c r="AK3" s="8">
         <f t="shared" ref="AK3:AK64" si="1">AG3+AH3+AI3+AJ3</f>
         <v>133760</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL3" s="8">
+        <f t="shared" ref="AL3:AL64" si="2">AK3/AD3</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>62</v>
       </c>
@@ -1649,12 +1671,16 @@
         <f>'COST PER TASK'!P4*'COST PER TASK'!AE4*DATOS!$D$16+'COST PER TASK'!Q4*'COST PER TASK'!AE4*DATOS!$D$17+'COST PER TASK'!R4*'COST PER TASK'!AE4*DATOS!$D$18+'COST PER TASK'!S4*'COST PER TASK'!AE4*DATOS!$D$19+'COST PER TASK'!T4*'COST PER TASK'!AE4*DATOS!$D$20+'COST PER TASK'!U4*'COST PER TASK'!AE4*DATOS!$D$21+'COST PER TASK'!V4*'COST PER TASK'!AE4*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK4" s="9">
+      <c r="AK4" s="8">
         <f t="shared" si="1"/>
         <v>144320</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL4" s="8">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -1702,12 +1728,16 @@
         <f>'COST PER TASK'!P5*'COST PER TASK'!AE5*DATOS!$D$16+'COST PER TASK'!Q5*'COST PER TASK'!AE5*DATOS!$D$17+'COST PER TASK'!R5*'COST PER TASK'!AE5*DATOS!$D$18+'COST PER TASK'!S5*'COST PER TASK'!AE5*DATOS!$D$19+'COST PER TASK'!T5*'COST PER TASK'!AE5*DATOS!$D$20+'COST PER TASK'!U5*'COST PER TASK'!AE5*DATOS!$D$21+'COST PER TASK'!V5*'COST PER TASK'!AE5*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="9">
+      <c r="AK5" s="8">
         <f t="shared" si="1"/>
         <v>88000</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL5" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>64</v>
       </c>
@@ -1743,12 +1773,16 @@
         <f>'COST PER TASK'!P6*'COST PER TASK'!AE6*DATOS!$D$16+'COST PER TASK'!Q6*'COST PER TASK'!AE6*DATOS!$D$17+'COST PER TASK'!R6*'COST PER TASK'!AE6*DATOS!$D$18+'COST PER TASK'!S6*'COST PER TASK'!AE6*DATOS!$D$19+'COST PER TASK'!T6*'COST PER TASK'!AE6*DATOS!$D$20+'COST PER TASK'!U6*'COST PER TASK'!AE6*DATOS!$D$21+'COST PER TASK'!V6*'COST PER TASK'!AE6*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="9">
+      <c r="AK6" s="8">
         <f t="shared" si="1"/>
         <v>88000</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL6" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -1784,12 +1818,16 @@
         <f>'COST PER TASK'!P7*'COST PER TASK'!AE7*DATOS!$D$16+'COST PER TASK'!Q7*'COST PER TASK'!AE7*DATOS!$D$17+'COST PER TASK'!R7*'COST PER TASK'!AE7*DATOS!$D$18+'COST PER TASK'!S7*'COST PER TASK'!AE7*DATOS!$D$19+'COST PER TASK'!T7*'COST PER TASK'!AE7*DATOS!$D$20+'COST PER TASK'!U7*'COST PER TASK'!AE7*DATOS!$D$21+'COST PER TASK'!V7*'COST PER TASK'!AE7*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK7" s="9">
+      <c r="AK7" s="8">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL7" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -1825,12 +1863,16 @@
         <f>'COST PER TASK'!P8*'COST PER TASK'!AE8*DATOS!$D$16+'COST PER TASK'!Q8*'COST PER TASK'!AE8*DATOS!$D$17+'COST PER TASK'!R8*'COST PER TASK'!AE8*DATOS!$D$18+'COST PER TASK'!S8*'COST PER TASK'!AE8*DATOS!$D$19+'COST PER TASK'!T8*'COST PER TASK'!AE8*DATOS!$D$20+'COST PER TASK'!U8*'COST PER TASK'!AE8*DATOS!$D$21+'COST PER TASK'!V8*'COST PER TASK'!AE8*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK8" s="9">
+      <c r="AK8" s="8">
         <f t="shared" si="1"/>
         <v>83000</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL8" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -1875,12 +1917,16 @@
         <f>'COST PER TASK'!P9*'COST PER TASK'!AE9*DATOS!$D$16+'COST PER TASK'!Q9*'COST PER TASK'!AE9*DATOS!$D$17+'COST PER TASK'!R9*'COST PER TASK'!AE9*DATOS!$D$18+'COST PER TASK'!S9*'COST PER TASK'!AE9*DATOS!$D$19+'COST PER TASK'!T9*'COST PER TASK'!AE9*DATOS!$D$20+'COST PER TASK'!U9*'COST PER TASK'!AE9*DATOS!$D$21+'COST PER TASK'!V9*'COST PER TASK'!AE9*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="9">
+      <c r="AK9" s="8">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL9" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>68</v>
       </c>
@@ -1925,12 +1971,16 @@
         <f>'COST PER TASK'!P10*'COST PER TASK'!AE10*DATOS!$D$16+'COST PER TASK'!Q10*'COST PER TASK'!AE10*DATOS!$D$17+'COST PER TASK'!R10*'COST PER TASK'!AE10*DATOS!$D$18+'COST PER TASK'!S10*'COST PER TASK'!AE10*DATOS!$D$19+'COST PER TASK'!T10*'COST PER TASK'!AE10*DATOS!$D$20+'COST PER TASK'!U10*'COST PER TASK'!AE10*DATOS!$D$21+'COST PER TASK'!V10*'COST PER TASK'!AE10*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK10" s="9">
+      <c r="AK10" s="8">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL10" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>69</v>
       </c>
@@ -1975,12 +2025,16 @@
         <f>'COST PER TASK'!P11*'COST PER TASK'!AE11*DATOS!$D$16+'COST PER TASK'!Q11*'COST PER TASK'!AE11*DATOS!$D$17+'COST PER TASK'!R11*'COST PER TASK'!AE11*DATOS!$D$18+'COST PER TASK'!S11*'COST PER TASK'!AE11*DATOS!$D$19+'COST PER TASK'!T11*'COST PER TASK'!AE11*DATOS!$D$20+'COST PER TASK'!U11*'COST PER TASK'!AE11*DATOS!$D$21+'COST PER TASK'!V11*'COST PER TASK'!AE11*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK11" s="9">
+      <c r="AK11" s="8">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL11" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>70</v>
       </c>
@@ -2025,12 +2079,16 @@
         <f>'COST PER TASK'!P12*'COST PER TASK'!AE12*DATOS!$D$16+'COST PER TASK'!Q12*'COST PER TASK'!AE12*DATOS!$D$17+'COST PER TASK'!R12*'COST PER TASK'!AE12*DATOS!$D$18+'COST PER TASK'!S12*'COST PER TASK'!AE12*DATOS!$D$19+'COST PER TASK'!T12*'COST PER TASK'!AE12*DATOS!$D$20+'COST PER TASK'!U12*'COST PER TASK'!AE12*DATOS!$D$21+'COST PER TASK'!V12*'COST PER TASK'!AE12*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK12" s="9">
+      <c r="AK12" s="8">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL12" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>71</v>
       </c>
@@ -2072,12 +2130,16 @@
         <f>'COST PER TASK'!P13*'COST PER TASK'!AE13*DATOS!$D$16+'COST PER TASK'!Q13*'COST PER TASK'!AE13*DATOS!$D$17+'COST PER TASK'!R13*'COST PER TASK'!AE13*DATOS!$D$18+'COST PER TASK'!S13*'COST PER TASK'!AE13*DATOS!$D$19+'COST PER TASK'!T13*'COST PER TASK'!AE13*DATOS!$D$20+'COST PER TASK'!U13*'COST PER TASK'!AE13*DATOS!$D$21+'COST PER TASK'!V13*'COST PER TASK'!AE13*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="9">
+      <c r="AK13" s="8">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL13" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>72</v>
       </c>
@@ -2113,12 +2175,16 @@
         <f>'COST PER TASK'!P14*'COST PER TASK'!AE14*DATOS!$D$16+'COST PER TASK'!Q14*'COST PER TASK'!AE14*DATOS!$D$17+'COST PER TASK'!R14*'COST PER TASK'!AE14*DATOS!$D$18+'COST PER TASK'!S14*'COST PER TASK'!AE14*DATOS!$D$19+'COST PER TASK'!T14*'COST PER TASK'!AE14*DATOS!$D$20+'COST PER TASK'!U14*'COST PER TASK'!AE14*DATOS!$D$21+'COST PER TASK'!V14*'COST PER TASK'!AE14*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="9">
+      <c r="AK14" s="8">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL14" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>73</v>
       </c>
@@ -2163,12 +2229,16 @@
         <f>'COST PER TASK'!P15*'COST PER TASK'!AE15*DATOS!$D$16+'COST PER TASK'!Q15*'COST PER TASK'!AE15*DATOS!$D$17+'COST PER TASK'!R15*'COST PER TASK'!AE15*DATOS!$D$18+'COST PER TASK'!S15*'COST PER TASK'!AE15*DATOS!$D$19+'COST PER TASK'!T15*'COST PER TASK'!AE15*DATOS!$D$20+'COST PER TASK'!U15*'COST PER TASK'!AE15*DATOS!$D$21+'COST PER TASK'!V15*'COST PER TASK'!AE15*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="9">
+      <c r="AK15" s="8">
         <f t="shared" si="1"/>
         <v>88000</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL15" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>74</v>
       </c>
@@ -2213,12 +2283,16 @@
         <f>'COST PER TASK'!P16*'COST PER TASK'!AE16*DATOS!$D$16+'COST PER TASK'!Q16*'COST PER TASK'!AE16*DATOS!$D$17+'COST PER TASK'!R16*'COST PER TASK'!AE16*DATOS!$D$18+'COST PER TASK'!S16*'COST PER TASK'!AE16*DATOS!$D$19+'COST PER TASK'!T16*'COST PER TASK'!AE16*DATOS!$D$20+'COST PER TASK'!U16*'COST PER TASK'!AE16*DATOS!$D$21+'COST PER TASK'!V16*'COST PER TASK'!AE16*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="9">
+      <c r="AK16" s="8">
         <f t="shared" si="1"/>
         <v>88000</v>
       </c>
-    </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL16" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>75</v>
       </c>
@@ -2263,12 +2337,16 @@
         <f>'COST PER TASK'!P17*'COST PER TASK'!AE17*DATOS!$D$16+'COST PER TASK'!Q17*'COST PER TASK'!AE17*DATOS!$D$17+'COST PER TASK'!R17*'COST PER TASK'!AE17*DATOS!$D$18+'COST PER TASK'!S17*'COST PER TASK'!AE17*DATOS!$D$19+'COST PER TASK'!T17*'COST PER TASK'!AE17*DATOS!$D$20+'COST PER TASK'!U17*'COST PER TASK'!AE17*DATOS!$D$21+'COST PER TASK'!V17*'COST PER TASK'!AE17*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK17" s="9">
+      <c r="AK17" s="8">
         <f t="shared" si="1"/>
         <v>88000</v>
       </c>
-    </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL17" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>76</v>
       </c>
@@ -2313,12 +2391,16 @@
         <f>'COST PER TASK'!P18*'COST PER TASK'!AE18*DATOS!$D$16+'COST PER TASK'!Q18*'COST PER TASK'!AE18*DATOS!$D$17+'COST PER TASK'!R18*'COST PER TASK'!AE18*DATOS!$D$18+'COST PER TASK'!S18*'COST PER TASK'!AE18*DATOS!$D$19+'COST PER TASK'!T18*'COST PER TASK'!AE18*DATOS!$D$20+'COST PER TASK'!U18*'COST PER TASK'!AE18*DATOS!$D$21+'COST PER TASK'!V18*'COST PER TASK'!AE18*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK18" s="9">
+      <c r="AK18" s="8">
         <f t="shared" si="1"/>
         <v>88000</v>
       </c>
-    </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL18" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>77</v>
       </c>
@@ -2357,12 +2439,16 @@
         <f>'COST PER TASK'!P19*'COST PER TASK'!AE19*DATOS!$D$16+'COST PER TASK'!Q19*'COST PER TASK'!AE19*DATOS!$D$17+'COST PER TASK'!R19*'COST PER TASK'!AE19*DATOS!$D$18+'COST PER TASK'!S19*'COST PER TASK'!AE19*DATOS!$D$19+'COST PER TASK'!T19*'COST PER TASK'!AE19*DATOS!$D$20+'COST PER TASK'!U19*'COST PER TASK'!AE19*DATOS!$D$21+'COST PER TASK'!V19*'COST PER TASK'!AE19*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK19" s="9">
+      <c r="AK19" s="8">
         <f t="shared" si="1"/>
         <v>88000</v>
       </c>
-    </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL19" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -2410,12 +2496,16 @@
         <f>'COST PER TASK'!P20*'COST PER TASK'!AE20*DATOS!$D$16+'COST PER TASK'!Q20*'COST PER TASK'!AE20*DATOS!$D$17+'COST PER TASK'!R20*'COST PER TASK'!AE20*DATOS!$D$18+'COST PER TASK'!S20*'COST PER TASK'!AE20*DATOS!$D$19+'COST PER TASK'!T20*'COST PER TASK'!AE20*DATOS!$D$20+'COST PER TASK'!U20*'COST PER TASK'!AE20*DATOS!$D$21+'COST PER TASK'!V20*'COST PER TASK'!AE20*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK20" s="9">
+      <c r="AK20" s="8">
         <f t="shared" si="1"/>
         <v>2448</v>
       </c>
-    </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL20" s="8">
+        <f t="shared" si="2"/>
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>79</v>
       </c>
@@ -2460,12 +2550,16 @@
         <f>'COST PER TASK'!P21*'COST PER TASK'!AE21*DATOS!$D$16+'COST PER TASK'!Q21*'COST PER TASK'!AE21*DATOS!$D$17+'COST PER TASK'!R21*'COST PER TASK'!AE21*DATOS!$D$18+'COST PER TASK'!S21*'COST PER TASK'!AE21*DATOS!$D$19+'COST PER TASK'!T21*'COST PER TASK'!AE21*DATOS!$D$20+'COST PER TASK'!U21*'COST PER TASK'!AE21*DATOS!$D$21+'COST PER TASK'!V21*'COST PER TASK'!AE21*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK21" s="9">
+      <c r="AK21" s="8">
         <f t="shared" si="1"/>
         <v>1666.6666666666667</v>
       </c>
-    </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL21" s="8">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>80</v>
       </c>
@@ -2513,12 +2607,16 @@
         <f>'COST PER TASK'!P22*'COST PER TASK'!AE22*DATOS!$D$16+'COST PER TASK'!Q22*'COST PER TASK'!AE22*DATOS!$D$17+'COST PER TASK'!R22*'COST PER TASK'!AE22*DATOS!$D$18+'COST PER TASK'!S22*'COST PER TASK'!AE22*DATOS!$D$19+'COST PER TASK'!T22*'COST PER TASK'!AE22*DATOS!$D$20+'COST PER TASK'!U22*'COST PER TASK'!AE22*DATOS!$D$21+'COST PER TASK'!V22*'COST PER TASK'!AE22*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK22" s="9">
+      <c r="AK22" s="8">
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-    </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL22" s="8">
+        <f t="shared" si="2"/>
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>81</v>
       </c>
@@ -2563,12 +2661,16 @@
         <f>'COST PER TASK'!P23*'COST PER TASK'!AE23*DATOS!$D$16+'COST PER TASK'!Q23*'COST PER TASK'!AE23*DATOS!$D$17+'COST PER TASK'!R23*'COST PER TASK'!AE23*DATOS!$D$18+'COST PER TASK'!S23*'COST PER TASK'!AE23*DATOS!$D$19+'COST PER TASK'!T23*'COST PER TASK'!AE23*DATOS!$D$20+'COST PER TASK'!U23*'COST PER TASK'!AE23*DATOS!$D$21+'COST PER TASK'!V23*'COST PER TASK'!AE23*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK23" s="9">
+      <c r="AK23" s="8">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL23" s="8">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -2616,12 +2718,16 @@
         <f>'COST PER TASK'!P24*'COST PER TASK'!AE24*DATOS!$D$16+'COST PER TASK'!Q24*'COST PER TASK'!AE24*DATOS!$D$17+'COST PER TASK'!R24*'COST PER TASK'!AE24*DATOS!$D$18+'COST PER TASK'!S24*'COST PER TASK'!AE24*DATOS!$D$19+'COST PER TASK'!T24*'COST PER TASK'!AE24*DATOS!$D$20+'COST PER TASK'!U24*'COST PER TASK'!AE24*DATOS!$D$21+'COST PER TASK'!V24*'COST PER TASK'!AE24*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK24" s="9">
+      <c r="AK24" s="8">
         <f t="shared" si="1"/>
         <v>1632</v>
       </c>
-    </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL24" s="8">
+        <f t="shared" si="2"/>
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>83</v>
       </c>
@@ -2669,12 +2775,16 @@
         <f>'COST PER TASK'!P25*'COST PER TASK'!AE25*DATOS!$D$16+'COST PER TASK'!Q25*'COST PER TASK'!AE25*DATOS!$D$17+'COST PER TASK'!R25*'COST PER TASK'!AE25*DATOS!$D$18+'COST PER TASK'!S25*'COST PER TASK'!AE25*DATOS!$D$19+'COST PER TASK'!T25*'COST PER TASK'!AE25*DATOS!$D$20+'COST PER TASK'!U25*'COST PER TASK'!AE25*DATOS!$D$21+'COST PER TASK'!V25*'COST PER TASK'!AE25*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK25" s="9">
+      <c r="AK25" s="8">
         <f t="shared" si="1"/>
         <v>1632</v>
       </c>
-    </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL25" s="8">
+        <f t="shared" si="2"/>
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -2722,12 +2832,16 @@
         <f>'COST PER TASK'!P26*'COST PER TASK'!AE26*DATOS!$D$16+'COST PER TASK'!Q26*'COST PER TASK'!AE26*DATOS!$D$17+'COST PER TASK'!R26*'COST PER TASK'!AE26*DATOS!$D$18+'COST PER TASK'!S26*'COST PER TASK'!AE26*DATOS!$D$19+'COST PER TASK'!T26*'COST PER TASK'!AE26*DATOS!$D$20+'COST PER TASK'!U26*'COST PER TASK'!AE26*DATOS!$D$21+'COST PER TASK'!V26*'COST PER TASK'!AE26*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK26" s="9">
+      <c r="AK26" s="8">
         <f t="shared" si="1"/>
         <v>1632</v>
       </c>
-    </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL26" s="8">
+        <f t="shared" si="2"/>
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>85</v>
       </c>
@@ -2772,12 +2886,16 @@
         <f>'COST PER TASK'!P27*'COST PER TASK'!AE27*DATOS!$D$16+'COST PER TASK'!Q27*'COST PER TASK'!AE27*DATOS!$D$17+'COST PER TASK'!R27*'COST PER TASK'!AE27*DATOS!$D$18+'COST PER TASK'!S27*'COST PER TASK'!AE27*DATOS!$D$19+'COST PER TASK'!T27*'COST PER TASK'!AE27*DATOS!$D$20+'COST PER TASK'!U27*'COST PER TASK'!AE27*DATOS!$D$21+'COST PER TASK'!V27*'COST PER TASK'!AE27*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK27" s="9">
+      <c r="AK27" s="8">
         <f t="shared" si="1"/>
         <v>2666.666666666667</v>
       </c>
-    </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL27" s="8">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -2825,12 +2943,16 @@
         <f>'COST PER TASK'!P28*'COST PER TASK'!AE28*DATOS!$D$16+'COST PER TASK'!Q28*'COST PER TASK'!AE28*DATOS!$D$17+'COST PER TASK'!R28*'COST PER TASK'!AE28*DATOS!$D$18+'COST PER TASK'!S28*'COST PER TASK'!AE28*DATOS!$D$19+'COST PER TASK'!T28*'COST PER TASK'!AE28*DATOS!$D$20+'COST PER TASK'!U28*'COST PER TASK'!AE28*DATOS!$D$21+'COST PER TASK'!V28*'COST PER TASK'!AE28*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK28" s="9">
+      <c r="AK28" s="8">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL28" s="8">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>87</v>
       </c>
@@ -2881,12 +3003,16 @@
         <f>'COST PER TASK'!P29*'COST PER TASK'!AE29*DATOS!$D$16+'COST PER TASK'!Q29*'COST PER TASK'!AE29*DATOS!$D$17+'COST PER TASK'!R29*'COST PER TASK'!AE29*DATOS!$D$18+'COST PER TASK'!S29*'COST PER TASK'!AE29*DATOS!$D$19+'COST PER TASK'!T29*'COST PER TASK'!AE29*DATOS!$D$20+'COST PER TASK'!U29*'COST PER TASK'!AE29*DATOS!$D$21+'COST PER TASK'!V29*'COST PER TASK'!AE29*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK29" s="9">
+      <c r="AK29" s="8">
         <f t="shared" si="1"/>
         <v>2914.2857142857147</v>
       </c>
-    </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL29" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714292</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>88</v>
       </c>
@@ -2937,12 +3063,16 @@
         <f>'COST PER TASK'!P30*'COST PER TASK'!AE30*DATOS!$D$16+'COST PER TASK'!Q30*'COST PER TASK'!AE30*DATOS!$D$17+'COST PER TASK'!R30*'COST PER TASK'!AE30*DATOS!$D$18+'COST PER TASK'!S30*'COST PER TASK'!AE30*DATOS!$D$19+'COST PER TASK'!T30*'COST PER TASK'!AE30*DATOS!$D$20+'COST PER TASK'!U30*'COST PER TASK'!AE30*DATOS!$D$21+'COST PER TASK'!V30*'COST PER TASK'!AE30*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK30" s="9">
+      <c r="AK30" s="8">
         <f t="shared" si="1"/>
         <v>1748.5714285714284</v>
       </c>
-    </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL30" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714285</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>89</v>
       </c>
@@ -2993,12 +3123,16 @@
         <f>'COST PER TASK'!P31*'COST PER TASK'!AE31*DATOS!$D$16+'COST PER TASK'!Q31*'COST PER TASK'!AE31*DATOS!$D$17+'COST PER TASK'!R31*'COST PER TASK'!AE31*DATOS!$D$18+'COST PER TASK'!S31*'COST PER TASK'!AE31*DATOS!$D$19+'COST PER TASK'!T31*'COST PER TASK'!AE31*DATOS!$D$20+'COST PER TASK'!U31*'COST PER TASK'!AE31*DATOS!$D$21+'COST PER TASK'!V31*'COST PER TASK'!AE31*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK31" s="9">
+      <c r="AK31" s="8">
         <f t="shared" si="1"/>
         <v>1748.5714285714284</v>
       </c>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL31" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714285</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>90</v>
       </c>
@@ -3049,12 +3183,16 @@
         <f>'COST PER TASK'!P32*'COST PER TASK'!AE32*DATOS!$D$16+'COST PER TASK'!Q32*'COST PER TASK'!AE32*DATOS!$D$17+'COST PER TASK'!R32*'COST PER TASK'!AE32*DATOS!$D$18+'COST PER TASK'!S32*'COST PER TASK'!AE32*DATOS!$D$19+'COST PER TASK'!T32*'COST PER TASK'!AE32*DATOS!$D$20+'COST PER TASK'!U32*'COST PER TASK'!AE32*DATOS!$D$21+'COST PER TASK'!V32*'COST PER TASK'!AE32*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK32" s="9">
+      <c r="AK32" s="8">
         <f t="shared" si="1"/>
         <v>1165.7142857142858</v>
       </c>
-    </row>
-    <row r="33" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL32" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714292</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>91</v>
       </c>
@@ -3102,12 +3240,16 @@
         <f>'COST PER TASK'!P33*'COST PER TASK'!AE33*DATOS!$D$16+'COST PER TASK'!Q33*'COST PER TASK'!AE33*DATOS!$D$17+'COST PER TASK'!R33*'COST PER TASK'!AE33*DATOS!$D$18+'COST PER TASK'!S33*'COST PER TASK'!AE33*DATOS!$D$19+'COST PER TASK'!T33*'COST PER TASK'!AE33*DATOS!$D$20+'COST PER TASK'!U33*'COST PER TASK'!AE33*DATOS!$D$21+'COST PER TASK'!V33*'COST PER TASK'!AE33*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK33" s="9">
+      <c r="AK33" s="8">
         <f t="shared" si="1"/>
         <v>666.66666666666674</v>
       </c>
-    </row>
-    <row r="34" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL33" s="8">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>92</v>
       </c>
@@ -3158,12 +3300,16 @@
         <f>'COST PER TASK'!P34*'COST PER TASK'!AE34*DATOS!$D$16+'COST PER TASK'!Q34*'COST PER TASK'!AE34*DATOS!$D$17+'COST PER TASK'!R34*'COST PER TASK'!AE34*DATOS!$D$18+'COST PER TASK'!S34*'COST PER TASK'!AE34*DATOS!$D$19+'COST PER TASK'!T34*'COST PER TASK'!AE34*DATOS!$D$20+'COST PER TASK'!U34*'COST PER TASK'!AE34*DATOS!$D$21+'COST PER TASK'!V34*'COST PER TASK'!AE34*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK34" s="9">
+      <c r="AK34" s="8">
         <f t="shared" si="1"/>
         <v>1165.7142857142858</v>
       </c>
-    </row>
-    <row r="35" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL34" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714292</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>93</v>
       </c>
@@ -3214,12 +3360,16 @@
         <f>'COST PER TASK'!P35*'COST PER TASK'!AE35*DATOS!$D$16+'COST PER TASK'!Q35*'COST PER TASK'!AE35*DATOS!$D$17+'COST PER TASK'!R35*'COST PER TASK'!AE35*DATOS!$D$18+'COST PER TASK'!S35*'COST PER TASK'!AE35*DATOS!$D$19+'COST PER TASK'!T35*'COST PER TASK'!AE35*DATOS!$D$20+'COST PER TASK'!U35*'COST PER TASK'!AE35*DATOS!$D$21+'COST PER TASK'!V35*'COST PER TASK'!AE35*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK35" s="9">
+      <c r="AK35" s="8">
         <f t="shared" si="1"/>
         <v>2331.4285714285716</v>
       </c>
-    </row>
-    <row r="36" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL35" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714292</v>
+      </c>
+    </row>
+    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>94</v>
       </c>
@@ -3270,12 +3420,16 @@
         <f>'COST PER TASK'!P36*'COST PER TASK'!AE36*DATOS!$D$16+'COST PER TASK'!Q36*'COST PER TASK'!AE36*DATOS!$D$17+'COST PER TASK'!R36*'COST PER TASK'!AE36*DATOS!$D$18+'COST PER TASK'!S36*'COST PER TASK'!AE36*DATOS!$D$19+'COST PER TASK'!T36*'COST PER TASK'!AE36*DATOS!$D$20+'COST PER TASK'!U36*'COST PER TASK'!AE36*DATOS!$D$21+'COST PER TASK'!V36*'COST PER TASK'!AE36*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK36" s="9">
+      <c r="AK36" s="8">
         <f t="shared" si="1"/>
         <v>1165.7142857142858</v>
       </c>
-    </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL36" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714292</v>
+      </c>
+    </row>
+    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>95</v>
       </c>
@@ -3326,12 +3480,16 @@
         <f>'COST PER TASK'!P37*'COST PER TASK'!AE37*DATOS!$D$16+'COST PER TASK'!Q37*'COST PER TASK'!AE37*DATOS!$D$17+'COST PER TASK'!R37*'COST PER TASK'!AE37*DATOS!$D$18+'COST PER TASK'!S37*'COST PER TASK'!AE37*DATOS!$D$19+'COST PER TASK'!T37*'COST PER TASK'!AE37*DATOS!$D$20+'COST PER TASK'!U37*'COST PER TASK'!AE37*DATOS!$D$21+'COST PER TASK'!V37*'COST PER TASK'!AE37*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK37" s="9">
+      <c r="AK37" s="8">
         <f t="shared" si="1"/>
         <v>11657.142857142859</v>
       </c>
-    </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL37" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714292</v>
+      </c>
+    </row>
+    <row r="38" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>96</v>
       </c>
@@ -3382,12 +3540,16 @@
         <f>'COST PER TASK'!P38*'COST PER TASK'!AE38*DATOS!$D$16+'COST PER TASK'!Q38*'COST PER TASK'!AE38*DATOS!$D$17+'COST PER TASK'!R38*'COST PER TASK'!AE38*DATOS!$D$18+'COST PER TASK'!S38*'COST PER TASK'!AE38*DATOS!$D$19+'COST PER TASK'!T38*'COST PER TASK'!AE38*DATOS!$D$20+'COST PER TASK'!U38*'COST PER TASK'!AE38*DATOS!$D$21+'COST PER TASK'!V38*'COST PER TASK'!AE38*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK38" s="9">
+      <c r="AK38" s="8">
         <f t="shared" si="1"/>
         <v>3497.1428571428569</v>
       </c>
-    </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL38" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714285</v>
+      </c>
+    </row>
+    <row r="39" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>97</v>
       </c>
@@ -3438,12 +3600,16 @@
         <f>'COST PER TASK'!P39*'COST PER TASK'!AE39*DATOS!$D$16+'COST PER TASK'!Q39*'COST PER TASK'!AE39*DATOS!$D$17+'COST PER TASK'!R39*'COST PER TASK'!AE39*DATOS!$D$18+'COST PER TASK'!S39*'COST PER TASK'!AE39*DATOS!$D$19+'COST PER TASK'!T39*'COST PER TASK'!AE39*DATOS!$D$20+'COST PER TASK'!U39*'COST PER TASK'!AE39*DATOS!$D$21+'COST PER TASK'!V39*'COST PER TASK'!AE39*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK39" s="9">
+      <c r="AK39" s="8">
         <f t="shared" si="1"/>
         <v>11657.142857142859</v>
       </c>
-    </row>
-    <row r="40" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL39" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714292</v>
+      </c>
+    </row>
+    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>98</v>
       </c>
@@ -3494,12 +3660,16 @@
         <f>'COST PER TASK'!P40*'COST PER TASK'!AE40*DATOS!$D$16+'COST PER TASK'!Q40*'COST PER TASK'!AE40*DATOS!$D$17+'COST PER TASK'!R40*'COST PER TASK'!AE40*DATOS!$D$18+'COST PER TASK'!S40*'COST PER TASK'!AE40*DATOS!$D$19+'COST PER TASK'!T40*'COST PER TASK'!AE40*DATOS!$D$20+'COST PER TASK'!U40*'COST PER TASK'!AE40*DATOS!$D$21+'COST PER TASK'!V40*'COST PER TASK'!AE40*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK40" s="9">
+      <c r="AK40" s="8">
         <f t="shared" si="1"/>
         <v>11657.142857142859</v>
       </c>
-    </row>
-    <row r="41" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL40" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714292</v>
+      </c>
+    </row>
+    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>99</v>
       </c>
@@ -3550,12 +3720,16 @@
         <f>'COST PER TASK'!P41*'COST PER TASK'!AE41*DATOS!$D$16+'COST PER TASK'!Q41*'COST PER TASK'!AE41*DATOS!$D$17+'COST PER TASK'!R41*'COST PER TASK'!AE41*DATOS!$D$18+'COST PER TASK'!S41*'COST PER TASK'!AE41*DATOS!$D$19+'COST PER TASK'!T41*'COST PER TASK'!AE41*DATOS!$D$20+'COST PER TASK'!U41*'COST PER TASK'!AE41*DATOS!$D$21+'COST PER TASK'!V41*'COST PER TASK'!AE41*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK41" s="9">
+      <c r="AK41" s="8">
         <f t="shared" si="1"/>
         <v>3497.1428571428569</v>
       </c>
-    </row>
-    <row r="42" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL41" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714285</v>
+      </c>
+    </row>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>100</v>
       </c>
@@ -3606,12 +3780,16 @@
         <f>'COST PER TASK'!P42*'COST PER TASK'!AE42*DATOS!$D$16+'COST PER TASK'!Q42*'COST PER TASK'!AE42*DATOS!$D$17+'COST PER TASK'!R42*'COST PER TASK'!AE42*DATOS!$D$18+'COST PER TASK'!S42*'COST PER TASK'!AE42*DATOS!$D$19+'COST PER TASK'!T42*'COST PER TASK'!AE42*DATOS!$D$20+'COST PER TASK'!U42*'COST PER TASK'!AE42*DATOS!$D$21+'COST PER TASK'!V42*'COST PER TASK'!AE42*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK42" s="9">
+      <c r="AK42" s="8">
         <f t="shared" si="1"/>
         <v>5828.5714285714294</v>
       </c>
-    </row>
-    <row r="43" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL42" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714292</v>
+      </c>
+    </row>
+    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>101</v>
       </c>
@@ -3662,12 +3840,16 @@
         <f>'COST PER TASK'!P43*'COST PER TASK'!AE43*DATOS!$D$16+'COST PER TASK'!Q43*'COST PER TASK'!AE43*DATOS!$D$17+'COST PER TASK'!R43*'COST PER TASK'!AE43*DATOS!$D$18+'COST PER TASK'!S43*'COST PER TASK'!AE43*DATOS!$D$19+'COST PER TASK'!T43*'COST PER TASK'!AE43*DATOS!$D$20+'COST PER TASK'!U43*'COST PER TASK'!AE43*DATOS!$D$21+'COST PER TASK'!V43*'COST PER TASK'!AE43*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK43" s="9">
+      <c r="AK43" s="8">
         <f t="shared" si="1"/>
         <v>10491.428571428572</v>
       </c>
-    </row>
-    <row r="44" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL43" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714292</v>
+      </c>
+    </row>
+    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>102</v>
       </c>
@@ -3718,12 +3900,16 @@
         <f>'COST PER TASK'!P44*'COST PER TASK'!AE44*DATOS!$D$16+'COST PER TASK'!Q44*'COST PER TASK'!AE44*DATOS!$D$17+'COST PER TASK'!R44*'COST PER TASK'!AE44*DATOS!$D$18+'COST PER TASK'!S44*'COST PER TASK'!AE44*DATOS!$D$19+'COST PER TASK'!T44*'COST PER TASK'!AE44*DATOS!$D$20+'COST PER TASK'!U44*'COST PER TASK'!AE44*DATOS!$D$21+'COST PER TASK'!V44*'COST PER TASK'!AE44*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK44" s="9">
+      <c r="AK44" s="8">
         <f t="shared" si="1"/>
         <v>7868.5714285714275</v>
       </c>
-    </row>
-    <row r="45" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL44" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714278</v>
+      </c>
+    </row>
+    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>103</v>
       </c>
@@ -3774,12 +3960,16 @@
         <f>'COST PER TASK'!P45*'COST PER TASK'!AE45*DATOS!$D$16+'COST PER TASK'!Q45*'COST PER TASK'!AE45*DATOS!$D$17+'COST PER TASK'!R45*'COST PER TASK'!AE45*DATOS!$D$18+'COST PER TASK'!S45*'COST PER TASK'!AE45*DATOS!$D$19+'COST PER TASK'!T45*'COST PER TASK'!AE45*DATOS!$D$20+'COST PER TASK'!U45*'COST PER TASK'!AE45*DATOS!$D$21+'COST PER TASK'!V45*'COST PER TASK'!AE45*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK45" s="9">
+      <c r="AK45" s="8">
         <f t="shared" si="1"/>
         <v>1457.1428571428573</v>
       </c>
-    </row>
-    <row r="46" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL45" s="8">
+        <f t="shared" si="2"/>
+        <v>58.285714285714292</v>
+      </c>
+    </row>
+    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>104</v>
       </c>
@@ -3818,12 +4008,16 @@
         <f>'COST PER TASK'!P46*'COST PER TASK'!AE46*DATOS!$D$16+'COST PER TASK'!Q46*'COST PER TASK'!AE46*DATOS!$D$17+'COST PER TASK'!R46*'COST PER TASK'!AE46*DATOS!$D$18+'COST PER TASK'!S46*'COST PER TASK'!AE46*DATOS!$D$19+'COST PER TASK'!T46*'COST PER TASK'!AE46*DATOS!$D$20+'COST PER TASK'!U46*'COST PER TASK'!AE46*DATOS!$D$21+'COST PER TASK'!V46*'COST PER TASK'!AE46*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK46" s="9">
+      <c r="AK46" s="8">
         <f t="shared" si="1"/>
         <v>13866.666666666668</v>
       </c>
-    </row>
-    <row r="47" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL46" s="8">
+        <f t="shared" si="2"/>
+        <v>69.333333333333343</v>
+      </c>
+    </row>
+    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>105</v>
       </c>
@@ -3871,12 +4065,16 @@
         <f>'COST PER TASK'!P47*'COST PER TASK'!AE47*DATOS!$D$16+'COST PER TASK'!Q47*'COST PER TASK'!AE47*DATOS!$D$17+'COST PER TASK'!R47*'COST PER TASK'!AE47*DATOS!$D$18+'COST PER TASK'!S47*'COST PER TASK'!AE47*DATOS!$D$19+'COST PER TASK'!T47*'COST PER TASK'!AE47*DATOS!$D$20+'COST PER TASK'!U47*'COST PER TASK'!AE47*DATOS!$D$21+'COST PER TASK'!V47*'COST PER TASK'!AE47*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK47" s="9">
+      <c r="AK47" s="8">
         <f t="shared" si="1"/>
         <v>10400</v>
       </c>
-    </row>
-    <row r="48" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL47" s="8">
+        <f t="shared" si="2"/>
+        <v>69.333333333333329</v>
+      </c>
+    </row>
+    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>106</v>
       </c>
@@ -3918,12 +4116,16 @@
         <f>'COST PER TASK'!P48*'COST PER TASK'!AE48*DATOS!$D$16+'COST PER TASK'!Q48*'COST PER TASK'!AE48*DATOS!$D$17+'COST PER TASK'!R48*'COST PER TASK'!AE48*DATOS!$D$18+'COST PER TASK'!S48*'COST PER TASK'!AE48*DATOS!$D$19+'COST PER TASK'!T48*'COST PER TASK'!AE48*DATOS!$D$20+'COST PER TASK'!U48*'COST PER TASK'!AE48*DATOS!$D$21+'COST PER TASK'!V48*'COST PER TASK'!AE48*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK48" s="9">
+      <c r="AK48" s="8">
         <f t="shared" si="1"/>
         <v>6933.3333333333339</v>
       </c>
-    </row>
-    <row r="49" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL48" s="8">
+        <f t="shared" si="2"/>
+        <v>69.333333333333343</v>
+      </c>
+    </row>
+    <row r="49" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>107</v>
       </c>
@@ -3962,12 +4164,16 @@
         <f>'COST PER TASK'!P49*'COST PER TASK'!AE49*DATOS!$D$16+'COST PER TASK'!Q49*'COST PER TASK'!AE49*DATOS!$D$17+'COST PER TASK'!R49*'COST PER TASK'!AE49*DATOS!$D$18+'COST PER TASK'!S49*'COST PER TASK'!AE49*DATOS!$D$19+'COST PER TASK'!T49*'COST PER TASK'!AE49*DATOS!$D$20+'COST PER TASK'!U49*'COST PER TASK'!AE49*DATOS!$D$21+'COST PER TASK'!V49*'COST PER TASK'!AE49*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK49" s="9">
+      <c r="AK49" s="8">
         <f t="shared" si="1"/>
         <v>3120</v>
       </c>
-    </row>
-    <row r="50" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL49" s="8">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>108</v>
       </c>
@@ -4015,12 +4221,16 @@
         <f>'COST PER TASK'!P50*'COST PER TASK'!AE50*DATOS!$D$16+'COST PER TASK'!Q50*'COST PER TASK'!AE50*DATOS!$D$17+'COST PER TASK'!R50*'COST PER TASK'!AE50*DATOS!$D$18+'COST PER TASK'!S50*'COST PER TASK'!AE50*DATOS!$D$19+'COST PER TASK'!T50*'COST PER TASK'!AE50*DATOS!$D$20+'COST PER TASK'!U50*'COST PER TASK'!AE50*DATOS!$D$21+'COST PER TASK'!V50*'COST PER TASK'!AE50*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK50" s="9">
+      <c r="AK50" s="8">
         <f t="shared" si="1"/>
         <v>3120</v>
       </c>
-    </row>
-    <row r="51" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL50" s="8">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>109</v>
       </c>
@@ -4059,12 +4269,16 @@
         <f>'COST PER TASK'!P51*'COST PER TASK'!AE51*DATOS!$D$16+'COST PER TASK'!Q51*'COST PER TASK'!AE51*DATOS!$D$17+'COST PER TASK'!R51*'COST PER TASK'!AE51*DATOS!$D$18+'COST PER TASK'!S51*'COST PER TASK'!AE51*DATOS!$D$19+'COST PER TASK'!T51*'COST PER TASK'!AE51*DATOS!$D$20+'COST PER TASK'!U51*'COST PER TASK'!AE51*DATOS!$D$21+'COST PER TASK'!V51*'COST PER TASK'!AE51*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK51" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AK51" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL51" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>110</v>
       </c>
@@ -4118,12 +4332,16 @@
         <f>'COST PER TASK'!P52*'COST PER TASK'!AE52*DATOS!$D$16+'COST PER TASK'!Q52*'COST PER TASK'!AE52*DATOS!$D$17+'COST PER TASK'!R52*'COST PER TASK'!AE52*DATOS!$D$18+'COST PER TASK'!S52*'COST PER TASK'!AE52*DATOS!$D$19+'COST PER TASK'!T52*'COST PER TASK'!AE52*DATOS!$D$20+'COST PER TASK'!U52*'COST PER TASK'!AE52*DATOS!$D$21+'COST PER TASK'!V52*'COST PER TASK'!AE52*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK52" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AK52" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL52" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>111</v>
       </c>
@@ -4180,12 +4398,16 @@
         <f>'COST PER TASK'!P53*'COST PER TASK'!AE53*DATOS!$D$16+'COST PER TASK'!Q53*'COST PER TASK'!AE53*DATOS!$D$17+'COST PER TASK'!R53*'COST PER TASK'!AE53*DATOS!$D$18+'COST PER TASK'!S53*'COST PER TASK'!AE53*DATOS!$D$19+'COST PER TASK'!T53*'COST PER TASK'!AE53*DATOS!$D$20+'COST PER TASK'!U53*'COST PER TASK'!AE53*DATOS!$D$21+'COST PER TASK'!V53*'COST PER TASK'!AE53*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK53" s="9">
+      <c r="AK53" s="8">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="54" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL53" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>112</v>
       </c>
@@ -4227,12 +4449,16 @@
         <f>'COST PER TASK'!P54*'COST PER TASK'!AE54*DATOS!$D$16+'COST PER TASK'!Q54*'COST PER TASK'!AE54*DATOS!$D$17+'COST PER TASK'!R54*'COST PER TASK'!AE54*DATOS!$D$18+'COST PER TASK'!S54*'COST PER TASK'!AE54*DATOS!$D$19+'COST PER TASK'!T54*'COST PER TASK'!AE54*DATOS!$D$20+'COST PER TASK'!U54*'COST PER TASK'!AE54*DATOS!$D$21+'COST PER TASK'!V54*'COST PER TASK'!AE54*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK54" s="9">
+      <c r="AK54" s="8">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="55" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL54" s="8">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>113</v>
       </c>
@@ -4274,12 +4500,16 @@
         <f>'COST PER TASK'!P55*'COST PER TASK'!AE55*DATOS!$D$16+'COST PER TASK'!Q55*'COST PER TASK'!AE55*DATOS!$D$17+'COST PER TASK'!R55*'COST PER TASK'!AE55*DATOS!$D$18+'COST PER TASK'!S55*'COST PER TASK'!AE55*DATOS!$D$19+'COST PER TASK'!T55*'COST PER TASK'!AE55*DATOS!$D$20+'COST PER TASK'!U55*'COST PER TASK'!AE55*DATOS!$D$21+'COST PER TASK'!V55*'COST PER TASK'!AE55*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK55" s="9">
+      <c r="AK55" s="8">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="56" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL55" s="8">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>114</v>
       </c>
@@ -4321,12 +4551,16 @@
         <f>'COST PER TASK'!P56*'COST PER TASK'!AE56*DATOS!$D$16+'COST PER TASK'!Q56*'COST PER TASK'!AE56*DATOS!$D$17+'COST PER TASK'!R56*'COST PER TASK'!AE56*DATOS!$D$18+'COST PER TASK'!S56*'COST PER TASK'!AE56*DATOS!$D$19+'COST PER TASK'!T56*'COST PER TASK'!AE56*DATOS!$D$20+'COST PER TASK'!U56*'COST PER TASK'!AE56*DATOS!$D$21+'COST PER TASK'!V56*'COST PER TASK'!AE56*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK56" s="9">
+      <c r="AK56" s="8">
         <f t="shared" si="1"/>
         <v>666.66666666666674</v>
       </c>
-    </row>
-    <row r="57" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL56" s="8">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="57" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>115</v>
       </c>
@@ -4359,7 +4593,7 @@
         <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
-      <c r="AG57" s="15">
+      <c r="AG57" s="14">
         <f>AF57*C57*DATOS!$B$3+'COST PER TASK'!AF57*'COST PER TASK'!D57*DATOS!B59+'COST PER TASK'!AF57*'COST PER TASK'!E57*DATOS!$B$5</f>
         <v>640</v>
       </c>
@@ -4371,12 +4605,16 @@
         <f>'COST PER TASK'!P57*'COST PER TASK'!AE57*DATOS!$D$16+'COST PER TASK'!Q57*'COST PER TASK'!AE57*DATOS!$D$17+'COST PER TASK'!R57*'COST PER TASK'!AE57*DATOS!$D$18+'COST PER TASK'!S57*'COST PER TASK'!AE57*DATOS!$D$19+'COST PER TASK'!T57*'COST PER TASK'!AE57*DATOS!$D$20+'COST PER TASK'!U57*'COST PER TASK'!AE57*DATOS!$D$21+'COST PER TASK'!V57*'COST PER TASK'!AE57*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK57" s="9">
+      <c r="AK57" s="8">
         <f t="shared" si="1"/>
         <v>640</v>
       </c>
-    </row>
-    <row r="58" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL57" s="8">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>116</v>
       </c>
@@ -4421,12 +4659,16 @@
         <f>'COST PER TASK'!P58*'COST PER TASK'!AE58*DATOS!$D$16+'COST PER TASK'!Q58*'COST PER TASK'!AE58*DATOS!$D$17+'COST PER TASK'!R58*'COST PER TASK'!AE58*DATOS!$D$18+'COST PER TASK'!S58*'COST PER TASK'!AE58*DATOS!$D$19+'COST PER TASK'!T58*'COST PER TASK'!AE58*DATOS!$D$20+'COST PER TASK'!U58*'COST PER TASK'!AE58*DATOS!$D$21+'COST PER TASK'!V58*'COST PER TASK'!AE58*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK58" s="9">
+      <c r="AK58" s="8">
         <f t="shared" si="1"/>
         <v>1666.6666666666667</v>
       </c>
-    </row>
-    <row r="59" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL58" s="8">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="59" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>117</v>
       </c>
@@ -4465,12 +4707,16 @@
         <f>'COST PER TASK'!P59*'COST PER TASK'!AE59*DATOS!$D$16+'COST PER TASK'!Q59*'COST PER TASK'!AE59*DATOS!$D$17+'COST PER TASK'!R59*'COST PER TASK'!AE59*DATOS!$D$18+'COST PER TASK'!S59*'COST PER TASK'!AE59*DATOS!$D$19+'COST PER TASK'!T59*'COST PER TASK'!AE59*DATOS!$D$20+'COST PER TASK'!U59*'COST PER TASK'!AE59*DATOS!$D$21+'COST PER TASK'!V59*'COST PER TASK'!AE59*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK59" s="9">
+      <c r="AK59" s="8">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="60" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL59" s="8">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="60" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>118</v>
       </c>
@@ -4506,12 +4752,16 @@
         <f>'COST PER TASK'!P60*'COST PER TASK'!AE60*DATOS!$D$16+'COST PER TASK'!Q60*'COST PER TASK'!AE60*DATOS!$D$17+'COST PER TASK'!R60*'COST PER TASK'!AE60*DATOS!$D$18+'COST PER TASK'!S60*'COST PER TASK'!AE60*DATOS!$D$19+'COST PER TASK'!T60*'COST PER TASK'!AE60*DATOS!$D$20+'COST PER TASK'!U60*'COST PER TASK'!AE60*DATOS!$D$21+'COST PER TASK'!V60*'COST PER TASK'!AE60*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK60" s="9">
+      <c r="AK60" s="8">
         <f t="shared" si="1"/>
         <v>51333.333333333336</v>
       </c>
-    </row>
-    <row r="61" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL60" s="8">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="61" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>119</v>
       </c>
@@ -4550,12 +4800,16 @@
         <f>'COST PER TASK'!P61*'COST PER TASK'!AE61*DATOS!$D$16+'COST PER TASK'!Q61*'COST PER TASK'!AE61*DATOS!$D$17+'COST PER TASK'!R61*'COST PER TASK'!AE61*DATOS!$D$18+'COST PER TASK'!S61*'COST PER TASK'!AE61*DATOS!$D$19+'COST PER TASK'!T61*'COST PER TASK'!AE61*DATOS!$D$20+'COST PER TASK'!U61*'COST PER TASK'!AE61*DATOS!$D$21+'COST PER TASK'!V61*'COST PER TASK'!AE61*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK61" s="9">
+      <c r="AK61" s="8">
         <f t="shared" si="1"/>
         <v>57333.333333333336</v>
       </c>
-    </row>
-    <row r="62" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL61" s="8">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="62" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>120</v>
       </c>
@@ -4591,12 +4845,16 @@
         <f>'COST PER TASK'!P62*'COST PER TASK'!AE62*DATOS!$D$16+'COST PER TASK'!Q62*'COST PER TASK'!AE62*DATOS!$D$17+'COST PER TASK'!R62*'COST PER TASK'!AE62*DATOS!$D$18+'COST PER TASK'!S62*'COST PER TASK'!AE62*DATOS!$D$19+'COST PER TASK'!T62*'COST PER TASK'!AE62*DATOS!$D$20+'COST PER TASK'!U62*'COST PER TASK'!AE62*DATOS!$D$21+'COST PER TASK'!V62*'COST PER TASK'!AE62*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK62" s="9">
+      <c r="AK62" s="8">
         <f t="shared" si="1"/>
         <v>57333.333333333336</v>
       </c>
-    </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL62" s="8">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="63" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>121</v>
       </c>
@@ -4638,12 +4896,16 @@
         <f>'COST PER TASK'!P63*'COST PER TASK'!AE63*DATOS!$D$16+'COST PER TASK'!Q63*'COST PER TASK'!AE63*DATOS!$D$17+'COST PER TASK'!R63*'COST PER TASK'!AE63*DATOS!$D$18+'COST PER TASK'!S63*'COST PER TASK'!AE63*DATOS!$D$19+'COST PER TASK'!T63*'COST PER TASK'!AE63*DATOS!$D$20+'COST PER TASK'!U63*'COST PER TASK'!AE63*DATOS!$D$21+'COST PER TASK'!V63*'COST PER TASK'!AE63*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK63" s="9">
+      <c r="AK63" s="8">
         <f t="shared" si="1"/>
         <v>57333.333333333336</v>
       </c>
-    </row>
-    <row r="64" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL63" s="8">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="64" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>122</v>
       </c>
@@ -4685,106 +4947,110 @@
         <f>'COST PER TASK'!P64*'COST PER TASK'!AE64*DATOS!$D$16+'COST PER TASK'!Q64*'COST PER TASK'!AE64*DATOS!$D$17+'COST PER TASK'!R64*'COST PER TASK'!AE64*DATOS!$D$18+'COST PER TASK'!S64*'COST PER TASK'!AE64*DATOS!$D$19+'COST PER TASK'!T64*'COST PER TASK'!AE64*DATOS!$D$20+'COST PER TASK'!U64*'COST PER TASK'!AE64*DATOS!$D$21+'COST PER TASK'!V64*'COST PER TASK'!AE64*DATOS!$D$22</f>
         <v>0</v>
       </c>
-      <c r="AK64" s="9">
+      <c r="AK64" s="8">
         <f t="shared" si="1"/>
         <v>57333.333333333336</v>
       </c>
+      <c r="AL64" s="8">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
     </row>
     <row r="65" spans="6:29" x14ac:dyDescent="0.2">
-      <c r="F65" s="14">
+      <c r="F65" s="13">
         <f>F2*$AE2+F3*$AE3+F4*$AE4+F5*$AE5+F6*$AE6+F7*$AE7+F8*$AE8+F9*$AE9+F10*$AE10+F11*$AE11+F12*$AE12+F13*$AE13+F14*$AE14+F15*$AE15+F16*$AE16+F17*$AE17+F18*$AE18+F19*$AE19+F20*$AE20+F21*$AE21+F22*$AE22+F23*$AE23+F24*$AE24+F25*$AE25+F26*$AE26+F27*$AE27+F28*$AE28+F29*$AE29+F30*$AE30+F31*$AE31+F32*$AE32+F33*$AE33+F34*$AE34+F35*$AE35+F36*$AE36+F37*$AE37+F38*$AE38+F39*$AE39+F40*$AE40+F41*$AE41+F42*$AE42+F43*$AE43+F44*$AE44+F45*$AE45+F46*$AE46+F47*$AE47+F48*$AE48+F49*$AE49+F50*$AE50+F51*$AE51+F52*$AE52+F53*$AE53+F54*$AE54+F55*$AE55+F56*$AE56+F57*$AE57+F58*$AE58+F59*$AE59+F60*$AE60+F61*$AE61+F62*$AE62+F63*$AE63+F64*$AE64</f>
         <v>62664</v>
       </c>
-      <c r="G65" s="14">
-        <f t="shared" ref="G65:O65" si="2">G2*$AE2+G3*$AE3+G4*$AE4+G5*$AE5+G6*$AE6+G7*$AE7+G8*$AE8+G9*$AE9+G10*$AE10+G11*$AE11+G12*$AE12+G13*$AE13+G14*$AE14+G15*$AE15+G16*$AE16+G17*$AE17+G18*$AE18+G19*$AE19+G20*$AE20+G21*$AE21+G22*$AE22+G23*$AE23+G24*$AE24+G25*$AE25+G26*$AE26+G27*$AE27+G28*$AE28+G29*$AE29+G30*$AE30+G31*$AE31+G32*$AE32+G33*$AE33+G34*$AE34+G35*$AE35+G36*$AE36+G37*$AE37+G38*$AE38+G39*$AE39+G40*$AE40+G41*$AE41+G42*$AE42+G43*$AE43+G44*$AE44+G45*$AE45+G46*$AE46+G47*$AE47+G48*$AE48+G49*$AE49+G50*$AE50+G51*$AE51+G52*$AE52+G53*$AE53+G54*$AE54+G55*$AE55+G56*$AE56+G57*$AE57+G58*$AE58+G59*$AE59+G60*$AE60+G61*$AE61+G62*$AE62+G63*$AE63+G64*$AE64</f>
+      <c r="G65" s="13">
+        <f t="shared" ref="G65:O65" si="3">G2*$AE2+G3*$AE3+G4*$AE4+G5*$AE5+G6*$AE6+G7*$AE7+G8*$AE8+G9*$AE9+G10*$AE10+G11*$AE11+G12*$AE12+G13*$AE13+G14*$AE14+G15*$AE15+G16*$AE16+G17*$AE17+G18*$AE18+G19*$AE19+G20*$AE20+G21*$AE21+G22*$AE22+G23*$AE23+G24*$AE24+G25*$AE25+G26*$AE26+G27*$AE27+G28*$AE28+G29*$AE29+G30*$AE30+G31*$AE31+G32*$AE32+G33*$AE33+G34*$AE34+G35*$AE35+G36*$AE36+G37*$AE37+G38*$AE38+G39*$AE39+G40*$AE40+G41*$AE41+G42*$AE42+G43*$AE43+G44*$AE44+G45*$AE45+G46*$AE46+G47*$AE47+G48*$AE48+G49*$AE49+G50*$AE50+G51*$AE51+G52*$AE52+G53*$AE53+G54*$AE54+G55*$AE55+G56*$AE56+G57*$AE57+G58*$AE58+G59*$AE59+G60*$AE60+G61*$AE61+G62*$AE62+G63*$AE63+G64*$AE64</f>
         <v>48520</v>
       </c>
-      <c r="H65" s="14">
-        <f t="shared" si="2"/>
+      <c r="H65" s="13">
+        <f t="shared" si="3"/>
         <v>48904</v>
       </c>
-      <c r="I65" s="14">
-        <f t="shared" si="2"/>
+      <c r="I65" s="13">
+        <f t="shared" si="3"/>
         <v>14080</v>
       </c>
-      <c r="J65" s="14">
-        <f t="shared" si="2"/>
+      <c r="J65" s="13">
+        <f t="shared" si="3"/>
         <v>7120</v>
       </c>
-      <c r="K65" s="14">
-        <f t="shared" si="2"/>
+      <c r="K65" s="13">
+        <f t="shared" si="3"/>
         <v>4160</v>
       </c>
-      <c r="L65" s="14">
-        <f t="shared" si="2"/>
+      <c r="L65" s="13">
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="M65" s="14">
-        <f t="shared" si="2"/>
+      <c r="M65" s="13">
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
-      <c r="N65" s="14">
+      <c r="N65" s="13">
         <f>N2*$AE2+N3*$AE3+N4*$AE4+N5*$AE5+N6*$AE6+N7*$AE7+N8*$AE8+N9*$AE9+N10*$AE10+N11*$AE11+N12*$AE12+N13*$AE13+N14*$AE14+N15*$AE15+N16*$AE16+N17*$AE17+N18*$AE18+N19*$AE19+N20*$AE20+N21*$AE21+N22*$AE22+N23*$AE23+N24*$AE24+N25*$AE25+N26*$AE26+N27*$AE27+N28*$AE28+N29*$AE29+N30*$AE30+N31*$AE31+N32*$AE32+N33*$AE33+N34*$AE34+N35*$AE35+N36*$AE36+N37*$AE37+N38*$AE38+N39*$AE39+N40*$AE40+N41*$AE41+N42*$AE42+N43*$AE43+N44*$AE44+N45*$AE45+N46*$AE46+N47*$AE47+N48*$AE48+N49*$AE49+N50*$AE50+N51*$AE51+N52*$AE52+N53*$AE53+N54*$AE54+N55*$AE55+N56*$AE56+N57*$AE57+N58*$AE58+N59*$AE59+N60*$AE60+N61*$AE61+N62*$AE62+N63*$AE63+N64*$AE64</f>
         <v>13920</v>
       </c>
-      <c r="O65" s="14">
-        <f t="shared" si="2"/>
+      <c r="O65" s="13">
+        <f t="shared" si="3"/>
         <v>13760</v>
       </c>
-      <c r="P65" s="14">
-        <f t="shared" ref="P65" si="3">P2*$AE2+P3*$AE3+P4*$AE4+P5*$AE5+P6*$AE6+P7*$AE7+P8*$AE8+P9*$AE9+P10*$AE10+P11*$AE11+P12*$AE12+P13*$AE13+P14*$AE14+P15*$AE15+P16*$AE16+P17*$AE17+P18*$AE18+P19*$AE19+P20*$AE20+P21*$AE21+P22*$AE22+P23*$AE23+P24*$AE24+P25*$AE25+P26*$AE26+P27*$AE27+P28*$AE28+P29*$AE29+P30*$AE30+P31*$AE31+P32*$AE32+P33*$AE33+P34*$AE34+P35*$AE35+P36*$AE36+P37*$AE37+P38*$AE38+P39*$AE39+P40*$AE40+P41*$AE41+P42*$AE42+P43*$AE43+P44*$AE44+P45*$AE45+P46*$AE46+P47*$AE47+P48*$AE48+P49*$AE49+P50*$AE50+P51*$AE51+P52*$AE52+P53*$AE53+P54*$AE54+P55*$AE55+P56*$AE56+P57*$AE57+P58*$AE58+P59*$AE59+P60*$AE60+P61*$AE61+P62*$AE62+P63*$AE63+P64*$AE64</f>
+      <c r="P65" s="13">
+        <f t="shared" ref="P65" si="4">P2*$AE2+P3*$AE3+P4*$AE4+P5*$AE5+P6*$AE6+P7*$AE7+P8*$AE8+P9*$AE9+P10*$AE10+P11*$AE11+P12*$AE12+P13*$AE13+P14*$AE14+P15*$AE15+P16*$AE16+P17*$AE17+P18*$AE18+P19*$AE19+P20*$AE20+P21*$AE21+P22*$AE22+P23*$AE23+P24*$AE24+P25*$AE25+P26*$AE26+P27*$AE27+P28*$AE28+P29*$AE29+P30*$AE30+P31*$AE31+P32*$AE32+P33*$AE33+P34*$AE34+P35*$AE35+P36*$AE36+P37*$AE37+P38*$AE38+P39*$AE39+P40*$AE40+P41*$AE41+P42*$AE42+P43*$AE43+P44*$AE44+P45*$AE45+P46*$AE46+P47*$AE47+P48*$AE48+P49*$AE49+P50*$AE50+P51*$AE51+P52*$AE52+P53*$AE53+P54*$AE54+P55*$AE55+P56*$AE56+P57*$AE57+P58*$AE58+P59*$AE59+P60*$AE60+P61*$AE61+P62*$AE62+P63*$AE63+P64*$AE64</f>
         <v>3200</v>
       </c>
-      <c r="Q65" s="14">
-        <f t="shared" ref="Q65" si="4">Q2*$AE2+Q3*$AE3+Q4*$AE4+Q5*$AE5+Q6*$AE6+Q7*$AE7+Q8*$AE8+Q9*$AE9+Q10*$AE10+Q11*$AE11+Q12*$AE12+Q13*$AE13+Q14*$AE14+Q15*$AE15+Q16*$AE16+Q17*$AE17+Q18*$AE18+Q19*$AE19+Q20*$AE20+Q21*$AE21+Q22*$AE22+Q23*$AE23+Q24*$AE24+Q25*$AE25+Q26*$AE26+Q27*$AE27+Q28*$AE28+Q29*$AE29+Q30*$AE30+Q31*$AE31+Q32*$AE32+Q33*$AE33+Q34*$AE34+Q35*$AE35+Q36*$AE36+Q37*$AE37+Q38*$AE38+Q39*$AE39+Q40*$AE40+Q41*$AE41+Q42*$AE42+Q43*$AE43+Q44*$AE44+Q45*$AE45+Q46*$AE46+Q47*$AE47+Q48*$AE48+Q49*$AE49+Q50*$AE50+Q51*$AE51+Q52*$AE52+Q53*$AE53+Q54*$AE54+Q55*$AE55+Q56*$AE56+Q57*$AE57+Q58*$AE58+Q59*$AE59+Q60*$AE60+Q61*$AE61+Q62*$AE62+Q63*$AE63+Q64*$AE64</f>
+      <c r="Q65" s="13">
+        <f t="shared" ref="Q65" si="5">Q2*$AE2+Q3*$AE3+Q4*$AE4+Q5*$AE5+Q6*$AE6+Q7*$AE7+Q8*$AE8+Q9*$AE9+Q10*$AE10+Q11*$AE11+Q12*$AE12+Q13*$AE13+Q14*$AE14+Q15*$AE15+Q16*$AE16+Q17*$AE17+Q18*$AE18+Q19*$AE19+Q20*$AE20+Q21*$AE21+Q22*$AE22+Q23*$AE23+Q24*$AE24+Q25*$AE25+Q26*$AE26+Q27*$AE27+Q28*$AE28+Q29*$AE29+Q30*$AE30+Q31*$AE31+Q32*$AE32+Q33*$AE33+Q34*$AE34+Q35*$AE35+Q36*$AE36+Q37*$AE37+Q38*$AE38+Q39*$AE39+Q40*$AE40+Q41*$AE41+Q42*$AE42+Q43*$AE43+Q44*$AE44+Q45*$AE45+Q46*$AE46+Q47*$AE47+Q48*$AE48+Q49*$AE49+Q50*$AE50+Q51*$AE51+Q52*$AE52+Q53*$AE53+Q54*$AE54+Q55*$AE55+Q56*$AE56+Q57*$AE57+Q58*$AE58+Q59*$AE59+Q60*$AE60+Q61*$AE61+Q62*$AE62+Q63*$AE63+Q64*$AE64</f>
         <v>2800</v>
       </c>
-      <c r="R65" s="14">
-        <f t="shared" ref="R65" si="5">R2*$AE2+R3*$AE3+R4*$AE4+R5*$AE5+R6*$AE6+R7*$AE7+R8*$AE8+R9*$AE9+R10*$AE10+R11*$AE11+R12*$AE12+R13*$AE13+R14*$AE14+R15*$AE15+R16*$AE16+R17*$AE17+R18*$AE18+R19*$AE19+R20*$AE20+R21*$AE21+R22*$AE22+R23*$AE23+R24*$AE24+R25*$AE25+R26*$AE26+R27*$AE27+R28*$AE28+R29*$AE29+R30*$AE30+R31*$AE31+R32*$AE32+R33*$AE33+R34*$AE34+R35*$AE35+R36*$AE36+R37*$AE37+R38*$AE38+R39*$AE39+R40*$AE40+R41*$AE41+R42*$AE42+R43*$AE43+R44*$AE44+R45*$AE45+R46*$AE46+R47*$AE47+R48*$AE48+R49*$AE49+R50*$AE50+R51*$AE51+R52*$AE52+R53*$AE53+R54*$AE54+R55*$AE55+R56*$AE56+R57*$AE57+R58*$AE58+R59*$AE59+R60*$AE60+R61*$AE61+R62*$AE62+R63*$AE63+R64*$AE64</f>
+      <c r="R65" s="13">
+        <f t="shared" ref="R65" si="6">R2*$AE2+R3*$AE3+R4*$AE4+R5*$AE5+R6*$AE6+R7*$AE7+R8*$AE8+R9*$AE9+R10*$AE10+R11*$AE11+R12*$AE12+R13*$AE13+R14*$AE14+R15*$AE15+R16*$AE16+R17*$AE17+R18*$AE18+R19*$AE19+R20*$AE20+R21*$AE21+R22*$AE22+R23*$AE23+R24*$AE24+R25*$AE25+R26*$AE26+R27*$AE27+R28*$AE28+R29*$AE29+R30*$AE30+R31*$AE31+R32*$AE32+R33*$AE33+R34*$AE34+R35*$AE35+R36*$AE36+R37*$AE37+R38*$AE38+R39*$AE39+R40*$AE40+R41*$AE41+R42*$AE42+R43*$AE43+R44*$AE44+R45*$AE45+R46*$AE46+R47*$AE47+R48*$AE48+R49*$AE49+R50*$AE50+R51*$AE51+R52*$AE52+R53*$AE53+R54*$AE54+R55*$AE55+R56*$AE56+R57*$AE57+R58*$AE58+R59*$AE59+R60*$AE60+R61*$AE61+R62*$AE62+R63*$AE63+R64*$AE64</f>
         <v>2800</v>
       </c>
-      <c r="S65" s="14">
-        <f t="shared" ref="S65" si="6">S2*$AE2+S3*$AE3+S4*$AE4+S5*$AE5+S6*$AE6+S7*$AE7+S8*$AE8+S9*$AE9+S10*$AE10+S11*$AE11+S12*$AE12+S13*$AE13+S14*$AE14+S15*$AE15+S16*$AE16+S17*$AE17+S18*$AE18+S19*$AE19+S20*$AE20+S21*$AE21+S22*$AE22+S23*$AE23+S24*$AE24+S25*$AE25+S26*$AE26+S27*$AE27+S28*$AE28+S29*$AE29+S30*$AE30+S31*$AE31+S32*$AE32+S33*$AE33+S34*$AE34+S35*$AE35+S36*$AE36+S37*$AE37+S38*$AE38+S39*$AE39+S40*$AE40+S41*$AE41+S42*$AE42+S43*$AE43+S44*$AE44+S45*$AE45+S46*$AE46+S47*$AE47+S48*$AE48+S49*$AE49+S50*$AE50+S51*$AE51+S52*$AE52+S53*$AE53+S54*$AE54+S55*$AE55+S56*$AE56+S57*$AE57+S58*$AE58+S59*$AE59+S60*$AE60+S61*$AE61+S62*$AE62+S63*$AE63+S64*$AE64</f>
+      <c r="S65" s="13">
+        <f t="shared" ref="S65" si="7">S2*$AE2+S3*$AE3+S4*$AE4+S5*$AE5+S6*$AE6+S7*$AE7+S8*$AE8+S9*$AE9+S10*$AE10+S11*$AE11+S12*$AE12+S13*$AE13+S14*$AE14+S15*$AE15+S16*$AE16+S17*$AE17+S18*$AE18+S19*$AE19+S20*$AE20+S21*$AE21+S22*$AE22+S23*$AE23+S24*$AE24+S25*$AE25+S26*$AE26+S27*$AE27+S28*$AE28+S29*$AE29+S30*$AE30+S31*$AE31+S32*$AE32+S33*$AE33+S34*$AE34+S35*$AE35+S36*$AE36+S37*$AE37+S38*$AE38+S39*$AE39+S40*$AE40+S41*$AE41+S42*$AE42+S43*$AE43+S44*$AE44+S45*$AE45+S46*$AE46+S47*$AE47+S48*$AE48+S49*$AE49+S50*$AE50+S51*$AE51+S52*$AE52+S53*$AE53+S54*$AE54+S55*$AE55+S56*$AE56+S57*$AE57+S58*$AE58+S59*$AE59+S60*$AE60+S61*$AE61+S62*$AE62+S63*$AE63+S64*$AE64</f>
         <v>2800</v>
       </c>
-      <c r="T65" s="14">
-        <f t="shared" ref="T65" si="7">T2*$AE2+T3*$AE3+T4*$AE4+T5*$AE5+T6*$AE6+T7*$AE7+T8*$AE8+T9*$AE9+T10*$AE10+T11*$AE11+T12*$AE12+T13*$AE13+T14*$AE14+T15*$AE15+T16*$AE16+T17*$AE17+T18*$AE18+T19*$AE19+T20*$AE20+T21*$AE21+T22*$AE22+T23*$AE23+T24*$AE24+T25*$AE25+T26*$AE26+T27*$AE27+T28*$AE28+T29*$AE29+T30*$AE30+T31*$AE31+T32*$AE32+T33*$AE33+T34*$AE34+T35*$AE35+T36*$AE36+T37*$AE37+T38*$AE38+T39*$AE39+T40*$AE40+T41*$AE41+T42*$AE42+T43*$AE43+T44*$AE44+T45*$AE45+T46*$AE46+T47*$AE47+T48*$AE48+T49*$AE49+T50*$AE50+T51*$AE51+T52*$AE52+T53*$AE53+T54*$AE54+T55*$AE55+T56*$AE56+T57*$AE57+T58*$AE58+T59*$AE59+T60*$AE60+T61*$AE61+T62*$AE62+T63*$AE63+T64*$AE64</f>
+      <c r="T65" s="13">
+        <f t="shared" ref="T65" si="8">T2*$AE2+T3*$AE3+T4*$AE4+T5*$AE5+T6*$AE6+T7*$AE7+T8*$AE8+T9*$AE9+T10*$AE10+T11*$AE11+T12*$AE12+T13*$AE13+T14*$AE14+T15*$AE15+T16*$AE16+T17*$AE17+T18*$AE18+T19*$AE19+T20*$AE20+T21*$AE21+T22*$AE22+T23*$AE23+T24*$AE24+T25*$AE25+T26*$AE26+T27*$AE27+T28*$AE28+T29*$AE29+T30*$AE30+T31*$AE31+T32*$AE32+T33*$AE33+T34*$AE34+T35*$AE35+T36*$AE36+T37*$AE37+T38*$AE38+T39*$AE39+T40*$AE40+T41*$AE41+T42*$AE42+T43*$AE43+T44*$AE44+T45*$AE45+T46*$AE46+T47*$AE47+T48*$AE48+T49*$AE49+T50*$AE50+T51*$AE51+T52*$AE52+T53*$AE53+T54*$AE54+T55*$AE55+T56*$AE56+T57*$AE57+T58*$AE58+T59*$AE59+T60*$AE60+T61*$AE61+T62*$AE62+T63*$AE63+T64*$AE64</f>
         <v>2800</v>
       </c>
-      <c r="U65" s="14">
-        <f t="shared" ref="U65" si="8">U2*$AE2+U3*$AE3+U4*$AE4+U5*$AE5+U6*$AE6+U7*$AE7+U8*$AE8+U9*$AE9+U10*$AE10+U11*$AE11+U12*$AE12+U13*$AE13+U14*$AE14+U15*$AE15+U16*$AE16+U17*$AE17+U18*$AE18+U19*$AE19+U20*$AE20+U21*$AE21+U22*$AE22+U23*$AE23+U24*$AE24+U25*$AE25+U26*$AE26+U27*$AE27+U28*$AE28+U29*$AE29+U30*$AE30+U31*$AE31+U32*$AE32+U33*$AE33+U34*$AE34+U35*$AE35+U36*$AE36+U37*$AE37+U38*$AE38+U39*$AE39+U40*$AE40+U41*$AE41+U42*$AE42+U43*$AE43+U44*$AE44+U45*$AE45+U46*$AE46+U47*$AE47+U48*$AE48+U49*$AE49+U50*$AE50+U51*$AE51+U52*$AE52+U53*$AE53+U54*$AE54+U55*$AE55+U56*$AE56+U57*$AE57+U58*$AE58+U59*$AE59+U60*$AE60+U61*$AE61+U62*$AE62+U63*$AE63+U64*$AE64</f>
+      <c r="U65" s="13">
+        <f t="shared" ref="U65" si="9">U2*$AE2+U3*$AE3+U4*$AE4+U5*$AE5+U6*$AE6+U7*$AE7+U8*$AE8+U9*$AE9+U10*$AE10+U11*$AE11+U12*$AE12+U13*$AE13+U14*$AE14+U15*$AE15+U16*$AE16+U17*$AE17+U18*$AE18+U19*$AE19+U20*$AE20+U21*$AE21+U22*$AE22+U23*$AE23+U24*$AE24+U25*$AE25+U26*$AE26+U27*$AE27+U28*$AE28+U29*$AE29+U30*$AE30+U31*$AE31+U32*$AE32+U33*$AE33+U34*$AE34+U35*$AE35+U36*$AE36+U37*$AE37+U38*$AE38+U39*$AE39+U40*$AE40+U41*$AE41+U42*$AE42+U43*$AE43+U44*$AE44+U45*$AE45+U46*$AE46+U47*$AE47+U48*$AE48+U49*$AE49+U50*$AE50+U51*$AE51+U52*$AE52+U53*$AE53+U54*$AE54+U55*$AE55+U56*$AE56+U57*$AE57+U58*$AE58+U59*$AE59+U60*$AE60+U61*$AE61+U62*$AE62+U63*$AE63+U64*$AE64</f>
         <v>2280</v>
       </c>
-      <c r="V65" s="14">
-        <f t="shared" ref="V65:AC65" si="9">V2*$AE2+V3*$AE3+V4*$AE4+V5*$AE5+V6*$AE6+V7*$AE7+V8*$AE8+V9*$AE9+V10*$AE10+V11*$AE11+V12*$AE12+V13*$AE13+V14*$AE14+V15*$AE15+V16*$AE16+V17*$AE17+V18*$AE18+V19*$AE19+V20*$AE20+V21*$AE21+V22*$AE22+V23*$AE23+V24*$AE24+V25*$AE25+V26*$AE26+V27*$AE27+V28*$AE28+V29*$AE29+V30*$AE30+V31*$AE31+V32*$AE32+V33*$AE33+V34*$AE34+V35*$AE35+V36*$AE36+V37*$AE37+V38*$AE38+V39*$AE39+V40*$AE40+V41*$AE41+V42*$AE42+V43*$AE43+V44*$AE44+V45*$AE45+V46*$AE46+V47*$AE47+V48*$AE48+V49*$AE49+V50*$AE50+V51*$AE51+V52*$AE52+V53*$AE53+V54*$AE54+V55*$AE55+V56*$AE56+V57*$AE57+V58*$AE58+V59*$AE59+V60*$AE60+V61*$AE61+V62*$AE62+V63*$AE63+V64*$AE64</f>
+      <c r="V65" s="13">
+        <f t="shared" ref="V65:AC65" si="10">V2*$AE2+V3*$AE3+V4*$AE4+V5*$AE5+V6*$AE6+V7*$AE7+V8*$AE8+V9*$AE9+V10*$AE10+V11*$AE11+V12*$AE12+V13*$AE13+V14*$AE14+V15*$AE15+V16*$AE16+V17*$AE17+V18*$AE18+V19*$AE19+V20*$AE20+V21*$AE21+V22*$AE22+V23*$AE23+V24*$AE24+V25*$AE25+V26*$AE26+V27*$AE27+V28*$AE28+V29*$AE29+V30*$AE30+V31*$AE31+V32*$AE32+V33*$AE33+V34*$AE34+V35*$AE35+V36*$AE36+V37*$AE37+V38*$AE38+V39*$AE39+V40*$AE40+V41*$AE41+V42*$AE42+V43*$AE43+V44*$AE44+V45*$AE45+V46*$AE46+V47*$AE47+V48*$AE48+V49*$AE49+V50*$AE50+V51*$AE51+V52*$AE52+V53*$AE53+V54*$AE54+V55*$AE55+V56*$AE56+V57*$AE57+V58*$AE58+V59*$AE59+V60*$AE60+V61*$AE61+V62*$AE62+V63*$AE63+V64*$AE64</f>
         <v>2280</v>
       </c>
-      <c r="W65" s="14">
-        <f t="shared" si="9"/>
+      <c r="W65" s="13">
+        <f t="shared" si="10"/>
         <v>59528</v>
       </c>
-      <c r="X65" s="14">
-        <f t="shared" si="9"/>
+      <c r="X65" s="13">
+        <f t="shared" si="10"/>
         <v>35040</v>
       </c>
-      <c r="Y65" s="14">
-        <f t="shared" si="9"/>
+      <c r="Y65" s="13">
+        <f t="shared" si="10"/>
         <v>13920</v>
       </c>
-      <c r="Z65" s="14">
-        <f t="shared" si="9"/>
+      <c r="Z65" s="13">
+        <f t="shared" si="10"/>
         <v>1200</v>
       </c>
-      <c r="AA65" s="14">
-        <f t="shared" si="9"/>
+      <c r="AA65" s="13">
+        <f t="shared" si="10"/>
         <v>28280</v>
       </c>
-      <c r="AB65" s="14">
-        <f t="shared" si="9"/>
+      <c r="AB65" s="13">
+        <f t="shared" si="10"/>
         <v>3880</v>
       </c>
-      <c r="AC65" s="14">
-        <f t="shared" si="9"/>
+      <c r="AC65" s="13">
+        <f t="shared" si="10"/>
         <v>480</v>
       </c>
     </row>
@@ -4794,6 +5060,6499 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E67439D-E1D1-2D40-B576-DC587E33645E}">
+  <dimension ref="A1:AGW65"/>
+  <sheetViews>
+    <sheetView topLeftCell="BA47" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="881" width="3.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+      <c r="CC1">
+        <v>80</v>
+      </c>
+      <c r="CD1">
+        <v>81</v>
+      </c>
+      <c r="CE1">
+        <v>82</v>
+      </c>
+      <c r="CF1">
+        <v>83</v>
+      </c>
+      <c r="CG1">
+        <v>84</v>
+      </c>
+      <c r="CH1">
+        <v>85</v>
+      </c>
+      <c r="CI1">
+        <v>86</v>
+      </c>
+      <c r="CJ1">
+        <v>87</v>
+      </c>
+      <c r="CK1">
+        <v>88</v>
+      </c>
+      <c r="CL1">
+        <v>89</v>
+      </c>
+      <c r="CM1">
+        <v>90</v>
+      </c>
+      <c r="CN1">
+        <v>91</v>
+      </c>
+      <c r="CO1">
+        <v>92</v>
+      </c>
+      <c r="CP1">
+        <v>93</v>
+      </c>
+      <c r="CQ1">
+        <v>94</v>
+      </c>
+      <c r="CR1">
+        <v>95</v>
+      </c>
+      <c r="CS1">
+        <v>96</v>
+      </c>
+      <c r="CT1">
+        <v>97</v>
+      </c>
+      <c r="CU1">
+        <v>98</v>
+      </c>
+      <c r="CV1">
+        <v>99</v>
+      </c>
+      <c r="CW1">
+        <v>100</v>
+      </c>
+      <c r="CX1">
+        <v>101</v>
+      </c>
+      <c r="CY1">
+        <v>102</v>
+      </c>
+      <c r="CZ1">
+        <v>103</v>
+      </c>
+      <c r="DA1">
+        <v>104</v>
+      </c>
+      <c r="DB1">
+        <v>105</v>
+      </c>
+      <c r="DC1">
+        <v>106</v>
+      </c>
+      <c r="DD1">
+        <v>107</v>
+      </c>
+      <c r="DE1">
+        <v>108</v>
+      </c>
+      <c r="DF1">
+        <v>109</v>
+      </c>
+      <c r="DG1">
+        <v>110</v>
+      </c>
+      <c r="DH1">
+        <v>111</v>
+      </c>
+      <c r="DI1">
+        <v>112</v>
+      </c>
+      <c r="DJ1">
+        <v>113</v>
+      </c>
+      <c r="DK1">
+        <v>114</v>
+      </c>
+      <c r="DL1">
+        <v>115</v>
+      </c>
+      <c r="DM1">
+        <v>116</v>
+      </c>
+      <c r="DN1">
+        <v>117</v>
+      </c>
+      <c r="DO1">
+        <v>118</v>
+      </c>
+      <c r="DP1">
+        <v>119</v>
+      </c>
+      <c r="DQ1">
+        <v>120</v>
+      </c>
+      <c r="DR1">
+        <v>121</v>
+      </c>
+      <c r="DS1">
+        <v>122</v>
+      </c>
+      <c r="DT1">
+        <v>123</v>
+      </c>
+      <c r="DU1">
+        <v>124</v>
+      </c>
+      <c r="DV1">
+        <v>125</v>
+      </c>
+      <c r="DW1">
+        <v>126</v>
+      </c>
+      <c r="DX1">
+        <v>127</v>
+      </c>
+      <c r="DY1">
+        <v>128</v>
+      </c>
+      <c r="DZ1">
+        <v>129</v>
+      </c>
+      <c r="EA1">
+        <v>130</v>
+      </c>
+      <c r="EB1">
+        <v>131</v>
+      </c>
+      <c r="EC1">
+        <v>132</v>
+      </c>
+      <c r="ED1">
+        <v>133</v>
+      </c>
+      <c r="EE1">
+        <v>134</v>
+      </c>
+      <c r="EF1">
+        <v>135</v>
+      </c>
+      <c r="EG1">
+        <v>136</v>
+      </c>
+      <c r="EH1">
+        <v>137</v>
+      </c>
+      <c r="EI1">
+        <v>138</v>
+      </c>
+      <c r="EJ1">
+        <v>139</v>
+      </c>
+      <c r="EK1">
+        <v>140</v>
+      </c>
+      <c r="EL1">
+        <v>141</v>
+      </c>
+      <c r="EM1">
+        <v>142</v>
+      </c>
+      <c r="EN1">
+        <v>143</v>
+      </c>
+      <c r="EO1">
+        <v>144</v>
+      </c>
+      <c r="EP1">
+        <v>145</v>
+      </c>
+      <c r="EQ1">
+        <v>146</v>
+      </c>
+      <c r="ER1">
+        <v>147</v>
+      </c>
+      <c r="ES1">
+        <v>148</v>
+      </c>
+      <c r="ET1">
+        <v>149</v>
+      </c>
+      <c r="EU1">
+        <v>150</v>
+      </c>
+      <c r="EV1">
+        <v>151</v>
+      </c>
+      <c r="EW1">
+        <v>152</v>
+      </c>
+      <c r="EX1">
+        <v>153</v>
+      </c>
+      <c r="EY1">
+        <v>154</v>
+      </c>
+      <c r="EZ1">
+        <v>155</v>
+      </c>
+      <c r="FA1">
+        <v>156</v>
+      </c>
+      <c r="FB1">
+        <v>157</v>
+      </c>
+      <c r="FC1">
+        <v>158</v>
+      </c>
+      <c r="FD1">
+        <v>159</v>
+      </c>
+      <c r="FE1">
+        <v>160</v>
+      </c>
+      <c r="FF1">
+        <v>161</v>
+      </c>
+      <c r="FG1">
+        <v>162</v>
+      </c>
+      <c r="FH1">
+        <v>163</v>
+      </c>
+      <c r="FI1">
+        <v>164</v>
+      </c>
+      <c r="FJ1">
+        <v>165</v>
+      </c>
+      <c r="FK1">
+        <v>166</v>
+      </c>
+      <c r="FL1">
+        <v>167</v>
+      </c>
+      <c r="FM1">
+        <v>168</v>
+      </c>
+      <c r="FN1">
+        <v>169</v>
+      </c>
+      <c r="FO1">
+        <v>170</v>
+      </c>
+      <c r="FP1">
+        <v>171</v>
+      </c>
+      <c r="FQ1">
+        <v>172</v>
+      </c>
+      <c r="FR1">
+        <v>173</v>
+      </c>
+      <c r="FS1">
+        <v>174</v>
+      </c>
+      <c r="FT1">
+        <v>175</v>
+      </c>
+      <c r="FU1">
+        <v>176</v>
+      </c>
+      <c r="FV1">
+        <v>177</v>
+      </c>
+      <c r="FW1">
+        <v>178</v>
+      </c>
+      <c r="FX1">
+        <v>179</v>
+      </c>
+      <c r="FY1">
+        <v>180</v>
+      </c>
+      <c r="FZ1">
+        <v>181</v>
+      </c>
+      <c r="GA1">
+        <v>182</v>
+      </c>
+      <c r="GB1">
+        <v>183</v>
+      </c>
+      <c r="GC1">
+        <v>184</v>
+      </c>
+      <c r="GD1">
+        <v>185</v>
+      </c>
+      <c r="GE1">
+        <v>186</v>
+      </c>
+      <c r="GF1">
+        <v>187</v>
+      </c>
+      <c r="GG1">
+        <v>188</v>
+      </c>
+      <c r="GH1">
+        <v>189</v>
+      </c>
+      <c r="GI1">
+        <v>190</v>
+      </c>
+      <c r="GJ1">
+        <v>191</v>
+      </c>
+      <c r="GK1">
+        <v>192</v>
+      </c>
+      <c r="GL1">
+        <v>193</v>
+      </c>
+      <c r="GM1">
+        <v>194</v>
+      </c>
+      <c r="GN1">
+        <v>195</v>
+      </c>
+      <c r="GO1">
+        <v>196</v>
+      </c>
+      <c r="GP1">
+        <v>197</v>
+      </c>
+      <c r="GQ1">
+        <v>198</v>
+      </c>
+      <c r="GR1">
+        <v>199</v>
+      </c>
+      <c r="GS1">
+        <v>200</v>
+      </c>
+      <c r="GT1">
+        <v>201</v>
+      </c>
+      <c r="GU1">
+        <v>202</v>
+      </c>
+      <c r="GV1">
+        <v>203</v>
+      </c>
+      <c r="GW1">
+        <v>204</v>
+      </c>
+      <c r="GX1">
+        <v>205</v>
+      </c>
+      <c r="GY1">
+        <v>206</v>
+      </c>
+      <c r="GZ1">
+        <v>207</v>
+      </c>
+      <c r="HA1">
+        <v>208</v>
+      </c>
+      <c r="HB1">
+        <v>209</v>
+      </c>
+      <c r="HC1">
+        <v>210</v>
+      </c>
+      <c r="HD1">
+        <v>211</v>
+      </c>
+      <c r="HE1">
+        <v>212</v>
+      </c>
+      <c r="HF1">
+        <v>213</v>
+      </c>
+      <c r="HG1">
+        <v>214</v>
+      </c>
+      <c r="HH1">
+        <v>215</v>
+      </c>
+      <c r="HI1">
+        <v>216</v>
+      </c>
+      <c r="HJ1">
+        <v>217</v>
+      </c>
+      <c r="HK1">
+        <v>218</v>
+      </c>
+      <c r="HL1">
+        <v>219</v>
+      </c>
+      <c r="HM1">
+        <v>220</v>
+      </c>
+      <c r="HN1">
+        <v>221</v>
+      </c>
+      <c r="HO1">
+        <v>222</v>
+      </c>
+      <c r="HP1">
+        <v>223</v>
+      </c>
+      <c r="HQ1">
+        <v>224</v>
+      </c>
+      <c r="HR1">
+        <v>225</v>
+      </c>
+      <c r="HS1">
+        <v>226</v>
+      </c>
+      <c r="HT1">
+        <v>227</v>
+      </c>
+      <c r="HU1">
+        <v>228</v>
+      </c>
+      <c r="HV1">
+        <v>229</v>
+      </c>
+      <c r="HW1">
+        <v>230</v>
+      </c>
+      <c r="HX1">
+        <v>231</v>
+      </c>
+      <c r="HY1">
+        <v>232</v>
+      </c>
+      <c r="HZ1">
+        <v>233</v>
+      </c>
+      <c r="IA1">
+        <v>234</v>
+      </c>
+      <c r="IB1">
+        <v>235</v>
+      </c>
+      <c r="IC1">
+        <v>236</v>
+      </c>
+      <c r="ID1">
+        <v>237</v>
+      </c>
+      <c r="IE1">
+        <v>238</v>
+      </c>
+      <c r="IF1">
+        <v>239</v>
+      </c>
+      <c r="IG1">
+        <v>240</v>
+      </c>
+      <c r="IH1">
+        <v>241</v>
+      </c>
+      <c r="II1">
+        <v>242</v>
+      </c>
+      <c r="IJ1">
+        <v>243</v>
+      </c>
+      <c r="IK1">
+        <v>244</v>
+      </c>
+      <c r="IL1">
+        <v>245</v>
+      </c>
+      <c r="IM1">
+        <v>246</v>
+      </c>
+      <c r="IN1">
+        <v>247</v>
+      </c>
+      <c r="IO1">
+        <v>248</v>
+      </c>
+      <c r="IP1">
+        <v>249</v>
+      </c>
+      <c r="IQ1">
+        <v>250</v>
+      </c>
+      <c r="IR1">
+        <v>251</v>
+      </c>
+      <c r="IS1">
+        <v>252</v>
+      </c>
+      <c r="IT1">
+        <v>253</v>
+      </c>
+      <c r="IU1">
+        <v>254</v>
+      </c>
+      <c r="IV1">
+        <v>255</v>
+      </c>
+      <c r="IW1">
+        <v>256</v>
+      </c>
+      <c r="IX1">
+        <v>257</v>
+      </c>
+      <c r="IY1">
+        <v>258</v>
+      </c>
+      <c r="IZ1">
+        <v>259</v>
+      </c>
+      <c r="JA1">
+        <v>260</v>
+      </c>
+      <c r="JB1">
+        <v>261</v>
+      </c>
+      <c r="JC1">
+        <v>262</v>
+      </c>
+      <c r="JD1">
+        <v>263</v>
+      </c>
+      <c r="JE1">
+        <v>264</v>
+      </c>
+      <c r="JF1">
+        <v>265</v>
+      </c>
+      <c r="JG1">
+        <v>266</v>
+      </c>
+      <c r="JH1">
+        <v>267</v>
+      </c>
+      <c r="JI1">
+        <v>268</v>
+      </c>
+      <c r="JJ1">
+        <v>269</v>
+      </c>
+      <c r="JK1">
+        <v>270</v>
+      </c>
+      <c r="JL1">
+        <v>271</v>
+      </c>
+      <c r="JM1">
+        <v>272</v>
+      </c>
+      <c r="JN1">
+        <v>273</v>
+      </c>
+      <c r="JO1">
+        <v>274</v>
+      </c>
+      <c r="JP1">
+        <v>275</v>
+      </c>
+      <c r="JQ1">
+        <v>276</v>
+      </c>
+      <c r="JR1">
+        <v>277</v>
+      </c>
+      <c r="JS1">
+        <v>278</v>
+      </c>
+      <c r="JT1">
+        <v>279</v>
+      </c>
+      <c r="JU1">
+        <v>280</v>
+      </c>
+      <c r="JV1">
+        <v>281</v>
+      </c>
+      <c r="JW1">
+        <v>282</v>
+      </c>
+      <c r="JX1">
+        <v>283</v>
+      </c>
+      <c r="JY1">
+        <v>284</v>
+      </c>
+      <c r="JZ1">
+        <v>285</v>
+      </c>
+      <c r="KA1">
+        <v>286</v>
+      </c>
+      <c r="KB1">
+        <v>287</v>
+      </c>
+      <c r="KC1">
+        <v>288</v>
+      </c>
+      <c r="KD1">
+        <v>289</v>
+      </c>
+      <c r="KE1">
+        <v>290</v>
+      </c>
+      <c r="KF1">
+        <v>291</v>
+      </c>
+      <c r="KG1">
+        <v>292</v>
+      </c>
+      <c r="KH1">
+        <v>293</v>
+      </c>
+      <c r="KI1">
+        <v>294</v>
+      </c>
+      <c r="KJ1">
+        <v>295</v>
+      </c>
+      <c r="KK1">
+        <v>296</v>
+      </c>
+      <c r="KL1">
+        <v>297</v>
+      </c>
+      <c r="KM1">
+        <v>298</v>
+      </c>
+      <c r="KN1">
+        <v>299</v>
+      </c>
+      <c r="KO1">
+        <v>300</v>
+      </c>
+      <c r="KP1">
+        <v>301</v>
+      </c>
+      <c r="KQ1">
+        <v>302</v>
+      </c>
+      <c r="KR1">
+        <v>303</v>
+      </c>
+      <c r="KS1">
+        <v>304</v>
+      </c>
+      <c r="KT1">
+        <v>305</v>
+      </c>
+      <c r="KU1">
+        <v>306</v>
+      </c>
+      <c r="KV1">
+        <v>307</v>
+      </c>
+      <c r="KW1">
+        <v>308</v>
+      </c>
+      <c r="KX1">
+        <v>309</v>
+      </c>
+      <c r="KY1">
+        <v>310</v>
+      </c>
+      <c r="KZ1">
+        <v>311</v>
+      </c>
+      <c r="LA1">
+        <v>312</v>
+      </c>
+      <c r="LB1">
+        <v>313</v>
+      </c>
+      <c r="LC1">
+        <v>314</v>
+      </c>
+      <c r="LD1">
+        <v>315</v>
+      </c>
+      <c r="LE1">
+        <v>316</v>
+      </c>
+      <c r="LF1">
+        <v>317</v>
+      </c>
+      <c r="LG1">
+        <v>318</v>
+      </c>
+      <c r="LH1">
+        <v>319</v>
+      </c>
+      <c r="LI1">
+        <v>320</v>
+      </c>
+      <c r="LJ1">
+        <v>321</v>
+      </c>
+      <c r="LK1">
+        <v>322</v>
+      </c>
+      <c r="LL1">
+        <v>323</v>
+      </c>
+      <c r="LM1">
+        <v>324</v>
+      </c>
+      <c r="LN1">
+        <v>325</v>
+      </c>
+      <c r="LO1">
+        <v>326</v>
+      </c>
+      <c r="LP1">
+        <v>327</v>
+      </c>
+      <c r="LQ1">
+        <v>328</v>
+      </c>
+      <c r="LR1">
+        <v>329</v>
+      </c>
+      <c r="LS1">
+        <v>330</v>
+      </c>
+      <c r="LT1">
+        <v>331</v>
+      </c>
+      <c r="LU1">
+        <v>332</v>
+      </c>
+      <c r="LV1">
+        <v>333</v>
+      </c>
+      <c r="LW1">
+        <v>334</v>
+      </c>
+      <c r="LX1">
+        <v>335</v>
+      </c>
+      <c r="LY1">
+        <v>336</v>
+      </c>
+      <c r="LZ1">
+        <v>337</v>
+      </c>
+      <c r="MA1">
+        <v>338</v>
+      </c>
+      <c r="MB1">
+        <v>339</v>
+      </c>
+      <c r="MC1">
+        <v>340</v>
+      </c>
+      <c r="MD1">
+        <v>341</v>
+      </c>
+      <c r="ME1">
+        <v>342</v>
+      </c>
+      <c r="MF1">
+        <v>343</v>
+      </c>
+      <c r="MG1">
+        <v>344</v>
+      </c>
+      <c r="MH1">
+        <v>345</v>
+      </c>
+      <c r="MI1">
+        <v>346</v>
+      </c>
+      <c r="MJ1">
+        <v>347</v>
+      </c>
+      <c r="MK1">
+        <v>348</v>
+      </c>
+      <c r="ML1">
+        <v>349</v>
+      </c>
+      <c r="MM1">
+        <v>350</v>
+      </c>
+      <c r="MN1">
+        <v>351</v>
+      </c>
+      <c r="MO1">
+        <v>352</v>
+      </c>
+      <c r="MP1">
+        <v>353</v>
+      </c>
+      <c r="MQ1">
+        <v>354</v>
+      </c>
+      <c r="MR1">
+        <v>355</v>
+      </c>
+      <c r="MS1">
+        <v>356</v>
+      </c>
+      <c r="MT1">
+        <v>357</v>
+      </c>
+      <c r="MU1">
+        <v>358</v>
+      </c>
+      <c r="MV1">
+        <v>359</v>
+      </c>
+      <c r="MW1">
+        <v>360</v>
+      </c>
+      <c r="MX1">
+        <v>361</v>
+      </c>
+      <c r="MY1">
+        <v>362</v>
+      </c>
+      <c r="MZ1">
+        <v>363</v>
+      </c>
+      <c r="NA1">
+        <v>364</v>
+      </c>
+      <c r="NB1">
+        <v>365</v>
+      </c>
+      <c r="NC1">
+        <v>366</v>
+      </c>
+      <c r="ND1">
+        <v>367</v>
+      </c>
+      <c r="NE1">
+        <v>368</v>
+      </c>
+      <c r="NF1">
+        <v>369</v>
+      </c>
+      <c r="NG1">
+        <v>370</v>
+      </c>
+      <c r="NH1">
+        <v>371</v>
+      </c>
+      <c r="NI1">
+        <v>372</v>
+      </c>
+      <c r="NJ1">
+        <v>373</v>
+      </c>
+      <c r="NK1">
+        <v>374</v>
+      </c>
+      <c r="NL1">
+        <v>375</v>
+      </c>
+      <c r="NM1">
+        <v>376</v>
+      </c>
+      <c r="NN1">
+        <v>377</v>
+      </c>
+      <c r="NO1">
+        <v>378</v>
+      </c>
+      <c r="NP1">
+        <v>379</v>
+      </c>
+      <c r="NQ1">
+        <v>380</v>
+      </c>
+      <c r="NR1">
+        <v>381</v>
+      </c>
+      <c r="NS1">
+        <v>382</v>
+      </c>
+      <c r="NT1">
+        <v>383</v>
+      </c>
+      <c r="NU1">
+        <v>384</v>
+      </c>
+      <c r="NV1">
+        <v>385</v>
+      </c>
+      <c r="NW1">
+        <v>386</v>
+      </c>
+      <c r="NX1">
+        <v>387</v>
+      </c>
+      <c r="NY1">
+        <v>388</v>
+      </c>
+      <c r="NZ1">
+        <v>389</v>
+      </c>
+      <c r="OA1">
+        <v>390</v>
+      </c>
+      <c r="OB1">
+        <v>391</v>
+      </c>
+      <c r="OC1">
+        <v>392</v>
+      </c>
+      <c r="OD1">
+        <v>393</v>
+      </c>
+      <c r="OE1">
+        <v>394</v>
+      </c>
+      <c r="OF1">
+        <v>395</v>
+      </c>
+      <c r="OG1">
+        <v>396</v>
+      </c>
+      <c r="OH1">
+        <v>397</v>
+      </c>
+      <c r="OI1">
+        <v>398</v>
+      </c>
+      <c r="OJ1">
+        <v>399</v>
+      </c>
+      <c r="OK1">
+        <v>400</v>
+      </c>
+      <c r="OL1">
+        <v>401</v>
+      </c>
+      <c r="OM1">
+        <v>402</v>
+      </c>
+      <c r="ON1">
+        <v>403</v>
+      </c>
+      <c r="OO1">
+        <v>404</v>
+      </c>
+      <c r="OP1">
+        <v>405</v>
+      </c>
+      <c r="OQ1">
+        <v>406</v>
+      </c>
+      <c r="OR1">
+        <v>407</v>
+      </c>
+      <c r="OS1">
+        <v>408</v>
+      </c>
+      <c r="OT1">
+        <v>409</v>
+      </c>
+      <c r="OU1">
+        <v>410</v>
+      </c>
+      <c r="OV1">
+        <v>411</v>
+      </c>
+      <c r="OW1">
+        <v>412</v>
+      </c>
+      <c r="OX1">
+        <v>413</v>
+      </c>
+      <c r="OY1">
+        <v>414</v>
+      </c>
+      <c r="OZ1">
+        <v>415</v>
+      </c>
+      <c r="PA1">
+        <v>416</v>
+      </c>
+      <c r="PB1">
+        <v>417</v>
+      </c>
+      <c r="PC1">
+        <v>418</v>
+      </c>
+      <c r="PD1">
+        <v>419</v>
+      </c>
+      <c r="PE1">
+        <v>420</v>
+      </c>
+      <c r="PF1">
+        <v>421</v>
+      </c>
+      <c r="PG1">
+        <v>422</v>
+      </c>
+      <c r="PH1">
+        <v>423</v>
+      </c>
+      <c r="PI1">
+        <v>424</v>
+      </c>
+      <c r="PJ1">
+        <v>425</v>
+      </c>
+      <c r="PK1">
+        <v>426</v>
+      </c>
+      <c r="PL1">
+        <v>427</v>
+      </c>
+      <c r="PM1">
+        <v>428</v>
+      </c>
+      <c r="PN1">
+        <v>429</v>
+      </c>
+      <c r="PO1">
+        <v>430</v>
+      </c>
+      <c r="PP1">
+        <v>431</v>
+      </c>
+      <c r="PQ1">
+        <v>432</v>
+      </c>
+      <c r="PR1">
+        <v>433</v>
+      </c>
+      <c r="PS1">
+        <v>434</v>
+      </c>
+      <c r="PT1">
+        <v>435</v>
+      </c>
+      <c r="PU1">
+        <v>436</v>
+      </c>
+      <c r="PV1">
+        <v>437</v>
+      </c>
+      <c r="PW1">
+        <v>438</v>
+      </c>
+      <c r="PX1">
+        <v>439</v>
+      </c>
+      <c r="PY1">
+        <v>440</v>
+      </c>
+      <c r="PZ1">
+        <v>441</v>
+      </c>
+      <c r="QA1">
+        <v>442</v>
+      </c>
+      <c r="QB1">
+        <v>443</v>
+      </c>
+      <c r="QC1">
+        <v>444</v>
+      </c>
+      <c r="QD1">
+        <v>445</v>
+      </c>
+      <c r="QE1">
+        <v>446</v>
+      </c>
+      <c r="QF1">
+        <v>447</v>
+      </c>
+      <c r="QG1">
+        <v>448</v>
+      </c>
+      <c r="QH1">
+        <v>449</v>
+      </c>
+      <c r="QI1">
+        <v>450</v>
+      </c>
+      <c r="QJ1">
+        <v>451</v>
+      </c>
+      <c r="QK1">
+        <v>452</v>
+      </c>
+      <c r="QL1">
+        <v>453</v>
+      </c>
+      <c r="QM1">
+        <v>454</v>
+      </c>
+      <c r="QN1">
+        <v>455</v>
+      </c>
+      <c r="QO1">
+        <v>456</v>
+      </c>
+      <c r="QP1">
+        <v>457</v>
+      </c>
+      <c r="QQ1">
+        <v>458</v>
+      </c>
+      <c r="QR1">
+        <v>459</v>
+      </c>
+      <c r="QS1">
+        <v>460</v>
+      </c>
+      <c r="QT1">
+        <v>461</v>
+      </c>
+      <c r="QU1">
+        <v>462</v>
+      </c>
+      <c r="QV1">
+        <v>463</v>
+      </c>
+      <c r="QW1">
+        <v>464</v>
+      </c>
+      <c r="QX1">
+        <v>465</v>
+      </c>
+      <c r="QY1">
+        <v>466</v>
+      </c>
+      <c r="QZ1">
+        <v>467</v>
+      </c>
+      <c r="RA1">
+        <v>468</v>
+      </c>
+      <c r="RB1">
+        <v>469</v>
+      </c>
+      <c r="RC1">
+        <v>470</v>
+      </c>
+      <c r="RD1">
+        <v>471</v>
+      </c>
+      <c r="RE1">
+        <v>472</v>
+      </c>
+      <c r="RF1">
+        <v>473</v>
+      </c>
+      <c r="RG1">
+        <v>474</v>
+      </c>
+      <c r="RH1">
+        <v>475</v>
+      </c>
+      <c r="RI1">
+        <v>476</v>
+      </c>
+      <c r="RJ1">
+        <v>477</v>
+      </c>
+      <c r="RK1">
+        <v>478</v>
+      </c>
+      <c r="RL1">
+        <v>479</v>
+      </c>
+      <c r="RM1">
+        <v>480</v>
+      </c>
+      <c r="RN1">
+        <v>481</v>
+      </c>
+      <c r="RO1">
+        <v>482</v>
+      </c>
+      <c r="RP1">
+        <v>483</v>
+      </c>
+      <c r="RQ1">
+        <v>484</v>
+      </c>
+      <c r="RR1">
+        <v>485</v>
+      </c>
+      <c r="RS1">
+        <v>486</v>
+      </c>
+      <c r="RT1">
+        <v>487</v>
+      </c>
+      <c r="RU1">
+        <v>488</v>
+      </c>
+      <c r="RV1">
+        <v>489</v>
+      </c>
+      <c r="RW1">
+        <v>490</v>
+      </c>
+      <c r="RX1">
+        <v>491</v>
+      </c>
+      <c r="RY1">
+        <v>492</v>
+      </c>
+      <c r="RZ1">
+        <v>493</v>
+      </c>
+      <c r="SA1">
+        <v>494</v>
+      </c>
+      <c r="SB1">
+        <v>495</v>
+      </c>
+      <c r="SC1">
+        <v>496</v>
+      </c>
+      <c r="SD1">
+        <v>497</v>
+      </c>
+      <c r="SE1">
+        <v>498</v>
+      </c>
+      <c r="SF1">
+        <v>499</v>
+      </c>
+      <c r="SG1">
+        <v>500</v>
+      </c>
+      <c r="SH1">
+        <v>501</v>
+      </c>
+      <c r="SI1">
+        <v>502</v>
+      </c>
+      <c r="SJ1">
+        <v>503</v>
+      </c>
+      <c r="SK1">
+        <v>504</v>
+      </c>
+      <c r="SL1">
+        <v>505</v>
+      </c>
+      <c r="SM1">
+        <v>506</v>
+      </c>
+      <c r="SN1">
+        <v>507</v>
+      </c>
+      <c r="SO1">
+        <v>508</v>
+      </c>
+      <c r="SP1">
+        <v>509</v>
+      </c>
+      <c r="SQ1">
+        <v>510</v>
+      </c>
+      <c r="SR1">
+        <v>511</v>
+      </c>
+      <c r="SS1">
+        <v>512</v>
+      </c>
+      <c r="ST1">
+        <v>513</v>
+      </c>
+      <c r="SU1">
+        <v>514</v>
+      </c>
+      <c r="SV1">
+        <v>515</v>
+      </c>
+      <c r="SW1">
+        <v>516</v>
+      </c>
+      <c r="SX1">
+        <v>517</v>
+      </c>
+      <c r="SY1">
+        <v>518</v>
+      </c>
+      <c r="SZ1">
+        <v>519</v>
+      </c>
+      <c r="TA1">
+        <v>520</v>
+      </c>
+      <c r="TB1">
+        <v>521</v>
+      </c>
+      <c r="TC1">
+        <v>522</v>
+      </c>
+      <c r="TD1">
+        <v>523</v>
+      </c>
+      <c r="TE1">
+        <v>524</v>
+      </c>
+      <c r="TF1">
+        <v>525</v>
+      </c>
+      <c r="TG1">
+        <v>526</v>
+      </c>
+      <c r="TH1">
+        <v>527</v>
+      </c>
+      <c r="TI1">
+        <v>528</v>
+      </c>
+      <c r="TJ1">
+        <v>529</v>
+      </c>
+      <c r="TK1">
+        <v>530</v>
+      </c>
+      <c r="TL1">
+        <v>531</v>
+      </c>
+      <c r="TM1">
+        <v>532</v>
+      </c>
+      <c r="TN1">
+        <v>533</v>
+      </c>
+      <c r="TO1">
+        <v>534</v>
+      </c>
+      <c r="TP1">
+        <v>535</v>
+      </c>
+      <c r="TQ1">
+        <v>536</v>
+      </c>
+      <c r="TR1">
+        <v>537</v>
+      </c>
+      <c r="TS1">
+        <v>538</v>
+      </c>
+      <c r="TT1">
+        <v>539</v>
+      </c>
+      <c r="TU1">
+        <v>540</v>
+      </c>
+      <c r="TV1">
+        <v>541</v>
+      </c>
+      <c r="TW1">
+        <v>542</v>
+      </c>
+      <c r="TX1">
+        <v>543</v>
+      </c>
+      <c r="TY1">
+        <v>544</v>
+      </c>
+      <c r="TZ1">
+        <v>545</v>
+      </c>
+      <c r="UA1">
+        <v>546</v>
+      </c>
+      <c r="UB1">
+        <v>547</v>
+      </c>
+      <c r="UC1">
+        <v>548</v>
+      </c>
+      <c r="UD1">
+        <v>549</v>
+      </c>
+      <c r="UE1">
+        <v>550</v>
+      </c>
+      <c r="UF1">
+        <v>551</v>
+      </c>
+      <c r="UG1">
+        <v>552</v>
+      </c>
+      <c r="UH1">
+        <v>553</v>
+      </c>
+      <c r="UI1">
+        <v>554</v>
+      </c>
+      <c r="UJ1">
+        <v>555</v>
+      </c>
+      <c r="UK1">
+        <v>556</v>
+      </c>
+      <c r="UL1">
+        <v>557</v>
+      </c>
+      <c r="UM1">
+        <v>558</v>
+      </c>
+      <c r="UN1">
+        <v>559</v>
+      </c>
+      <c r="UO1">
+        <v>560</v>
+      </c>
+      <c r="UP1">
+        <v>561</v>
+      </c>
+      <c r="UQ1">
+        <v>562</v>
+      </c>
+      <c r="UR1">
+        <v>563</v>
+      </c>
+      <c r="US1">
+        <v>564</v>
+      </c>
+      <c r="UT1">
+        <v>565</v>
+      </c>
+      <c r="UU1">
+        <v>566</v>
+      </c>
+      <c r="UV1">
+        <v>567</v>
+      </c>
+      <c r="UW1">
+        <v>568</v>
+      </c>
+      <c r="UX1">
+        <v>569</v>
+      </c>
+      <c r="UY1">
+        <v>570</v>
+      </c>
+      <c r="UZ1">
+        <v>571</v>
+      </c>
+      <c r="VA1">
+        <v>572</v>
+      </c>
+      <c r="VB1">
+        <v>573</v>
+      </c>
+      <c r="VC1">
+        <v>574</v>
+      </c>
+      <c r="VD1">
+        <v>575</v>
+      </c>
+      <c r="VE1">
+        <v>576</v>
+      </c>
+      <c r="VF1">
+        <v>577</v>
+      </c>
+      <c r="VG1">
+        <v>578</v>
+      </c>
+      <c r="VH1">
+        <v>579</v>
+      </c>
+      <c r="VI1">
+        <v>580</v>
+      </c>
+      <c r="VJ1">
+        <v>581</v>
+      </c>
+      <c r="VK1">
+        <v>582</v>
+      </c>
+      <c r="VL1">
+        <v>583</v>
+      </c>
+      <c r="VM1">
+        <v>584</v>
+      </c>
+      <c r="VN1">
+        <v>585</v>
+      </c>
+      <c r="VO1">
+        <v>586</v>
+      </c>
+      <c r="VP1">
+        <v>587</v>
+      </c>
+      <c r="VQ1">
+        <v>588</v>
+      </c>
+      <c r="VR1">
+        <v>589</v>
+      </c>
+      <c r="VS1">
+        <v>590</v>
+      </c>
+      <c r="VT1">
+        <v>591</v>
+      </c>
+      <c r="VU1">
+        <v>592</v>
+      </c>
+      <c r="VV1">
+        <v>593</v>
+      </c>
+      <c r="VW1">
+        <v>594</v>
+      </c>
+      <c r="VX1">
+        <v>595</v>
+      </c>
+      <c r="VY1">
+        <v>596</v>
+      </c>
+      <c r="VZ1">
+        <v>597</v>
+      </c>
+      <c r="WA1">
+        <v>598</v>
+      </c>
+      <c r="WB1">
+        <v>599</v>
+      </c>
+      <c r="WC1">
+        <v>600</v>
+      </c>
+      <c r="WD1">
+        <v>601</v>
+      </c>
+      <c r="WE1">
+        <v>602</v>
+      </c>
+      <c r="WF1">
+        <v>603</v>
+      </c>
+      <c r="WG1">
+        <v>604</v>
+      </c>
+      <c r="WH1">
+        <v>605</v>
+      </c>
+      <c r="WI1">
+        <v>606</v>
+      </c>
+      <c r="WJ1">
+        <v>607</v>
+      </c>
+      <c r="WK1">
+        <v>608</v>
+      </c>
+      <c r="WL1">
+        <v>609</v>
+      </c>
+      <c r="WM1">
+        <v>610</v>
+      </c>
+      <c r="WN1">
+        <v>611</v>
+      </c>
+      <c r="WO1">
+        <v>612</v>
+      </c>
+      <c r="WP1">
+        <v>613</v>
+      </c>
+      <c r="WQ1">
+        <v>614</v>
+      </c>
+      <c r="WR1">
+        <v>615</v>
+      </c>
+      <c r="WS1">
+        <v>616</v>
+      </c>
+      <c r="WT1">
+        <v>617</v>
+      </c>
+      <c r="WU1">
+        <v>618</v>
+      </c>
+      <c r="WV1">
+        <v>619</v>
+      </c>
+      <c r="WW1">
+        <v>620</v>
+      </c>
+      <c r="WX1">
+        <v>621</v>
+      </c>
+      <c r="WY1">
+        <v>622</v>
+      </c>
+      <c r="WZ1">
+        <v>623</v>
+      </c>
+      <c r="XA1">
+        <v>624</v>
+      </c>
+      <c r="XB1">
+        <v>625</v>
+      </c>
+      <c r="XC1">
+        <v>626</v>
+      </c>
+      <c r="XD1">
+        <v>627</v>
+      </c>
+      <c r="XE1">
+        <v>628</v>
+      </c>
+      <c r="XF1">
+        <v>629</v>
+      </c>
+      <c r="XG1">
+        <v>630</v>
+      </c>
+      <c r="XH1">
+        <v>631</v>
+      </c>
+      <c r="XI1">
+        <v>632</v>
+      </c>
+      <c r="XJ1">
+        <v>633</v>
+      </c>
+      <c r="XK1">
+        <v>634</v>
+      </c>
+      <c r="XL1">
+        <v>635</v>
+      </c>
+      <c r="XM1">
+        <v>636</v>
+      </c>
+      <c r="XN1">
+        <v>637</v>
+      </c>
+      <c r="XO1">
+        <v>638</v>
+      </c>
+      <c r="XP1">
+        <v>639</v>
+      </c>
+      <c r="XQ1">
+        <v>640</v>
+      </c>
+      <c r="XR1">
+        <v>641</v>
+      </c>
+      <c r="XS1">
+        <v>642</v>
+      </c>
+      <c r="XT1">
+        <v>643</v>
+      </c>
+      <c r="XU1">
+        <v>644</v>
+      </c>
+      <c r="XV1">
+        <v>645</v>
+      </c>
+      <c r="XW1">
+        <v>646</v>
+      </c>
+      <c r="XX1">
+        <v>647</v>
+      </c>
+      <c r="XY1">
+        <v>648</v>
+      </c>
+      <c r="XZ1">
+        <v>649</v>
+      </c>
+      <c r="YA1">
+        <v>650</v>
+      </c>
+      <c r="YB1">
+        <v>651</v>
+      </c>
+      <c r="YC1">
+        <v>652</v>
+      </c>
+      <c r="YD1">
+        <v>653</v>
+      </c>
+      <c r="YE1">
+        <v>654</v>
+      </c>
+      <c r="YF1">
+        <v>655</v>
+      </c>
+      <c r="YG1">
+        <v>656</v>
+      </c>
+      <c r="YH1">
+        <v>657</v>
+      </c>
+      <c r="YI1">
+        <v>658</v>
+      </c>
+      <c r="YJ1">
+        <v>659</v>
+      </c>
+      <c r="YK1">
+        <v>660</v>
+      </c>
+      <c r="YL1">
+        <v>661</v>
+      </c>
+      <c r="YM1">
+        <v>662</v>
+      </c>
+      <c r="YN1">
+        <v>663</v>
+      </c>
+      <c r="YO1">
+        <v>664</v>
+      </c>
+      <c r="YP1">
+        <v>665</v>
+      </c>
+      <c r="YQ1">
+        <v>666</v>
+      </c>
+      <c r="YR1">
+        <v>667</v>
+      </c>
+      <c r="YS1">
+        <v>668</v>
+      </c>
+      <c r="YT1">
+        <v>669</v>
+      </c>
+      <c r="YU1">
+        <v>670</v>
+      </c>
+      <c r="YV1">
+        <v>671</v>
+      </c>
+      <c r="YW1">
+        <v>672</v>
+      </c>
+      <c r="YX1">
+        <v>673</v>
+      </c>
+      <c r="YY1">
+        <v>674</v>
+      </c>
+      <c r="YZ1">
+        <v>675</v>
+      </c>
+      <c r="ZA1">
+        <v>676</v>
+      </c>
+      <c r="ZB1">
+        <v>677</v>
+      </c>
+      <c r="ZC1">
+        <v>678</v>
+      </c>
+      <c r="ZD1">
+        <v>679</v>
+      </c>
+      <c r="ZE1">
+        <v>680</v>
+      </c>
+      <c r="ZF1">
+        <v>681</v>
+      </c>
+      <c r="ZG1">
+        <v>682</v>
+      </c>
+      <c r="ZH1">
+        <v>683</v>
+      </c>
+      <c r="ZI1">
+        <v>684</v>
+      </c>
+      <c r="ZJ1">
+        <v>685</v>
+      </c>
+      <c r="ZK1">
+        <v>686</v>
+      </c>
+      <c r="ZL1">
+        <v>687</v>
+      </c>
+      <c r="ZM1">
+        <v>688</v>
+      </c>
+      <c r="ZN1">
+        <v>689</v>
+      </c>
+      <c r="ZO1">
+        <v>690</v>
+      </c>
+      <c r="ZP1">
+        <v>691</v>
+      </c>
+      <c r="ZQ1">
+        <v>692</v>
+      </c>
+      <c r="ZR1">
+        <v>693</v>
+      </c>
+      <c r="ZS1">
+        <v>694</v>
+      </c>
+      <c r="ZT1">
+        <v>695</v>
+      </c>
+      <c r="ZU1">
+        <v>696</v>
+      </c>
+      <c r="ZV1">
+        <v>697</v>
+      </c>
+      <c r="ZW1">
+        <v>698</v>
+      </c>
+      <c r="ZX1">
+        <v>699</v>
+      </c>
+      <c r="ZY1">
+        <v>700</v>
+      </c>
+      <c r="ZZ1">
+        <v>701</v>
+      </c>
+      <c r="AAA1">
+        <v>702</v>
+      </c>
+      <c r="AAB1">
+        <v>703</v>
+      </c>
+      <c r="AAC1">
+        <v>704</v>
+      </c>
+      <c r="AAD1">
+        <v>705</v>
+      </c>
+      <c r="AAE1">
+        <v>706</v>
+      </c>
+      <c r="AAF1">
+        <v>707</v>
+      </c>
+      <c r="AAG1">
+        <v>708</v>
+      </c>
+      <c r="AAH1">
+        <v>709</v>
+      </c>
+      <c r="AAI1">
+        <v>710</v>
+      </c>
+      <c r="AAJ1">
+        <v>711</v>
+      </c>
+      <c r="AAK1">
+        <v>712</v>
+      </c>
+      <c r="AAL1">
+        <v>713</v>
+      </c>
+      <c r="AAM1">
+        <v>714</v>
+      </c>
+      <c r="AAN1">
+        <v>715</v>
+      </c>
+      <c r="AAO1">
+        <v>716</v>
+      </c>
+      <c r="AAP1">
+        <v>717</v>
+      </c>
+      <c r="AAQ1">
+        <v>718</v>
+      </c>
+      <c r="AAR1">
+        <v>719</v>
+      </c>
+      <c r="AAS1">
+        <v>720</v>
+      </c>
+      <c r="AAT1">
+        <v>721</v>
+      </c>
+      <c r="AAU1">
+        <v>722</v>
+      </c>
+      <c r="AAV1">
+        <v>723</v>
+      </c>
+      <c r="AAW1">
+        <v>724</v>
+      </c>
+      <c r="AAX1">
+        <v>725</v>
+      </c>
+      <c r="AAY1">
+        <v>726</v>
+      </c>
+      <c r="AAZ1">
+        <v>727</v>
+      </c>
+      <c r="ABA1">
+        <v>728</v>
+      </c>
+      <c r="ABB1">
+        <v>729</v>
+      </c>
+      <c r="ABC1">
+        <v>730</v>
+      </c>
+      <c r="ABD1">
+        <v>731</v>
+      </c>
+      <c r="ABE1">
+        <v>732</v>
+      </c>
+      <c r="ABF1">
+        <v>733</v>
+      </c>
+      <c r="ABG1">
+        <v>734</v>
+      </c>
+      <c r="ABH1">
+        <v>735</v>
+      </c>
+      <c r="ABI1">
+        <v>736</v>
+      </c>
+      <c r="ABJ1">
+        <v>737</v>
+      </c>
+      <c r="ABK1">
+        <v>738</v>
+      </c>
+      <c r="ABL1">
+        <v>739</v>
+      </c>
+      <c r="ABM1">
+        <v>740</v>
+      </c>
+      <c r="ABN1">
+        <v>741</v>
+      </c>
+      <c r="ABO1">
+        <v>742</v>
+      </c>
+      <c r="ABP1">
+        <v>743</v>
+      </c>
+      <c r="ABQ1">
+        <v>744</v>
+      </c>
+      <c r="ABR1">
+        <v>745</v>
+      </c>
+      <c r="ABS1">
+        <v>746</v>
+      </c>
+      <c r="ABT1">
+        <v>747</v>
+      </c>
+      <c r="ABU1">
+        <v>748</v>
+      </c>
+      <c r="ABV1">
+        <v>749</v>
+      </c>
+      <c r="ABW1">
+        <v>750</v>
+      </c>
+      <c r="ABX1">
+        <v>751</v>
+      </c>
+      <c r="ABY1">
+        <v>752</v>
+      </c>
+      <c r="ABZ1">
+        <v>753</v>
+      </c>
+      <c r="ACA1">
+        <v>754</v>
+      </c>
+      <c r="ACB1">
+        <v>755</v>
+      </c>
+      <c r="ACC1">
+        <v>756</v>
+      </c>
+      <c r="ACD1">
+        <v>757</v>
+      </c>
+      <c r="ACE1">
+        <v>758</v>
+      </c>
+      <c r="ACF1">
+        <v>759</v>
+      </c>
+      <c r="ACG1">
+        <v>760</v>
+      </c>
+      <c r="ACH1">
+        <v>761</v>
+      </c>
+      <c r="ACI1">
+        <v>762</v>
+      </c>
+      <c r="ACJ1">
+        <v>763</v>
+      </c>
+      <c r="ACK1">
+        <v>764</v>
+      </c>
+      <c r="ACL1">
+        <v>765</v>
+      </c>
+      <c r="ACM1">
+        <v>766</v>
+      </c>
+      <c r="ACN1">
+        <v>767</v>
+      </c>
+      <c r="ACO1">
+        <v>768</v>
+      </c>
+      <c r="ACP1">
+        <v>769</v>
+      </c>
+      <c r="ACQ1">
+        <v>770</v>
+      </c>
+      <c r="ACR1">
+        <v>771</v>
+      </c>
+      <c r="ACS1">
+        <v>772</v>
+      </c>
+      <c r="ACT1">
+        <v>773</v>
+      </c>
+      <c r="ACU1">
+        <v>774</v>
+      </c>
+      <c r="ACV1">
+        <v>775</v>
+      </c>
+      <c r="ACW1">
+        <v>776</v>
+      </c>
+      <c r="ACX1">
+        <v>777</v>
+      </c>
+      <c r="ACY1">
+        <v>778</v>
+      </c>
+      <c r="ACZ1">
+        <v>779</v>
+      </c>
+      <c r="ADA1">
+        <v>780</v>
+      </c>
+      <c r="ADB1">
+        <v>781</v>
+      </c>
+      <c r="ADC1">
+        <v>782</v>
+      </c>
+      <c r="ADD1">
+        <v>783</v>
+      </c>
+      <c r="ADE1">
+        <v>784</v>
+      </c>
+      <c r="ADF1">
+        <v>785</v>
+      </c>
+      <c r="ADG1">
+        <v>786</v>
+      </c>
+      <c r="ADH1">
+        <v>787</v>
+      </c>
+      <c r="ADI1">
+        <v>788</v>
+      </c>
+      <c r="ADJ1">
+        <v>789</v>
+      </c>
+      <c r="ADK1">
+        <v>790</v>
+      </c>
+      <c r="ADL1">
+        <v>791</v>
+      </c>
+      <c r="ADM1">
+        <v>792</v>
+      </c>
+      <c r="ADN1">
+        <v>793</v>
+      </c>
+      <c r="ADO1">
+        <v>794</v>
+      </c>
+      <c r="ADP1">
+        <v>795</v>
+      </c>
+      <c r="ADQ1">
+        <v>796</v>
+      </c>
+      <c r="ADR1">
+        <v>797</v>
+      </c>
+      <c r="ADS1">
+        <v>798</v>
+      </c>
+      <c r="ADT1">
+        <v>799</v>
+      </c>
+      <c r="ADU1">
+        <v>800</v>
+      </c>
+      <c r="ADV1">
+        <v>801</v>
+      </c>
+      <c r="ADW1">
+        <v>802</v>
+      </c>
+      <c r="ADX1">
+        <v>803</v>
+      </c>
+      <c r="ADY1">
+        <v>804</v>
+      </c>
+      <c r="ADZ1">
+        <v>805</v>
+      </c>
+      <c r="AEA1">
+        <v>806</v>
+      </c>
+      <c r="AEB1">
+        <v>807</v>
+      </c>
+      <c r="AEC1">
+        <v>808</v>
+      </c>
+      <c r="AED1">
+        <v>809</v>
+      </c>
+      <c r="AEE1">
+        <v>810</v>
+      </c>
+      <c r="AEF1">
+        <v>811</v>
+      </c>
+      <c r="AEG1">
+        <v>812</v>
+      </c>
+      <c r="AEH1">
+        <v>813</v>
+      </c>
+      <c r="AEI1">
+        <v>814</v>
+      </c>
+      <c r="AEJ1">
+        <v>815</v>
+      </c>
+      <c r="AEK1">
+        <v>816</v>
+      </c>
+      <c r="AEL1">
+        <v>817</v>
+      </c>
+      <c r="AEM1">
+        <v>818</v>
+      </c>
+      <c r="AEN1">
+        <v>819</v>
+      </c>
+      <c r="AEO1">
+        <v>820</v>
+      </c>
+      <c r="AEP1">
+        <v>821</v>
+      </c>
+      <c r="AEQ1">
+        <v>822</v>
+      </c>
+      <c r="AER1">
+        <v>823</v>
+      </c>
+      <c r="AES1">
+        <v>824</v>
+      </c>
+      <c r="AET1">
+        <v>825</v>
+      </c>
+      <c r="AEU1">
+        <v>826</v>
+      </c>
+      <c r="AEV1">
+        <v>827</v>
+      </c>
+      <c r="AEW1">
+        <v>828</v>
+      </c>
+      <c r="AEX1">
+        <v>829</v>
+      </c>
+      <c r="AEY1">
+        <v>830</v>
+      </c>
+      <c r="AEZ1">
+        <v>831</v>
+      </c>
+      <c r="AFA1">
+        <v>832</v>
+      </c>
+      <c r="AFB1">
+        <v>833</v>
+      </c>
+      <c r="AFC1">
+        <v>834</v>
+      </c>
+      <c r="AFD1">
+        <v>835</v>
+      </c>
+      <c r="AFE1">
+        <v>836</v>
+      </c>
+      <c r="AFF1">
+        <v>837</v>
+      </c>
+      <c r="AFG1">
+        <v>838</v>
+      </c>
+      <c r="AFH1">
+        <v>839</v>
+      </c>
+      <c r="AFI1">
+        <v>840</v>
+      </c>
+      <c r="AFJ1">
+        <v>841</v>
+      </c>
+      <c r="AFK1">
+        <v>842</v>
+      </c>
+      <c r="AFL1">
+        <v>843</v>
+      </c>
+      <c r="AFM1">
+        <v>844</v>
+      </c>
+      <c r="AFN1">
+        <v>845</v>
+      </c>
+      <c r="AFO1">
+        <v>846</v>
+      </c>
+      <c r="AFP1">
+        <v>847</v>
+      </c>
+      <c r="AFQ1">
+        <v>848</v>
+      </c>
+      <c r="AFR1">
+        <v>849</v>
+      </c>
+      <c r="AFS1">
+        <v>850</v>
+      </c>
+      <c r="AFT1">
+        <v>851</v>
+      </c>
+      <c r="AFU1">
+        <v>852</v>
+      </c>
+      <c r="AFV1">
+        <v>853</v>
+      </c>
+      <c r="AFW1">
+        <v>854</v>
+      </c>
+      <c r="AFX1">
+        <v>855</v>
+      </c>
+      <c r="AFY1">
+        <v>856</v>
+      </c>
+      <c r="AFZ1">
+        <v>857</v>
+      </c>
+      <c r="AGA1">
+        <v>858</v>
+      </c>
+      <c r="AGB1">
+        <v>859</v>
+      </c>
+      <c r="AGC1">
+        <v>860</v>
+      </c>
+      <c r="AGD1">
+        <v>861</v>
+      </c>
+      <c r="AGE1">
+        <v>862</v>
+      </c>
+      <c r="AGF1">
+        <v>863</v>
+      </c>
+      <c r="AGG1">
+        <v>864</v>
+      </c>
+      <c r="AGH1">
+        <v>865</v>
+      </c>
+      <c r="AGI1">
+        <v>866</v>
+      </c>
+      <c r="AGJ1">
+        <v>867</v>
+      </c>
+      <c r="AGK1">
+        <v>868</v>
+      </c>
+      <c r="AGL1">
+        <v>869</v>
+      </c>
+      <c r="AGM1">
+        <v>870</v>
+      </c>
+      <c r="AGN1">
+        <v>871</v>
+      </c>
+      <c r="AGO1">
+        <v>872</v>
+      </c>
+      <c r="AGP1">
+        <v>873</v>
+      </c>
+      <c r="AGQ1">
+        <v>874</v>
+      </c>
+      <c r="AGR1">
+        <v>875</v>
+      </c>
+      <c r="AGS1">
+        <v>876</v>
+      </c>
+      <c r="AGT1">
+        <v>877</v>
+      </c>
+      <c r="AGU1">
+        <v>878</v>
+      </c>
+      <c r="AGV1">
+        <v>879</v>
+      </c>
+      <c r="AGW1">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="2:880" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <f>SUM(B2:B64)</f>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:BN65" si="0">SUM(C2:C64)</f>
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BL65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BO65">
+        <f t="shared" ref="BO65:DZ65" si="1">SUM(BO2:BO64)</f>
+        <v>0</v>
+      </c>
+      <c r="BP65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BR65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BS65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BT65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BW65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BX65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BY65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BZ65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CA65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CB65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CC65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CD65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CE65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CF65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CG65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CH65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CI65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CJ65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CK65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CL65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CM65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CN65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CO65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CP65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CQ65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CR65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CS65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CT65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CU65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CV65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CW65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CX65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CY65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CZ65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DA65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DB65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DC65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DD65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DE65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DF65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DG65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DH65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DI65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DJ65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DK65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DL65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DM65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DN65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DO65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DP65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DQ65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DR65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DS65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DT65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DU65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DV65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DZ65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA65">
+        <f t="shared" ref="EA65:GL65" si="2">SUM(EA2:EA64)</f>
+        <v>0</v>
+      </c>
+      <c r="EB65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EC65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ED65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EE65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EF65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EG65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EH65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EI65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EJ65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EK65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EL65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EM65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EN65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EO65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EP65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EQ65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ER65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ES65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ET65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EU65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EV65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EW65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EX65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EY65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EZ65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FA65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FB65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FC65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FD65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FE65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FF65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FG65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FH65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FI65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FJ65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FK65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FL65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FM65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FN65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FO65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FP65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FQ65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FR65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FS65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FT65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FU65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FV65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FW65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FX65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FY65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FZ65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GA65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GB65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GC65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GD65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GE65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GF65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GG65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GH65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GI65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GJ65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GK65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GL65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GM65">
+        <f t="shared" ref="GM65:IX65" si="3">SUM(GM2:GM64)</f>
+        <v>0</v>
+      </c>
+      <c r="GN65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GO65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GP65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GQ65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GR65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GS65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GT65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GU65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GV65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GW65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GX65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GY65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GZ65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HA65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HB65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HC65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HD65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HE65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HF65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HG65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HH65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HI65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HJ65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HK65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HL65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HM65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HN65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HO65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HP65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HQ65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HR65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HS65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HT65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HU65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HV65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HW65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HX65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HY65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HZ65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IA65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IB65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IC65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="ID65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IE65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IF65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IG65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IH65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="II65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IJ65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IK65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IL65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IM65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IN65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IO65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IP65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IQ65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IR65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IS65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IT65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IU65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IV65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IW65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IX65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IY65">
+        <f t="shared" ref="IY65:LJ65" si="4">SUM(IY2:IY64)</f>
+        <v>0</v>
+      </c>
+      <c r="IZ65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JA65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JB65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JC65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JD65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JE65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JF65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JG65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JH65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JI65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JJ65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JK65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JL65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JM65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JN65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JO65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JP65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JQ65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JR65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JS65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JT65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JU65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JV65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JW65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JX65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JY65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JZ65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KA65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KB65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KC65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KD65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KE65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KF65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KG65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KH65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KI65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KJ65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KK65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KL65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KM65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KN65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KO65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KP65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KQ65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KR65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KS65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KT65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KU65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KV65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KW65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KX65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KY65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KZ65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LA65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LB65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LC65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LD65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LE65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LF65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LG65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LH65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LI65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LJ65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LK65">
+        <f t="shared" ref="LK65:NV65" si="5">SUM(LK2:LK64)</f>
+        <v>0</v>
+      </c>
+      <c r="LL65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LM65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LN65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LO65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LP65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LQ65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LR65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LS65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LT65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LU65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LV65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LW65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LX65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LY65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="LZ65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MA65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MB65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MC65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MD65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="ME65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MF65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MG65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MH65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MI65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MJ65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MK65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="ML65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MM65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MN65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MO65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MP65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MQ65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MR65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MS65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MT65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MU65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MV65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MW65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MX65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MY65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="MZ65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NA65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NB65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NC65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="ND65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NE65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NF65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NG65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NH65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NI65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NJ65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NK65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NL65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NM65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NN65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NO65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NP65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NQ65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NR65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NS65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NT65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NU65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NV65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="NW65">
+        <f t="shared" ref="NW65:QH65" si="6">SUM(NW2:NW64)</f>
+        <v>0</v>
+      </c>
+      <c r="NX65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="NY65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="NZ65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OA65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OB65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OC65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OD65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OE65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OF65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OG65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OH65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OI65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OJ65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OK65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OL65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OM65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="ON65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OO65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OP65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OQ65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OR65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OS65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OT65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OU65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OV65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OW65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OX65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OY65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="OZ65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PA65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PB65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PC65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PD65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PE65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PF65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PG65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PH65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PI65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PJ65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PK65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PL65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PM65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PN65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PO65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PP65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PQ65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PR65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PS65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PT65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PU65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PV65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PW65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PX65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PY65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="PZ65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="QA65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="QB65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="QC65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="QD65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="QE65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="QF65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="QG65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="QH65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="QI65">
+        <f t="shared" ref="QI65:ST65" si="7">SUM(QI2:QI64)</f>
+        <v>0</v>
+      </c>
+      <c r="QJ65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QK65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QL65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QM65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QN65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QO65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QP65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QQ65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QR65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QS65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QT65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QU65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QV65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QW65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QX65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QY65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="QZ65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RA65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RB65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RC65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RD65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RE65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RF65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RG65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RH65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RI65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RJ65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RK65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RL65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RM65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RN65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RO65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RP65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RQ65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RR65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RS65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RT65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RU65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RV65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RW65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RX65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RY65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="RZ65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SA65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SB65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SC65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SD65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SE65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SF65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SG65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SH65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SI65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SJ65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SK65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SL65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SM65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SN65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SO65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SP65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SQ65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SR65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SS65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="ST65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="SU65">
+        <f t="shared" ref="SU65:VF65" si="8">SUM(SU2:SU64)</f>
+        <v>0</v>
+      </c>
+      <c r="SV65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="SW65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="SX65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="SY65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="SZ65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TA65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TB65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TC65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TD65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TE65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TF65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TG65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TH65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TI65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TJ65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TK65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TL65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TM65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TN65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TO65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TP65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TQ65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TR65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TS65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TT65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TU65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TV65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TW65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TX65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TY65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="TZ65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UA65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UB65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UC65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UD65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UE65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UF65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UG65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UH65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UI65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UJ65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UK65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UL65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UM65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UN65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UO65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UP65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UQ65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UR65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="US65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UT65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UU65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UV65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UW65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UX65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UY65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="UZ65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="VA65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="VB65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="VC65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="VD65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="VE65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="VF65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="VG65">
+        <f t="shared" ref="VG65:XR65" si="9">SUM(VG2:VG64)</f>
+        <v>0</v>
+      </c>
+      <c r="VH65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VI65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VJ65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VK65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VL65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VM65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VN65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VO65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VP65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VQ65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VR65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VS65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VT65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VU65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VV65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VW65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VX65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VY65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="VZ65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WA65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WB65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WC65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WD65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WE65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WF65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WG65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WH65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WI65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WJ65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WK65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WL65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WM65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WN65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WO65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WP65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WQ65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WR65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WS65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WT65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WU65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WV65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WW65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WX65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WY65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="WZ65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XA65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XB65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XC65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XD65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XE65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XF65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XG65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XH65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XI65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XJ65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XK65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XL65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XM65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XN65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XO65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XP65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XQ65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XR65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="XS65">
+        <f t="shared" ref="XS65:AAD65" si="10">SUM(XS2:XS64)</f>
+        <v>0</v>
+      </c>
+      <c r="XT65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="XU65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="XV65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="XW65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="XX65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="XY65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="XZ65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YA65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YB65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YC65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YD65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YE65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YF65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YG65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YH65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YI65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YJ65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YK65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YL65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YM65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YN65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YO65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YP65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YQ65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YR65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YS65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YT65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YU65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YV65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YW65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YX65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YY65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="YZ65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZA65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZB65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZC65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZD65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZE65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZF65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZG65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZH65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZI65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZJ65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZK65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZL65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZM65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZN65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZO65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZP65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZQ65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZR65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZS65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZT65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZU65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZV65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZW65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZX65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZY65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="ZZ65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AAA65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AAB65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AAC65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AAD65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AAE65">
+        <f t="shared" ref="AAE65:ACP65" si="11">SUM(AAE2:AAE64)</f>
+        <v>0</v>
+      </c>
+      <c r="AAF65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAG65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAH65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAI65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAJ65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAK65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAL65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAM65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAN65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAO65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAP65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAQ65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAR65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAS65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAT65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAU65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAV65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAW65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAX65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAY65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AAZ65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABA65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABB65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABC65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABD65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABE65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABF65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABG65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABH65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABI65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABJ65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABK65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABL65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABM65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABN65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABO65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABP65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABQ65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABR65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABS65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABT65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABU65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABV65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABW65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABX65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABY65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ABZ65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACA65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACB65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACC65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACD65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACE65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACF65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACG65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACH65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACI65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACJ65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACK65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACL65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACM65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACN65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACO65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACP65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="ACQ65">
+        <f t="shared" ref="ACQ65:AFB65" si="12">SUM(ACQ2:ACQ64)</f>
+        <v>0</v>
+      </c>
+      <c r="ACR65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ACS65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ACT65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ACU65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ACV65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ACW65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ACX65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ACY65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ACZ65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADA65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADB65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADC65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADD65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADE65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADF65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADG65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADH65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADI65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADJ65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADK65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADL65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADM65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADN65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADO65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADP65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADQ65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADR65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADS65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADT65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADU65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADV65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADW65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADX65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADY65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="ADZ65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEA65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEB65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEC65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AED65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEE65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEF65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEG65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEH65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEI65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEJ65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEK65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEL65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEM65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEN65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEO65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEP65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEQ65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AER65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AES65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AET65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEU65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEV65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEW65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEX65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEY65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AEZ65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AFA65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AFB65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AFC65">
+        <f t="shared" ref="AFC65:AGV65" si="13">SUM(AFC2:AFC64)</f>
+        <v>0</v>
+      </c>
+      <c r="AFD65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFE65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFF65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFG65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFH65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFI65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFJ65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFK65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFL65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFM65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFN65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFO65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFP65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFQ65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFR65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFS65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFT65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFU65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFV65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFW65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFX65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFY65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AFZ65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGA65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGB65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGC65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGD65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGE65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGF65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGG65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGH65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGI65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGJ65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGK65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGL65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGM65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGN65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGO65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGP65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGQ65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGR65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGS65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGT65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGU65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AGV65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE878835-55AC-F340-BA81-54AC84F1938A}">
   <dimension ref="A2:E29"/>
   <sheetViews>
@@ -4852,12 +11611,12 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="13">
+        <v>152</v>
+      </c>
+      <c r="D6" s="12">
         <f>B6/'COST PER TASK'!F65</f>
         <v>0</v>
       </c>
@@ -4867,12 +11626,12 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="13">
+        <v>152</v>
+      </c>
+      <c r="D7" s="12">
         <f>B7/'COST PER TASK'!G65</f>
         <v>0</v>
       </c>
@@ -4882,12 +11641,12 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="13">
+        <v>152</v>
+      </c>
+      <c r="D8" s="12">
         <f>B8/'COST PER TASK'!H65</f>
         <v>0</v>
       </c>
@@ -4897,12 +11656,12 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="13">
+        <v>152</v>
+      </c>
+      <c r="D9" s="12">
         <f>B9/'COST PER TASK'!I65</f>
         <v>0</v>
       </c>
@@ -4912,12 +11671,12 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="13">
+        <v>152</v>
+      </c>
+      <c r="D10" s="12">
         <f>B10/'COST PER TASK'!J65</f>
         <v>0</v>
       </c>
@@ -4927,12 +11686,12 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="13">
+        <v>152</v>
+      </c>
+      <c r="D11" s="12">
         <f>B11/'COST PER TASK'!K65</f>
         <v>0</v>
       </c>
@@ -4942,12 +11701,12 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="13">
+        <v>152</v>
+      </c>
+      <c r="D12" s="12">
         <f>B12/'COST PER TASK'!L65</f>
         <v>0</v>
       </c>
@@ -4957,12 +11716,12 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="13">
+        <v>152</v>
+      </c>
+      <c r="D13" s="12">
         <f>B13/'COST PER TASK'!M65</f>
         <v>0</v>
       </c>
@@ -4972,12 +11731,12 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="13">
+        <v>152</v>
+      </c>
+      <c r="D14" s="12">
         <f>B14/'COST PER TASK'!N65</f>
         <v>0</v>
       </c>
@@ -4987,12 +11746,12 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="13">
+        <v>152</v>
+      </c>
+      <c r="D15" s="12">
         <f>B15/'COST PER TASK'!O65</f>
         <v>0</v>
       </c>
@@ -5002,12 +11761,12 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="13">
+        <v>152</v>
+      </c>
+      <c r="D16" s="12">
         <f>B16/'COST PER TASK'!P65</f>
         <v>0</v>
       </c>
@@ -5017,12 +11776,12 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="13">
+        <v>152</v>
+      </c>
+      <c r="D17" s="12">
         <f>B17/'COST PER TASK'!Q65</f>
         <v>0</v>
       </c>
@@ -5032,12 +11791,12 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="13">
+        <v>152</v>
+      </c>
+      <c r="D18" s="12">
         <f>B18/'COST PER TASK'!R65</f>
         <v>0</v>
       </c>
@@ -5047,12 +11806,12 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="13">
+        <v>152</v>
+      </c>
+      <c r="D19" s="12">
         <f>B19/'COST PER TASK'!S65</f>
         <v>0</v>
       </c>
@@ -5062,12 +11821,12 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="13">
+        <v>152</v>
+      </c>
+      <c r="D20" s="12">
         <f>B20/'COST PER TASK'!T65</f>
         <v>0</v>
       </c>
@@ -5077,12 +11836,12 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="13">
+        <v>152</v>
+      </c>
+      <c r="D21" s="12">
         <f>B21/'COST PER TASK'!U65</f>
         <v>0</v>
       </c>
@@ -5092,12 +11851,12 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
         <v>152</v>
       </c>
-      <c r="C22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <f>B22/'COST PER TASK'!V65</f>
         <v>0</v>
       </c>

--- a/Deliverable 2/Deliverable2/Costs task 8.xlsx
+++ b/Deliverable 2/Deliverable2/Costs task 8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Santi/Documents/GitHub/projectsGroup3/Deliverable 2/Deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{560D539C-257F-7345-B7E5-D4C704E94B4D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0541CAF1-4AD4-DA4C-9AEC-484095B052B1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="2" xr2:uid="{9A462BF7-F855-3543-8421-29C9FE395588}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="4" xr2:uid="{9A462BF7-F855-3543-8421-29C9FE395588}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -544,6 +544,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -656,12 +663,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1379,11 +1386,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F63103-BA4A-034D-A5D7-99AF2FC30E8C}">
   <dimension ref="A1:AL65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM2" sqref="AM2"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1401,11 +1408,12 @@
     <col min="28" max="28" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="128" thickBot="1" x14ac:dyDescent="0.25">
@@ -1514,7 +1522,7 @@
       <c r="AJ1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AK1" s="13" t="s">
         <v>133</v>
       </c>
       <c r="AL1" s="6" t="s">
@@ -1558,12 +1566,12 @@
         <v>80</v>
       </c>
       <c r="AG2" s="4">
-        <f>AF2*C2*DATOS!$B$3+'COST PER TASK'!AF2*'COST PER TASK'!D2*DATOS!B4+'COST PER TASK'!AF2*'COST PER TASK'!E2*DATOS!$B$5</f>
+        <f>AF2*C2*DATOS!$B$3+'COST PER TASK'!AF2*'COST PER TASK'!D2*DATOS!$B$4+'COST PER TASK'!AF2*'COST PER TASK'!E2*DATOS!$B$5</f>
         <v>3280</v>
       </c>
       <c r="AH2" s="3">
         <f>F2*AE2*DATOS!$D$6+'COST PER TASK'!G2*'COST PER TASK'!AE2*DATOS!$D$7+'COST PER TASK'!H2*'COST PER TASK'!AE2*DATOS!$D$8+'COST PER TASK'!I2*'COST PER TASK'!AE2*DATOS!$D$9+'COST PER TASK'!J2*'COST PER TASK'!AE2*DATOS!$D$10+'COST PER TASK'!K2*'COST PER TASK'!AE2*DATOS!$D$11+'COST PER TASK'!L2*'COST PER TASK'!AE2*DATOS!$D$12+'COST PER TASK'!M2*'COST PER TASK'!AE2*DATOS!$D$13+'COST PER TASK'!N2*'COST PER TASK'!AE2*DATOS!$D$14+'COST PER TASK'!O2*'COST PER TASK'!AE2*DATOS!$D$15</f>
-        <v>0</v>
+        <v>59.290037624734175</v>
       </c>
       <c r="AI2" s="3">
         <f>'COST PER TASK'!P2*'COST PER TASK'!AE2*DATOS!$D$16+'COST PER TASK'!Q2*'COST PER TASK'!AE2*DATOS!$D$17+'COST PER TASK'!R2*'COST PER TASK'!AE2*DATOS!$D$18+'COST PER TASK'!S2*'COST PER TASK'!AE2*DATOS!$D$19+'COST PER TASK'!T2*'COST PER TASK'!AE2*DATOS!$D$20+'COST PER TASK'!U2*'COST PER TASK'!AE2*DATOS!$D$21+'COST PER TASK'!V2*'COST PER TASK'!AE2*DATOS!$D$22</f>
@@ -1571,11 +1579,11 @@
       </c>
       <c r="AK2" s="8">
         <f>AG2+AH2+AI2+AJ2</f>
-        <v>3280</v>
+        <v>3339.2900376247344</v>
       </c>
       <c r="AL2" s="8">
         <f>AK2/AD2</f>
-        <v>164</v>
+        <v>166.96450188123671</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
@@ -1609,8 +1617,8 @@
         <v>1760</v>
       </c>
       <c r="AG3" s="4">
-        <f>AF3*C3*DATOS!$B$3+'COST PER TASK'!AF3*'COST PER TASK'!D3*DATOS!B5+'COST PER TASK'!AF3*'COST PER TASK'!E3*DATOS!$B$5</f>
-        <v>133760</v>
+        <f>AF3*C3*DATOS!$B$3+'COST PER TASK'!AF3*'COST PER TASK'!D3*DATOS!$B$4+'COST PER TASK'!AF3*'COST PER TASK'!E3*DATOS!$B$5</f>
+        <v>144320</v>
       </c>
       <c r="AH3" s="3">
         <f>F3*AE3*DATOS!$D$6+'COST PER TASK'!G3*'COST PER TASK'!AE3*DATOS!$D$7+'COST PER TASK'!H3*'COST PER TASK'!AE3*DATOS!$D$8+'COST PER TASK'!I3*'COST PER TASK'!AE3*DATOS!$D$9+'COST PER TASK'!J3*'COST PER TASK'!AE3*DATOS!$D$10+'COST PER TASK'!K3*'COST PER TASK'!AE3*DATOS!$D$11+'COST PER TASK'!L3*'COST PER TASK'!AE3*DATOS!$D$12+'COST PER TASK'!M3*'COST PER TASK'!AE3*DATOS!$D$13+'COST PER TASK'!N3*'COST PER TASK'!AE3*DATOS!$D$14+'COST PER TASK'!O3*'COST PER TASK'!AE3*DATOS!$D$15</f>
@@ -1622,11 +1630,11 @@
       </c>
       <c r="AK3" s="8">
         <f t="shared" ref="AK3:AK64" si="1">AG3+AH3+AI3+AJ3</f>
-        <v>133760</v>
+        <v>144320</v>
       </c>
       <c r="AL3" s="8">
         <f t="shared" ref="AL3:AL64" si="2">AK3/AD3</f>
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -1660,12 +1668,12 @@
         <v>1760</v>
       </c>
       <c r="AG4" s="4">
-        <f>AF4*C4*DATOS!$B$3+AF4*D4*DATOS!$B$4+AF4*E4*DATOS!$B$5</f>
+        <f>AF4*C4*DATOS!$B$3+'COST PER TASK'!AF4*'COST PER TASK'!D4*DATOS!$B$4+'COST PER TASK'!AF4*'COST PER TASK'!E4*DATOS!$B$5</f>
         <v>144320</v>
       </c>
       <c r="AH4" s="3">
         <f>F4*AE4*DATOS!$D$6+'COST PER TASK'!G4*'COST PER TASK'!AE4*DATOS!$D$7+'COST PER TASK'!H4*'COST PER TASK'!AE4*DATOS!$D$8+'COST PER TASK'!I4*'COST PER TASK'!AE4*DATOS!$D$9+'COST PER TASK'!J4*'COST PER TASK'!AE4*DATOS!$D$10+'COST PER TASK'!K4*'COST PER TASK'!AE4*DATOS!$D$11+'COST PER TASK'!L4*'COST PER TASK'!AE4*DATOS!$D$12+'COST PER TASK'!M4*'COST PER TASK'!AE4*DATOS!$D$13+'COST PER TASK'!N4*'COST PER TASK'!AE4*DATOS!$D$14+'COST PER TASK'!O4*'COST PER TASK'!AE4*DATOS!$D$15</f>
-        <v>0</v>
+        <v>4264</v>
       </c>
       <c r="AI4" s="3">
         <f>'COST PER TASK'!P4*'COST PER TASK'!AE4*DATOS!$D$16+'COST PER TASK'!Q4*'COST PER TASK'!AE4*DATOS!$D$17+'COST PER TASK'!R4*'COST PER TASK'!AE4*DATOS!$D$18+'COST PER TASK'!S4*'COST PER TASK'!AE4*DATOS!$D$19+'COST PER TASK'!T4*'COST PER TASK'!AE4*DATOS!$D$20+'COST PER TASK'!U4*'COST PER TASK'!AE4*DATOS!$D$21+'COST PER TASK'!V4*'COST PER TASK'!AE4*DATOS!$D$22</f>
@@ -1673,11 +1681,11 @@
       </c>
       <c r="AK4" s="8">
         <f t="shared" si="1"/>
-        <v>144320</v>
+        <v>148584</v>
       </c>
       <c r="AL4" s="8">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>168.84545454545454</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
@@ -1717,12 +1725,12 @@
         <v>1760</v>
       </c>
       <c r="AG5" s="4">
-        <f>AF5*C5*DATOS!$B$3+'COST PER TASK'!AF5*'COST PER TASK'!D5*DATOS!B7+'COST PER TASK'!AF5*'COST PER TASK'!E5*DATOS!$B$5</f>
-        <v>88000</v>
+        <f>AF5*C5*DATOS!$B$3+'COST PER TASK'!AF5*'COST PER TASK'!D5*DATOS!$B$4+'COST PER TASK'!AF5*'COST PER TASK'!E5*DATOS!$B$5</f>
+        <v>144320</v>
       </c>
       <c r="AH5" s="3">
         <f>F5*AE5*DATOS!$D$6+'COST PER TASK'!G5*'COST PER TASK'!AE5*DATOS!$D$7+'COST PER TASK'!H5*'COST PER TASK'!AE5*DATOS!$D$8+'COST PER TASK'!I5*'COST PER TASK'!AE5*DATOS!$D$9+'COST PER TASK'!J5*'COST PER TASK'!AE5*DATOS!$D$10+'COST PER TASK'!K5*'COST PER TASK'!AE5*DATOS!$D$11+'COST PER TASK'!L5*'COST PER TASK'!AE5*DATOS!$D$12+'COST PER TASK'!M5*'COST PER TASK'!AE5*DATOS!$D$13+'COST PER TASK'!N5*'COST PER TASK'!AE5*DATOS!$D$14+'COST PER TASK'!O5*'COST PER TASK'!AE5*DATOS!$D$15</f>
-        <v>0</v>
+        <v>2608.7616554883039</v>
       </c>
       <c r="AI5" s="3">
         <f>'COST PER TASK'!P5*'COST PER TASK'!AE5*DATOS!$D$16+'COST PER TASK'!Q5*'COST PER TASK'!AE5*DATOS!$D$17+'COST PER TASK'!R5*'COST PER TASK'!AE5*DATOS!$D$18+'COST PER TASK'!S5*'COST PER TASK'!AE5*DATOS!$D$19+'COST PER TASK'!T5*'COST PER TASK'!AE5*DATOS!$D$20+'COST PER TASK'!U5*'COST PER TASK'!AE5*DATOS!$D$21+'COST PER TASK'!V5*'COST PER TASK'!AE5*DATOS!$D$22</f>
@@ -1730,11 +1738,11 @@
       </c>
       <c r="AK5" s="8">
         <f t="shared" si="1"/>
-        <v>88000</v>
+        <v>146928.76165548831</v>
       </c>
       <c r="AL5" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>166.96450188123671</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -1762,8 +1770,8 @@
         <v>3520</v>
       </c>
       <c r="AG6" s="4">
-        <f>AF6*C6*DATOS!$B$3+'COST PER TASK'!AF6*'COST PER TASK'!D6*DATOS!B8+'COST PER TASK'!AF6*'COST PER TASK'!E6*DATOS!$B$5</f>
-        <v>88000</v>
+        <f>AF6*C6*DATOS!$B$3+'COST PER TASK'!AF6*'COST PER TASK'!D6*DATOS!$B$4+'COST PER TASK'!AF6*'COST PER TASK'!E6*DATOS!$B$5</f>
+        <v>144320</v>
       </c>
       <c r="AH6" s="3">
         <f>F6*AE6*DATOS!$D$6+'COST PER TASK'!G6*'COST PER TASK'!AE6*DATOS!$D$7+'COST PER TASK'!H6*'COST PER TASK'!AE6*DATOS!$D$8+'COST PER TASK'!I6*'COST PER TASK'!AE6*DATOS!$D$9+'COST PER TASK'!J6*'COST PER TASK'!AE6*DATOS!$D$10+'COST PER TASK'!K6*'COST PER TASK'!AE6*DATOS!$D$11+'COST PER TASK'!L6*'COST PER TASK'!AE6*DATOS!$D$12+'COST PER TASK'!M6*'COST PER TASK'!AE6*DATOS!$D$13+'COST PER TASK'!N6*'COST PER TASK'!AE6*DATOS!$D$14+'COST PER TASK'!O6*'COST PER TASK'!AE6*DATOS!$D$15</f>
@@ -1775,11 +1783,11 @@
       </c>
       <c r="AK6" s="8">
         <f t="shared" si="1"/>
-        <v>88000</v>
+        <v>144320</v>
       </c>
       <c r="AL6" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -1807,8 +1815,8 @@
         <v>120</v>
       </c>
       <c r="AG7" s="4">
-        <f>AF7*C7*DATOS!$B$3+'COST PER TASK'!AF7*'COST PER TASK'!D7*DATOS!B9+'COST PER TASK'!AF7*'COST PER TASK'!E7*DATOS!$B$5</f>
-        <v>3000</v>
+        <f>AF7*C7*DATOS!$B$3+'COST PER TASK'!AF7*'COST PER TASK'!D7*DATOS!$B$4+'COST PER TASK'!AF7*'COST PER TASK'!E7*DATOS!$B$5</f>
+        <v>4920</v>
       </c>
       <c r="AH7" s="3">
         <f>F7*AE7*DATOS!$D$6+'COST PER TASK'!G7*'COST PER TASK'!AE7*DATOS!$D$7+'COST PER TASK'!H7*'COST PER TASK'!AE7*DATOS!$D$8+'COST PER TASK'!I7*'COST PER TASK'!AE7*DATOS!$D$9+'COST PER TASK'!J7*'COST PER TASK'!AE7*DATOS!$D$10+'COST PER TASK'!K7*'COST PER TASK'!AE7*DATOS!$D$11+'COST PER TASK'!L7*'COST PER TASK'!AE7*DATOS!$D$12+'COST PER TASK'!M7*'COST PER TASK'!AE7*DATOS!$D$13+'COST PER TASK'!N7*'COST PER TASK'!AE7*DATOS!$D$14+'COST PER TASK'!O7*'COST PER TASK'!AE7*DATOS!$D$15</f>
@@ -1820,11 +1828,11 @@
       </c>
       <c r="AK7" s="8">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4920</v>
       </c>
       <c r="AL7" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
@@ -1852,8 +1860,8 @@
         <v>3320</v>
       </c>
       <c r="AG8" s="4">
-        <f>AF8*C8*DATOS!$B$3+'COST PER TASK'!AF8*'COST PER TASK'!D8*DATOS!B10+'COST PER TASK'!AF8*'COST PER TASK'!E8*DATOS!$B$5</f>
-        <v>83000</v>
+        <f>AF8*C8*DATOS!$B$3+'COST PER TASK'!AF8*'COST PER TASK'!D8*DATOS!$B$4+'COST PER TASK'!AF8*'COST PER TASK'!E8*DATOS!$B$5</f>
+        <v>136120</v>
       </c>
       <c r="AH8" s="3">
         <f>F8*AE8*DATOS!$D$6+'COST PER TASK'!G8*'COST PER TASK'!AE8*DATOS!$D$7+'COST PER TASK'!H8*'COST PER TASK'!AE8*DATOS!$D$8+'COST PER TASK'!I8*'COST PER TASK'!AE8*DATOS!$D$9+'COST PER TASK'!J8*'COST PER TASK'!AE8*DATOS!$D$10+'COST PER TASK'!K8*'COST PER TASK'!AE8*DATOS!$D$11+'COST PER TASK'!L8*'COST PER TASK'!AE8*DATOS!$D$12+'COST PER TASK'!M8*'COST PER TASK'!AE8*DATOS!$D$13+'COST PER TASK'!N8*'COST PER TASK'!AE8*DATOS!$D$14+'COST PER TASK'!O8*'COST PER TASK'!AE8*DATOS!$D$15</f>
@@ -1865,11 +1873,11 @@
       </c>
       <c r="AK8" s="8">
         <f t="shared" si="1"/>
-        <v>83000</v>
+        <v>136120</v>
       </c>
       <c r="AL8" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
@@ -1906,12 +1914,12 @@
         <v>8</v>
       </c>
       <c r="AG9" s="4">
-        <f>AF9*C9*DATOS!$B$3+'COST PER TASK'!AF9*'COST PER TASK'!D9*DATOS!B11+'COST PER TASK'!AF9*'COST PER TASK'!E9*DATOS!$B$5</f>
-        <v>200</v>
+        <f>AF9*C9*DATOS!$B$3+'COST PER TASK'!AF9*'COST PER TASK'!D9*DATOS!$B$4+'COST PER TASK'!AF9*'COST PER TASK'!E9*DATOS!$B$5</f>
+        <v>328</v>
       </c>
       <c r="AH9" s="3">
         <f>F9*AE9*DATOS!$D$6+'COST PER TASK'!G9*'COST PER TASK'!AE9*DATOS!$D$7+'COST PER TASK'!H9*'COST PER TASK'!AE9*DATOS!$D$8+'COST PER TASK'!I9*'COST PER TASK'!AE9*DATOS!$D$9+'COST PER TASK'!J9*'COST PER TASK'!AE9*DATOS!$D$10+'COST PER TASK'!K9*'COST PER TASK'!AE9*DATOS!$D$11+'COST PER TASK'!L9*'COST PER TASK'!AE9*DATOS!$D$12+'COST PER TASK'!M9*'COST PER TASK'!AE9*DATOS!$D$13+'COST PER TASK'!N9*'COST PER TASK'!AE9*DATOS!$D$14+'COST PER TASK'!O9*'COST PER TASK'!AE9*DATOS!$D$15</f>
-        <v>0</v>
+        <v>46.929003762473414</v>
       </c>
       <c r="AI9" s="3">
         <f>'COST PER TASK'!P9*'COST PER TASK'!AE9*DATOS!$D$16+'COST PER TASK'!Q9*'COST PER TASK'!AE9*DATOS!$D$17+'COST PER TASK'!R9*'COST PER TASK'!AE9*DATOS!$D$18+'COST PER TASK'!S9*'COST PER TASK'!AE9*DATOS!$D$19+'COST PER TASK'!T9*'COST PER TASK'!AE9*DATOS!$D$20+'COST PER TASK'!U9*'COST PER TASK'!AE9*DATOS!$D$21+'COST PER TASK'!V9*'COST PER TASK'!AE9*DATOS!$D$22</f>
@@ -1919,11 +1927,11 @@
       </c>
       <c r="AK9" s="8">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>374.92900376247343</v>
       </c>
       <c r="AL9" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>187.46450188123671</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
@@ -1960,12 +1968,12 @@
         <v>8</v>
       </c>
       <c r="AG10" s="4">
-        <f>AF10*C10*DATOS!$B$3+'COST PER TASK'!AF10*'COST PER TASK'!D10*DATOS!B12+'COST PER TASK'!AF10*'COST PER TASK'!E10*DATOS!$B$5</f>
-        <v>200</v>
+        <f>AF10*C10*DATOS!$B$3+'COST PER TASK'!AF10*'COST PER TASK'!D10*DATOS!$B$4+'COST PER TASK'!AF10*'COST PER TASK'!E10*DATOS!$B$5</f>
+        <v>328</v>
       </c>
       <c r="AH10" s="3">
         <f>F10*AE10*DATOS!$D$6+'COST PER TASK'!G10*'COST PER TASK'!AE10*DATOS!$D$7+'COST PER TASK'!H10*'COST PER TASK'!AE10*DATOS!$D$8+'COST PER TASK'!I10*'COST PER TASK'!AE10*DATOS!$D$9+'COST PER TASK'!J10*'COST PER TASK'!AE10*DATOS!$D$10+'COST PER TASK'!K10*'COST PER TASK'!AE10*DATOS!$D$11+'COST PER TASK'!L10*'COST PER TASK'!AE10*DATOS!$D$12+'COST PER TASK'!M10*'COST PER TASK'!AE10*DATOS!$D$13+'COST PER TASK'!N10*'COST PER TASK'!AE10*DATOS!$D$14+'COST PER TASK'!O10*'COST PER TASK'!AE10*DATOS!$D$15</f>
-        <v>0</v>
+        <v>46.929003762473414</v>
       </c>
       <c r="AI10" s="3">
         <f>'COST PER TASK'!P10*'COST PER TASK'!AE10*DATOS!$D$16+'COST PER TASK'!Q10*'COST PER TASK'!AE10*DATOS!$D$17+'COST PER TASK'!R10*'COST PER TASK'!AE10*DATOS!$D$18+'COST PER TASK'!S10*'COST PER TASK'!AE10*DATOS!$D$19+'COST PER TASK'!T10*'COST PER TASK'!AE10*DATOS!$D$20+'COST PER TASK'!U10*'COST PER TASK'!AE10*DATOS!$D$21+'COST PER TASK'!V10*'COST PER TASK'!AE10*DATOS!$D$22</f>
@@ -1973,11 +1981,11 @@
       </c>
       <c r="AK10" s="8">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>374.92900376247343</v>
       </c>
       <c r="AL10" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>187.46450188123671</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
@@ -2014,12 +2022,12 @@
         <v>12</v>
       </c>
       <c r="AG11" s="4">
-        <f>AF11*C11*DATOS!$B$3+'COST PER TASK'!AF11*'COST PER TASK'!D11*DATOS!B13+'COST PER TASK'!AF11*'COST PER TASK'!E11*DATOS!$B$5</f>
-        <v>300</v>
+        <f>AF11*C11*DATOS!$B$3+'COST PER TASK'!AF11*'COST PER TASK'!D11*DATOS!$B$4+'COST PER TASK'!AF11*'COST PER TASK'!E11*DATOS!$B$5</f>
+        <v>492</v>
       </c>
       <c r="AH11" s="3">
         <f>F11*AE11*DATOS!$D$6+'COST PER TASK'!G11*'COST PER TASK'!AE11*DATOS!$D$7+'COST PER TASK'!H11*'COST PER TASK'!AE11*DATOS!$D$8+'COST PER TASK'!I11*'COST PER TASK'!AE11*DATOS!$D$9+'COST PER TASK'!J11*'COST PER TASK'!AE11*DATOS!$D$10+'COST PER TASK'!K11*'COST PER TASK'!AE11*DATOS!$D$11+'COST PER TASK'!L11*'COST PER TASK'!AE11*DATOS!$D$12+'COST PER TASK'!M11*'COST PER TASK'!AE11*DATOS!$D$13+'COST PER TASK'!N11*'COST PER TASK'!AE11*DATOS!$D$14+'COST PER TASK'!O11*'COST PER TASK'!AE11*DATOS!$D$15</f>
-        <v>0</v>
+        <v>70.393505643710128</v>
       </c>
       <c r="AI11" s="3">
         <f>'COST PER TASK'!P11*'COST PER TASK'!AE11*DATOS!$D$16+'COST PER TASK'!Q11*'COST PER TASK'!AE11*DATOS!$D$17+'COST PER TASK'!R11*'COST PER TASK'!AE11*DATOS!$D$18+'COST PER TASK'!S11*'COST PER TASK'!AE11*DATOS!$D$19+'COST PER TASK'!T11*'COST PER TASK'!AE11*DATOS!$D$20+'COST PER TASK'!U11*'COST PER TASK'!AE11*DATOS!$D$21+'COST PER TASK'!V11*'COST PER TASK'!AE11*DATOS!$D$22</f>
@@ -2027,11 +2035,11 @@
       </c>
       <c r="AK11" s="8">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>562.39350564371011</v>
       </c>
       <c r="AL11" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>187.46450188123671</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
@@ -2068,12 +2076,12 @@
         <v>20</v>
       </c>
       <c r="AG12" s="4">
-        <f>AF12*C12*DATOS!$B$3+'COST PER TASK'!AF12*'COST PER TASK'!D12*DATOS!B14+'COST PER TASK'!AF12*'COST PER TASK'!E12*DATOS!$B$5</f>
-        <v>500</v>
+        <f>AF12*C12*DATOS!$B$3+'COST PER TASK'!AF12*'COST PER TASK'!D12*DATOS!$B$4+'COST PER TASK'!AF12*'COST PER TASK'!E12*DATOS!$B$5</f>
+        <v>820</v>
       </c>
       <c r="AH12" s="3">
         <f>F12*AE12*DATOS!$D$6+'COST PER TASK'!G12*'COST PER TASK'!AE12*DATOS!$D$7+'COST PER TASK'!H12*'COST PER TASK'!AE12*DATOS!$D$8+'COST PER TASK'!I12*'COST PER TASK'!AE12*DATOS!$D$9+'COST PER TASK'!J12*'COST PER TASK'!AE12*DATOS!$D$10+'COST PER TASK'!K12*'COST PER TASK'!AE12*DATOS!$D$11+'COST PER TASK'!L12*'COST PER TASK'!AE12*DATOS!$D$12+'COST PER TASK'!M12*'COST PER TASK'!AE12*DATOS!$D$13+'COST PER TASK'!N12*'COST PER TASK'!AE12*DATOS!$D$14+'COST PER TASK'!O12*'COST PER TASK'!AE12*DATOS!$D$15</f>
-        <v>0</v>
+        <v>117.32250940618354</v>
       </c>
       <c r="AI12" s="3">
         <f>'COST PER TASK'!P12*'COST PER TASK'!AE12*DATOS!$D$16+'COST PER TASK'!Q12*'COST PER TASK'!AE12*DATOS!$D$17+'COST PER TASK'!R12*'COST PER TASK'!AE12*DATOS!$D$18+'COST PER TASK'!S12*'COST PER TASK'!AE12*DATOS!$D$19+'COST PER TASK'!T12*'COST PER TASK'!AE12*DATOS!$D$20+'COST PER TASK'!U12*'COST PER TASK'!AE12*DATOS!$D$21+'COST PER TASK'!V12*'COST PER TASK'!AE12*DATOS!$D$22</f>
@@ -2081,11 +2089,11 @@
       </c>
       <c r="AK12" s="8">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>937.3225094061836</v>
       </c>
       <c r="AL12" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>187.46450188123671</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
@@ -2119,12 +2127,12 @@
         <v>20</v>
       </c>
       <c r="AG13" s="4">
-        <f>AF13*C13*DATOS!$B$3+'COST PER TASK'!AF13*'COST PER TASK'!D13*DATOS!B15+'COST PER TASK'!AF13*'COST PER TASK'!E13*DATOS!$B$5</f>
-        <v>500</v>
+        <f>AF13*C13*DATOS!$B$3+'COST PER TASK'!AF13*'COST PER TASK'!D13*DATOS!$B$4+'COST PER TASK'!AF13*'COST PER TASK'!E13*DATOS!$B$5</f>
+        <v>820</v>
       </c>
       <c r="AH13" s="3">
         <f>F13*AE13*DATOS!$D$6+'COST PER TASK'!G13*'COST PER TASK'!AE13*DATOS!$D$7+'COST PER TASK'!H13*'COST PER TASK'!AE13*DATOS!$D$8+'COST PER TASK'!I13*'COST PER TASK'!AE13*DATOS!$D$9+'COST PER TASK'!J13*'COST PER TASK'!AE13*DATOS!$D$10+'COST PER TASK'!K13*'COST PER TASK'!AE13*DATOS!$D$11+'COST PER TASK'!L13*'COST PER TASK'!AE13*DATOS!$D$12+'COST PER TASK'!M13*'COST PER TASK'!AE13*DATOS!$D$13+'COST PER TASK'!N13*'COST PER TASK'!AE13*DATOS!$D$14+'COST PER TASK'!O13*'COST PER TASK'!AE13*DATOS!$D$15</f>
-        <v>0</v>
+        <v>14.822509406183544</v>
       </c>
       <c r="AI13" s="3">
         <f>'COST PER TASK'!P13*'COST PER TASK'!AE13*DATOS!$D$16+'COST PER TASK'!Q13*'COST PER TASK'!AE13*DATOS!$D$17+'COST PER TASK'!R13*'COST PER TASK'!AE13*DATOS!$D$18+'COST PER TASK'!S13*'COST PER TASK'!AE13*DATOS!$D$19+'COST PER TASK'!T13*'COST PER TASK'!AE13*DATOS!$D$20+'COST PER TASK'!U13*'COST PER TASK'!AE13*DATOS!$D$21+'COST PER TASK'!V13*'COST PER TASK'!AE13*DATOS!$D$22</f>
@@ -2132,11 +2140,11 @@
       </c>
       <c r="AK13" s="8">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>834.8225094061836</v>
       </c>
       <c r="AL13" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>166.96450188123671</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
@@ -2164,8 +2172,8 @@
         <v>12</v>
       </c>
       <c r="AG14" s="4">
-        <f>AF14*C14*DATOS!$B$3+'COST PER TASK'!AF14*'COST PER TASK'!D14*DATOS!B16+'COST PER TASK'!AF14*'COST PER TASK'!E14*DATOS!$B$5</f>
-        <v>300</v>
+        <f>AF14*C14*DATOS!$B$3+'COST PER TASK'!AF14*'COST PER TASK'!D14*DATOS!$B$4+'COST PER TASK'!AF14*'COST PER TASK'!E14*DATOS!$B$5</f>
+        <v>492</v>
       </c>
       <c r="AH14" s="3">
         <f>F14*AE14*DATOS!$D$6+'COST PER TASK'!G14*'COST PER TASK'!AE14*DATOS!$D$7+'COST PER TASK'!H14*'COST PER TASK'!AE14*DATOS!$D$8+'COST PER TASK'!I14*'COST PER TASK'!AE14*DATOS!$D$9+'COST PER TASK'!J14*'COST PER TASK'!AE14*DATOS!$D$10+'COST PER TASK'!K14*'COST PER TASK'!AE14*DATOS!$D$11+'COST PER TASK'!L14*'COST PER TASK'!AE14*DATOS!$D$12+'COST PER TASK'!M14*'COST PER TASK'!AE14*DATOS!$D$13+'COST PER TASK'!N14*'COST PER TASK'!AE14*DATOS!$D$14+'COST PER TASK'!O14*'COST PER TASK'!AE14*DATOS!$D$15</f>
@@ -2177,11 +2185,11 @@
       </c>
       <c r="AK14" s="8">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>492</v>
       </c>
       <c r="AL14" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
@@ -2218,12 +2226,12 @@
         <v>3520</v>
       </c>
       <c r="AG15" s="4">
-        <f>AF15*C15*DATOS!$B$3+'COST PER TASK'!AF15*'COST PER TASK'!D15*DATOS!B17+'COST PER TASK'!AF15*'COST PER TASK'!E15*DATOS!$B$5</f>
-        <v>88000</v>
+        <f>AF15*C15*DATOS!$B$3+'COST PER TASK'!AF15*'COST PER TASK'!D15*DATOS!$B$4+'COST PER TASK'!AF15*'COST PER TASK'!E15*DATOS!$B$5</f>
+        <v>144320</v>
       </c>
       <c r="AH15" s="3">
         <f>F15*AE15*DATOS!$D$6+'COST PER TASK'!G15*'COST PER TASK'!AE15*DATOS!$D$7+'COST PER TASK'!H15*'COST PER TASK'!AE15*DATOS!$D$8+'COST PER TASK'!I15*'COST PER TASK'!AE15*DATOS!$D$9+'COST PER TASK'!J15*'COST PER TASK'!AE15*DATOS!$D$10+'COST PER TASK'!K15*'COST PER TASK'!AE15*DATOS!$D$11+'COST PER TASK'!L15*'COST PER TASK'!AE15*DATOS!$D$12+'COST PER TASK'!M15*'COST PER TASK'!AE15*DATOS!$D$13+'COST PER TASK'!N15*'COST PER TASK'!AE15*DATOS!$D$14+'COST PER TASK'!O15*'COST PER TASK'!AE15*DATOS!$D$15</f>
-        <v>0</v>
+        <v>2608.7616554883039</v>
       </c>
       <c r="AI15" s="3">
         <f>'COST PER TASK'!P15*'COST PER TASK'!AE15*DATOS!$D$16+'COST PER TASK'!Q15*'COST PER TASK'!AE15*DATOS!$D$17+'COST PER TASK'!R15*'COST PER TASK'!AE15*DATOS!$D$18+'COST PER TASK'!S15*'COST PER TASK'!AE15*DATOS!$D$19+'COST PER TASK'!T15*'COST PER TASK'!AE15*DATOS!$D$20+'COST PER TASK'!U15*'COST PER TASK'!AE15*DATOS!$D$21+'COST PER TASK'!V15*'COST PER TASK'!AE15*DATOS!$D$22</f>
@@ -2231,11 +2239,11 @@
       </c>
       <c r="AK15" s="8">
         <f t="shared" si="1"/>
-        <v>88000</v>
+        <v>146928.76165548831</v>
       </c>
       <c r="AL15" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>166.96450188123671</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
@@ -2272,12 +2280,12 @@
         <v>3520</v>
       </c>
       <c r="AG16" s="4">
-        <f>AF16*C16*DATOS!$B$3+'COST PER TASK'!AF16*'COST PER TASK'!D16*DATOS!B18+'COST PER TASK'!AF16*'COST PER TASK'!E16*DATOS!$B$5</f>
-        <v>88000</v>
+        <f>AF16*C16*DATOS!$B$3+'COST PER TASK'!AF16*'COST PER TASK'!D16*DATOS!$B$4+'COST PER TASK'!AF16*'COST PER TASK'!E16*DATOS!$B$5</f>
+        <v>144320</v>
       </c>
       <c r="AH16" s="3">
         <f>F16*AE16*DATOS!$D$6+'COST PER TASK'!G16*'COST PER TASK'!AE16*DATOS!$D$7+'COST PER TASK'!H16*'COST PER TASK'!AE16*DATOS!$D$8+'COST PER TASK'!I16*'COST PER TASK'!AE16*DATOS!$D$9+'COST PER TASK'!J16*'COST PER TASK'!AE16*DATOS!$D$10+'COST PER TASK'!K16*'COST PER TASK'!AE16*DATOS!$D$11+'COST PER TASK'!L16*'COST PER TASK'!AE16*DATOS!$D$12+'COST PER TASK'!M16*'COST PER TASK'!AE16*DATOS!$D$13+'COST PER TASK'!N16*'COST PER TASK'!AE16*DATOS!$D$14+'COST PER TASK'!O16*'COST PER TASK'!AE16*DATOS!$D$15</f>
-        <v>0</v>
+        <v>2608.7616554883039</v>
       </c>
       <c r="AI16" s="3">
         <f>'COST PER TASK'!P16*'COST PER TASK'!AE16*DATOS!$D$16+'COST PER TASK'!Q16*'COST PER TASK'!AE16*DATOS!$D$17+'COST PER TASK'!R16*'COST PER TASK'!AE16*DATOS!$D$18+'COST PER TASK'!S16*'COST PER TASK'!AE16*DATOS!$D$19+'COST PER TASK'!T16*'COST PER TASK'!AE16*DATOS!$D$20+'COST PER TASK'!U16*'COST PER TASK'!AE16*DATOS!$D$21+'COST PER TASK'!V16*'COST PER TASK'!AE16*DATOS!$D$22</f>
@@ -2285,11 +2293,11 @@
       </c>
       <c r="AK16" s="8">
         <f t="shared" si="1"/>
-        <v>88000</v>
+        <v>146928.76165548831</v>
       </c>
       <c r="AL16" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>166.96450188123671</v>
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.2">
@@ -2326,12 +2334,12 @@
         <v>3520</v>
       </c>
       <c r="AG17" s="4">
-        <f>AF17*C17*DATOS!$B$3+'COST PER TASK'!AF17*'COST PER TASK'!D17*DATOS!B19+'COST PER TASK'!AF17*'COST PER TASK'!E17*DATOS!$B$5</f>
-        <v>88000</v>
+        <f>AF17*C17*DATOS!$B$3+'COST PER TASK'!AF17*'COST PER TASK'!D17*DATOS!$B$4+'COST PER TASK'!AF17*'COST PER TASK'!E17*DATOS!$B$5</f>
+        <v>144320</v>
       </c>
       <c r="AH17" s="3">
         <f>F17*AE17*DATOS!$D$6+'COST PER TASK'!G17*'COST PER TASK'!AE17*DATOS!$D$7+'COST PER TASK'!H17*'COST PER TASK'!AE17*DATOS!$D$8+'COST PER TASK'!I17*'COST PER TASK'!AE17*DATOS!$D$9+'COST PER TASK'!J17*'COST PER TASK'!AE17*DATOS!$D$10+'COST PER TASK'!K17*'COST PER TASK'!AE17*DATOS!$D$11+'COST PER TASK'!L17*'COST PER TASK'!AE17*DATOS!$D$12+'COST PER TASK'!M17*'COST PER TASK'!AE17*DATOS!$D$13+'COST PER TASK'!N17*'COST PER TASK'!AE17*DATOS!$D$14+'COST PER TASK'!O17*'COST PER TASK'!AE17*DATOS!$D$15</f>
-        <v>0</v>
+        <v>2608.7616554883039</v>
       </c>
       <c r="AI17" s="3">
         <f>'COST PER TASK'!P17*'COST PER TASK'!AE17*DATOS!$D$16+'COST PER TASK'!Q17*'COST PER TASK'!AE17*DATOS!$D$17+'COST PER TASK'!R17*'COST PER TASK'!AE17*DATOS!$D$18+'COST PER TASK'!S17*'COST PER TASK'!AE17*DATOS!$D$19+'COST PER TASK'!T17*'COST PER TASK'!AE17*DATOS!$D$20+'COST PER TASK'!U17*'COST PER TASK'!AE17*DATOS!$D$21+'COST PER TASK'!V17*'COST PER TASK'!AE17*DATOS!$D$22</f>
@@ -2339,11 +2347,11 @@
       </c>
       <c r="AK17" s="8">
         <f t="shared" si="1"/>
-        <v>88000</v>
+        <v>146928.76165548831</v>
       </c>
       <c r="AL17" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>166.96450188123671</v>
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.2">
@@ -2380,12 +2388,12 @@
         <v>3520</v>
       </c>
       <c r="AG18" s="4">
-        <f>AF18*C18*DATOS!$B$3+'COST PER TASK'!AF18*'COST PER TASK'!D18*DATOS!B20+'COST PER TASK'!AF18*'COST PER TASK'!E18*DATOS!$B$5</f>
-        <v>88000</v>
+        <f>AF18*C18*DATOS!$B$3+'COST PER TASK'!AF18*'COST PER TASK'!D18*DATOS!$B$4+'COST PER TASK'!AF18*'COST PER TASK'!E18*DATOS!$B$5</f>
+        <v>144320</v>
       </c>
       <c r="AH18" s="3">
         <f>F18*AE18*DATOS!$D$6+'COST PER TASK'!G18*'COST PER TASK'!AE18*DATOS!$D$7+'COST PER TASK'!H18*'COST PER TASK'!AE18*DATOS!$D$8+'COST PER TASK'!I18*'COST PER TASK'!AE18*DATOS!$D$9+'COST PER TASK'!J18*'COST PER TASK'!AE18*DATOS!$D$10+'COST PER TASK'!K18*'COST PER TASK'!AE18*DATOS!$D$11+'COST PER TASK'!L18*'COST PER TASK'!AE18*DATOS!$D$12+'COST PER TASK'!M18*'COST PER TASK'!AE18*DATOS!$D$13+'COST PER TASK'!N18*'COST PER TASK'!AE18*DATOS!$D$14+'COST PER TASK'!O18*'COST PER TASK'!AE18*DATOS!$D$15</f>
-        <v>0</v>
+        <v>2608.7616554883039</v>
       </c>
       <c r="AI18" s="3">
         <f>'COST PER TASK'!P18*'COST PER TASK'!AE18*DATOS!$D$16+'COST PER TASK'!Q18*'COST PER TASK'!AE18*DATOS!$D$17+'COST PER TASK'!R18*'COST PER TASK'!AE18*DATOS!$D$18+'COST PER TASK'!S18*'COST PER TASK'!AE18*DATOS!$D$19+'COST PER TASK'!T18*'COST PER TASK'!AE18*DATOS!$D$20+'COST PER TASK'!U18*'COST PER TASK'!AE18*DATOS!$D$21+'COST PER TASK'!V18*'COST PER TASK'!AE18*DATOS!$D$22</f>
@@ -2393,11 +2401,11 @@
       </c>
       <c r="AK18" s="8">
         <f t="shared" si="1"/>
-        <v>88000</v>
+        <v>146928.76165548831</v>
       </c>
       <c r="AL18" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>166.96450188123671</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.2">
@@ -2428,12 +2436,12 @@
         <v>3520</v>
       </c>
       <c r="AG19" s="4">
-        <f>AF19*C19*DATOS!$B$3+'COST PER TASK'!AF19*'COST PER TASK'!D19*DATOS!B21+'COST PER TASK'!AF19*'COST PER TASK'!E19*DATOS!$B$5</f>
-        <v>88000</v>
+        <f>AF19*C19*DATOS!$B$3+'COST PER TASK'!AF19*'COST PER TASK'!D19*DATOS!$B$4+'COST PER TASK'!AF19*'COST PER TASK'!E19*DATOS!$B$5</f>
+        <v>144320</v>
       </c>
       <c r="AH19" s="3">
         <f>F19*AE19*DATOS!$D$6+'COST PER TASK'!G19*'COST PER TASK'!AE19*DATOS!$D$7+'COST PER TASK'!H19*'COST PER TASK'!AE19*DATOS!$D$8+'COST PER TASK'!I19*'COST PER TASK'!AE19*DATOS!$D$9+'COST PER TASK'!J19*'COST PER TASK'!AE19*DATOS!$D$10+'COST PER TASK'!K19*'COST PER TASK'!AE19*DATOS!$D$11+'COST PER TASK'!L19*'COST PER TASK'!AE19*DATOS!$D$12+'COST PER TASK'!M19*'COST PER TASK'!AE19*DATOS!$D$13+'COST PER TASK'!N19*'COST PER TASK'!AE19*DATOS!$D$14+'COST PER TASK'!O19*'COST PER TASK'!AE19*DATOS!$D$15</f>
-        <v>0</v>
+        <v>4264</v>
       </c>
       <c r="AI19" s="3">
         <f>'COST PER TASK'!P19*'COST PER TASK'!AE19*DATOS!$D$16+'COST PER TASK'!Q19*'COST PER TASK'!AE19*DATOS!$D$17+'COST PER TASK'!R19*'COST PER TASK'!AE19*DATOS!$D$18+'COST PER TASK'!S19*'COST PER TASK'!AE19*DATOS!$D$19+'COST PER TASK'!T19*'COST PER TASK'!AE19*DATOS!$D$20+'COST PER TASK'!U19*'COST PER TASK'!AE19*DATOS!$D$21+'COST PER TASK'!V19*'COST PER TASK'!AE19*DATOS!$D$22</f>
@@ -2441,11 +2449,11 @@
       </c>
       <c r="AK19" s="8">
         <f t="shared" si="1"/>
-        <v>88000</v>
+        <v>148584</v>
       </c>
       <c r="AL19" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>168.84545454545454</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.2">
@@ -2485,12 +2493,12 @@
         <v>48</v>
       </c>
       <c r="AG20" s="4">
-        <f>AF20*C20*DATOS!$B$3+'COST PER TASK'!AF20*'COST PER TASK'!D20*DATOS!B22+'COST PER TASK'!AF20*'COST PER TASK'!E20*DATOS!$B$5</f>
-        <v>2448</v>
+        <f>AF20*C20*DATOS!$B$3+'COST PER TASK'!AF20*'COST PER TASK'!D20*DATOS!$B$4+'COST PER TASK'!AF20*'COST PER TASK'!E20*DATOS!$B$5</f>
+        <v>3984</v>
       </c>
       <c r="AH20" s="3">
         <f>F20*AE20*DATOS!$D$6+'COST PER TASK'!G20*'COST PER TASK'!AE20*DATOS!$D$7+'COST PER TASK'!H20*'COST PER TASK'!AE20*DATOS!$D$8+'COST PER TASK'!I20*'COST PER TASK'!AE20*DATOS!$D$9+'COST PER TASK'!J20*'COST PER TASK'!AE20*DATOS!$D$10+'COST PER TASK'!K20*'COST PER TASK'!AE20*DATOS!$D$11+'COST PER TASK'!L20*'COST PER TASK'!AE20*DATOS!$D$12+'COST PER TASK'!M20*'COST PER TASK'!AE20*DATOS!$D$13+'COST PER TASK'!N20*'COST PER TASK'!AE20*DATOS!$D$14+'COST PER TASK'!O20*'COST PER TASK'!AE20*DATOS!$D$15</f>
-        <v>0</v>
+        <v>88.935056437101267</v>
       </c>
       <c r="AI20" s="3">
         <f>'COST PER TASK'!P20*'COST PER TASK'!AE20*DATOS!$D$16+'COST PER TASK'!Q20*'COST PER TASK'!AE20*DATOS!$D$17+'COST PER TASK'!R20*'COST PER TASK'!AE20*DATOS!$D$18+'COST PER TASK'!S20*'COST PER TASK'!AE20*DATOS!$D$19+'COST PER TASK'!T20*'COST PER TASK'!AE20*DATOS!$D$20+'COST PER TASK'!U20*'COST PER TASK'!AE20*DATOS!$D$21+'COST PER TASK'!V20*'COST PER TASK'!AE20*DATOS!$D$22</f>
@@ -2498,11 +2506,11 @@
       </c>
       <c r="AK20" s="8">
         <f t="shared" si="1"/>
-        <v>2448</v>
+        <v>4072.9350564371011</v>
       </c>
       <c r="AL20" s="8">
         <f t="shared" si="2"/>
-        <v>81.599999999999994</v>
+        <v>135.7645018812367</v>
       </c>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.2">
@@ -2539,12 +2547,12 @@
         <v>66.666666666666671</v>
       </c>
       <c r="AG21" s="4">
-        <f>AF21*C21*DATOS!$B$3+'COST PER TASK'!AF21*'COST PER TASK'!D21*DATOS!B23+'COST PER TASK'!AF21*'COST PER TASK'!E21*DATOS!$B$5</f>
-        <v>1666.6666666666667</v>
+        <f>AF21*C21*DATOS!$B$3+'COST PER TASK'!AF21*'COST PER TASK'!D21*DATOS!$B$4+'COST PER TASK'!AF21*'COST PER TASK'!E21*DATOS!$B$5</f>
+        <v>3800</v>
       </c>
       <c r="AH21" s="3">
         <f>F21*AE21*DATOS!$D$6+'COST PER TASK'!G21*'COST PER TASK'!AE21*DATOS!$D$7+'COST PER TASK'!H21*'COST PER TASK'!AE21*DATOS!$D$8+'COST PER TASK'!I21*'COST PER TASK'!AE21*DATOS!$D$9+'COST PER TASK'!J21*'COST PER TASK'!AE21*DATOS!$D$10+'COST PER TASK'!K21*'COST PER TASK'!AE21*DATOS!$D$11+'COST PER TASK'!L21*'COST PER TASK'!AE21*DATOS!$D$12+'COST PER TASK'!M21*'COST PER TASK'!AE21*DATOS!$D$13+'COST PER TASK'!N21*'COST PER TASK'!AE21*DATOS!$D$14+'COST PER TASK'!O21*'COST PER TASK'!AE21*DATOS!$D$15</f>
-        <v>0</v>
+        <v>74.112547030917725</v>
       </c>
       <c r="AI21" s="3">
         <f>'COST PER TASK'!P21*'COST PER TASK'!AE21*DATOS!$D$16+'COST PER TASK'!Q21*'COST PER TASK'!AE21*DATOS!$D$17+'COST PER TASK'!R21*'COST PER TASK'!AE21*DATOS!$D$18+'COST PER TASK'!S21*'COST PER TASK'!AE21*DATOS!$D$19+'COST PER TASK'!T21*'COST PER TASK'!AE21*DATOS!$D$20+'COST PER TASK'!U21*'COST PER TASK'!AE21*DATOS!$D$21+'COST PER TASK'!V21*'COST PER TASK'!AE21*DATOS!$D$22</f>
@@ -2552,11 +2560,11 @@
       </c>
       <c r="AK21" s="8">
         <f t="shared" si="1"/>
-        <v>1666.6666666666667</v>
+        <v>3874.1125470309175</v>
       </c>
       <c r="AL21" s="8">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <v>154.96450188123671</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.2">
@@ -2596,12 +2604,12 @@
         <v>40</v>
       </c>
       <c r="AG22" s="4">
-        <f>AF22*C22*DATOS!$B$3+'COST PER TASK'!AF22*'COST PER TASK'!D22*DATOS!B24+'COST PER TASK'!AF22*'COST PER TASK'!E22*DATOS!$B$5</f>
-        <v>2040</v>
+        <f>AF22*C22*DATOS!$B$3+'COST PER TASK'!AF22*'COST PER TASK'!D22*DATOS!$B$4+'COST PER TASK'!AF22*'COST PER TASK'!E22*DATOS!$B$5</f>
+        <v>3320</v>
       </c>
       <c r="AH22" s="3">
         <f>F22*AE22*DATOS!$D$6+'COST PER TASK'!G22*'COST PER TASK'!AE22*DATOS!$D$7+'COST PER TASK'!H22*'COST PER TASK'!AE22*DATOS!$D$8+'COST PER TASK'!I22*'COST PER TASK'!AE22*DATOS!$D$9+'COST PER TASK'!J22*'COST PER TASK'!AE22*DATOS!$D$10+'COST PER TASK'!K22*'COST PER TASK'!AE22*DATOS!$D$11+'COST PER TASK'!L22*'COST PER TASK'!AE22*DATOS!$D$12+'COST PER TASK'!M22*'COST PER TASK'!AE22*DATOS!$D$13+'COST PER TASK'!N22*'COST PER TASK'!AE22*DATOS!$D$14+'COST PER TASK'!O22*'COST PER TASK'!AE22*DATOS!$D$15</f>
-        <v>0</v>
+        <v>74.112547030917725</v>
       </c>
       <c r="AI22" s="3">
         <f>'COST PER TASK'!P22*'COST PER TASK'!AE22*DATOS!$D$16+'COST PER TASK'!Q22*'COST PER TASK'!AE22*DATOS!$D$17+'COST PER TASK'!R22*'COST PER TASK'!AE22*DATOS!$D$18+'COST PER TASK'!S22*'COST PER TASK'!AE22*DATOS!$D$19+'COST PER TASK'!T22*'COST PER TASK'!AE22*DATOS!$D$20+'COST PER TASK'!U22*'COST PER TASK'!AE22*DATOS!$D$21+'COST PER TASK'!V22*'COST PER TASK'!AE22*DATOS!$D$22</f>
@@ -2609,11 +2617,11 @@
       </c>
       <c r="AK22" s="8">
         <f t="shared" si="1"/>
-        <v>2040</v>
+        <v>3394.1125470309175</v>
       </c>
       <c r="AL22" s="8">
         <f t="shared" si="2"/>
-        <v>81.599999999999994</v>
+        <v>135.7645018812367</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.2">
@@ -2650,12 +2658,12 @@
         <v>80</v>
       </c>
       <c r="AG23" s="4">
-        <f>AF23*C23*DATOS!$B$3+'COST PER TASK'!AF23*'COST PER TASK'!D23*DATOS!B25+'COST PER TASK'!AF23*'COST PER TASK'!E23*DATOS!$B$5</f>
-        <v>2000</v>
+        <f>AF23*C23*DATOS!$B$3+'COST PER TASK'!AF23*'COST PER TASK'!D23*DATOS!$B$4+'COST PER TASK'!AF23*'COST PER TASK'!E23*DATOS!$B$5</f>
+        <v>4560</v>
       </c>
       <c r="AH23" s="3">
         <f>F23*AE23*DATOS!$D$6+'COST PER TASK'!G23*'COST PER TASK'!AE23*DATOS!$D$7+'COST PER TASK'!H23*'COST PER TASK'!AE23*DATOS!$D$8+'COST PER TASK'!I23*'COST PER TASK'!AE23*DATOS!$D$9+'COST PER TASK'!J23*'COST PER TASK'!AE23*DATOS!$D$10+'COST PER TASK'!K23*'COST PER TASK'!AE23*DATOS!$D$11+'COST PER TASK'!L23*'COST PER TASK'!AE23*DATOS!$D$12+'COST PER TASK'!M23*'COST PER TASK'!AE23*DATOS!$D$13+'COST PER TASK'!N23*'COST PER TASK'!AE23*DATOS!$D$14+'COST PER TASK'!O23*'COST PER TASK'!AE23*DATOS!$D$15</f>
-        <v>0</v>
+        <v>88.935056437101267</v>
       </c>
       <c r="AI23" s="3">
         <f>'COST PER TASK'!P23*'COST PER TASK'!AE23*DATOS!$D$16+'COST PER TASK'!Q23*'COST PER TASK'!AE23*DATOS!$D$17+'COST PER TASK'!R23*'COST PER TASK'!AE23*DATOS!$D$18+'COST PER TASK'!S23*'COST PER TASK'!AE23*DATOS!$D$19+'COST PER TASK'!T23*'COST PER TASK'!AE23*DATOS!$D$20+'COST PER TASK'!U23*'COST PER TASK'!AE23*DATOS!$D$21+'COST PER TASK'!V23*'COST PER TASK'!AE23*DATOS!$D$22</f>
@@ -2663,11 +2671,11 @@
       </c>
       <c r="AK23" s="8">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4648.9350564371016</v>
       </c>
       <c r="AL23" s="8">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <v>154.96450188123671</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.2">
@@ -2707,12 +2715,12 @@
         <v>32</v>
       </c>
       <c r="AG24" s="4">
-        <f>AF24*C24*DATOS!$B$3+'COST PER TASK'!AF24*'COST PER TASK'!D24*DATOS!B26+'COST PER TASK'!AF24*'COST PER TASK'!E24*DATOS!$B$5</f>
-        <v>1632</v>
+        <f>AF24*C24*DATOS!$B$3+'COST PER TASK'!AF24*'COST PER TASK'!D24*DATOS!$B$4+'COST PER TASK'!AF24*'COST PER TASK'!E24*DATOS!$B$5</f>
+        <v>2656</v>
       </c>
       <c r="AH24" s="3">
         <f>F24*AE24*DATOS!$D$6+'COST PER TASK'!G24*'COST PER TASK'!AE24*DATOS!$D$7+'COST PER TASK'!H24*'COST PER TASK'!AE24*DATOS!$D$8+'COST PER TASK'!I24*'COST PER TASK'!AE24*DATOS!$D$9+'COST PER TASK'!J24*'COST PER TASK'!AE24*DATOS!$D$10+'COST PER TASK'!K24*'COST PER TASK'!AE24*DATOS!$D$11+'COST PER TASK'!L24*'COST PER TASK'!AE24*DATOS!$D$12+'COST PER TASK'!M24*'COST PER TASK'!AE24*DATOS!$D$13+'COST PER TASK'!N24*'COST PER TASK'!AE24*DATOS!$D$14+'COST PER TASK'!O24*'COST PER TASK'!AE24*DATOS!$D$15</f>
-        <v>0</v>
+        <v>59.290037624734175</v>
       </c>
       <c r="AI24" s="3">
         <f>'COST PER TASK'!P24*'COST PER TASK'!AE24*DATOS!$D$16+'COST PER TASK'!Q24*'COST PER TASK'!AE24*DATOS!$D$17+'COST PER TASK'!R24*'COST PER TASK'!AE24*DATOS!$D$18+'COST PER TASK'!S24*'COST PER TASK'!AE24*DATOS!$D$19+'COST PER TASK'!T24*'COST PER TASK'!AE24*DATOS!$D$20+'COST PER TASK'!U24*'COST PER TASK'!AE24*DATOS!$D$21+'COST PER TASK'!V24*'COST PER TASK'!AE24*DATOS!$D$22</f>
@@ -2720,11 +2728,11 @@
       </c>
       <c r="AK24" s="8">
         <f t="shared" si="1"/>
-        <v>1632</v>
+        <v>2715.2900376247344</v>
       </c>
       <c r="AL24" s="8">
         <f t="shared" si="2"/>
-        <v>81.599999999999994</v>
+        <v>135.76450188123673</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.2">
@@ -2764,12 +2772,12 @@
         <v>32</v>
       </c>
       <c r="AG25" s="4">
-        <f>AF25*C25*DATOS!$B$3+'COST PER TASK'!AF25*'COST PER TASK'!D25*DATOS!B27+'COST PER TASK'!AF25*'COST PER TASK'!E25*DATOS!$B$5</f>
-        <v>1632</v>
+        <f>AF25*C25*DATOS!$B$3+'COST PER TASK'!AF25*'COST PER TASK'!D25*DATOS!$B$4+'COST PER TASK'!AF25*'COST PER TASK'!E25*DATOS!$B$5</f>
+        <v>2656</v>
       </c>
       <c r="AH25" s="3">
         <f>F25*AE25*DATOS!$D$6+'COST PER TASK'!G25*'COST PER TASK'!AE25*DATOS!$D$7+'COST PER TASK'!H25*'COST PER TASK'!AE25*DATOS!$D$8+'COST PER TASK'!I25*'COST PER TASK'!AE25*DATOS!$D$9+'COST PER TASK'!J25*'COST PER TASK'!AE25*DATOS!$D$10+'COST PER TASK'!K25*'COST PER TASK'!AE25*DATOS!$D$11+'COST PER TASK'!L25*'COST PER TASK'!AE25*DATOS!$D$12+'COST PER TASK'!M25*'COST PER TASK'!AE25*DATOS!$D$13+'COST PER TASK'!N25*'COST PER TASK'!AE25*DATOS!$D$14+'COST PER TASK'!O25*'COST PER TASK'!AE25*DATOS!$D$15</f>
-        <v>0</v>
+        <v>59.290037624734175</v>
       </c>
       <c r="AI25" s="3">
         <f>'COST PER TASK'!P25*'COST PER TASK'!AE25*DATOS!$D$16+'COST PER TASK'!Q25*'COST PER TASK'!AE25*DATOS!$D$17+'COST PER TASK'!R25*'COST PER TASK'!AE25*DATOS!$D$18+'COST PER TASK'!S25*'COST PER TASK'!AE25*DATOS!$D$19+'COST PER TASK'!T25*'COST PER TASK'!AE25*DATOS!$D$20+'COST PER TASK'!U25*'COST PER TASK'!AE25*DATOS!$D$21+'COST PER TASK'!V25*'COST PER TASK'!AE25*DATOS!$D$22</f>
@@ -2777,11 +2785,11 @@
       </c>
       <c r="AK25" s="8">
         <f t="shared" si="1"/>
-        <v>1632</v>
+        <v>2715.2900376247344</v>
       </c>
       <c r="AL25" s="8">
         <f t="shared" si="2"/>
-        <v>81.599999999999994</v>
+        <v>135.76450188123673</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.2">
@@ -2821,12 +2829,12 @@
         <v>32</v>
       </c>
       <c r="AG26" s="4">
-        <f>AF26*C26*DATOS!$B$3+'COST PER TASK'!AF26*'COST PER TASK'!D26*DATOS!B28+'COST PER TASK'!AF26*'COST PER TASK'!E26*DATOS!$B$5</f>
-        <v>1632</v>
+        <f>AF26*C26*DATOS!$B$3+'COST PER TASK'!AF26*'COST PER TASK'!D26*DATOS!$B$4+'COST PER TASK'!AF26*'COST PER TASK'!E26*DATOS!$B$5</f>
+        <v>2656</v>
       </c>
       <c r="AH26" s="3">
         <f>F26*AE26*DATOS!$D$6+'COST PER TASK'!G26*'COST PER TASK'!AE26*DATOS!$D$7+'COST PER TASK'!H26*'COST PER TASK'!AE26*DATOS!$D$8+'COST PER TASK'!I26*'COST PER TASK'!AE26*DATOS!$D$9+'COST PER TASK'!J26*'COST PER TASK'!AE26*DATOS!$D$10+'COST PER TASK'!K26*'COST PER TASK'!AE26*DATOS!$D$11+'COST PER TASK'!L26*'COST PER TASK'!AE26*DATOS!$D$12+'COST PER TASK'!M26*'COST PER TASK'!AE26*DATOS!$D$13+'COST PER TASK'!N26*'COST PER TASK'!AE26*DATOS!$D$14+'COST PER TASK'!O26*'COST PER TASK'!AE26*DATOS!$D$15</f>
-        <v>0</v>
+        <v>59.290037624734175</v>
       </c>
       <c r="AI26" s="3">
         <f>'COST PER TASK'!P26*'COST PER TASK'!AE26*DATOS!$D$16+'COST PER TASK'!Q26*'COST PER TASK'!AE26*DATOS!$D$17+'COST PER TASK'!R26*'COST PER TASK'!AE26*DATOS!$D$18+'COST PER TASK'!S26*'COST PER TASK'!AE26*DATOS!$D$19+'COST PER TASK'!T26*'COST PER TASK'!AE26*DATOS!$D$20+'COST PER TASK'!U26*'COST PER TASK'!AE26*DATOS!$D$21+'COST PER TASK'!V26*'COST PER TASK'!AE26*DATOS!$D$22</f>
@@ -2834,11 +2842,11 @@
       </c>
       <c r="AK26" s="8">
         <f t="shared" si="1"/>
-        <v>1632</v>
+        <v>2715.2900376247344</v>
       </c>
       <c r="AL26" s="8">
         <f t="shared" si="2"/>
-        <v>81.599999999999994</v>
+        <v>135.76450188123673</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.2">
@@ -2875,12 +2883,12 @@
         <v>106.66666666666667</v>
       </c>
       <c r="AG27" s="4">
-        <f>AF27*C27*DATOS!$B$3+'COST PER TASK'!AF27*'COST PER TASK'!D27*DATOS!B29+'COST PER TASK'!AF27*'COST PER TASK'!E27*DATOS!$B$5</f>
-        <v>2666.666666666667</v>
+        <f>AF27*C27*DATOS!$B$3+'COST PER TASK'!AF27*'COST PER TASK'!D27*DATOS!$B$4+'COST PER TASK'!AF27*'COST PER TASK'!E27*DATOS!$B$5</f>
+        <v>6080</v>
       </c>
       <c r="AH27" s="3">
         <f>F27*AE27*DATOS!$D$6+'COST PER TASK'!G27*'COST PER TASK'!AE27*DATOS!$D$7+'COST PER TASK'!H27*'COST PER TASK'!AE27*DATOS!$D$8+'COST PER TASK'!I27*'COST PER TASK'!AE27*DATOS!$D$9+'COST PER TASK'!J27*'COST PER TASK'!AE27*DATOS!$D$10+'COST PER TASK'!K27*'COST PER TASK'!AE27*DATOS!$D$11+'COST PER TASK'!L27*'COST PER TASK'!AE27*DATOS!$D$12+'COST PER TASK'!M27*'COST PER TASK'!AE27*DATOS!$D$13+'COST PER TASK'!N27*'COST PER TASK'!AE27*DATOS!$D$14+'COST PER TASK'!O27*'COST PER TASK'!AE27*DATOS!$D$15</f>
-        <v>0</v>
+        <v>118.58007524946835</v>
       </c>
       <c r="AI27" s="3">
         <f>'COST PER TASK'!P27*'COST PER TASK'!AE27*DATOS!$D$16+'COST PER TASK'!Q27*'COST PER TASK'!AE27*DATOS!$D$17+'COST PER TASK'!R27*'COST PER TASK'!AE27*DATOS!$D$18+'COST PER TASK'!S27*'COST PER TASK'!AE27*DATOS!$D$19+'COST PER TASK'!T27*'COST PER TASK'!AE27*DATOS!$D$20+'COST PER TASK'!U27*'COST PER TASK'!AE27*DATOS!$D$21+'COST PER TASK'!V27*'COST PER TASK'!AE27*DATOS!$D$22</f>
@@ -2888,11 +2896,11 @@
       </c>
       <c r="AK27" s="8">
         <f t="shared" si="1"/>
-        <v>2666.666666666667</v>
+        <v>6198.5800752494688</v>
       </c>
       <c r="AL27" s="8">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <v>154.96450188123671</v>
       </c>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.2">
@@ -2932,12 +2940,12 @@
         <v>60</v>
       </c>
       <c r="AG28" s="4">
-        <f>AF28*C28*DATOS!$B$3+'COST PER TASK'!AF28*'COST PER TASK'!D28*DATOS!B30+'COST PER TASK'!AF28*'COST PER TASK'!E28*DATOS!$B$5</f>
-        <v>1500</v>
+        <f>AF28*C28*DATOS!$B$3+'COST PER TASK'!AF28*'COST PER TASK'!D28*DATOS!$B$4+'COST PER TASK'!AF28*'COST PER TASK'!E28*DATOS!$B$5</f>
+        <v>4380</v>
       </c>
       <c r="AH28" s="3">
         <f>F28*AE28*DATOS!$D$6+'COST PER TASK'!G28*'COST PER TASK'!AE28*DATOS!$D$7+'COST PER TASK'!H28*'COST PER TASK'!AE28*DATOS!$D$8+'COST PER TASK'!I28*'COST PER TASK'!AE28*DATOS!$D$9+'COST PER TASK'!J28*'COST PER TASK'!AE28*DATOS!$D$10+'COST PER TASK'!K28*'COST PER TASK'!AE28*DATOS!$D$11+'COST PER TASK'!L28*'COST PER TASK'!AE28*DATOS!$D$12+'COST PER TASK'!M28*'COST PER TASK'!AE28*DATOS!$D$13+'COST PER TASK'!N28*'COST PER TASK'!AE28*DATOS!$D$14+'COST PER TASK'!O28*'COST PER TASK'!AE28*DATOS!$D$15</f>
-        <v>0</v>
+        <v>403.76651711125857</v>
       </c>
       <c r="AI28" s="3">
         <f>'COST PER TASK'!P28*'COST PER TASK'!AE28*DATOS!$D$16+'COST PER TASK'!Q28*'COST PER TASK'!AE28*DATOS!$D$17+'COST PER TASK'!R28*'COST PER TASK'!AE28*DATOS!$D$18+'COST PER TASK'!S28*'COST PER TASK'!AE28*DATOS!$D$19+'COST PER TASK'!T28*'COST PER TASK'!AE28*DATOS!$D$20+'COST PER TASK'!U28*'COST PER TASK'!AE28*DATOS!$D$21+'COST PER TASK'!V28*'COST PER TASK'!AE28*DATOS!$D$22</f>
@@ -2945,11 +2953,11 @@
       </c>
       <c r="AK28" s="8">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>4783.7665171112585</v>
       </c>
       <c r="AL28" s="8">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>159.45888390370862</v>
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.2">
@@ -2992,12 +3000,12 @@
         <v>57.142857142857146</v>
       </c>
       <c r="AG29" s="4">
-        <f>AF29*C29*DATOS!$B$3+'COST PER TASK'!AF29*'COST PER TASK'!D29*DATOS!B31+'COST PER TASK'!AF29*'COST PER TASK'!E29*DATOS!$B$5</f>
-        <v>2914.2857142857147</v>
+        <f>AF29*C29*DATOS!$B$3+'COST PER TASK'!AF29*'COST PER TASK'!D29*DATOS!$B$4+'COST PER TASK'!AF29*'COST PER TASK'!E29*DATOS!$B$5</f>
+        <v>6571.4285714285725</v>
       </c>
       <c r="AH29" s="3">
         <f>F29*AE29*DATOS!$D$6+'COST PER TASK'!G29*'COST PER TASK'!AE29*DATOS!$D$7+'COST PER TASK'!H29*'COST PER TASK'!AE29*DATOS!$D$8+'COST PER TASK'!I29*'COST PER TASK'!AE29*DATOS!$D$9+'COST PER TASK'!J29*'COST PER TASK'!AE29*DATOS!$D$10+'COST PER TASK'!K29*'COST PER TASK'!AE29*DATOS!$D$11+'COST PER TASK'!L29*'COST PER TASK'!AE29*DATOS!$D$12+'COST PER TASK'!M29*'COST PER TASK'!AE29*DATOS!$D$13+'COST PER TASK'!N29*'COST PER TASK'!AE29*DATOS!$D$14+'COST PER TASK'!O29*'COST PER TASK'!AE29*DATOS!$D$15</f>
-        <v>0</v>
+        <v>672.94419518543089</v>
       </c>
       <c r="AI29" s="3">
         <f>'COST PER TASK'!P29*'COST PER TASK'!AE29*DATOS!$D$16+'COST PER TASK'!Q29*'COST PER TASK'!AE29*DATOS!$D$17+'COST PER TASK'!R29*'COST PER TASK'!AE29*DATOS!$D$18+'COST PER TASK'!S29*'COST PER TASK'!AE29*DATOS!$D$19+'COST PER TASK'!T29*'COST PER TASK'!AE29*DATOS!$D$20+'COST PER TASK'!U29*'COST PER TASK'!AE29*DATOS!$D$21+'COST PER TASK'!V29*'COST PER TASK'!AE29*DATOS!$D$22</f>
@@ -3005,11 +3013,11 @@
       </c>
       <c r="AK29" s="8">
         <f t="shared" si="1"/>
-        <v>2914.2857142857147</v>
+        <v>7244.372766614003</v>
       </c>
       <c r="AL29" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714292</v>
+        <v>144.88745533228007</v>
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.2">
@@ -3052,12 +3060,12 @@
         <v>34.285714285714285</v>
       </c>
       <c r="AG30" s="4">
-        <f>AF30*C30*DATOS!$B$3+'COST PER TASK'!AF30*'COST PER TASK'!D30*DATOS!B32+'COST PER TASK'!AF30*'COST PER TASK'!E30*DATOS!$B$5</f>
-        <v>1748.5714285714284</v>
+        <f>AF30*C30*DATOS!$B$3+'COST PER TASK'!AF30*'COST PER TASK'!D30*DATOS!$B$4+'COST PER TASK'!AF30*'COST PER TASK'!E30*DATOS!$B$5</f>
+        <v>3942.8571428571431</v>
       </c>
       <c r="AH30" s="3">
         <f>F30*AE30*DATOS!$D$6+'COST PER TASK'!G30*'COST PER TASK'!AE30*DATOS!$D$7+'COST PER TASK'!H30*'COST PER TASK'!AE30*DATOS!$D$8+'COST PER TASK'!I30*'COST PER TASK'!AE30*DATOS!$D$9+'COST PER TASK'!J30*'COST PER TASK'!AE30*DATOS!$D$10+'COST PER TASK'!K30*'COST PER TASK'!AE30*DATOS!$D$11+'COST PER TASK'!L30*'COST PER TASK'!AE30*DATOS!$D$12+'COST PER TASK'!M30*'COST PER TASK'!AE30*DATOS!$D$13+'COST PER TASK'!N30*'COST PER TASK'!AE30*DATOS!$D$14+'COST PER TASK'!O30*'COST PER TASK'!AE30*DATOS!$D$15</f>
-        <v>0</v>
+        <v>403.76651711125857</v>
       </c>
       <c r="AI30" s="3">
         <f>'COST PER TASK'!P30*'COST PER TASK'!AE30*DATOS!$D$16+'COST PER TASK'!Q30*'COST PER TASK'!AE30*DATOS!$D$17+'COST PER TASK'!R30*'COST PER TASK'!AE30*DATOS!$D$18+'COST PER TASK'!S30*'COST PER TASK'!AE30*DATOS!$D$19+'COST PER TASK'!T30*'COST PER TASK'!AE30*DATOS!$D$20+'COST PER TASK'!U30*'COST PER TASK'!AE30*DATOS!$D$21+'COST PER TASK'!V30*'COST PER TASK'!AE30*DATOS!$D$22</f>
@@ -3065,11 +3073,11 @@
       </c>
       <c r="AK30" s="8">
         <f t="shared" si="1"/>
-        <v>1748.5714285714284</v>
+        <v>4346.6236599684016</v>
       </c>
       <c r="AL30" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714285</v>
+        <v>144.88745533228004</v>
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.2">
@@ -3112,12 +3120,12 @@
         <v>34.285714285714285</v>
       </c>
       <c r="AG31" s="4">
-        <f>AF31*C31*DATOS!$B$3+'COST PER TASK'!AF31*'COST PER TASK'!D31*DATOS!B33+'COST PER TASK'!AF31*'COST PER TASK'!E31*DATOS!$B$5</f>
-        <v>1748.5714285714284</v>
+        <f>AF31*C31*DATOS!$B$3+'COST PER TASK'!AF31*'COST PER TASK'!D31*DATOS!$B$4+'COST PER TASK'!AF31*'COST PER TASK'!E31*DATOS!$B$5</f>
+        <v>3942.8571428571431</v>
       </c>
       <c r="AH31" s="3">
         <f>F31*AE31*DATOS!$D$6+'COST PER TASK'!G31*'COST PER TASK'!AE31*DATOS!$D$7+'COST PER TASK'!H31*'COST PER TASK'!AE31*DATOS!$D$8+'COST PER TASK'!I31*'COST PER TASK'!AE31*DATOS!$D$9+'COST PER TASK'!J31*'COST PER TASK'!AE31*DATOS!$D$10+'COST PER TASK'!K31*'COST PER TASK'!AE31*DATOS!$D$11+'COST PER TASK'!L31*'COST PER TASK'!AE31*DATOS!$D$12+'COST PER TASK'!M31*'COST PER TASK'!AE31*DATOS!$D$13+'COST PER TASK'!N31*'COST PER TASK'!AE31*DATOS!$D$14+'COST PER TASK'!O31*'COST PER TASK'!AE31*DATOS!$D$15</f>
-        <v>0</v>
+        <v>403.76651711125857</v>
       </c>
       <c r="AI31" s="3">
         <f>'COST PER TASK'!P31*'COST PER TASK'!AE31*DATOS!$D$16+'COST PER TASK'!Q31*'COST PER TASK'!AE31*DATOS!$D$17+'COST PER TASK'!R31*'COST PER TASK'!AE31*DATOS!$D$18+'COST PER TASK'!S31*'COST PER TASK'!AE31*DATOS!$D$19+'COST PER TASK'!T31*'COST PER TASK'!AE31*DATOS!$D$20+'COST PER TASK'!U31*'COST PER TASK'!AE31*DATOS!$D$21+'COST PER TASK'!V31*'COST PER TASK'!AE31*DATOS!$D$22</f>
@@ -3125,11 +3133,11 @@
       </c>
       <c r="AK31" s="8">
         <f t="shared" si="1"/>
-        <v>1748.5714285714284</v>
+        <v>4346.6236599684016</v>
       </c>
       <c r="AL31" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714285</v>
+        <v>144.88745533228004</v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.2">
@@ -3172,12 +3180,12 @@
         <v>22.857142857142858</v>
       </c>
       <c r="AG32" s="4">
-        <f>AF32*C32*DATOS!$B$3+'COST PER TASK'!AF32*'COST PER TASK'!D32*DATOS!B34+'COST PER TASK'!AF32*'COST PER TASK'!E32*DATOS!$B$5</f>
-        <v>1165.7142857142858</v>
+        <f>AF32*C32*DATOS!$B$3+'COST PER TASK'!AF32*'COST PER TASK'!D32*DATOS!$B$4+'COST PER TASK'!AF32*'COST PER TASK'!E32*DATOS!$B$5</f>
+        <v>2628.5714285714284</v>
       </c>
       <c r="AH32" s="3">
         <f>F32*AE32*DATOS!$D$6+'COST PER TASK'!G32*'COST PER TASK'!AE32*DATOS!$D$7+'COST PER TASK'!H32*'COST PER TASK'!AE32*DATOS!$D$8+'COST PER TASK'!I32*'COST PER TASK'!AE32*DATOS!$D$9+'COST PER TASK'!J32*'COST PER TASK'!AE32*DATOS!$D$10+'COST PER TASK'!K32*'COST PER TASK'!AE32*DATOS!$D$11+'COST PER TASK'!L32*'COST PER TASK'!AE32*DATOS!$D$12+'COST PER TASK'!M32*'COST PER TASK'!AE32*DATOS!$D$13+'COST PER TASK'!N32*'COST PER TASK'!AE32*DATOS!$D$14+'COST PER TASK'!O32*'COST PER TASK'!AE32*DATOS!$D$15</f>
-        <v>0</v>
+        <v>269.17767807417238</v>
       </c>
       <c r="AI32" s="3">
         <f>'COST PER TASK'!P32*'COST PER TASK'!AE32*DATOS!$D$16+'COST PER TASK'!Q32*'COST PER TASK'!AE32*DATOS!$D$17+'COST PER TASK'!R32*'COST PER TASK'!AE32*DATOS!$D$18+'COST PER TASK'!S32*'COST PER TASK'!AE32*DATOS!$D$19+'COST PER TASK'!T32*'COST PER TASK'!AE32*DATOS!$D$20+'COST PER TASK'!U32*'COST PER TASK'!AE32*DATOS!$D$21+'COST PER TASK'!V32*'COST PER TASK'!AE32*DATOS!$D$22</f>
@@ -3185,11 +3193,11 @@
       </c>
       <c r="AK32" s="8">
         <f t="shared" si="1"/>
-        <v>1165.7142857142858</v>
+        <v>2897.7491066456009</v>
       </c>
       <c r="AL32" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714292</v>
+        <v>144.88745533228004</v>
       </c>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.2">
@@ -3229,12 +3237,12 @@
         <v>26.666666666666668</v>
       </c>
       <c r="AG33" s="4">
-        <f>AF33*C33*DATOS!$B$3+'COST PER TASK'!AF33*'COST PER TASK'!D33*DATOS!B35+'COST PER TASK'!AF33*'COST PER TASK'!E33*DATOS!$B$5</f>
-        <v>666.66666666666674</v>
+        <f>AF33*C33*DATOS!$B$3+'COST PER TASK'!AF33*'COST PER TASK'!D33*DATOS!$B$4+'COST PER TASK'!AF33*'COST PER TASK'!E33*DATOS!$B$5</f>
+        <v>1520</v>
       </c>
       <c r="AH33" s="3">
         <f>F33*AE33*DATOS!$D$6+'COST PER TASK'!G33*'COST PER TASK'!AE33*DATOS!$D$7+'COST PER TASK'!H33*'COST PER TASK'!AE33*DATOS!$D$8+'COST PER TASK'!I33*'COST PER TASK'!AE33*DATOS!$D$9+'COST PER TASK'!J33*'COST PER TASK'!AE33*DATOS!$D$10+'COST PER TASK'!K33*'COST PER TASK'!AE33*DATOS!$D$11+'COST PER TASK'!L33*'COST PER TASK'!AE33*DATOS!$D$12+'COST PER TASK'!M33*'COST PER TASK'!AE33*DATOS!$D$13+'COST PER TASK'!N33*'COST PER TASK'!AE33*DATOS!$D$14+'COST PER TASK'!O33*'COST PER TASK'!AE33*DATOS!$D$15</f>
-        <v>0</v>
+        <v>134.58883903708619</v>
       </c>
       <c r="AI33" s="3">
         <f>'COST PER TASK'!P33*'COST PER TASK'!AE33*DATOS!$D$16+'COST PER TASK'!Q33*'COST PER TASK'!AE33*DATOS!$D$17+'COST PER TASK'!R33*'COST PER TASK'!AE33*DATOS!$D$18+'COST PER TASK'!S33*'COST PER TASK'!AE33*DATOS!$D$19+'COST PER TASK'!T33*'COST PER TASK'!AE33*DATOS!$D$20+'COST PER TASK'!U33*'COST PER TASK'!AE33*DATOS!$D$21+'COST PER TASK'!V33*'COST PER TASK'!AE33*DATOS!$D$22</f>
@@ -3242,11 +3250,11 @@
       </c>
       <c r="AK33" s="8">
         <f t="shared" si="1"/>
-        <v>666.66666666666674</v>
+        <v>1654.5888390370862</v>
       </c>
       <c r="AL33" s="8">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <v>165.45888390370862</v>
       </c>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.2">
@@ -3289,12 +3297,12 @@
         <v>22.857142857142858</v>
       </c>
       <c r="AG34" s="4">
-        <f>AF34*C34*DATOS!$B$3+'COST PER TASK'!AF34*'COST PER TASK'!D34*DATOS!B36+'COST PER TASK'!AF34*'COST PER TASK'!E34*DATOS!$B$5</f>
-        <v>1165.7142857142858</v>
+        <f>AF34*C34*DATOS!$B$3+'COST PER TASK'!AF34*'COST PER TASK'!D34*DATOS!$B$4+'COST PER TASK'!AF34*'COST PER TASK'!E34*DATOS!$B$5</f>
+        <v>2628.5714285714284</v>
       </c>
       <c r="AH34" s="3">
         <f>F34*AE34*DATOS!$D$6+'COST PER TASK'!G34*'COST PER TASK'!AE34*DATOS!$D$7+'COST PER TASK'!H34*'COST PER TASK'!AE34*DATOS!$D$8+'COST PER TASK'!I34*'COST PER TASK'!AE34*DATOS!$D$9+'COST PER TASK'!J34*'COST PER TASK'!AE34*DATOS!$D$10+'COST PER TASK'!K34*'COST PER TASK'!AE34*DATOS!$D$11+'COST PER TASK'!L34*'COST PER TASK'!AE34*DATOS!$D$12+'COST PER TASK'!M34*'COST PER TASK'!AE34*DATOS!$D$13+'COST PER TASK'!N34*'COST PER TASK'!AE34*DATOS!$D$14+'COST PER TASK'!O34*'COST PER TASK'!AE34*DATOS!$D$15</f>
-        <v>0</v>
+        <v>59.290037624734175</v>
       </c>
       <c r="AI34" s="3">
         <f>'COST PER TASK'!P34*'COST PER TASK'!AE34*DATOS!$D$16+'COST PER TASK'!Q34*'COST PER TASK'!AE34*DATOS!$D$17+'COST PER TASK'!R34*'COST PER TASK'!AE34*DATOS!$D$18+'COST PER TASK'!S34*'COST PER TASK'!AE34*DATOS!$D$19+'COST PER TASK'!T34*'COST PER TASK'!AE34*DATOS!$D$20+'COST PER TASK'!U34*'COST PER TASK'!AE34*DATOS!$D$21+'COST PER TASK'!V34*'COST PER TASK'!AE34*DATOS!$D$22</f>
@@ -3302,11 +3310,11 @@
       </c>
       <c r="AK34" s="8">
         <f t="shared" si="1"/>
-        <v>1165.7142857142858</v>
+        <v>2687.8614661961628</v>
       </c>
       <c r="AL34" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714292</v>
+        <v>134.39307330980813</v>
       </c>
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.2">
@@ -3349,12 +3357,12 @@
         <v>45.714285714285715</v>
       </c>
       <c r="AG35" s="4">
-        <f>AF35*C35*DATOS!$B$3+'COST PER TASK'!AF35*'COST PER TASK'!D35*DATOS!B37+'COST PER TASK'!AF35*'COST PER TASK'!E35*DATOS!$B$5</f>
-        <v>2331.4285714285716</v>
+        <f>AF35*C35*DATOS!$B$3+'COST PER TASK'!AF35*'COST PER TASK'!D35*DATOS!$B$4+'COST PER TASK'!AF35*'COST PER TASK'!E35*DATOS!$B$5</f>
+        <v>5257.1428571428569</v>
       </c>
       <c r="AH35" s="3">
         <f>F35*AE35*DATOS!$D$6+'COST PER TASK'!G35*'COST PER TASK'!AE35*DATOS!$D$7+'COST PER TASK'!H35*'COST PER TASK'!AE35*DATOS!$D$8+'COST PER TASK'!I35*'COST PER TASK'!AE35*DATOS!$D$9+'COST PER TASK'!J35*'COST PER TASK'!AE35*DATOS!$D$10+'COST PER TASK'!K35*'COST PER TASK'!AE35*DATOS!$D$11+'COST PER TASK'!L35*'COST PER TASK'!AE35*DATOS!$D$12+'COST PER TASK'!M35*'COST PER TASK'!AE35*DATOS!$D$13+'COST PER TASK'!N35*'COST PER TASK'!AE35*DATOS!$D$14+'COST PER TASK'!O35*'COST PER TASK'!AE35*DATOS!$D$15</f>
-        <v>0</v>
+        <v>118.58007524946835</v>
       </c>
       <c r="AI35" s="3">
         <f>'COST PER TASK'!P35*'COST PER TASK'!AE35*DATOS!$D$16+'COST PER TASK'!Q35*'COST PER TASK'!AE35*DATOS!$D$17+'COST PER TASK'!R35*'COST PER TASK'!AE35*DATOS!$D$18+'COST PER TASK'!S35*'COST PER TASK'!AE35*DATOS!$D$19+'COST PER TASK'!T35*'COST PER TASK'!AE35*DATOS!$D$20+'COST PER TASK'!U35*'COST PER TASK'!AE35*DATOS!$D$21+'COST PER TASK'!V35*'COST PER TASK'!AE35*DATOS!$D$22</f>
@@ -3362,11 +3370,11 @@
       </c>
       <c r="AK35" s="8">
         <f t="shared" si="1"/>
-        <v>2331.4285714285716</v>
+        <v>5375.7229323923257</v>
       </c>
       <c r="AL35" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714292</v>
+        <v>134.39307330980813</v>
       </c>
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.2">
@@ -3409,12 +3417,12 @@
         <v>22.857142857142858</v>
       </c>
       <c r="AG36" s="4">
-        <f>AF36*C36*DATOS!$B$3+'COST PER TASK'!AF36*'COST PER TASK'!D36*DATOS!B38+'COST PER TASK'!AF36*'COST PER TASK'!E36*DATOS!$B$5</f>
-        <v>1165.7142857142858</v>
+        <f>AF36*C36*DATOS!$B$3+'COST PER TASK'!AF36*'COST PER TASK'!D36*DATOS!$B$4+'COST PER TASK'!AF36*'COST PER TASK'!E36*DATOS!$B$5</f>
+        <v>2628.5714285714284</v>
       </c>
       <c r="AH36" s="3">
         <f>F36*AE36*DATOS!$D$6+'COST PER TASK'!G36*'COST PER TASK'!AE36*DATOS!$D$7+'COST PER TASK'!H36*'COST PER TASK'!AE36*DATOS!$D$8+'COST PER TASK'!I36*'COST PER TASK'!AE36*DATOS!$D$9+'COST PER TASK'!J36*'COST PER TASK'!AE36*DATOS!$D$10+'COST PER TASK'!K36*'COST PER TASK'!AE36*DATOS!$D$11+'COST PER TASK'!L36*'COST PER TASK'!AE36*DATOS!$D$12+'COST PER TASK'!M36*'COST PER TASK'!AE36*DATOS!$D$13+'COST PER TASK'!N36*'COST PER TASK'!AE36*DATOS!$D$14+'COST PER TASK'!O36*'COST PER TASK'!AE36*DATOS!$D$15</f>
-        <v>0</v>
+        <v>59.290037624734175</v>
       </c>
       <c r="AI36" s="3">
         <f>'COST PER TASK'!P36*'COST PER TASK'!AE36*DATOS!$D$16+'COST PER TASK'!Q36*'COST PER TASK'!AE36*DATOS!$D$17+'COST PER TASK'!R36*'COST PER TASK'!AE36*DATOS!$D$18+'COST PER TASK'!S36*'COST PER TASK'!AE36*DATOS!$D$19+'COST PER TASK'!T36*'COST PER TASK'!AE36*DATOS!$D$20+'COST PER TASK'!U36*'COST PER TASK'!AE36*DATOS!$D$21+'COST PER TASK'!V36*'COST PER TASK'!AE36*DATOS!$D$22</f>
@@ -3422,11 +3430,11 @@
       </c>
       <c r="AK36" s="8">
         <f t="shared" si="1"/>
-        <v>1165.7142857142858</v>
+        <v>2687.8614661961628</v>
       </c>
       <c r="AL36" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714292</v>
+        <v>134.39307330980813</v>
       </c>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.2">
@@ -3469,12 +3477,12 @@
         <v>228.57142857142858</v>
       </c>
       <c r="AG37" s="4">
-        <f>AF37*C37*DATOS!$B$3+'COST PER TASK'!AF37*'COST PER TASK'!D37*DATOS!B39+'COST PER TASK'!AF37*'COST PER TASK'!E37*DATOS!$B$5</f>
-        <v>11657.142857142859</v>
+        <f>AF37*C37*DATOS!$B$3+'COST PER TASK'!AF37*'COST PER TASK'!D37*DATOS!$B$4+'COST PER TASK'!AF37*'COST PER TASK'!E37*DATOS!$B$5</f>
+        <v>26285.71428571429</v>
       </c>
       <c r="AH37" s="3">
         <f>F37*AE37*DATOS!$D$6+'COST PER TASK'!G37*'COST PER TASK'!AE37*DATOS!$D$7+'COST PER TASK'!H37*'COST PER TASK'!AE37*DATOS!$D$8+'COST PER TASK'!I37*'COST PER TASK'!AE37*DATOS!$D$9+'COST PER TASK'!J37*'COST PER TASK'!AE37*DATOS!$D$10+'COST PER TASK'!K37*'COST PER TASK'!AE37*DATOS!$D$11+'COST PER TASK'!L37*'COST PER TASK'!AE37*DATOS!$D$12+'COST PER TASK'!M37*'COST PER TASK'!AE37*DATOS!$D$13+'COST PER TASK'!N37*'COST PER TASK'!AE37*DATOS!$D$14+'COST PER TASK'!O37*'COST PER TASK'!AE37*DATOS!$D$15</f>
-        <v>0</v>
+        <v>2691.7767807417235</v>
       </c>
       <c r="AI37" s="3">
         <f>'COST PER TASK'!P37*'COST PER TASK'!AE37*DATOS!$D$16+'COST PER TASK'!Q37*'COST PER TASK'!AE37*DATOS!$D$17+'COST PER TASK'!R37*'COST PER TASK'!AE37*DATOS!$D$18+'COST PER TASK'!S37*'COST PER TASK'!AE37*DATOS!$D$19+'COST PER TASK'!T37*'COST PER TASK'!AE37*DATOS!$D$20+'COST PER TASK'!U37*'COST PER TASK'!AE37*DATOS!$D$21+'COST PER TASK'!V37*'COST PER TASK'!AE37*DATOS!$D$22</f>
@@ -3482,11 +3490,11 @@
       </c>
       <c r="AK37" s="8">
         <f t="shared" si="1"/>
-        <v>11657.142857142859</v>
+        <v>28977.491066456012</v>
       </c>
       <c r="AL37" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714292</v>
+        <v>144.88745533228007</v>
       </c>
     </row>
     <row r="38" spans="2:38" x14ac:dyDescent="0.2">
@@ -3529,12 +3537,12 @@
         <v>68.571428571428569</v>
       </c>
       <c r="AG38" s="4">
-        <f>AF38*C38*DATOS!$B$3+'COST PER TASK'!AF38*'COST PER TASK'!D38*DATOS!B40+'COST PER TASK'!AF38*'COST PER TASK'!E38*DATOS!$B$5</f>
-        <v>3497.1428571428569</v>
+        <f>AF38*C38*DATOS!$B$3+'COST PER TASK'!AF38*'COST PER TASK'!D38*DATOS!$B$4+'COST PER TASK'!AF38*'COST PER TASK'!E38*DATOS!$B$5</f>
+        <v>7885.7142857142862</v>
       </c>
       <c r="AH38" s="3">
         <f>F38*AE38*DATOS!$D$6+'COST PER TASK'!G38*'COST PER TASK'!AE38*DATOS!$D$7+'COST PER TASK'!H38*'COST PER TASK'!AE38*DATOS!$D$8+'COST PER TASK'!I38*'COST PER TASK'!AE38*DATOS!$D$9+'COST PER TASK'!J38*'COST PER TASK'!AE38*DATOS!$D$10+'COST PER TASK'!K38*'COST PER TASK'!AE38*DATOS!$D$11+'COST PER TASK'!L38*'COST PER TASK'!AE38*DATOS!$D$12+'COST PER TASK'!M38*'COST PER TASK'!AE38*DATOS!$D$13+'COST PER TASK'!N38*'COST PER TASK'!AE38*DATOS!$D$14+'COST PER TASK'!O38*'COST PER TASK'!AE38*DATOS!$D$15</f>
-        <v>0</v>
+        <v>807.53303422251713</v>
       </c>
       <c r="AI38" s="3">
         <f>'COST PER TASK'!P38*'COST PER TASK'!AE38*DATOS!$D$16+'COST PER TASK'!Q38*'COST PER TASK'!AE38*DATOS!$D$17+'COST PER TASK'!R38*'COST PER TASK'!AE38*DATOS!$D$18+'COST PER TASK'!S38*'COST PER TASK'!AE38*DATOS!$D$19+'COST PER TASK'!T38*'COST PER TASK'!AE38*DATOS!$D$20+'COST PER TASK'!U38*'COST PER TASK'!AE38*DATOS!$D$21+'COST PER TASK'!V38*'COST PER TASK'!AE38*DATOS!$D$22</f>
@@ -3542,11 +3550,11 @@
       </c>
       <c r="AK38" s="8">
         <f t="shared" si="1"/>
-        <v>3497.1428571428569</v>
+        <v>8693.2473199368033</v>
       </c>
       <c r="AL38" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714285</v>
+        <v>144.88745533228004</v>
       </c>
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.2">
@@ -3589,12 +3597,12 @@
         <v>228.57142857142858</v>
       </c>
       <c r="AG39" s="4">
-        <f>AF39*C39*DATOS!$B$3+'COST PER TASK'!AF39*'COST PER TASK'!D39*DATOS!B41+'COST PER TASK'!AF39*'COST PER TASK'!E39*DATOS!$B$5</f>
-        <v>11657.142857142859</v>
+        <f>AF39*C39*DATOS!$B$3+'COST PER TASK'!AF39*'COST PER TASK'!D39*DATOS!$B$4+'COST PER TASK'!AF39*'COST PER TASK'!E39*DATOS!$B$5</f>
+        <v>26285.71428571429</v>
       </c>
       <c r="AH39" s="3">
         <f>F39*AE39*DATOS!$D$6+'COST PER TASK'!G39*'COST PER TASK'!AE39*DATOS!$D$7+'COST PER TASK'!H39*'COST PER TASK'!AE39*DATOS!$D$8+'COST PER TASK'!I39*'COST PER TASK'!AE39*DATOS!$D$9+'COST PER TASK'!J39*'COST PER TASK'!AE39*DATOS!$D$10+'COST PER TASK'!K39*'COST PER TASK'!AE39*DATOS!$D$11+'COST PER TASK'!L39*'COST PER TASK'!AE39*DATOS!$D$12+'COST PER TASK'!M39*'COST PER TASK'!AE39*DATOS!$D$13+'COST PER TASK'!N39*'COST PER TASK'!AE39*DATOS!$D$14+'COST PER TASK'!O39*'COST PER TASK'!AE39*DATOS!$D$15</f>
-        <v>0</v>
+        <v>2691.7767807417235</v>
       </c>
       <c r="AI39" s="3">
         <f>'COST PER TASK'!P39*'COST PER TASK'!AE39*DATOS!$D$16+'COST PER TASK'!Q39*'COST PER TASK'!AE39*DATOS!$D$17+'COST PER TASK'!R39*'COST PER TASK'!AE39*DATOS!$D$18+'COST PER TASK'!S39*'COST PER TASK'!AE39*DATOS!$D$19+'COST PER TASK'!T39*'COST PER TASK'!AE39*DATOS!$D$20+'COST PER TASK'!U39*'COST PER TASK'!AE39*DATOS!$D$21+'COST PER TASK'!V39*'COST PER TASK'!AE39*DATOS!$D$22</f>
@@ -3602,11 +3610,11 @@
       </c>
       <c r="AK39" s="8">
         <f t="shared" si="1"/>
-        <v>11657.142857142859</v>
+        <v>28977.491066456012</v>
       </c>
       <c r="AL39" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714292</v>
+        <v>144.88745533228007</v>
       </c>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.2">
@@ -3649,12 +3657,12 @@
         <v>228.57142857142858</v>
       </c>
       <c r="AG40" s="4">
-        <f>AF40*C40*DATOS!$B$3+'COST PER TASK'!AF40*'COST PER TASK'!D40*DATOS!B42+'COST PER TASK'!AF40*'COST PER TASK'!E40*DATOS!$B$5</f>
-        <v>11657.142857142859</v>
+        <f>AF40*C40*DATOS!$B$3+'COST PER TASK'!AF40*'COST PER TASK'!D40*DATOS!$B$4+'COST PER TASK'!AF40*'COST PER TASK'!E40*DATOS!$B$5</f>
+        <v>26285.71428571429</v>
       </c>
       <c r="AH40" s="3">
         <f>F40*AE40*DATOS!$D$6+'COST PER TASK'!G40*'COST PER TASK'!AE40*DATOS!$D$7+'COST PER TASK'!H40*'COST PER TASK'!AE40*DATOS!$D$8+'COST PER TASK'!I40*'COST PER TASK'!AE40*DATOS!$D$9+'COST PER TASK'!J40*'COST PER TASK'!AE40*DATOS!$D$10+'COST PER TASK'!K40*'COST PER TASK'!AE40*DATOS!$D$11+'COST PER TASK'!L40*'COST PER TASK'!AE40*DATOS!$D$12+'COST PER TASK'!M40*'COST PER TASK'!AE40*DATOS!$D$13+'COST PER TASK'!N40*'COST PER TASK'!AE40*DATOS!$D$14+'COST PER TASK'!O40*'COST PER TASK'!AE40*DATOS!$D$15</f>
-        <v>0</v>
+        <v>2691.7767807417235</v>
       </c>
       <c r="AI40" s="3">
         <f>'COST PER TASK'!P40*'COST PER TASK'!AE40*DATOS!$D$16+'COST PER TASK'!Q40*'COST PER TASK'!AE40*DATOS!$D$17+'COST PER TASK'!R40*'COST PER TASK'!AE40*DATOS!$D$18+'COST PER TASK'!S40*'COST PER TASK'!AE40*DATOS!$D$19+'COST PER TASK'!T40*'COST PER TASK'!AE40*DATOS!$D$20+'COST PER TASK'!U40*'COST PER TASK'!AE40*DATOS!$D$21+'COST PER TASK'!V40*'COST PER TASK'!AE40*DATOS!$D$22</f>
@@ -3662,11 +3670,11 @@
       </c>
       <c r="AK40" s="8">
         <f t="shared" si="1"/>
-        <v>11657.142857142859</v>
+        <v>28977.491066456012</v>
       </c>
       <c r="AL40" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714292</v>
+        <v>144.88745533228007</v>
       </c>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.2">
@@ -3709,12 +3717,12 @@
         <v>68.571428571428569</v>
       </c>
       <c r="AG41" s="4">
-        <f>AF41*C41*DATOS!$B$3+'COST PER TASK'!AF41*'COST PER TASK'!D41*DATOS!B43+'COST PER TASK'!AF41*'COST PER TASK'!E41*DATOS!$B$5</f>
-        <v>3497.1428571428569</v>
+        <f>AF41*C41*DATOS!$B$3+'COST PER TASK'!AF41*'COST PER TASK'!D41*DATOS!$B$4+'COST PER TASK'!AF41*'COST PER TASK'!E41*DATOS!$B$5</f>
+        <v>7885.7142857142862</v>
       </c>
       <c r="AH41" s="3">
         <f>F41*AE41*DATOS!$D$6+'COST PER TASK'!G41*'COST PER TASK'!AE41*DATOS!$D$7+'COST PER TASK'!H41*'COST PER TASK'!AE41*DATOS!$D$8+'COST PER TASK'!I41*'COST PER TASK'!AE41*DATOS!$D$9+'COST PER TASK'!J41*'COST PER TASK'!AE41*DATOS!$D$10+'COST PER TASK'!K41*'COST PER TASK'!AE41*DATOS!$D$11+'COST PER TASK'!L41*'COST PER TASK'!AE41*DATOS!$D$12+'COST PER TASK'!M41*'COST PER TASK'!AE41*DATOS!$D$13+'COST PER TASK'!N41*'COST PER TASK'!AE41*DATOS!$D$14+'COST PER TASK'!O41*'COST PER TASK'!AE41*DATOS!$D$15</f>
-        <v>0</v>
+        <v>807.53303422251713</v>
       </c>
       <c r="AI41" s="3">
         <f>'COST PER TASK'!P41*'COST PER TASK'!AE41*DATOS!$D$16+'COST PER TASK'!Q41*'COST PER TASK'!AE41*DATOS!$D$17+'COST PER TASK'!R41*'COST PER TASK'!AE41*DATOS!$D$18+'COST PER TASK'!S41*'COST PER TASK'!AE41*DATOS!$D$19+'COST PER TASK'!T41*'COST PER TASK'!AE41*DATOS!$D$20+'COST PER TASK'!U41*'COST PER TASK'!AE41*DATOS!$D$21+'COST PER TASK'!V41*'COST PER TASK'!AE41*DATOS!$D$22</f>
@@ -3722,11 +3730,11 @@
       </c>
       <c r="AK41" s="8">
         <f t="shared" si="1"/>
-        <v>3497.1428571428569</v>
+        <v>8693.2473199368033</v>
       </c>
       <c r="AL41" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714285</v>
+        <v>144.88745533228004</v>
       </c>
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.2">
@@ -3769,12 +3777,12 @@
         <v>114.28571428571429</v>
       </c>
       <c r="AG42" s="4">
-        <f>AF42*C42*DATOS!$B$3+'COST PER TASK'!AF42*'COST PER TASK'!D42*DATOS!B44+'COST PER TASK'!AF42*'COST PER TASK'!E42*DATOS!$B$5</f>
-        <v>5828.5714285714294</v>
+        <f>AF42*C42*DATOS!$B$3+'COST PER TASK'!AF42*'COST PER TASK'!D42*DATOS!$B$4+'COST PER TASK'!AF42*'COST PER TASK'!E42*DATOS!$B$5</f>
+        <v>13142.857142857145</v>
       </c>
       <c r="AH42" s="3">
         <f>F42*AE42*DATOS!$D$6+'COST PER TASK'!G42*'COST PER TASK'!AE42*DATOS!$D$7+'COST PER TASK'!H42*'COST PER TASK'!AE42*DATOS!$D$8+'COST PER TASK'!I42*'COST PER TASK'!AE42*DATOS!$D$9+'COST PER TASK'!J42*'COST PER TASK'!AE42*DATOS!$D$10+'COST PER TASK'!K42*'COST PER TASK'!AE42*DATOS!$D$11+'COST PER TASK'!L42*'COST PER TASK'!AE42*DATOS!$D$12+'COST PER TASK'!M42*'COST PER TASK'!AE42*DATOS!$D$13+'COST PER TASK'!N42*'COST PER TASK'!AE42*DATOS!$D$14+'COST PER TASK'!O42*'COST PER TASK'!AE42*DATOS!$D$15</f>
-        <v>0</v>
+        <v>296.4501881236709</v>
       </c>
       <c r="AI42" s="3">
         <f>'COST PER TASK'!P42*'COST PER TASK'!AE42*DATOS!$D$16+'COST PER TASK'!Q42*'COST PER TASK'!AE42*DATOS!$D$17+'COST PER TASK'!R42*'COST PER TASK'!AE42*DATOS!$D$18+'COST PER TASK'!S42*'COST PER TASK'!AE42*DATOS!$D$19+'COST PER TASK'!T42*'COST PER TASK'!AE42*DATOS!$D$20+'COST PER TASK'!U42*'COST PER TASK'!AE42*DATOS!$D$21+'COST PER TASK'!V42*'COST PER TASK'!AE42*DATOS!$D$22</f>
@@ -3782,11 +3790,11 @@
       </c>
       <c r="AK42" s="8">
         <f t="shared" si="1"/>
-        <v>5828.5714285714294</v>
+        <v>13439.307330980815</v>
       </c>
       <c r="AL42" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714292</v>
+        <v>134.39307330980816</v>
       </c>
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.2">
@@ -3829,12 +3837,12 @@
         <v>205.71428571428572</v>
       </c>
       <c r="AG43" s="4">
-        <f>AF43*C43*DATOS!$B$3+'COST PER TASK'!AF43*'COST PER TASK'!D43*DATOS!B45+'COST PER TASK'!AF43*'COST PER TASK'!E43*DATOS!$B$5</f>
-        <v>10491.428571428572</v>
+        <f>AF43*C43*DATOS!$B$3+'COST PER TASK'!AF43*'COST PER TASK'!D43*DATOS!$B$4+'COST PER TASK'!AF43*'COST PER TASK'!E43*DATOS!$B$5</f>
+        <v>23657.142857142855</v>
       </c>
       <c r="AH43" s="3">
         <f>F43*AE43*DATOS!$D$6+'COST PER TASK'!G43*'COST PER TASK'!AE43*DATOS!$D$7+'COST PER TASK'!H43*'COST PER TASK'!AE43*DATOS!$D$8+'COST PER TASK'!I43*'COST PER TASK'!AE43*DATOS!$D$9+'COST PER TASK'!J43*'COST PER TASK'!AE43*DATOS!$D$10+'COST PER TASK'!K43*'COST PER TASK'!AE43*DATOS!$D$11+'COST PER TASK'!L43*'COST PER TASK'!AE43*DATOS!$D$12+'COST PER TASK'!M43*'COST PER TASK'!AE43*DATOS!$D$13+'COST PER TASK'!N43*'COST PER TASK'!AE43*DATOS!$D$14+'COST PER TASK'!O43*'COST PER TASK'!AE43*DATOS!$D$15</f>
-        <v>0</v>
+        <v>533.61033862260763</v>
       </c>
       <c r="AI43" s="3">
         <f>'COST PER TASK'!P43*'COST PER TASK'!AE43*DATOS!$D$16+'COST PER TASK'!Q43*'COST PER TASK'!AE43*DATOS!$D$17+'COST PER TASK'!R43*'COST PER TASK'!AE43*DATOS!$D$18+'COST PER TASK'!S43*'COST PER TASK'!AE43*DATOS!$D$19+'COST PER TASK'!T43*'COST PER TASK'!AE43*DATOS!$D$20+'COST PER TASK'!U43*'COST PER TASK'!AE43*DATOS!$D$21+'COST PER TASK'!V43*'COST PER TASK'!AE43*DATOS!$D$22</f>
@@ -3842,11 +3850,11 @@
       </c>
       <c r="AK43" s="8">
         <f t="shared" si="1"/>
-        <v>10491.428571428572</v>
+        <v>24190.753195765461</v>
       </c>
       <c r="AL43" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714292</v>
+        <v>134.39307330980813</v>
       </c>
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.2">
@@ -3889,12 +3897,12 @@
         <v>154.28571428571428</v>
       </c>
       <c r="AG44" s="4">
-        <f>AF44*C44*DATOS!$B$3+'COST PER TASK'!AF44*'COST PER TASK'!D44*DATOS!B46+'COST PER TASK'!AF44*'COST PER TASK'!E44*DATOS!$B$5</f>
-        <v>7868.5714285714275</v>
+        <f>AF44*C44*DATOS!$B$3+'COST PER TASK'!AF44*'COST PER TASK'!D44*DATOS!$B$4+'COST PER TASK'!AF44*'COST PER TASK'!E44*DATOS!$B$5</f>
+        <v>17742.857142857141</v>
       </c>
       <c r="AH44" s="3">
         <f>F44*AE44*DATOS!$D$6+'COST PER TASK'!G44*'COST PER TASK'!AE44*DATOS!$D$7+'COST PER TASK'!H44*'COST PER TASK'!AE44*DATOS!$D$8+'COST PER TASK'!I44*'COST PER TASK'!AE44*DATOS!$D$9+'COST PER TASK'!J44*'COST PER TASK'!AE44*DATOS!$D$10+'COST PER TASK'!K44*'COST PER TASK'!AE44*DATOS!$D$11+'COST PER TASK'!L44*'COST PER TASK'!AE44*DATOS!$D$12+'COST PER TASK'!M44*'COST PER TASK'!AE44*DATOS!$D$13+'COST PER TASK'!N44*'COST PER TASK'!AE44*DATOS!$D$14+'COST PER TASK'!O44*'COST PER TASK'!AE44*DATOS!$D$15</f>
-        <v>0</v>
+        <v>400.20775396695569</v>
       </c>
       <c r="AI44" s="3">
         <f>'COST PER TASK'!P44*'COST PER TASK'!AE44*DATOS!$D$16+'COST PER TASK'!Q44*'COST PER TASK'!AE44*DATOS!$D$17+'COST PER TASK'!R44*'COST PER TASK'!AE44*DATOS!$D$18+'COST PER TASK'!S44*'COST PER TASK'!AE44*DATOS!$D$19+'COST PER TASK'!T44*'COST PER TASK'!AE44*DATOS!$D$20+'COST PER TASK'!U44*'COST PER TASK'!AE44*DATOS!$D$21+'COST PER TASK'!V44*'COST PER TASK'!AE44*DATOS!$D$22</f>
@@ -3902,11 +3910,11 @@
       </c>
       <c r="AK44" s="8">
         <f t="shared" si="1"/>
-        <v>7868.5714285714275</v>
+        <v>18143.064896824097</v>
       </c>
       <c r="AL44" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714278</v>
+        <v>134.39307330980813</v>
       </c>
     </row>
     <row r="45" spans="2:38" x14ac:dyDescent="0.2">
@@ -3949,12 +3957,12 @@
         <v>28.571428571428573</v>
       </c>
       <c r="AG45" s="4">
-        <f>AF45*C45*DATOS!$B$3+'COST PER TASK'!AF45*'COST PER TASK'!D45*DATOS!B47+'COST PER TASK'!AF45*'COST PER TASK'!E45*DATOS!$B$5</f>
-        <v>1457.1428571428573</v>
+        <f>AF45*C45*DATOS!$B$3+'COST PER TASK'!AF45*'COST PER TASK'!D45*DATOS!$B$4+'COST PER TASK'!AF45*'COST PER TASK'!E45*DATOS!$B$5</f>
+        <v>3285.7142857142862</v>
       </c>
       <c r="AH45" s="3">
         <f>F45*AE45*DATOS!$D$6+'COST PER TASK'!G45*'COST PER TASK'!AE45*DATOS!$D$7+'COST PER TASK'!H45*'COST PER TASK'!AE45*DATOS!$D$8+'COST PER TASK'!I45*'COST PER TASK'!AE45*DATOS!$D$9+'COST PER TASK'!J45*'COST PER TASK'!AE45*DATOS!$D$10+'COST PER TASK'!K45*'COST PER TASK'!AE45*DATOS!$D$11+'COST PER TASK'!L45*'COST PER TASK'!AE45*DATOS!$D$12+'COST PER TASK'!M45*'COST PER TASK'!AE45*DATOS!$D$13+'COST PER TASK'!N45*'COST PER TASK'!AE45*DATOS!$D$14+'COST PER TASK'!O45*'COST PER TASK'!AE45*DATOS!$D$15</f>
-        <v>0</v>
+        <v>74.112547030917725</v>
       </c>
       <c r="AI45" s="3">
         <f>'COST PER TASK'!P45*'COST PER TASK'!AE45*DATOS!$D$16+'COST PER TASK'!Q45*'COST PER TASK'!AE45*DATOS!$D$17+'COST PER TASK'!R45*'COST PER TASK'!AE45*DATOS!$D$18+'COST PER TASK'!S45*'COST PER TASK'!AE45*DATOS!$D$19+'COST PER TASK'!T45*'COST PER TASK'!AE45*DATOS!$D$20+'COST PER TASK'!U45*'COST PER TASK'!AE45*DATOS!$D$21+'COST PER TASK'!V45*'COST PER TASK'!AE45*DATOS!$D$22</f>
@@ -3962,11 +3970,11 @@
       </c>
       <c r="AK45" s="8">
         <f t="shared" si="1"/>
-        <v>1457.1428571428573</v>
+        <v>3359.8268327452038</v>
       </c>
       <c r="AL45" s="8">
         <f t="shared" si="2"/>
-        <v>58.285714285714292</v>
+        <v>134.39307330980816</v>
       </c>
     </row>
     <row r="46" spans="2:38" x14ac:dyDescent="0.2">
@@ -3997,8 +4005,8 @@
         <v>533.33333333333337</v>
       </c>
       <c r="AG46" s="4">
-        <f>AF46*C46*DATOS!$B$3+'COST PER TASK'!AF46*'COST PER TASK'!D46*DATOS!B48+'COST PER TASK'!AF46*'COST PER TASK'!E46*DATOS!$B$5</f>
-        <v>13866.666666666668</v>
+        <f>AF46*C46*DATOS!$B$3+'COST PER TASK'!AF46*'COST PER TASK'!D46*DATOS!$B$4+'COST PER TASK'!AF46*'COST PER TASK'!E46*DATOS!$B$5</f>
+        <v>22400</v>
       </c>
       <c r="AH46" s="3">
         <f>F46*AE46*DATOS!$D$6+'COST PER TASK'!G46*'COST PER TASK'!AE46*DATOS!$D$7+'COST PER TASK'!H46*'COST PER TASK'!AE46*DATOS!$D$8+'COST PER TASK'!I46*'COST PER TASK'!AE46*DATOS!$D$9+'COST PER TASK'!J46*'COST PER TASK'!AE46*DATOS!$D$10+'COST PER TASK'!K46*'COST PER TASK'!AE46*DATOS!$D$11+'COST PER TASK'!L46*'COST PER TASK'!AE46*DATOS!$D$12+'COST PER TASK'!M46*'COST PER TASK'!AE46*DATOS!$D$13+'COST PER TASK'!N46*'COST PER TASK'!AE46*DATOS!$D$14+'COST PER TASK'!O46*'COST PER TASK'!AE46*DATOS!$D$15</f>
@@ -4010,11 +4018,11 @@
       </c>
       <c r="AK46" s="8">
         <f t="shared" si="1"/>
-        <v>13866.666666666668</v>
+        <v>22400</v>
       </c>
       <c r="AL46" s="8">
         <f t="shared" si="2"/>
-        <v>69.333333333333343</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.2">
@@ -4054,8 +4062,8 @@
         <v>400</v>
       </c>
       <c r="AG47" s="4">
-        <f>AF47*C47*DATOS!$B$3+'COST PER TASK'!AF47*'COST PER TASK'!D47*DATOS!B49+'COST PER TASK'!AF47*'COST PER TASK'!E47*DATOS!$B$5</f>
-        <v>10400</v>
+        <f>AF47*C47*DATOS!$B$3+'COST PER TASK'!AF47*'COST PER TASK'!D47*DATOS!$B$4+'COST PER TASK'!AF47*'COST PER TASK'!E47*DATOS!$B$5</f>
+        <v>16800</v>
       </c>
       <c r="AH47" s="3">
         <f>F47*AE47*DATOS!$D$6+'COST PER TASK'!G47*'COST PER TASK'!AE47*DATOS!$D$7+'COST PER TASK'!H47*'COST PER TASK'!AE47*DATOS!$D$8+'COST PER TASK'!I47*'COST PER TASK'!AE47*DATOS!$D$9+'COST PER TASK'!J47*'COST PER TASK'!AE47*DATOS!$D$10+'COST PER TASK'!K47*'COST PER TASK'!AE47*DATOS!$D$11+'COST PER TASK'!L47*'COST PER TASK'!AE47*DATOS!$D$12+'COST PER TASK'!M47*'COST PER TASK'!AE47*DATOS!$D$13+'COST PER TASK'!N47*'COST PER TASK'!AE47*DATOS!$D$14+'COST PER TASK'!O47*'COST PER TASK'!AE47*DATOS!$D$15</f>
@@ -4067,11 +4075,11 @@
       </c>
       <c r="AK47" s="8">
         <f t="shared" si="1"/>
-        <v>10400</v>
+        <v>16800</v>
       </c>
       <c r="AL47" s="8">
         <f t="shared" si="2"/>
-        <v>69.333333333333329</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="2:38" x14ac:dyDescent="0.2">
@@ -4105,8 +4113,8 @@
         <v>266.66666666666669</v>
       </c>
       <c r="AG48" s="4">
-        <f>AF48*C48*DATOS!$B$3+'COST PER TASK'!AF48*'COST PER TASK'!D48*DATOS!B50+'COST PER TASK'!AF48*'COST PER TASK'!E48*DATOS!$B$5</f>
-        <v>6933.3333333333339</v>
+        <f>AF48*C48*DATOS!$B$3+'COST PER TASK'!AF48*'COST PER TASK'!D48*DATOS!$B$4+'COST PER TASK'!AF48*'COST PER TASK'!E48*DATOS!$B$5</f>
+        <v>11200</v>
       </c>
       <c r="AH48" s="3">
         <f>F48*AE48*DATOS!$D$6+'COST PER TASK'!G48*'COST PER TASK'!AE48*DATOS!$D$7+'COST PER TASK'!H48*'COST PER TASK'!AE48*DATOS!$D$8+'COST PER TASK'!I48*'COST PER TASK'!AE48*DATOS!$D$9+'COST PER TASK'!J48*'COST PER TASK'!AE48*DATOS!$D$10+'COST PER TASK'!K48*'COST PER TASK'!AE48*DATOS!$D$11+'COST PER TASK'!L48*'COST PER TASK'!AE48*DATOS!$D$12+'COST PER TASK'!M48*'COST PER TASK'!AE48*DATOS!$D$13+'COST PER TASK'!N48*'COST PER TASK'!AE48*DATOS!$D$14+'COST PER TASK'!O48*'COST PER TASK'!AE48*DATOS!$D$15</f>
@@ -4118,11 +4126,11 @@
       </c>
       <c r="AK48" s="8">
         <f t="shared" si="1"/>
-        <v>6933.3333333333339</v>
+        <v>11200</v>
       </c>
       <c r="AL48" s="8">
         <f t="shared" si="2"/>
-        <v>69.333333333333343</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="2:38" x14ac:dyDescent="0.2">
@@ -4153,8 +4161,8 @@
         <v>120</v>
       </c>
       <c r="AG49" s="4">
-        <f>AF49*C49*DATOS!$B$3+'COST PER TASK'!AF49*'COST PER TASK'!D49*DATOS!B51+'COST PER TASK'!AF49*'COST PER TASK'!E49*DATOS!$B$5</f>
-        <v>3120</v>
+        <f>AF49*C49*DATOS!$B$3+'COST PER TASK'!AF49*'COST PER TASK'!D49*DATOS!$B$4+'COST PER TASK'!AF49*'COST PER TASK'!E49*DATOS!$B$5</f>
+        <v>6960</v>
       </c>
       <c r="AH49" s="3">
         <f>F49*AE49*DATOS!$D$6+'COST PER TASK'!G49*'COST PER TASK'!AE49*DATOS!$D$7+'COST PER TASK'!H49*'COST PER TASK'!AE49*DATOS!$D$8+'COST PER TASK'!I49*'COST PER TASK'!AE49*DATOS!$D$9+'COST PER TASK'!J49*'COST PER TASK'!AE49*DATOS!$D$10+'COST PER TASK'!K49*'COST PER TASK'!AE49*DATOS!$D$11+'COST PER TASK'!L49*'COST PER TASK'!AE49*DATOS!$D$12+'COST PER TASK'!M49*'COST PER TASK'!AE49*DATOS!$D$13+'COST PER TASK'!N49*'COST PER TASK'!AE49*DATOS!$D$14+'COST PER TASK'!O49*'COST PER TASK'!AE49*DATOS!$D$15</f>
@@ -4166,11 +4174,11 @@
       </c>
       <c r="AK49" s="8">
         <f t="shared" si="1"/>
-        <v>3120</v>
+        <v>6960</v>
       </c>
       <c r="AL49" s="8">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="2:38" x14ac:dyDescent="0.2">
@@ -4210,8 +4218,8 @@
         <v>120</v>
       </c>
       <c r="AG50" s="4">
-        <f>AF50*C50*DATOS!$B$3+'COST PER TASK'!AF50*'COST PER TASK'!D50*DATOS!B52+'COST PER TASK'!AF50*'COST PER TASK'!E50*DATOS!$B$5</f>
-        <v>3120</v>
+        <f>AF50*C50*DATOS!$B$3+'COST PER TASK'!AF50*'COST PER TASK'!D50*DATOS!$B$4+'COST PER TASK'!AF50*'COST PER TASK'!E50*DATOS!$B$5</f>
+        <v>6960</v>
       </c>
       <c r="AH50" s="3">
         <f>F50*AE50*DATOS!$D$6+'COST PER TASK'!G50*'COST PER TASK'!AE50*DATOS!$D$7+'COST PER TASK'!H50*'COST PER TASK'!AE50*DATOS!$D$8+'COST PER TASK'!I50*'COST PER TASK'!AE50*DATOS!$D$9+'COST PER TASK'!J50*'COST PER TASK'!AE50*DATOS!$D$10+'COST PER TASK'!K50*'COST PER TASK'!AE50*DATOS!$D$11+'COST PER TASK'!L50*'COST PER TASK'!AE50*DATOS!$D$12+'COST PER TASK'!M50*'COST PER TASK'!AE50*DATOS!$D$13+'COST PER TASK'!N50*'COST PER TASK'!AE50*DATOS!$D$14+'COST PER TASK'!O50*'COST PER TASK'!AE50*DATOS!$D$15</f>
@@ -4223,11 +4231,11 @@
       </c>
       <c r="AK50" s="8">
         <f t="shared" si="1"/>
-        <v>3120</v>
+        <v>6960</v>
       </c>
       <c r="AL50" s="8">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="2:38" x14ac:dyDescent="0.2">
@@ -4258,8 +4266,8 @@
         <v>180</v>
       </c>
       <c r="AG51" s="4">
-        <f>AF51*C51*DATOS!$B$3+'COST PER TASK'!AF51*'COST PER TASK'!D51*DATOS!B53+'COST PER TASK'!AF51*'COST PER TASK'!E51*DATOS!$B$5</f>
-        <v>0</v>
+        <f>AF51*C51*DATOS!$B$3+'COST PER TASK'!AF51*'COST PER TASK'!D51*DATOS!$B$4+'COST PER TASK'!AF51*'COST PER TASK'!E51*DATOS!$B$5</f>
+        <v>5760</v>
       </c>
       <c r="AH51" s="3">
         <f>F51*AE51*DATOS!$D$6+'COST PER TASK'!G51*'COST PER TASK'!AE51*DATOS!$D$7+'COST PER TASK'!H51*'COST PER TASK'!AE51*DATOS!$D$8+'COST PER TASK'!I51*'COST PER TASK'!AE51*DATOS!$D$9+'COST PER TASK'!J51*'COST PER TASK'!AE51*DATOS!$D$10+'COST PER TASK'!K51*'COST PER TASK'!AE51*DATOS!$D$11+'COST PER TASK'!L51*'COST PER TASK'!AE51*DATOS!$D$12+'COST PER TASK'!M51*'COST PER TASK'!AE51*DATOS!$D$13+'COST PER TASK'!N51*'COST PER TASK'!AE51*DATOS!$D$14+'COST PER TASK'!O51*'COST PER TASK'!AE51*DATOS!$D$15</f>
@@ -4271,11 +4279,11 @@
       </c>
       <c r="AK51" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5760</v>
       </c>
       <c r="AL51" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.2">
@@ -4321,8 +4329,8 @@
         <v>106.66666666666667</v>
       </c>
       <c r="AG52" s="4">
-        <f>AF52*C52*DATOS!$B$3+'COST PER TASK'!AF52*'COST PER TASK'!D52*DATOS!B54+'COST PER TASK'!AF52*'COST PER TASK'!E52*DATOS!$B$5</f>
-        <v>0</v>
+        <f>AF52*C52*DATOS!$B$3+'COST PER TASK'!AF52*'COST PER TASK'!D52*DATOS!$B$4+'COST PER TASK'!AF52*'COST PER TASK'!E52*DATOS!$B$5</f>
+        <v>10240</v>
       </c>
       <c r="AH52" s="3">
         <f>F52*AE52*DATOS!$D$6+'COST PER TASK'!G52*'COST PER TASK'!AE52*DATOS!$D$7+'COST PER TASK'!H52*'COST PER TASK'!AE52*DATOS!$D$8+'COST PER TASK'!I52*'COST PER TASK'!AE52*DATOS!$D$9+'COST PER TASK'!J52*'COST PER TASK'!AE52*DATOS!$D$10+'COST PER TASK'!K52*'COST PER TASK'!AE52*DATOS!$D$11+'COST PER TASK'!L52*'COST PER TASK'!AE52*DATOS!$D$12+'COST PER TASK'!M52*'COST PER TASK'!AE52*DATOS!$D$13+'COST PER TASK'!N52*'COST PER TASK'!AE52*DATOS!$D$14+'COST PER TASK'!O52*'COST PER TASK'!AE52*DATOS!$D$15</f>
@@ -4334,11 +4342,11 @@
       </c>
       <c r="AK52" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10240</v>
       </c>
       <c r="AL52" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="2:38" x14ac:dyDescent="0.2">
@@ -4387,8 +4395,8 @@
         <v>240</v>
       </c>
       <c r="AG53" s="4">
-        <f>AF53*C53*DATOS!$B$3+'COST PER TASK'!AF53*'COST PER TASK'!D53*DATOS!B55+'COST PER TASK'!AF53*'COST PER TASK'!E53*DATOS!$B$5</f>
-        <v>6000</v>
+        <f>AF53*C53*DATOS!$B$3+'COST PER TASK'!AF53*'COST PER TASK'!D53*DATOS!$B$4+'COST PER TASK'!AF53*'COST PER TASK'!E53*DATOS!$B$5</f>
+        <v>9840</v>
       </c>
       <c r="AH53" s="3">
         <f>F53*AE53*DATOS!$D$6+'COST PER TASK'!G53*'COST PER TASK'!AE53*DATOS!$D$7+'COST PER TASK'!H53*'COST PER TASK'!AE53*DATOS!$D$8+'COST PER TASK'!I53*'COST PER TASK'!AE53*DATOS!$D$9+'COST PER TASK'!J53*'COST PER TASK'!AE53*DATOS!$D$10+'COST PER TASK'!K53*'COST PER TASK'!AE53*DATOS!$D$11+'COST PER TASK'!L53*'COST PER TASK'!AE53*DATOS!$D$12+'COST PER TASK'!M53*'COST PER TASK'!AE53*DATOS!$D$13+'COST PER TASK'!N53*'COST PER TASK'!AE53*DATOS!$D$14+'COST PER TASK'!O53*'COST PER TASK'!AE53*DATOS!$D$15</f>
@@ -4400,11 +4408,11 @@
       </c>
       <c r="AK53" s="8">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>9840</v>
       </c>
       <c r="AL53" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="2:38" x14ac:dyDescent="0.2">
@@ -4438,12 +4446,12 @@
         <v>16</v>
       </c>
       <c r="AG54" s="4">
-        <f>AF54*C54*DATOS!$B$3+'COST PER TASK'!AF54*'COST PER TASK'!D54*DATOS!B56+'COST PER TASK'!AF54*'COST PER TASK'!E54*DATOS!$B$5</f>
-        <v>400</v>
+        <f>AF54*C54*DATOS!$B$3+'COST PER TASK'!AF54*'COST PER TASK'!D54*DATOS!$B$4+'COST PER TASK'!AF54*'COST PER TASK'!E54*DATOS!$B$5</f>
+        <v>1168</v>
       </c>
       <c r="AH54" s="3">
         <f>F54*AE54*DATOS!$D$6+'COST PER TASK'!G54*'COST PER TASK'!AE54*DATOS!$D$7+'COST PER TASK'!H54*'COST PER TASK'!AE54*DATOS!$D$8+'COST PER TASK'!I54*'COST PER TASK'!AE54*DATOS!$D$9+'COST PER TASK'!J54*'COST PER TASK'!AE54*DATOS!$D$10+'COST PER TASK'!K54*'COST PER TASK'!AE54*DATOS!$D$11+'COST PER TASK'!L54*'COST PER TASK'!AE54*DATOS!$D$12+'COST PER TASK'!M54*'COST PER TASK'!AE54*DATOS!$D$13+'COST PER TASK'!N54*'COST PER TASK'!AE54*DATOS!$D$14+'COST PER TASK'!O54*'COST PER TASK'!AE54*DATOS!$D$15</f>
-        <v>0</v>
+        <v>23.71601504989367</v>
       </c>
       <c r="AI54" s="3">
         <f>'COST PER TASK'!P54*'COST PER TASK'!AE54*DATOS!$D$16+'COST PER TASK'!Q54*'COST PER TASK'!AE54*DATOS!$D$17+'COST PER TASK'!R54*'COST PER TASK'!AE54*DATOS!$D$18+'COST PER TASK'!S54*'COST PER TASK'!AE54*DATOS!$D$19+'COST PER TASK'!T54*'COST PER TASK'!AE54*DATOS!$D$20+'COST PER TASK'!U54*'COST PER TASK'!AE54*DATOS!$D$21+'COST PER TASK'!V54*'COST PER TASK'!AE54*DATOS!$D$22</f>
@@ -4451,11 +4459,11 @@
       </c>
       <c r="AK54" s="8">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>1191.7160150498937</v>
       </c>
       <c r="AL54" s="8">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>148.96450188123671</v>
       </c>
     </row>
     <row r="55" spans="2:38" x14ac:dyDescent="0.2">
@@ -4489,12 +4497,12 @@
         <v>10</v>
       </c>
       <c r="AG55" s="4">
-        <f>AF55*C55*DATOS!$B$3+'COST PER TASK'!AF55*'COST PER TASK'!D55*DATOS!B57+'COST PER TASK'!AF55*'COST PER TASK'!E55*DATOS!$B$5</f>
-        <v>250</v>
+        <f>AF55*C55*DATOS!$B$3+'COST PER TASK'!AF55*'COST PER TASK'!D55*DATOS!$B$4+'COST PER TASK'!AF55*'COST PER TASK'!E55*DATOS!$B$5</f>
+        <v>730</v>
       </c>
       <c r="AH55" s="3">
         <f>F55*AE55*DATOS!$D$6+'COST PER TASK'!G55*'COST PER TASK'!AE55*DATOS!$D$7+'COST PER TASK'!H55*'COST PER TASK'!AE55*DATOS!$D$8+'COST PER TASK'!I55*'COST PER TASK'!AE55*DATOS!$D$9+'COST PER TASK'!J55*'COST PER TASK'!AE55*DATOS!$D$10+'COST PER TASK'!K55*'COST PER TASK'!AE55*DATOS!$D$11+'COST PER TASK'!L55*'COST PER TASK'!AE55*DATOS!$D$12+'COST PER TASK'!M55*'COST PER TASK'!AE55*DATOS!$D$13+'COST PER TASK'!N55*'COST PER TASK'!AE55*DATOS!$D$14+'COST PER TASK'!O55*'COST PER TASK'!AE55*DATOS!$D$15</f>
-        <v>0</v>
+        <v>14.822509406183544</v>
       </c>
       <c r="AI55" s="3">
         <f>'COST PER TASK'!P55*'COST PER TASK'!AE55*DATOS!$D$16+'COST PER TASK'!Q55*'COST PER TASK'!AE55*DATOS!$D$17+'COST PER TASK'!R55*'COST PER TASK'!AE55*DATOS!$D$18+'COST PER TASK'!S55*'COST PER TASK'!AE55*DATOS!$D$19+'COST PER TASK'!T55*'COST PER TASK'!AE55*DATOS!$D$20+'COST PER TASK'!U55*'COST PER TASK'!AE55*DATOS!$D$21+'COST PER TASK'!V55*'COST PER TASK'!AE55*DATOS!$D$22</f>
@@ -4502,11 +4510,11 @@
       </c>
       <c r="AK55" s="8">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>744.8225094061836</v>
       </c>
       <c r="AL55" s="8">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>148.96450188123671</v>
       </c>
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.2">
@@ -4540,12 +4548,12 @@
         <v>26.666666666666668</v>
       </c>
       <c r="AG56" s="4">
-        <f>AF56*C56*DATOS!$B$3+'COST PER TASK'!AF56*'COST PER TASK'!D56*DATOS!B58+'COST PER TASK'!AF56*'COST PER TASK'!E56*DATOS!$B$5</f>
-        <v>666.66666666666674</v>
+        <f>AF56*C56*DATOS!$B$3+'COST PER TASK'!AF56*'COST PER TASK'!D56*DATOS!$B$4+'COST PER TASK'!AF56*'COST PER TASK'!E56*DATOS!$B$5</f>
+        <v>1520</v>
       </c>
       <c r="AH56" s="3">
         <f>F56*AE56*DATOS!$D$6+'COST PER TASK'!G56*'COST PER TASK'!AE56*DATOS!$D$7+'COST PER TASK'!H56*'COST PER TASK'!AE56*DATOS!$D$8+'COST PER TASK'!I56*'COST PER TASK'!AE56*DATOS!$D$9+'COST PER TASK'!J56*'COST PER TASK'!AE56*DATOS!$D$10+'COST PER TASK'!K56*'COST PER TASK'!AE56*DATOS!$D$11+'COST PER TASK'!L56*'COST PER TASK'!AE56*DATOS!$D$12+'COST PER TASK'!M56*'COST PER TASK'!AE56*DATOS!$D$13+'COST PER TASK'!N56*'COST PER TASK'!AE56*DATOS!$D$14+'COST PER TASK'!O56*'COST PER TASK'!AE56*DATOS!$D$15</f>
-        <v>0</v>
+        <v>29.645018812367088</v>
       </c>
       <c r="AI56" s="3">
         <f>'COST PER TASK'!P56*'COST PER TASK'!AE56*DATOS!$D$16+'COST PER TASK'!Q56*'COST PER TASK'!AE56*DATOS!$D$17+'COST PER TASK'!R56*'COST PER TASK'!AE56*DATOS!$D$18+'COST PER TASK'!S56*'COST PER TASK'!AE56*DATOS!$D$19+'COST PER TASK'!T56*'COST PER TASK'!AE56*DATOS!$D$20+'COST PER TASK'!U56*'COST PER TASK'!AE56*DATOS!$D$21+'COST PER TASK'!V56*'COST PER TASK'!AE56*DATOS!$D$22</f>
@@ -4553,11 +4561,11 @@
       </c>
       <c r="AK56" s="8">
         <f t="shared" si="1"/>
-        <v>666.66666666666674</v>
+        <v>1549.6450188123672</v>
       </c>
       <c r="AL56" s="8">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <v>154.96450188123671</v>
       </c>
     </row>
     <row r="57" spans="2:38" x14ac:dyDescent="0.2">
@@ -4593,13 +4601,13 @@
         <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
-      <c r="AG57" s="14">
-        <f>AF57*C57*DATOS!$B$3+'COST PER TASK'!AF57*'COST PER TASK'!D57*DATOS!B59+'COST PER TASK'!AF57*'COST PER TASK'!E57*DATOS!$B$5</f>
-        <v>640</v>
+      <c r="AG57" s="4">
+        <f>AF57*C57*DATOS!$B$3+'COST PER TASK'!AF57*'COST PER TASK'!D57*DATOS!$B$4+'COST PER TASK'!AF57*'COST PER TASK'!E57*DATOS!$B$5</f>
+        <v>1254.4000000000001</v>
       </c>
       <c r="AH57" s="3">
         <f>F57*AE57*DATOS!$D$6+'COST PER TASK'!G57*'COST PER TASK'!AE57*DATOS!$D$7+'COST PER TASK'!H57*'COST PER TASK'!AE57*DATOS!$D$8+'COST PER TASK'!I57*'COST PER TASK'!AE57*DATOS!$D$9+'COST PER TASK'!J57*'COST PER TASK'!AE57*DATOS!$D$10+'COST PER TASK'!K57*'COST PER TASK'!AE57*DATOS!$D$11+'COST PER TASK'!L57*'COST PER TASK'!AE57*DATOS!$D$12+'COST PER TASK'!M57*'COST PER TASK'!AE57*DATOS!$D$13+'COST PER TASK'!N57*'COST PER TASK'!AE57*DATOS!$D$14+'COST PER TASK'!O57*'COST PER TASK'!AE57*DATOS!$D$15</f>
-        <v>0</v>
+        <v>187.71601504989366</v>
       </c>
       <c r="AI57" s="3">
         <f>'COST PER TASK'!P57*'COST PER TASK'!AE57*DATOS!$D$16+'COST PER TASK'!Q57*'COST PER TASK'!AE57*DATOS!$D$17+'COST PER TASK'!R57*'COST PER TASK'!AE57*DATOS!$D$18+'COST PER TASK'!S57*'COST PER TASK'!AE57*DATOS!$D$19+'COST PER TASK'!T57*'COST PER TASK'!AE57*DATOS!$D$20+'COST PER TASK'!U57*'COST PER TASK'!AE57*DATOS!$D$21+'COST PER TASK'!V57*'COST PER TASK'!AE57*DATOS!$D$22</f>
@@ -4607,11 +4615,11 @@
       </c>
       <c r="AK57" s="8">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>1442.1160150498938</v>
       </c>
       <c r="AL57" s="8">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>180.26450188123673</v>
       </c>
     </row>
     <row r="58" spans="2:38" x14ac:dyDescent="0.2">
@@ -4648,12 +4656,12 @@
         <v>66.666666666666671</v>
       </c>
       <c r="AG58" s="4">
-        <f>AF58*C58*DATOS!$B$3+'COST PER TASK'!AF58*'COST PER TASK'!D58*DATOS!B60+'COST PER TASK'!AF58*'COST PER TASK'!E58*DATOS!$B$5</f>
-        <v>1666.6666666666667</v>
+        <f>AF58*C58*DATOS!$B$3+'COST PER TASK'!AF58*'COST PER TASK'!D58*DATOS!$B$4+'COST PER TASK'!AF58*'COST PER TASK'!E58*DATOS!$B$5</f>
+        <v>3800</v>
       </c>
       <c r="AH58" s="3">
         <f>F58*AE58*DATOS!$D$6+'COST PER TASK'!G58*'COST PER TASK'!AE58*DATOS!$D$7+'COST PER TASK'!H58*'COST PER TASK'!AE58*DATOS!$D$8+'COST PER TASK'!I58*'COST PER TASK'!AE58*DATOS!$D$9+'COST PER TASK'!J58*'COST PER TASK'!AE58*DATOS!$D$10+'COST PER TASK'!K58*'COST PER TASK'!AE58*DATOS!$D$11+'COST PER TASK'!L58*'COST PER TASK'!AE58*DATOS!$D$12+'COST PER TASK'!M58*'COST PER TASK'!AE58*DATOS!$D$13+'COST PER TASK'!N58*'COST PER TASK'!AE58*DATOS!$D$14+'COST PER TASK'!O58*'COST PER TASK'!AE58*DATOS!$D$15</f>
-        <v>0</v>
+        <v>74.112547030917725</v>
       </c>
       <c r="AI58" s="3">
         <f>'COST PER TASK'!P58*'COST PER TASK'!AE58*DATOS!$D$16+'COST PER TASK'!Q58*'COST PER TASK'!AE58*DATOS!$D$17+'COST PER TASK'!R58*'COST PER TASK'!AE58*DATOS!$D$18+'COST PER TASK'!S58*'COST PER TASK'!AE58*DATOS!$D$19+'COST PER TASK'!T58*'COST PER TASK'!AE58*DATOS!$D$20+'COST PER TASK'!U58*'COST PER TASK'!AE58*DATOS!$D$21+'COST PER TASK'!V58*'COST PER TASK'!AE58*DATOS!$D$22</f>
@@ -4661,11 +4669,11 @@
       </c>
       <c r="AK58" s="8">
         <f t="shared" si="1"/>
-        <v>1666.6666666666667</v>
+        <v>3874.1125470309175</v>
       </c>
       <c r="AL58" s="8">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <v>154.96450188123671</v>
       </c>
     </row>
     <row r="59" spans="2:38" x14ac:dyDescent="0.2">
@@ -4696,12 +4704,12 @@
         <v>240</v>
       </c>
       <c r="AG59" s="4">
-        <f>AF59*C59*DATOS!$B$3+'COST PER TASK'!AF59*'COST PER TASK'!D59*DATOS!B61+'COST PER TASK'!AF59*'COST PER TASK'!E59*DATOS!$B$5</f>
-        <v>6000</v>
+        <f>AF59*C59*DATOS!$B$3+'COST PER TASK'!AF59*'COST PER TASK'!D59*DATOS!$B$4+'COST PER TASK'!AF59*'COST PER TASK'!E59*DATOS!$B$5</f>
+        <v>13680</v>
       </c>
       <c r="AH59" s="3">
         <f>F59*AE59*DATOS!$D$6+'COST PER TASK'!G59*'COST PER TASK'!AE59*DATOS!$D$7+'COST PER TASK'!H59*'COST PER TASK'!AE59*DATOS!$D$8+'COST PER TASK'!I59*'COST PER TASK'!AE59*DATOS!$D$9+'COST PER TASK'!J59*'COST PER TASK'!AE59*DATOS!$D$10+'COST PER TASK'!K59*'COST PER TASK'!AE59*DATOS!$D$11+'COST PER TASK'!L59*'COST PER TASK'!AE59*DATOS!$D$12+'COST PER TASK'!M59*'COST PER TASK'!AE59*DATOS!$D$13+'COST PER TASK'!N59*'COST PER TASK'!AE59*DATOS!$D$14+'COST PER TASK'!O59*'COST PER TASK'!AE59*DATOS!$D$15</f>
-        <v>0</v>
+        <v>676.5</v>
       </c>
       <c r="AI59" s="3">
         <f>'COST PER TASK'!P59*'COST PER TASK'!AE59*DATOS!$D$16+'COST PER TASK'!Q59*'COST PER TASK'!AE59*DATOS!$D$17+'COST PER TASK'!R59*'COST PER TASK'!AE59*DATOS!$D$18+'COST PER TASK'!S59*'COST PER TASK'!AE59*DATOS!$D$19+'COST PER TASK'!T59*'COST PER TASK'!AE59*DATOS!$D$20+'COST PER TASK'!U59*'COST PER TASK'!AE59*DATOS!$D$21+'COST PER TASK'!V59*'COST PER TASK'!AE59*DATOS!$D$22</f>
@@ -4709,11 +4717,11 @@
       </c>
       <c r="AK59" s="8">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>14356.5</v>
       </c>
       <c r="AL59" s="8">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <v>159.51666666666668</v>
       </c>
     </row>
     <row r="60" spans="2:38" x14ac:dyDescent="0.2">
@@ -4741,8 +4749,8 @@
         <v>2053.3333333333335</v>
       </c>
       <c r="AG60" s="4">
-        <f>AF60*C60*DATOS!$B$3+'COST PER TASK'!AF60*'COST PER TASK'!D60*DATOS!B62+'COST PER TASK'!AF60*'COST PER TASK'!E60*DATOS!$B$5</f>
-        <v>51333.333333333336</v>
+        <f>AF60*C60*DATOS!$B$3+'COST PER TASK'!AF60*'COST PER TASK'!D60*DATOS!$B$4+'COST PER TASK'!AF60*'COST PER TASK'!E60*DATOS!$B$5</f>
+        <v>117040</v>
       </c>
       <c r="AH60" s="3">
         <f>F60*AE60*DATOS!$D$6+'COST PER TASK'!G60*'COST PER TASK'!AE60*DATOS!$D$7+'COST PER TASK'!H60*'COST PER TASK'!AE60*DATOS!$D$8+'COST PER TASK'!I60*'COST PER TASK'!AE60*DATOS!$D$9+'COST PER TASK'!J60*'COST PER TASK'!AE60*DATOS!$D$10+'COST PER TASK'!K60*'COST PER TASK'!AE60*DATOS!$D$11+'COST PER TASK'!L60*'COST PER TASK'!AE60*DATOS!$D$12+'COST PER TASK'!M60*'COST PER TASK'!AE60*DATOS!$D$13+'COST PER TASK'!N60*'COST PER TASK'!AE60*DATOS!$D$14+'COST PER TASK'!O60*'COST PER TASK'!AE60*DATOS!$D$15</f>
@@ -4754,11 +4762,11 @@
       </c>
       <c r="AK60" s="8">
         <f t="shared" si="1"/>
-        <v>51333.333333333336</v>
+        <v>117040</v>
       </c>
       <c r="AL60" s="8">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="2:38" x14ac:dyDescent="0.2">
@@ -4789,8 +4797,8 @@
         <v>2293.3333333333335</v>
       </c>
       <c r="AG61" s="4">
-        <f>AF61*C61*DATOS!$B$3+'COST PER TASK'!AF61*'COST PER TASK'!D61*DATOS!B63+'COST PER TASK'!AF61*'COST PER TASK'!E61*DATOS!$B$5</f>
-        <v>57333.333333333336</v>
+        <f>AF61*C61*DATOS!$B$3+'COST PER TASK'!AF61*'COST PER TASK'!D61*DATOS!$B$4+'COST PER TASK'!AF61*'COST PER TASK'!E61*DATOS!$B$5</f>
+        <v>130720</v>
       </c>
       <c r="AH61" s="3">
         <f>F61*AE61*DATOS!$D$6+'COST PER TASK'!G61*'COST PER TASK'!AE61*DATOS!$D$7+'COST PER TASK'!H61*'COST PER TASK'!AE61*DATOS!$D$8+'COST PER TASK'!I61*'COST PER TASK'!AE61*DATOS!$D$9+'COST PER TASK'!J61*'COST PER TASK'!AE61*DATOS!$D$10+'COST PER TASK'!K61*'COST PER TASK'!AE61*DATOS!$D$11+'COST PER TASK'!L61*'COST PER TASK'!AE61*DATOS!$D$12+'COST PER TASK'!M61*'COST PER TASK'!AE61*DATOS!$D$13+'COST PER TASK'!N61*'COST PER TASK'!AE61*DATOS!$D$14+'COST PER TASK'!O61*'COST PER TASK'!AE61*DATOS!$D$15</f>
@@ -4802,11 +4810,11 @@
       </c>
       <c r="AK61" s="8">
         <f t="shared" si="1"/>
-        <v>57333.333333333336</v>
+        <v>130720</v>
       </c>
       <c r="AL61" s="8">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="2:38" x14ac:dyDescent="0.2">
@@ -4834,8 +4842,8 @@
         <v>2293.3333333333335</v>
       </c>
       <c r="AG62" s="4">
-        <f>AF62*C62*DATOS!$B$3+'COST PER TASK'!AF62*'COST PER TASK'!D62*DATOS!B64+'COST PER TASK'!AF62*'COST PER TASK'!E62*DATOS!$B$5</f>
-        <v>57333.333333333336</v>
+        <f>AF62*C62*DATOS!$B$3+'COST PER TASK'!AF62*'COST PER TASK'!D62*DATOS!$B$4+'COST PER TASK'!AF62*'COST PER TASK'!E62*DATOS!$B$5</f>
+        <v>130720</v>
       </c>
       <c r="AH62" s="3">
         <f>F62*AE62*DATOS!$D$6+'COST PER TASK'!G62*'COST PER TASK'!AE62*DATOS!$D$7+'COST PER TASK'!H62*'COST PER TASK'!AE62*DATOS!$D$8+'COST PER TASK'!I62*'COST PER TASK'!AE62*DATOS!$D$9+'COST PER TASK'!J62*'COST PER TASK'!AE62*DATOS!$D$10+'COST PER TASK'!K62*'COST PER TASK'!AE62*DATOS!$D$11+'COST PER TASK'!L62*'COST PER TASK'!AE62*DATOS!$D$12+'COST PER TASK'!M62*'COST PER TASK'!AE62*DATOS!$D$13+'COST PER TASK'!N62*'COST PER TASK'!AE62*DATOS!$D$14+'COST PER TASK'!O62*'COST PER TASK'!AE62*DATOS!$D$15</f>
@@ -4847,11 +4855,11 @@
       </c>
       <c r="AK62" s="8">
         <f t="shared" si="1"/>
-        <v>57333.333333333336</v>
+        <v>130720</v>
       </c>
       <c r="AL62" s="8">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="2:38" x14ac:dyDescent="0.2">
@@ -4885,12 +4893,12 @@
         <v>2293.3333333333335</v>
       </c>
       <c r="AG63" s="4">
-        <f>AF63*C63*DATOS!$B$3+'COST PER TASK'!AF63*'COST PER TASK'!D63*DATOS!B65+'COST PER TASK'!AF63*'COST PER TASK'!E63*DATOS!$B$5</f>
-        <v>57333.333333333336</v>
+        <f>AF63*C63*DATOS!$B$3+'COST PER TASK'!AF63*'COST PER TASK'!D63*DATOS!$B$4+'COST PER TASK'!AF63*'COST PER TASK'!E63*DATOS!$B$5</f>
+        <v>130720</v>
       </c>
       <c r="AH63" s="3">
         <f>F63*AE63*DATOS!$D$6+'COST PER TASK'!G63*'COST PER TASK'!AE63*DATOS!$D$7+'COST PER TASK'!H63*'COST PER TASK'!AE63*DATOS!$D$8+'COST PER TASK'!I63*'COST PER TASK'!AE63*DATOS!$D$9+'COST PER TASK'!J63*'COST PER TASK'!AE63*DATOS!$D$10+'COST PER TASK'!K63*'COST PER TASK'!AE63*DATOS!$D$11+'COST PER TASK'!L63*'COST PER TASK'!AE63*DATOS!$D$12+'COST PER TASK'!M63*'COST PER TASK'!AE63*DATOS!$D$13+'COST PER TASK'!N63*'COST PER TASK'!AE63*DATOS!$D$14+'COST PER TASK'!O63*'COST PER TASK'!AE63*DATOS!$D$15</f>
-        <v>0</v>
+        <v>243.99999999999997</v>
       </c>
       <c r="AI63" s="3">
         <f>'COST PER TASK'!P63*'COST PER TASK'!AE63*DATOS!$D$16+'COST PER TASK'!Q63*'COST PER TASK'!AE63*DATOS!$D$17+'COST PER TASK'!R63*'COST PER TASK'!AE63*DATOS!$D$18+'COST PER TASK'!S63*'COST PER TASK'!AE63*DATOS!$D$19+'COST PER TASK'!T63*'COST PER TASK'!AE63*DATOS!$D$20+'COST PER TASK'!U63*'COST PER TASK'!AE63*DATOS!$D$21+'COST PER TASK'!V63*'COST PER TASK'!AE63*DATOS!$D$22</f>
@@ -4898,11 +4906,11 @@
       </c>
       <c r="AK63" s="8">
         <f t="shared" si="1"/>
-        <v>57333.333333333336</v>
+        <v>130964</v>
       </c>
       <c r="AL63" s="8">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <v>152.28372093023256</v>
       </c>
     </row>
     <row r="64" spans="2:38" x14ac:dyDescent="0.2">
@@ -4936,12 +4944,12 @@
         <v>2293.3333333333335</v>
       </c>
       <c r="AG64" s="4">
-        <f>AF64*C64*DATOS!$B$3+'COST PER TASK'!AF64*'COST PER TASK'!D64*DATOS!B66+'COST PER TASK'!AF64*'COST PER TASK'!E64*DATOS!$B$5</f>
-        <v>57333.333333333336</v>
+        <f>AF64*C64*DATOS!$B$3+'COST PER TASK'!AF64*'COST PER TASK'!D64*DATOS!$B$4+'COST PER TASK'!AF64*'COST PER TASK'!E64*DATOS!$B$5</f>
+        <v>130720</v>
       </c>
       <c r="AH64" s="3">
         <f>F64*AE64*DATOS!$D$6+'COST PER TASK'!G64*'COST PER TASK'!AE64*DATOS!$D$7+'COST PER TASK'!H64*'COST PER TASK'!AE64*DATOS!$D$8+'COST PER TASK'!I64*'COST PER TASK'!AE64*DATOS!$D$9+'COST PER TASK'!J64*'COST PER TASK'!AE64*DATOS!$D$10+'COST PER TASK'!K64*'COST PER TASK'!AE64*DATOS!$D$11+'COST PER TASK'!L64*'COST PER TASK'!AE64*DATOS!$D$12+'COST PER TASK'!M64*'COST PER TASK'!AE64*DATOS!$D$13+'COST PER TASK'!N64*'COST PER TASK'!AE64*DATOS!$D$14+'COST PER TASK'!O64*'COST PER TASK'!AE64*DATOS!$D$15</f>
-        <v>0</v>
+        <v>243.99999999999997</v>
       </c>
       <c r="AI64" s="3">
         <f>'COST PER TASK'!P64*'COST PER TASK'!AE64*DATOS!$D$16+'COST PER TASK'!Q64*'COST PER TASK'!AE64*DATOS!$D$17+'COST PER TASK'!R64*'COST PER TASK'!AE64*DATOS!$D$18+'COST PER TASK'!S64*'COST PER TASK'!AE64*DATOS!$D$19+'COST PER TASK'!T64*'COST PER TASK'!AE64*DATOS!$D$20+'COST PER TASK'!U64*'COST PER TASK'!AE64*DATOS!$D$21+'COST PER TASK'!V64*'COST PER TASK'!AE64*DATOS!$D$22</f>
@@ -4949,107 +4957,107 @@
       </c>
       <c r="AK64" s="8">
         <f t="shared" si="1"/>
-        <v>57333.333333333336</v>
+        <v>130964</v>
       </c>
       <c r="AL64" s="8">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <v>152.28372093023256</v>
       </c>
     </row>
     <row r="65" spans="6:29" x14ac:dyDescent="0.2">
-      <c r="F65" s="13">
+      <c r="F65" s="12">
         <f>F2*$AE2+F3*$AE3+F4*$AE4+F5*$AE5+F6*$AE6+F7*$AE7+F8*$AE8+F9*$AE9+F10*$AE10+F11*$AE11+F12*$AE12+F13*$AE13+F14*$AE14+F15*$AE15+F16*$AE16+F17*$AE17+F18*$AE18+F19*$AE19+F20*$AE20+F21*$AE21+F22*$AE22+F23*$AE23+F24*$AE24+F25*$AE25+F26*$AE26+F27*$AE27+F28*$AE28+F29*$AE29+F30*$AE30+F31*$AE31+F32*$AE32+F33*$AE33+F34*$AE34+F35*$AE35+F36*$AE36+F37*$AE37+F38*$AE38+F39*$AE39+F40*$AE40+F41*$AE41+F42*$AE42+F43*$AE43+F44*$AE44+F45*$AE45+F46*$AE46+F47*$AE47+F48*$AE48+F49*$AE49+F50*$AE50+F51*$AE51+F52*$AE52+F53*$AE53+F54*$AE54+F55*$AE55+F56*$AE56+F57*$AE57+F58*$AE58+F59*$AE59+F60*$AE60+F61*$AE61+F62*$AE62+F63*$AE63+F64*$AE64</f>
         <v>62664</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="12">
         <f t="shared" ref="G65:O65" si="3">G2*$AE2+G3*$AE3+G4*$AE4+G5*$AE5+G6*$AE6+G7*$AE7+G8*$AE8+G9*$AE9+G10*$AE10+G11*$AE11+G12*$AE12+G13*$AE13+G14*$AE14+G15*$AE15+G16*$AE16+G17*$AE17+G18*$AE18+G19*$AE19+G20*$AE20+G21*$AE21+G22*$AE22+G23*$AE23+G24*$AE24+G25*$AE25+G26*$AE26+G27*$AE27+G28*$AE28+G29*$AE29+G30*$AE30+G31*$AE31+G32*$AE32+G33*$AE33+G34*$AE34+G35*$AE35+G36*$AE36+G37*$AE37+G38*$AE38+G39*$AE39+G40*$AE40+G41*$AE41+G42*$AE42+G43*$AE43+G44*$AE44+G45*$AE45+G46*$AE46+G47*$AE47+G48*$AE48+G49*$AE49+G50*$AE50+G51*$AE51+G52*$AE52+G53*$AE53+G54*$AE54+G55*$AE55+G56*$AE56+G57*$AE57+G58*$AE58+G59*$AE59+G60*$AE60+G61*$AE61+G62*$AE62+G63*$AE63+G64*$AE64</f>
         <v>48520</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="12">
         <f t="shared" si="3"/>
         <v>48904</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I65" s="12">
         <f t="shared" si="3"/>
         <v>14080</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="12">
         <f t="shared" si="3"/>
         <v>7120</v>
       </c>
-      <c r="K65" s="13">
+      <c r="K65" s="12">
         <f t="shared" si="3"/>
         <v>4160</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L65" s="12">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M65" s="12">
         <f t="shared" si="3"/>
         <v>720</v>
       </c>
-      <c r="N65" s="13">
+      <c r="N65" s="12">
         <f>N2*$AE2+N3*$AE3+N4*$AE4+N5*$AE5+N6*$AE6+N7*$AE7+N8*$AE8+N9*$AE9+N10*$AE10+N11*$AE11+N12*$AE12+N13*$AE13+N14*$AE14+N15*$AE15+N16*$AE16+N17*$AE17+N18*$AE18+N19*$AE19+N20*$AE20+N21*$AE21+N22*$AE22+N23*$AE23+N24*$AE24+N25*$AE25+N26*$AE26+N27*$AE27+N28*$AE28+N29*$AE29+N30*$AE30+N31*$AE31+N32*$AE32+N33*$AE33+N34*$AE34+N35*$AE35+N36*$AE36+N37*$AE37+N38*$AE38+N39*$AE39+N40*$AE40+N41*$AE41+N42*$AE42+N43*$AE43+N44*$AE44+N45*$AE45+N46*$AE46+N47*$AE47+N48*$AE48+N49*$AE49+N50*$AE50+N51*$AE51+N52*$AE52+N53*$AE53+N54*$AE54+N55*$AE55+N56*$AE56+N57*$AE57+N58*$AE58+N59*$AE59+N60*$AE60+N61*$AE61+N62*$AE62+N63*$AE63+N64*$AE64</f>
         <v>13920</v>
       </c>
-      <c r="O65" s="13">
+      <c r="O65" s="12">
         <f t="shared" si="3"/>
         <v>13760</v>
       </c>
-      <c r="P65" s="13">
+      <c r="P65" s="12">
         <f t="shared" ref="P65" si="4">P2*$AE2+P3*$AE3+P4*$AE4+P5*$AE5+P6*$AE6+P7*$AE7+P8*$AE8+P9*$AE9+P10*$AE10+P11*$AE11+P12*$AE12+P13*$AE13+P14*$AE14+P15*$AE15+P16*$AE16+P17*$AE17+P18*$AE18+P19*$AE19+P20*$AE20+P21*$AE21+P22*$AE22+P23*$AE23+P24*$AE24+P25*$AE25+P26*$AE26+P27*$AE27+P28*$AE28+P29*$AE29+P30*$AE30+P31*$AE31+P32*$AE32+P33*$AE33+P34*$AE34+P35*$AE35+P36*$AE36+P37*$AE37+P38*$AE38+P39*$AE39+P40*$AE40+P41*$AE41+P42*$AE42+P43*$AE43+P44*$AE44+P45*$AE45+P46*$AE46+P47*$AE47+P48*$AE48+P49*$AE49+P50*$AE50+P51*$AE51+P52*$AE52+P53*$AE53+P54*$AE54+P55*$AE55+P56*$AE56+P57*$AE57+P58*$AE58+P59*$AE59+P60*$AE60+P61*$AE61+P62*$AE62+P63*$AE63+P64*$AE64</f>
         <v>3200</v>
       </c>
-      <c r="Q65" s="13">
+      <c r="Q65" s="12">
         <f t="shared" ref="Q65" si="5">Q2*$AE2+Q3*$AE3+Q4*$AE4+Q5*$AE5+Q6*$AE6+Q7*$AE7+Q8*$AE8+Q9*$AE9+Q10*$AE10+Q11*$AE11+Q12*$AE12+Q13*$AE13+Q14*$AE14+Q15*$AE15+Q16*$AE16+Q17*$AE17+Q18*$AE18+Q19*$AE19+Q20*$AE20+Q21*$AE21+Q22*$AE22+Q23*$AE23+Q24*$AE24+Q25*$AE25+Q26*$AE26+Q27*$AE27+Q28*$AE28+Q29*$AE29+Q30*$AE30+Q31*$AE31+Q32*$AE32+Q33*$AE33+Q34*$AE34+Q35*$AE35+Q36*$AE36+Q37*$AE37+Q38*$AE38+Q39*$AE39+Q40*$AE40+Q41*$AE41+Q42*$AE42+Q43*$AE43+Q44*$AE44+Q45*$AE45+Q46*$AE46+Q47*$AE47+Q48*$AE48+Q49*$AE49+Q50*$AE50+Q51*$AE51+Q52*$AE52+Q53*$AE53+Q54*$AE54+Q55*$AE55+Q56*$AE56+Q57*$AE57+Q58*$AE58+Q59*$AE59+Q60*$AE60+Q61*$AE61+Q62*$AE62+Q63*$AE63+Q64*$AE64</f>
         <v>2800</v>
       </c>
-      <c r="R65" s="13">
+      <c r="R65" s="12">
         <f t="shared" ref="R65" si="6">R2*$AE2+R3*$AE3+R4*$AE4+R5*$AE5+R6*$AE6+R7*$AE7+R8*$AE8+R9*$AE9+R10*$AE10+R11*$AE11+R12*$AE12+R13*$AE13+R14*$AE14+R15*$AE15+R16*$AE16+R17*$AE17+R18*$AE18+R19*$AE19+R20*$AE20+R21*$AE21+R22*$AE22+R23*$AE23+R24*$AE24+R25*$AE25+R26*$AE26+R27*$AE27+R28*$AE28+R29*$AE29+R30*$AE30+R31*$AE31+R32*$AE32+R33*$AE33+R34*$AE34+R35*$AE35+R36*$AE36+R37*$AE37+R38*$AE38+R39*$AE39+R40*$AE40+R41*$AE41+R42*$AE42+R43*$AE43+R44*$AE44+R45*$AE45+R46*$AE46+R47*$AE47+R48*$AE48+R49*$AE49+R50*$AE50+R51*$AE51+R52*$AE52+R53*$AE53+R54*$AE54+R55*$AE55+R56*$AE56+R57*$AE57+R58*$AE58+R59*$AE59+R60*$AE60+R61*$AE61+R62*$AE62+R63*$AE63+R64*$AE64</f>
         <v>2800</v>
       </c>
-      <c r="S65" s="13">
+      <c r="S65" s="12">
         <f t="shared" ref="S65" si="7">S2*$AE2+S3*$AE3+S4*$AE4+S5*$AE5+S6*$AE6+S7*$AE7+S8*$AE8+S9*$AE9+S10*$AE10+S11*$AE11+S12*$AE12+S13*$AE13+S14*$AE14+S15*$AE15+S16*$AE16+S17*$AE17+S18*$AE18+S19*$AE19+S20*$AE20+S21*$AE21+S22*$AE22+S23*$AE23+S24*$AE24+S25*$AE25+S26*$AE26+S27*$AE27+S28*$AE28+S29*$AE29+S30*$AE30+S31*$AE31+S32*$AE32+S33*$AE33+S34*$AE34+S35*$AE35+S36*$AE36+S37*$AE37+S38*$AE38+S39*$AE39+S40*$AE40+S41*$AE41+S42*$AE42+S43*$AE43+S44*$AE44+S45*$AE45+S46*$AE46+S47*$AE47+S48*$AE48+S49*$AE49+S50*$AE50+S51*$AE51+S52*$AE52+S53*$AE53+S54*$AE54+S55*$AE55+S56*$AE56+S57*$AE57+S58*$AE58+S59*$AE59+S60*$AE60+S61*$AE61+S62*$AE62+S63*$AE63+S64*$AE64</f>
         <v>2800</v>
       </c>
-      <c r="T65" s="13">
+      <c r="T65" s="12">
         <f t="shared" ref="T65" si="8">T2*$AE2+T3*$AE3+T4*$AE4+T5*$AE5+T6*$AE6+T7*$AE7+T8*$AE8+T9*$AE9+T10*$AE10+T11*$AE11+T12*$AE12+T13*$AE13+T14*$AE14+T15*$AE15+T16*$AE16+T17*$AE17+T18*$AE18+T19*$AE19+T20*$AE20+T21*$AE21+T22*$AE22+T23*$AE23+T24*$AE24+T25*$AE25+T26*$AE26+T27*$AE27+T28*$AE28+T29*$AE29+T30*$AE30+T31*$AE31+T32*$AE32+T33*$AE33+T34*$AE34+T35*$AE35+T36*$AE36+T37*$AE37+T38*$AE38+T39*$AE39+T40*$AE40+T41*$AE41+T42*$AE42+T43*$AE43+T44*$AE44+T45*$AE45+T46*$AE46+T47*$AE47+T48*$AE48+T49*$AE49+T50*$AE50+T51*$AE51+T52*$AE52+T53*$AE53+T54*$AE54+T55*$AE55+T56*$AE56+T57*$AE57+T58*$AE58+T59*$AE59+T60*$AE60+T61*$AE61+T62*$AE62+T63*$AE63+T64*$AE64</f>
         <v>2800</v>
       </c>
-      <c r="U65" s="13">
+      <c r="U65" s="12">
         <f t="shared" ref="U65" si="9">U2*$AE2+U3*$AE3+U4*$AE4+U5*$AE5+U6*$AE6+U7*$AE7+U8*$AE8+U9*$AE9+U10*$AE10+U11*$AE11+U12*$AE12+U13*$AE13+U14*$AE14+U15*$AE15+U16*$AE16+U17*$AE17+U18*$AE18+U19*$AE19+U20*$AE20+U21*$AE21+U22*$AE22+U23*$AE23+U24*$AE24+U25*$AE25+U26*$AE26+U27*$AE27+U28*$AE28+U29*$AE29+U30*$AE30+U31*$AE31+U32*$AE32+U33*$AE33+U34*$AE34+U35*$AE35+U36*$AE36+U37*$AE37+U38*$AE38+U39*$AE39+U40*$AE40+U41*$AE41+U42*$AE42+U43*$AE43+U44*$AE44+U45*$AE45+U46*$AE46+U47*$AE47+U48*$AE48+U49*$AE49+U50*$AE50+U51*$AE51+U52*$AE52+U53*$AE53+U54*$AE54+U55*$AE55+U56*$AE56+U57*$AE57+U58*$AE58+U59*$AE59+U60*$AE60+U61*$AE61+U62*$AE62+U63*$AE63+U64*$AE64</f>
         <v>2280</v>
       </c>
-      <c r="V65" s="13">
+      <c r="V65" s="12">
         <f t="shared" ref="V65:AC65" si="10">V2*$AE2+V3*$AE3+V4*$AE4+V5*$AE5+V6*$AE6+V7*$AE7+V8*$AE8+V9*$AE9+V10*$AE10+V11*$AE11+V12*$AE12+V13*$AE13+V14*$AE14+V15*$AE15+V16*$AE16+V17*$AE17+V18*$AE18+V19*$AE19+V20*$AE20+V21*$AE21+V22*$AE22+V23*$AE23+V24*$AE24+V25*$AE25+V26*$AE26+V27*$AE27+V28*$AE28+V29*$AE29+V30*$AE30+V31*$AE31+V32*$AE32+V33*$AE33+V34*$AE34+V35*$AE35+V36*$AE36+V37*$AE37+V38*$AE38+V39*$AE39+V40*$AE40+V41*$AE41+V42*$AE42+V43*$AE43+V44*$AE44+V45*$AE45+V46*$AE46+V47*$AE47+V48*$AE48+V49*$AE49+V50*$AE50+V51*$AE51+V52*$AE52+V53*$AE53+V54*$AE54+V55*$AE55+V56*$AE56+V57*$AE57+V58*$AE58+V59*$AE59+V60*$AE60+V61*$AE61+V62*$AE62+V63*$AE63+V64*$AE64</f>
         <v>2280</v>
       </c>
-      <c r="W65" s="13">
+      <c r="W65" s="12">
         <f t="shared" si="10"/>
         <v>59528</v>
       </c>
-      <c r="X65" s="13">
+      <c r="X65" s="12">
         <f t="shared" si="10"/>
         <v>35040</v>
       </c>
-      <c r="Y65" s="13">
+      <c r="Y65" s="12">
         <f t="shared" si="10"/>
         <v>13920</v>
       </c>
-      <c r="Z65" s="13">
+      <c r="Z65" s="12">
         <f t="shared" si="10"/>
         <v>1200</v>
       </c>
-      <c r="AA65" s="13">
+      <c r="AA65" s="12">
         <f t="shared" si="10"/>
         <v>28280</v>
       </c>
-      <c r="AB65" s="13">
+      <c r="AB65" s="12">
         <f t="shared" si="10"/>
         <v>3880</v>
       </c>
-      <c r="AC65" s="13">
+      <c r="AC65" s="12">
         <f t="shared" si="10"/>
         <v>480</v>
       </c>
@@ -11556,8 +11564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE878835-55AC-F340-BA81-54AC84F1938A}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11616,7 +11624,7 @@
       <c r="C6" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="15">
         <f>B6/'COST PER TASK'!F65</f>
         <v>0</v>
       </c>
@@ -11628,10 +11636,13 @@
       <c r="A7" t="s">
         <v>135</v>
       </c>
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
       <c r="C7" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="15">
         <f>B7/'COST PER TASK'!G65</f>
         <v>0</v>
       </c>
@@ -11643,12 +11654,15 @@
       <c r="A8" t="s">
         <v>143</v>
       </c>
+      <c r="B8" s="14">
+        <v>18122</v>
+      </c>
       <c r="C8" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="15">
         <f>B8/'COST PER TASK'!H65</f>
-        <v>0</v>
+        <v>0.3705627351545886</v>
       </c>
       <c r="E8" t="s">
         <v>129</v>
@@ -11658,12 +11672,15 @@
       <c r="A9" t="s">
         <v>136</v>
       </c>
+      <c r="B9" s="14">
+        <v>8528</v>
+      </c>
       <c r="C9" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="15">
         <f>B9/'COST PER TASK'!I65</f>
-        <v>0</v>
+        <v>0.60568181818181821</v>
       </c>
       <c r="E9" t="s">
         <v>129</v>
@@ -11673,12 +11690,15 @@
       <c r="A10" t="s">
         <v>137</v>
       </c>
+      <c r="B10" s="14">
+        <v>9340</v>
+      </c>
       <c r="C10" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="15">
         <f>B10/'COST PER TASK'!J65</f>
-        <v>0</v>
+        <v>1.3117977528089888</v>
       </c>
       <c r="E10" t="s">
         <v>129</v>
@@ -11688,10 +11708,13 @@
       <c r="A11" t="s">
         <v>138</v>
       </c>
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
       <c r="C11" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="15">
         <f>B11/'COST PER TASK'!K65</f>
         <v>0</v>
       </c>
@@ -11703,12 +11726,15 @@
       <c r="A12" t="s">
         <v>139</v>
       </c>
+      <c r="B12" s="14">
+        <v>410</v>
+      </c>
       <c r="C12" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="15">
         <f>B12/'COST PER TASK'!L65</f>
-        <v>0</v>
+        <v>2.5625</v>
       </c>
       <c r="E12" t="s">
         <v>129</v>
@@ -11718,12 +11744,15 @@
       <c r="A13" t="s">
         <v>140</v>
       </c>
+      <c r="B13" s="14">
+        <v>676.5</v>
+      </c>
       <c r="C13" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="15">
         <f>B13/'COST PER TASK'!M65</f>
-        <v>0</v>
+        <v>0.93958333333333333</v>
       </c>
       <c r="E13" t="s">
         <v>129</v>
@@ -11733,10 +11762,13 @@
       <c r="A14" t="s">
         <v>141</v>
       </c>
+      <c r="B14" s="14">
+        <v>0</v>
+      </c>
       <c r="C14" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="15">
         <f>B14/'COST PER TASK'!N65</f>
         <v>0</v>
       </c>
@@ -11748,12 +11780,15 @@
       <c r="A15" t="s">
         <v>142</v>
       </c>
+      <c r="B15" s="14">
+        <v>488</v>
+      </c>
       <c r="C15" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="15">
         <f>B15/'COST PER TASK'!O65</f>
-        <v>0</v>
+        <v>3.5465116279069765E-2</v>
       </c>
       <c r="E15" t="s">
         <v>129</v>
@@ -11766,7 +11801,7 @@
       <c r="C16" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="15">
         <f>B16/'COST PER TASK'!P65</f>
         <v>0</v>
       </c>
@@ -11781,7 +11816,7 @@
       <c r="C17" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="15">
         <f>B17/'COST PER TASK'!Q65</f>
         <v>0</v>
       </c>
@@ -11796,7 +11831,7 @@
       <c r="C18" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="15">
         <f>B18/'COST PER TASK'!R65</f>
         <v>0</v>
       </c>
@@ -11811,7 +11846,7 @@
       <c r="C19" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="15">
         <f>B19/'COST PER TASK'!S65</f>
         <v>0</v>
       </c>
@@ -11826,7 +11861,7 @@
       <c r="C20" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="15">
         <f>B20/'COST PER TASK'!T65</f>
         <v>0</v>
       </c>
@@ -11841,7 +11876,7 @@
       <c r="C21" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="15">
         <f>B21/'COST PER TASK'!U65</f>
         <v>0</v>
       </c>
@@ -11856,7 +11891,7 @@
       <c r="C22" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="15">
         <f>B22/'COST PER TASK'!V65</f>
         <v>0</v>
       </c>

--- a/Deliverable 2/Deliverable2/Costs task 8.xlsx
+++ b/Deliverable 2/Deliverable2/Costs task 8.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Santi/Documents/GitHub/projectsGroup3/Deliverable 2/Deliverable2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\M1B\Direcció de Projectes d'Aeronaus i Vehicles Aeroespacials\5. PROJECTE\projectsGroup3\Deliverable 2\Deliverable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0541CAF1-4AD4-DA4C-9AEC-484095B052B1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="4" xr2:uid="{9A462BF7-F855-3543-8421-29C9FE395588}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14316" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="156">
   <si>
     <t>Resource Cost</t>
   </si>
@@ -494,12 +493,15 @@
   </si>
   <si>
     <t>COSTE DIARIO</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -689,7 +691,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -716,31 +717,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{354B320B-12E8-8E40-AAE7-06BD8E2BB9EF}" name="Tabla1" displayName="Tabla1" ref="A3:G12" totalsRowShown="0">
-  <autoFilter ref="A3:G12" xr:uid="{BFB07A8B-A0BC-994A-9E27-FFB0DFFB074E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A3:G12" totalsRowShown="0">
+  <autoFilter ref="A3:G12"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{148447C6-9DFF-214D-B120-27798BB75361}" name="Resource ID"/>
-    <tableColumn id="2" xr3:uid="{303D6E50-195A-6A46-981A-09D2B77C025F}" name="Resource Description"/>
-    <tableColumn id="3" xr3:uid="{755FF05D-32DA-B94B-841C-D87DD9F33B04}" name="Type of resource"/>
-    <tableColumn id="4" xr3:uid="{7F478BB1-A1EC-1A4A-A4D9-18FC26CB293F}" name="Annual Gross Salary" dataDxfId="3" dataCellStyle="Moneda"/>
-    <tableColumn id="5" xr3:uid="{5929D665-A5D4-4942-822D-00E1C1F81823}" name="Monthly Pay" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="1" name="Resource ID"/>
+    <tableColumn id="2" name="Resource Description"/>
+    <tableColumn id="3" name="Type of resource"/>
+    <tableColumn id="4" name="Annual Gross Salary" dataDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="5" name="Monthly Pay" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>D4/12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{93E16FC9-7A1D-2946-A8E9-5D6AB8A17076}" name="Hourly Cost (€/h)" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="6" name="Hourly Cost (€/h)" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>E4/180</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{02494C07-BBD2-1C44-91EC-7AB29A1E1DA5}" name="Reference" dataCellStyle="Moneda"/>
+    <tableColumn id="7" name="Reference" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{055BF1D7-6546-B84F-BEEF-741E1DDB6B56}" name="Tabla2" displayName="Tabla2" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{DDB3D896-5094-D349-AD64-808023458417}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C83F59AC-3737-9C42-A22D-271CCD3A2E49}" name="Employee Group"/>
-    <tableColumn id="2" xr3:uid="{5A82D7AE-DE92-0948-B050-42DFCA87C2D7}" name="Hourly" dataDxfId="0" dataCellStyle="Moneda"/>
+    <tableColumn id="1" name="Employee Group"/>
+    <tableColumn id="2" name="Hourly" dataDxfId="0" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1042,29 +1043,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C498B270-6EB5-C845-9243-E1C485BEDE83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <col min="2" max="2" width="42.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>33</v>
       </c>
@@ -1327,19 +1328,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DB000F-B5AC-6D41-83D6-A361039B7429}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1383,7 +1384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F63103-BA4A-034D-A5D7-99AF2FC30E8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1393,30 +1394,30 @@
       <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="3.83203125" customWidth="1"/>
-    <col min="6" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="22" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3.796875" customWidth="1"/>
+    <col min="6" max="9" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="128" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="127.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>153</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -1573,20 +1574,20 @@
         <f>F2*AE2*DATOS!$D$6+'COST PER TASK'!G2*'COST PER TASK'!AE2*DATOS!$D$7+'COST PER TASK'!H2*'COST PER TASK'!AE2*DATOS!$D$8+'COST PER TASK'!I2*'COST PER TASK'!AE2*DATOS!$D$9+'COST PER TASK'!J2*'COST PER TASK'!AE2*DATOS!$D$10+'COST PER TASK'!K2*'COST PER TASK'!AE2*DATOS!$D$11+'COST PER TASK'!L2*'COST PER TASK'!AE2*DATOS!$D$12+'COST PER TASK'!M2*'COST PER TASK'!AE2*DATOS!$D$13+'COST PER TASK'!N2*'COST PER TASK'!AE2*DATOS!$D$14+'COST PER TASK'!O2*'COST PER TASK'!AE2*DATOS!$D$15</f>
         <v>59.290037624734175</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AI2" s="3" t="e">
         <f>'COST PER TASK'!P2*'COST PER TASK'!AE2*DATOS!$D$16+'COST PER TASK'!Q2*'COST PER TASK'!AE2*DATOS!$D$17+'COST PER TASK'!R2*'COST PER TASK'!AE2*DATOS!$D$18+'COST PER TASK'!S2*'COST PER TASK'!AE2*DATOS!$D$19+'COST PER TASK'!T2*'COST PER TASK'!AE2*DATOS!$D$20+'COST PER TASK'!U2*'COST PER TASK'!AE2*DATOS!$D$21+'COST PER TASK'!V2*'COST PER TASK'!AE2*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK2" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK2" s="8" t="e">
         <f>AG2+AH2+AI2+AJ2</f>
-        <v>3339.2900376247344</v>
-      </c>
-      <c r="AL2" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL2" s="8" t="e">
         <f>AK2/AD2</f>
-        <v>166.96450188123671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -1624,20 +1625,20 @@
         <f>F3*AE3*DATOS!$D$6+'COST PER TASK'!G3*'COST PER TASK'!AE3*DATOS!$D$7+'COST PER TASK'!H3*'COST PER TASK'!AE3*DATOS!$D$8+'COST PER TASK'!I3*'COST PER TASK'!AE3*DATOS!$D$9+'COST PER TASK'!J3*'COST PER TASK'!AE3*DATOS!$D$10+'COST PER TASK'!K3*'COST PER TASK'!AE3*DATOS!$D$11+'COST PER TASK'!L3*'COST PER TASK'!AE3*DATOS!$D$12+'COST PER TASK'!M3*'COST PER TASK'!AE3*DATOS!$D$13+'COST PER TASK'!N3*'COST PER TASK'!AE3*DATOS!$D$14+'COST PER TASK'!O3*'COST PER TASK'!AE3*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="3" t="e">
         <f>'COST PER TASK'!P3*'COST PER TASK'!AE3*DATOS!$D$16+'COST PER TASK'!Q3*'COST PER TASK'!AE3*DATOS!$D$17+'COST PER TASK'!R3*'COST PER TASK'!AE3*DATOS!$D$18+'COST PER TASK'!S3*'COST PER TASK'!AE3*DATOS!$D$19+'COST PER TASK'!T3*'COST PER TASK'!AE3*DATOS!$D$20+'COST PER TASK'!U3*'COST PER TASK'!AE3*DATOS!$D$21+'COST PER TASK'!V3*'COST PER TASK'!AE3*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK3" s="8" t="e">
         <f t="shared" ref="AK3:AK64" si="1">AG3+AH3+AI3+AJ3</f>
-        <v>144320</v>
-      </c>
-      <c r="AL3" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL3" s="8" t="e">
         <f t="shared" ref="AL3:AL64" si="2">AK3/AD3</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>62</v>
       </c>
@@ -1675,20 +1676,20 @@
         <f>F4*AE4*DATOS!$D$6+'COST PER TASK'!G4*'COST PER TASK'!AE4*DATOS!$D$7+'COST PER TASK'!H4*'COST PER TASK'!AE4*DATOS!$D$8+'COST PER TASK'!I4*'COST PER TASK'!AE4*DATOS!$D$9+'COST PER TASK'!J4*'COST PER TASK'!AE4*DATOS!$D$10+'COST PER TASK'!K4*'COST PER TASK'!AE4*DATOS!$D$11+'COST PER TASK'!L4*'COST PER TASK'!AE4*DATOS!$D$12+'COST PER TASK'!M4*'COST PER TASK'!AE4*DATOS!$D$13+'COST PER TASK'!N4*'COST PER TASK'!AE4*DATOS!$D$14+'COST PER TASK'!O4*'COST PER TASK'!AE4*DATOS!$D$15</f>
         <v>4264</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="3" t="e">
         <f>'COST PER TASK'!P4*'COST PER TASK'!AE4*DATOS!$D$16+'COST PER TASK'!Q4*'COST PER TASK'!AE4*DATOS!$D$17+'COST PER TASK'!R4*'COST PER TASK'!AE4*DATOS!$D$18+'COST PER TASK'!S4*'COST PER TASK'!AE4*DATOS!$D$19+'COST PER TASK'!T4*'COST PER TASK'!AE4*DATOS!$D$20+'COST PER TASK'!U4*'COST PER TASK'!AE4*DATOS!$D$21+'COST PER TASK'!V4*'COST PER TASK'!AE4*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="8">
-        <f t="shared" si="1"/>
-        <v>148584</v>
-      </c>
-      <c r="AL4" s="8">
-        <f t="shared" si="2"/>
-        <v>168.84545454545454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK4" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL4" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -1732,20 +1733,20 @@
         <f>F5*AE5*DATOS!$D$6+'COST PER TASK'!G5*'COST PER TASK'!AE5*DATOS!$D$7+'COST PER TASK'!H5*'COST PER TASK'!AE5*DATOS!$D$8+'COST PER TASK'!I5*'COST PER TASK'!AE5*DATOS!$D$9+'COST PER TASK'!J5*'COST PER TASK'!AE5*DATOS!$D$10+'COST PER TASK'!K5*'COST PER TASK'!AE5*DATOS!$D$11+'COST PER TASK'!L5*'COST PER TASK'!AE5*DATOS!$D$12+'COST PER TASK'!M5*'COST PER TASK'!AE5*DATOS!$D$13+'COST PER TASK'!N5*'COST PER TASK'!AE5*DATOS!$D$14+'COST PER TASK'!O5*'COST PER TASK'!AE5*DATOS!$D$15</f>
         <v>2608.7616554883039</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI5" s="3" t="e">
         <f>'COST PER TASK'!P5*'COST PER TASK'!AE5*DATOS!$D$16+'COST PER TASK'!Q5*'COST PER TASK'!AE5*DATOS!$D$17+'COST PER TASK'!R5*'COST PER TASK'!AE5*DATOS!$D$18+'COST PER TASK'!S5*'COST PER TASK'!AE5*DATOS!$D$19+'COST PER TASK'!T5*'COST PER TASK'!AE5*DATOS!$D$20+'COST PER TASK'!U5*'COST PER TASK'!AE5*DATOS!$D$21+'COST PER TASK'!V5*'COST PER TASK'!AE5*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK5" s="8">
-        <f t="shared" si="1"/>
-        <v>146928.76165548831</v>
-      </c>
-      <c r="AL5" s="8">
-        <f t="shared" si="2"/>
-        <v>166.96450188123671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK5" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL5" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>64</v>
       </c>
@@ -1777,20 +1778,20 @@
         <f>F6*AE6*DATOS!$D$6+'COST PER TASK'!G6*'COST PER TASK'!AE6*DATOS!$D$7+'COST PER TASK'!H6*'COST PER TASK'!AE6*DATOS!$D$8+'COST PER TASK'!I6*'COST PER TASK'!AE6*DATOS!$D$9+'COST PER TASK'!J6*'COST PER TASK'!AE6*DATOS!$D$10+'COST PER TASK'!K6*'COST PER TASK'!AE6*DATOS!$D$11+'COST PER TASK'!L6*'COST PER TASK'!AE6*DATOS!$D$12+'COST PER TASK'!M6*'COST PER TASK'!AE6*DATOS!$D$13+'COST PER TASK'!N6*'COST PER TASK'!AE6*DATOS!$D$14+'COST PER TASK'!O6*'COST PER TASK'!AE6*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AI6" s="3" t="e">
         <f>'COST PER TASK'!P6*'COST PER TASK'!AE6*DATOS!$D$16+'COST PER TASK'!Q6*'COST PER TASK'!AE6*DATOS!$D$17+'COST PER TASK'!R6*'COST PER TASK'!AE6*DATOS!$D$18+'COST PER TASK'!S6*'COST PER TASK'!AE6*DATOS!$D$19+'COST PER TASK'!T6*'COST PER TASK'!AE6*DATOS!$D$20+'COST PER TASK'!U6*'COST PER TASK'!AE6*DATOS!$D$21+'COST PER TASK'!V6*'COST PER TASK'!AE6*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK6" s="8">
-        <f t="shared" si="1"/>
-        <v>144320</v>
-      </c>
-      <c r="AL6" s="8">
-        <f t="shared" si="2"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK6" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL6" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -1822,20 +1823,20 @@
         <f>F7*AE7*DATOS!$D$6+'COST PER TASK'!G7*'COST PER TASK'!AE7*DATOS!$D$7+'COST PER TASK'!H7*'COST PER TASK'!AE7*DATOS!$D$8+'COST PER TASK'!I7*'COST PER TASK'!AE7*DATOS!$D$9+'COST PER TASK'!J7*'COST PER TASK'!AE7*DATOS!$D$10+'COST PER TASK'!K7*'COST PER TASK'!AE7*DATOS!$D$11+'COST PER TASK'!L7*'COST PER TASK'!AE7*DATOS!$D$12+'COST PER TASK'!M7*'COST PER TASK'!AE7*DATOS!$D$13+'COST PER TASK'!N7*'COST PER TASK'!AE7*DATOS!$D$14+'COST PER TASK'!O7*'COST PER TASK'!AE7*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AI7" s="3" t="e">
         <f>'COST PER TASK'!P7*'COST PER TASK'!AE7*DATOS!$D$16+'COST PER TASK'!Q7*'COST PER TASK'!AE7*DATOS!$D$17+'COST PER TASK'!R7*'COST PER TASK'!AE7*DATOS!$D$18+'COST PER TASK'!S7*'COST PER TASK'!AE7*DATOS!$D$19+'COST PER TASK'!T7*'COST PER TASK'!AE7*DATOS!$D$20+'COST PER TASK'!U7*'COST PER TASK'!AE7*DATOS!$D$21+'COST PER TASK'!V7*'COST PER TASK'!AE7*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK7" s="8">
-        <f t="shared" si="1"/>
-        <v>4920</v>
-      </c>
-      <c r="AL7" s="8">
-        <f t="shared" si="2"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK7" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL7" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -1867,20 +1868,20 @@
         <f>F8*AE8*DATOS!$D$6+'COST PER TASK'!G8*'COST PER TASK'!AE8*DATOS!$D$7+'COST PER TASK'!H8*'COST PER TASK'!AE8*DATOS!$D$8+'COST PER TASK'!I8*'COST PER TASK'!AE8*DATOS!$D$9+'COST PER TASK'!J8*'COST PER TASK'!AE8*DATOS!$D$10+'COST PER TASK'!K8*'COST PER TASK'!AE8*DATOS!$D$11+'COST PER TASK'!L8*'COST PER TASK'!AE8*DATOS!$D$12+'COST PER TASK'!M8*'COST PER TASK'!AE8*DATOS!$D$13+'COST PER TASK'!N8*'COST PER TASK'!AE8*DATOS!$D$14+'COST PER TASK'!O8*'COST PER TASK'!AE8*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AI8" s="3" t="e">
         <f>'COST PER TASK'!P8*'COST PER TASK'!AE8*DATOS!$D$16+'COST PER TASK'!Q8*'COST PER TASK'!AE8*DATOS!$D$17+'COST PER TASK'!R8*'COST PER TASK'!AE8*DATOS!$D$18+'COST PER TASK'!S8*'COST PER TASK'!AE8*DATOS!$D$19+'COST PER TASK'!T8*'COST PER TASK'!AE8*DATOS!$D$20+'COST PER TASK'!U8*'COST PER TASK'!AE8*DATOS!$D$21+'COST PER TASK'!V8*'COST PER TASK'!AE8*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK8" s="8">
-        <f t="shared" si="1"/>
-        <v>136120</v>
-      </c>
-      <c r="AL8" s="8">
-        <f t="shared" si="2"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK8" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL8" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -1921,20 +1922,20 @@
         <f>F9*AE9*DATOS!$D$6+'COST PER TASK'!G9*'COST PER TASK'!AE9*DATOS!$D$7+'COST PER TASK'!H9*'COST PER TASK'!AE9*DATOS!$D$8+'COST PER TASK'!I9*'COST PER TASK'!AE9*DATOS!$D$9+'COST PER TASK'!J9*'COST PER TASK'!AE9*DATOS!$D$10+'COST PER TASK'!K9*'COST PER TASK'!AE9*DATOS!$D$11+'COST PER TASK'!L9*'COST PER TASK'!AE9*DATOS!$D$12+'COST PER TASK'!M9*'COST PER TASK'!AE9*DATOS!$D$13+'COST PER TASK'!N9*'COST PER TASK'!AE9*DATOS!$D$14+'COST PER TASK'!O9*'COST PER TASK'!AE9*DATOS!$D$15</f>
         <v>46.929003762473414</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AI9" s="3" t="e">
         <f>'COST PER TASK'!P9*'COST PER TASK'!AE9*DATOS!$D$16+'COST PER TASK'!Q9*'COST PER TASK'!AE9*DATOS!$D$17+'COST PER TASK'!R9*'COST PER TASK'!AE9*DATOS!$D$18+'COST PER TASK'!S9*'COST PER TASK'!AE9*DATOS!$D$19+'COST PER TASK'!T9*'COST PER TASK'!AE9*DATOS!$D$20+'COST PER TASK'!U9*'COST PER TASK'!AE9*DATOS!$D$21+'COST PER TASK'!V9*'COST PER TASK'!AE9*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK9" s="8">
-        <f t="shared" si="1"/>
-        <v>374.92900376247343</v>
-      </c>
-      <c r="AL9" s="8">
-        <f t="shared" si="2"/>
-        <v>187.46450188123671</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK9" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL9" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>68</v>
       </c>
@@ -1975,20 +1976,20 @@
         <f>F10*AE10*DATOS!$D$6+'COST PER TASK'!G10*'COST PER TASK'!AE10*DATOS!$D$7+'COST PER TASK'!H10*'COST PER TASK'!AE10*DATOS!$D$8+'COST PER TASK'!I10*'COST PER TASK'!AE10*DATOS!$D$9+'COST PER TASK'!J10*'COST PER TASK'!AE10*DATOS!$D$10+'COST PER TASK'!K10*'COST PER TASK'!AE10*DATOS!$D$11+'COST PER TASK'!L10*'COST PER TASK'!AE10*DATOS!$D$12+'COST PER TASK'!M10*'COST PER TASK'!AE10*DATOS!$D$13+'COST PER TASK'!N10*'COST PER TASK'!AE10*DATOS!$D$14+'COST PER TASK'!O10*'COST PER TASK'!AE10*DATOS!$D$15</f>
         <v>46.929003762473414</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AI10" s="3" t="e">
         <f>'COST PER TASK'!P10*'COST PER TASK'!AE10*DATOS!$D$16+'COST PER TASK'!Q10*'COST PER TASK'!AE10*DATOS!$D$17+'COST PER TASK'!R10*'COST PER TASK'!AE10*DATOS!$D$18+'COST PER TASK'!S10*'COST PER TASK'!AE10*DATOS!$D$19+'COST PER TASK'!T10*'COST PER TASK'!AE10*DATOS!$D$20+'COST PER TASK'!U10*'COST PER TASK'!AE10*DATOS!$D$21+'COST PER TASK'!V10*'COST PER TASK'!AE10*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK10" s="8">
-        <f t="shared" si="1"/>
-        <v>374.92900376247343</v>
-      </c>
-      <c r="AL10" s="8">
-        <f t="shared" si="2"/>
-        <v>187.46450188123671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK10" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL10" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>69</v>
       </c>
@@ -2029,20 +2030,20 @@
         <f>F11*AE11*DATOS!$D$6+'COST PER TASK'!G11*'COST PER TASK'!AE11*DATOS!$D$7+'COST PER TASK'!H11*'COST PER TASK'!AE11*DATOS!$D$8+'COST PER TASK'!I11*'COST PER TASK'!AE11*DATOS!$D$9+'COST PER TASK'!J11*'COST PER TASK'!AE11*DATOS!$D$10+'COST PER TASK'!K11*'COST PER TASK'!AE11*DATOS!$D$11+'COST PER TASK'!L11*'COST PER TASK'!AE11*DATOS!$D$12+'COST PER TASK'!M11*'COST PER TASK'!AE11*DATOS!$D$13+'COST PER TASK'!N11*'COST PER TASK'!AE11*DATOS!$D$14+'COST PER TASK'!O11*'COST PER TASK'!AE11*DATOS!$D$15</f>
         <v>70.393505643710128</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AI11" s="3" t="e">
         <f>'COST PER TASK'!P11*'COST PER TASK'!AE11*DATOS!$D$16+'COST PER TASK'!Q11*'COST PER TASK'!AE11*DATOS!$D$17+'COST PER TASK'!R11*'COST PER TASK'!AE11*DATOS!$D$18+'COST PER TASK'!S11*'COST PER TASK'!AE11*DATOS!$D$19+'COST PER TASK'!T11*'COST PER TASK'!AE11*DATOS!$D$20+'COST PER TASK'!U11*'COST PER TASK'!AE11*DATOS!$D$21+'COST PER TASK'!V11*'COST PER TASK'!AE11*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK11" s="8">
-        <f t="shared" si="1"/>
-        <v>562.39350564371011</v>
-      </c>
-      <c r="AL11" s="8">
-        <f t="shared" si="2"/>
-        <v>187.46450188123671</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK11" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL11" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>70</v>
       </c>
@@ -2083,20 +2084,20 @@
         <f>F12*AE12*DATOS!$D$6+'COST PER TASK'!G12*'COST PER TASK'!AE12*DATOS!$D$7+'COST PER TASK'!H12*'COST PER TASK'!AE12*DATOS!$D$8+'COST PER TASK'!I12*'COST PER TASK'!AE12*DATOS!$D$9+'COST PER TASK'!J12*'COST PER TASK'!AE12*DATOS!$D$10+'COST PER TASK'!K12*'COST PER TASK'!AE12*DATOS!$D$11+'COST PER TASK'!L12*'COST PER TASK'!AE12*DATOS!$D$12+'COST PER TASK'!M12*'COST PER TASK'!AE12*DATOS!$D$13+'COST PER TASK'!N12*'COST PER TASK'!AE12*DATOS!$D$14+'COST PER TASK'!O12*'COST PER TASK'!AE12*DATOS!$D$15</f>
         <v>117.32250940618354</v>
       </c>
-      <c r="AI12" s="3">
+      <c r="AI12" s="3" t="e">
         <f>'COST PER TASK'!P12*'COST PER TASK'!AE12*DATOS!$D$16+'COST PER TASK'!Q12*'COST PER TASK'!AE12*DATOS!$D$17+'COST PER TASK'!R12*'COST PER TASK'!AE12*DATOS!$D$18+'COST PER TASK'!S12*'COST PER TASK'!AE12*DATOS!$D$19+'COST PER TASK'!T12*'COST PER TASK'!AE12*DATOS!$D$20+'COST PER TASK'!U12*'COST PER TASK'!AE12*DATOS!$D$21+'COST PER TASK'!V12*'COST PER TASK'!AE12*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="8">
-        <f t="shared" si="1"/>
-        <v>937.3225094061836</v>
-      </c>
-      <c r="AL12" s="8">
-        <f t="shared" si="2"/>
-        <v>187.46450188123671</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK12" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL12" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>71</v>
       </c>
@@ -2134,20 +2135,20 @@
         <f>F13*AE13*DATOS!$D$6+'COST PER TASK'!G13*'COST PER TASK'!AE13*DATOS!$D$7+'COST PER TASK'!H13*'COST PER TASK'!AE13*DATOS!$D$8+'COST PER TASK'!I13*'COST PER TASK'!AE13*DATOS!$D$9+'COST PER TASK'!J13*'COST PER TASK'!AE13*DATOS!$D$10+'COST PER TASK'!K13*'COST PER TASK'!AE13*DATOS!$D$11+'COST PER TASK'!L13*'COST PER TASK'!AE13*DATOS!$D$12+'COST PER TASK'!M13*'COST PER TASK'!AE13*DATOS!$D$13+'COST PER TASK'!N13*'COST PER TASK'!AE13*DATOS!$D$14+'COST PER TASK'!O13*'COST PER TASK'!AE13*DATOS!$D$15</f>
         <v>14.822509406183544</v>
       </c>
-      <c r="AI13" s="3">
+      <c r="AI13" s="3" t="e">
         <f>'COST PER TASK'!P13*'COST PER TASK'!AE13*DATOS!$D$16+'COST PER TASK'!Q13*'COST PER TASK'!AE13*DATOS!$D$17+'COST PER TASK'!R13*'COST PER TASK'!AE13*DATOS!$D$18+'COST PER TASK'!S13*'COST PER TASK'!AE13*DATOS!$D$19+'COST PER TASK'!T13*'COST PER TASK'!AE13*DATOS!$D$20+'COST PER TASK'!U13*'COST PER TASK'!AE13*DATOS!$D$21+'COST PER TASK'!V13*'COST PER TASK'!AE13*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="8">
-        <f t="shared" si="1"/>
-        <v>834.8225094061836</v>
-      </c>
-      <c r="AL13" s="8">
-        <f t="shared" si="2"/>
-        <v>166.96450188123671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK13" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL13" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>72</v>
       </c>
@@ -2179,20 +2180,20 @@
         <f>F14*AE14*DATOS!$D$6+'COST PER TASK'!G14*'COST PER TASK'!AE14*DATOS!$D$7+'COST PER TASK'!H14*'COST PER TASK'!AE14*DATOS!$D$8+'COST PER TASK'!I14*'COST PER TASK'!AE14*DATOS!$D$9+'COST PER TASK'!J14*'COST PER TASK'!AE14*DATOS!$D$10+'COST PER TASK'!K14*'COST PER TASK'!AE14*DATOS!$D$11+'COST PER TASK'!L14*'COST PER TASK'!AE14*DATOS!$D$12+'COST PER TASK'!M14*'COST PER TASK'!AE14*DATOS!$D$13+'COST PER TASK'!N14*'COST PER TASK'!AE14*DATOS!$D$14+'COST PER TASK'!O14*'COST PER TASK'!AE14*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AI14" s="3" t="e">
         <f>'COST PER TASK'!P14*'COST PER TASK'!AE14*DATOS!$D$16+'COST PER TASK'!Q14*'COST PER TASK'!AE14*DATOS!$D$17+'COST PER TASK'!R14*'COST PER TASK'!AE14*DATOS!$D$18+'COST PER TASK'!S14*'COST PER TASK'!AE14*DATOS!$D$19+'COST PER TASK'!T14*'COST PER TASK'!AE14*DATOS!$D$20+'COST PER TASK'!U14*'COST PER TASK'!AE14*DATOS!$D$21+'COST PER TASK'!V14*'COST PER TASK'!AE14*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="8">
-        <f t="shared" si="1"/>
-        <v>492</v>
-      </c>
-      <c r="AL14" s="8">
-        <f t="shared" si="2"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK14" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL14" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>73</v>
       </c>
@@ -2233,20 +2234,20 @@
         <f>F15*AE15*DATOS!$D$6+'COST PER TASK'!G15*'COST PER TASK'!AE15*DATOS!$D$7+'COST PER TASK'!H15*'COST PER TASK'!AE15*DATOS!$D$8+'COST PER TASK'!I15*'COST PER TASK'!AE15*DATOS!$D$9+'COST PER TASK'!J15*'COST PER TASK'!AE15*DATOS!$D$10+'COST PER TASK'!K15*'COST PER TASK'!AE15*DATOS!$D$11+'COST PER TASK'!L15*'COST PER TASK'!AE15*DATOS!$D$12+'COST PER TASK'!M15*'COST PER TASK'!AE15*DATOS!$D$13+'COST PER TASK'!N15*'COST PER TASK'!AE15*DATOS!$D$14+'COST PER TASK'!O15*'COST PER TASK'!AE15*DATOS!$D$15</f>
         <v>2608.7616554883039</v>
       </c>
-      <c r="AI15" s="3">
+      <c r="AI15" s="3" t="e">
         <f>'COST PER TASK'!P15*'COST PER TASK'!AE15*DATOS!$D$16+'COST PER TASK'!Q15*'COST PER TASK'!AE15*DATOS!$D$17+'COST PER TASK'!R15*'COST PER TASK'!AE15*DATOS!$D$18+'COST PER TASK'!S15*'COST PER TASK'!AE15*DATOS!$D$19+'COST PER TASK'!T15*'COST PER TASK'!AE15*DATOS!$D$20+'COST PER TASK'!U15*'COST PER TASK'!AE15*DATOS!$D$21+'COST PER TASK'!V15*'COST PER TASK'!AE15*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="8">
-        <f t="shared" si="1"/>
-        <v>146928.76165548831</v>
-      </c>
-      <c r="AL15" s="8">
-        <f t="shared" si="2"/>
-        <v>166.96450188123671</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK15" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL15" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>74</v>
       </c>
@@ -2287,20 +2288,20 @@
         <f>F16*AE16*DATOS!$D$6+'COST PER TASK'!G16*'COST PER TASK'!AE16*DATOS!$D$7+'COST PER TASK'!H16*'COST PER TASK'!AE16*DATOS!$D$8+'COST PER TASK'!I16*'COST PER TASK'!AE16*DATOS!$D$9+'COST PER TASK'!J16*'COST PER TASK'!AE16*DATOS!$D$10+'COST PER TASK'!K16*'COST PER TASK'!AE16*DATOS!$D$11+'COST PER TASK'!L16*'COST PER TASK'!AE16*DATOS!$D$12+'COST PER TASK'!M16*'COST PER TASK'!AE16*DATOS!$D$13+'COST PER TASK'!N16*'COST PER TASK'!AE16*DATOS!$D$14+'COST PER TASK'!O16*'COST PER TASK'!AE16*DATOS!$D$15</f>
         <v>2608.7616554883039</v>
       </c>
-      <c r="AI16" s="3">
+      <c r="AI16" s="3" t="e">
         <f>'COST PER TASK'!P16*'COST PER TASK'!AE16*DATOS!$D$16+'COST PER TASK'!Q16*'COST PER TASK'!AE16*DATOS!$D$17+'COST PER TASK'!R16*'COST PER TASK'!AE16*DATOS!$D$18+'COST PER TASK'!S16*'COST PER TASK'!AE16*DATOS!$D$19+'COST PER TASK'!T16*'COST PER TASK'!AE16*DATOS!$D$20+'COST PER TASK'!U16*'COST PER TASK'!AE16*DATOS!$D$21+'COST PER TASK'!V16*'COST PER TASK'!AE16*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="8">
-        <f t="shared" si="1"/>
-        <v>146928.76165548831</v>
-      </c>
-      <c r="AL16" s="8">
-        <f t="shared" si="2"/>
-        <v>166.96450188123671</v>
-      </c>
-    </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK16" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL16" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>75</v>
       </c>
@@ -2341,20 +2342,20 @@
         <f>F17*AE17*DATOS!$D$6+'COST PER TASK'!G17*'COST PER TASK'!AE17*DATOS!$D$7+'COST PER TASK'!H17*'COST PER TASK'!AE17*DATOS!$D$8+'COST PER TASK'!I17*'COST PER TASK'!AE17*DATOS!$D$9+'COST PER TASK'!J17*'COST PER TASK'!AE17*DATOS!$D$10+'COST PER TASK'!K17*'COST PER TASK'!AE17*DATOS!$D$11+'COST PER TASK'!L17*'COST PER TASK'!AE17*DATOS!$D$12+'COST PER TASK'!M17*'COST PER TASK'!AE17*DATOS!$D$13+'COST PER TASK'!N17*'COST PER TASK'!AE17*DATOS!$D$14+'COST PER TASK'!O17*'COST PER TASK'!AE17*DATOS!$D$15</f>
         <v>2608.7616554883039</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AI17" s="3" t="e">
         <f>'COST PER TASK'!P17*'COST PER TASK'!AE17*DATOS!$D$16+'COST PER TASK'!Q17*'COST PER TASK'!AE17*DATOS!$D$17+'COST PER TASK'!R17*'COST PER TASK'!AE17*DATOS!$D$18+'COST PER TASK'!S17*'COST PER TASK'!AE17*DATOS!$D$19+'COST PER TASK'!T17*'COST PER TASK'!AE17*DATOS!$D$20+'COST PER TASK'!U17*'COST PER TASK'!AE17*DATOS!$D$21+'COST PER TASK'!V17*'COST PER TASK'!AE17*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK17" s="8">
-        <f t="shared" si="1"/>
-        <v>146928.76165548831</v>
-      </c>
-      <c r="AL17" s="8">
-        <f t="shared" si="2"/>
-        <v>166.96450188123671</v>
-      </c>
-    </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK17" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL17" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>76</v>
       </c>
@@ -2395,20 +2396,20 @@
         <f>F18*AE18*DATOS!$D$6+'COST PER TASK'!G18*'COST PER TASK'!AE18*DATOS!$D$7+'COST PER TASK'!H18*'COST PER TASK'!AE18*DATOS!$D$8+'COST PER TASK'!I18*'COST PER TASK'!AE18*DATOS!$D$9+'COST PER TASK'!J18*'COST PER TASK'!AE18*DATOS!$D$10+'COST PER TASK'!K18*'COST PER TASK'!AE18*DATOS!$D$11+'COST PER TASK'!L18*'COST PER TASK'!AE18*DATOS!$D$12+'COST PER TASK'!M18*'COST PER TASK'!AE18*DATOS!$D$13+'COST PER TASK'!N18*'COST PER TASK'!AE18*DATOS!$D$14+'COST PER TASK'!O18*'COST PER TASK'!AE18*DATOS!$D$15</f>
         <v>2608.7616554883039</v>
       </c>
-      <c r="AI18" s="3">
+      <c r="AI18" s="3" t="e">
         <f>'COST PER TASK'!P18*'COST PER TASK'!AE18*DATOS!$D$16+'COST PER TASK'!Q18*'COST PER TASK'!AE18*DATOS!$D$17+'COST PER TASK'!R18*'COST PER TASK'!AE18*DATOS!$D$18+'COST PER TASK'!S18*'COST PER TASK'!AE18*DATOS!$D$19+'COST PER TASK'!T18*'COST PER TASK'!AE18*DATOS!$D$20+'COST PER TASK'!U18*'COST PER TASK'!AE18*DATOS!$D$21+'COST PER TASK'!V18*'COST PER TASK'!AE18*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK18" s="8">
-        <f t="shared" si="1"/>
-        <v>146928.76165548831</v>
-      </c>
-      <c r="AL18" s="8">
-        <f t="shared" si="2"/>
-        <v>166.96450188123671</v>
-      </c>
-    </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK18" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL18" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>77</v>
       </c>
@@ -2443,20 +2444,20 @@
         <f>F19*AE19*DATOS!$D$6+'COST PER TASK'!G19*'COST PER TASK'!AE19*DATOS!$D$7+'COST PER TASK'!H19*'COST PER TASK'!AE19*DATOS!$D$8+'COST PER TASK'!I19*'COST PER TASK'!AE19*DATOS!$D$9+'COST PER TASK'!J19*'COST PER TASK'!AE19*DATOS!$D$10+'COST PER TASK'!K19*'COST PER TASK'!AE19*DATOS!$D$11+'COST PER TASK'!L19*'COST PER TASK'!AE19*DATOS!$D$12+'COST PER TASK'!M19*'COST PER TASK'!AE19*DATOS!$D$13+'COST PER TASK'!N19*'COST PER TASK'!AE19*DATOS!$D$14+'COST PER TASK'!O19*'COST PER TASK'!AE19*DATOS!$D$15</f>
         <v>4264</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AI19" s="3" t="e">
         <f>'COST PER TASK'!P19*'COST PER TASK'!AE19*DATOS!$D$16+'COST PER TASK'!Q19*'COST PER TASK'!AE19*DATOS!$D$17+'COST PER TASK'!R19*'COST PER TASK'!AE19*DATOS!$D$18+'COST PER TASK'!S19*'COST PER TASK'!AE19*DATOS!$D$19+'COST PER TASK'!T19*'COST PER TASK'!AE19*DATOS!$D$20+'COST PER TASK'!U19*'COST PER TASK'!AE19*DATOS!$D$21+'COST PER TASK'!V19*'COST PER TASK'!AE19*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK19" s="8">
-        <f t="shared" si="1"/>
-        <v>148584</v>
-      </c>
-      <c r="AL19" s="8">
-        <f t="shared" si="2"/>
-        <v>168.84545454545454</v>
-      </c>
-    </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK19" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL19" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -2500,20 +2501,20 @@
         <f>F20*AE20*DATOS!$D$6+'COST PER TASK'!G20*'COST PER TASK'!AE20*DATOS!$D$7+'COST PER TASK'!H20*'COST PER TASK'!AE20*DATOS!$D$8+'COST PER TASK'!I20*'COST PER TASK'!AE20*DATOS!$D$9+'COST PER TASK'!J20*'COST PER TASK'!AE20*DATOS!$D$10+'COST PER TASK'!K20*'COST PER TASK'!AE20*DATOS!$D$11+'COST PER TASK'!L20*'COST PER TASK'!AE20*DATOS!$D$12+'COST PER TASK'!M20*'COST PER TASK'!AE20*DATOS!$D$13+'COST PER TASK'!N20*'COST PER TASK'!AE20*DATOS!$D$14+'COST PER TASK'!O20*'COST PER TASK'!AE20*DATOS!$D$15</f>
         <v>88.935056437101267</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AI20" s="3" t="e">
         <f>'COST PER TASK'!P20*'COST PER TASK'!AE20*DATOS!$D$16+'COST PER TASK'!Q20*'COST PER TASK'!AE20*DATOS!$D$17+'COST PER TASK'!R20*'COST PER TASK'!AE20*DATOS!$D$18+'COST PER TASK'!S20*'COST PER TASK'!AE20*DATOS!$D$19+'COST PER TASK'!T20*'COST PER TASK'!AE20*DATOS!$D$20+'COST PER TASK'!U20*'COST PER TASK'!AE20*DATOS!$D$21+'COST PER TASK'!V20*'COST PER TASK'!AE20*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="8">
-        <f t="shared" si="1"/>
-        <v>4072.9350564371011</v>
-      </c>
-      <c r="AL20" s="8">
-        <f t="shared" si="2"/>
-        <v>135.7645018812367</v>
-      </c>
-    </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK20" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL20" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>79</v>
       </c>
@@ -2554,20 +2555,20 @@
         <f>F21*AE21*DATOS!$D$6+'COST PER TASK'!G21*'COST PER TASK'!AE21*DATOS!$D$7+'COST PER TASK'!H21*'COST PER TASK'!AE21*DATOS!$D$8+'COST PER TASK'!I21*'COST PER TASK'!AE21*DATOS!$D$9+'COST PER TASK'!J21*'COST PER TASK'!AE21*DATOS!$D$10+'COST PER TASK'!K21*'COST PER TASK'!AE21*DATOS!$D$11+'COST PER TASK'!L21*'COST PER TASK'!AE21*DATOS!$D$12+'COST PER TASK'!M21*'COST PER TASK'!AE21*DATOS!$D$13+'COST PER TASK'!N21*'COST PER TASK'!AE21*DATOS!$D$14+'COST PER TASK'!O21*'COST PER TASK'!AE21*DATOS!$D$15</f>
         <v>74.112547030917725</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AI21" s="3" t="e">
         <f>'COST PER TASK'!P21*'COST PER TASK'!AE21*DATOS!$D$16+'COST PER TASK'!Q21*'COST PER TASK'!AE21*DATOS!$D$17+'COST PER TASK'!R21*'COST PER TASK'!AE21*DATOS!$D$18+'COST PER TASK'!S21*'COST PER TASK'!AE21*DATOS!$D$19+'COST PER TASK'!T21*'COST PER TASK'!AE21*DATOS!$D$20+'COST PER TASK'!U21*'COST PER TASK'!AE21*DATOS!$D$21+'COST PER TASK'!V21*'COST PER TASK'!AE21*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK21" s="8">
-        <f t="shared" si="1"/>
-        <v>3874.1125470309175</v>
-      </c>
-      <c r="AL21" s="8">
-        <f t="shared" si="2"/>
-        <v>154.96450188123671</v>
-      </c>
-    </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK21" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL21" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>80</v>
       </c>
@@ -2611,20 +2612,20 @@
         <f>F22*AE22*DATOS!$D$6+'COST PER TASK'!G22*'COST PER TASK'!AE22*DATOS!$D$7+'COST PER TASK'!H22*'COST PER TASK'!AE22*DATOS!$D$8+'COST PER TASK'!I22*'COST PER TASK'!AE22*DATOS!$D$9+'COST PER TASK'!J22*'COST PER TASK'!AE22*DATOS!$D$10+'COST PER TASK'!K22*'COST PER TASK'!AE22*DATOS!$D$11+'COST PER TASK'!L22*'COST PER TASK'!AE22*DATOS!$D$12+'COST PER TASK'!M22*'COST PER TASK'!AE22*DATOS!$D$13+'COST PER TASK'!N22*'COST PER TASK'!AE22*DATOS!$D$14+'COST PER TASK'!O22*'COST PER TASK'!AE22*DATOS!$D$15</f>
         <v>74.112547030917725</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AI22" s="3" t="e">
         <f>'COST PER TASK'!P22*'COST PER TASK'!AE22*DATOS!$D$16+'COST PER TASK'!Q22*'COST PER TASK'!AE22*DATOS!$D$17+'COST PER TASK'!R22*'COST PER TASK'!AE22*DATOS!$D$18+'COST PER TASK'!S22*'COST PER TASK'!AE22*DATOS!$D$19+'COST PER TASK'!T22*'COST PER TASK'!AE22*DATOS!$D$20+'COST PER TASK'!U22*'COST PER TASK'!AE22*DATOS!$D$21+'COST PER TASK'!V22*'COST PER TASK'!AE22*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK22" s="8">
-        <f t="shared" si="1"/>
-        <v>3394.1125470309175</v>
-      </c>
-      <c r="AL22" s="8">
-        <f t="shared" si="2"/>
-        <v>135.7645018812367</v>
-      </c>
-    </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK22" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL22" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>81</v>
       </c>
@@ -2665,20 +2666,20 @@
         <f>F23*AE23*DATOS!$D$6+'COST PER TASK'!G23*'COST PER TASK'!AE23*DATOS!$D$7+'COST PER TASK'!H23*'COST PER TASK'!AE23*DATOS!$D$8+'COST PER TASK'!I23*'COST PER TASK'!AE23*DATOS!$D$9+'COST PER TASK'!J23*'COST PER TASK'!AE23*DATOS!$D$10+'COST PER TASK'!K23*'COST PER TASK'!AE23*DATOS!$D$11+'COST PER TASK'!L23*'COST PER TASK'!AE23*DATOS!$D$12+'COST PER TASK'!M23*'COST PER TASK'!AE23*DATOS!$D$13+'COST PER TASK'!N23*'COST PER TASK'!AE23*DATOS!$D$14+'COST PER TASK'!O23*'COST PER TASK'!AE23*DATOS!$D$15</f>
         <v>88.935056437101267</v>
       </c>
-      <c r="AI23" s="3">
+      <c r="AI23" s="3" t="e">
         <f>'COST PER TASK'!P23*'COST PER TASK'!AE23*DATOS!$D$16+'COST PER TASK'!Q23*'COST PER TASK'!AE23*DATOS!$D$17+'COST PER TASK'!R23*'COST PER TASK'!AE23*DATOS!$D$18+'COST PER TASK'!S23*'COST PER TASK'!AE23*DATOS!$D$19+'COST PER TASK'!T23*'COST PER TASK'!AE23*DATOS!$D$20+'COST PER TASK'!U23*'COST PER TASK'!AE23*DATOS!$D$21+'COST PER TASK'!V23*'COST PER TASK'!AE23*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK23" s="8">
-        <f t="shared" si="1"/>
-        <v>4648.9350564371016</v>
-      </c>
-      <c r="AL23" s="8">
-        <f t="shared" si="2"/>
-        <v>154.96450188123671</v>
-      </c>
-    </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK23" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL23" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -2722,20 +2723,20 @@
         <f>F24*AE24*DATOS!$D$6+'COST PER TASK'!G24*'COST PER TASK'!AE24*DATOS!$D$7+'COST PER TASK'!H24*'COST PER TASK'!AE24*DATOS!$D$8+'COST PER TASK'!I24*'COST PER TASK'!AE24*DATOS!$D$9+'COST PER TASK'!J24*'COST PER TASK'!AE24*DATOS!$D$10+'COST PER TASK'!K24*'COST PER TASK'!AE24*DATOS!$D$11+'COST PER TASK'!L24*'COST PER TASK'!AE24*DATOS!$D$12+'COST PER TASK'!M24*'COST PER TASK'!AE24*DATOS!$D$13+'COST PER TASK'!N24*'COST PER TASK'!AE24*DATOS!$D$14+'COST PER TASK'!O24*'COST PER TASK'!AE24*DATOS!$D$15</f>
         <v>59.290037624734175</v>
       </c>
-      <c r="AI24" s="3">
+      <c r="AI24" s="3" t="e">
         <f>'COST PER TASK'!P24*'COST PER TASK'!AE24*DATOS!$D$16+'COST PER TASK'!Q24*'COST PER TASK'!AE24*DATOS!$D$17+'COST PER TASK'!R24*'COST PER TASK'!AE24*DATOS!$D$18+'COST PER TASK'!S24*'COST PER TASK'!AE24*DATOS!$D$19+'COST PER TASK'!T24*'COST PER TASK'!AE24*DATOS!$D$20+'COST PER TASK'!U24*'COST PER TASK'!AE24*DATOS!$D$21+'COST PER TASK'!V24*'COST PER TASK'!AE24*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK24" s="8">
-        <f t="shared" si="1"/>
-        <v>2715.2900376247344</v>
-      </c>
-      <c r="AL24" s="8">
-        <f t="shared" si="2"/>
-        <v>135.76450188123673</v>
-      </c>
-    </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK24" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL24" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>83</v>
       </c>
@@ -2779,20 +2780,20 @@
         <f>F25*AE25*DATOS!$D$6+'COST PER TASK'!G25*'COST PER TASK'!AE25*DATOS!$D$7+'COST PER TASK'!H25*'COST PER TASK'!AE25*DATOS!$D$8+'COST PER TASK'!I25*'COST PER TASK'!AE25*DATOS!$D$9+'COST PER TASK'!J25*'COST PER TASK'!AE25*DATOS!$D$10+'COST PER TASK'!K25*'COST PER TASK'!AE25*DATOS!$D$11+'COST PER TASK'!L25*'COST PER TASK'!AE25*DATOS!$D$12+'COST PER TASK'!M25*'COST PER TASK'!AE25*DATOS!$D$13+'COST PER TASK'!N25*'COST PER TASK'!AE25*DATOS!$D$14+'COST PER TASK'!O25*'COST PER TASK'!AE25*DATOS!$D$15</f>
         <v>59.290037624734175</v>
       </c>
-      <c r="AI25" s="3">
+      <c r="AI25" s="3" t="e">
         <f>'COST PER TASK'!P25*'COST PER TASK'!AE25*DATOS!$D$16+'COST PER TASK'!Q25*'COST PER TASK'!AE25*DATOS!$D$17+'COST PER TASK'!R25*'COST PER TASK'!AE25*DATOS!$D$18+'COST PER TASK'!S25*'COST PER TASK'!AE25*DATOS!$D$19+'COST PER TASK'!T25*'COST PER TASK'!AE25*DATOS!$D$20+'COST PER TASK'!U25*'COST PER TASK'!AE25*DATOS!$D$21+'COST PER TASK'!V25*'COST PER TASK'!AE25*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="8">
-        <f t="shared" si="1"/>
-        <v>2715.2900376247344</v>
-      </c>
-      <c r="AL25" s="8">
-        <f t="shared" si="2"/>
-        <v>135.76450188123673</v>
-      </c>
-    </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK25" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL25" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -2836,20 +2837,20 @@
         <f>F26*AE26*DATOS!$D$6+'COST PER TASK'!G26*'COST PER TASK'!AE26*DATOS!$D$7+'COST PER TASK'!H26*'COST PER TASK'!AE26*DATOS!$D$8+'COST PER TASK'!I26*'COST PER TASK'!AE26*DATOS!$D$9+'COST PER TASK'!J26*'COST PER TASK'!AE26*DATOS!$D$10+'COST PER TASK'!K26*'COST PER TASK'!AE26*DATOS!$D$11+'COST PER TASK'!L26*'COST PER TASK'!AE26*DATOS!$D$12+'COST PER TASK'!M26*'COST PER TASK'!AE26*DATOS!$D$13+'COST PER TASK'!N26*'COST PER TASK'!AE26*DATOS!$D$14+'COST PER TASK'!O26*'COST PER TASK'!AE26*DATOS!$D$15</f>
         <v>59.290037624734175</v>
       </c>
-      <c r="AI26" s="3">
+      <c r="AI26" s="3" t="e">
         <f>'COST PER TASK'!P26*'COST PER TASK'!AE26*DATOS!$D$16+'COST PER TASK'!Q26*'COST PER TASK'!AE26*DATOS!$D$17+'COST PER TASK'!R26*'COST PER TASK'!AE26*DATOS!$D$18+'COST PER TASK'!S26*'COST PER TASK'!AE26*DATOS!$D$19+'COST PER TASK'!T26*'COST PER TASK'!AE26*DATOS!$D$20+'COST PER TASK'!U26*'COST PER TASK'!AE26*DATOS!$D$21+'COST PER TASK'!V26*'COST PER TASK'!AE26*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="8">
-        <f t="shared" si="1"/>
-        <v>2715.2900376247344</v>
-      </c>
-      <c r="AL26" s="8">
-        <f t="shared" si="2"/>
-        <v>135.76450188123673</v>
-      </c>
-    </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK26" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL26" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>85</v>
       </c>
@@ -2890,20 +2891,20 @@
         <f>F27*AE27*DATOS!$D$6+'COST PER TASK'!G27*'COST PER TASK'!AE27*DATOS!$D$7+'COST PER TASK'!H27*'COST PER TASK'!AE27*DATOS!$D$8+'COST PER TASK'!I27*'COST PER TASK'!AE27*DATOS!$D$9+'COST PER TASK'!J27*'COST PER TASK'!AE27*DATOS!$D$10+'COST PER TASK'!K27*'COST PER TASK'!AE27*DATOS!$D$11+'COST PER TASK'!L27*'COST PER TASK'!AE27*DATOS!$D$12+'COST PER TASK'!M27*'COST PER TASK'!AE27*DATOS!$D$13+'COST PER TASK'!N27*'COST PER TASK'!AE27*DATOS!$D$14+'COST PER TASK'!O27*'COST PER TASK'!AE27*DATOS!$D$15</f>
         <v>118.58007524946835</v>
       </c>
-      <c r="AI27" s="3">
+      <c r="AI27" s="3" t="e">
         <f>'COST PER TASK'!P27*'COST PER TASK'!AE27*DATOS!$D$16+'COST PER TASK'!Q27*'COST PER TASK'!AE27*DATOS!$D$17+'COST PER TASK'!R27*'COST PER TASK'!AE27*DATOS!$D$18+'COST PER TASK'!S27*'COST PER TASK'!AE27*DATOS!$D$19+'COST PER TASK'!T27*'COST PER TASK'!AE27*DATOS!$D$20+'COST PER TASK'!U27*'COST PER TASK'!AE27*DATOS!$D$21+'COST PER TASK'!V27*'COST PER TASK'!AE27*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="8">
-        <f t="shared" si="1"/>
-        <v>6198.5800752494688</v>
-      </c>
-      <c r="AL27" s="8">
-        <f t="shared" si="2"/>
-        <v>154.96450188123671</v>
-      </c>
-    </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK27" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL27" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -2947,20 +2948,20 @@
         <f>F28*AE28*DATOS!$D$6+'COST PER TASK'!G28*'COST PER TASK'!AE28*DATOS!$D$7+'COST PER TASK'!H28*'COST PER TASK'!AE28*DATOS!$D$8+'COST PER TASK'!I28*'COST PER TASK'!AE28*DATOS!$D$9+'COST PER TASK'!J28*'COST PER TASK'!AE28*DATOS!$D$10+'COST PER TASK'!K28*'COST PER TASK'!AE28*DATOS!$D$11+'COST PER TASK'!L28*'COST PER TASK'!AE28*DATOS!$D$12+'COST PER TASK'!M28*'COST PER TASK'!AE28*DATOS!$D$13+'COST PER TASK'!N28*'COST PER TASK'!AE28*DATOS!$D$14+'COST PER TASK'!O28*'COST PER TASK'!AE28*DATOS!$D$15</f>
         <v>403.76651711125857</v>
       </c>
-      <c r="AI28" s="3">
+      <c r="AI28" s="3" t="e">
         <f>'COST PER TASK'!P28*'COST PER TASK'!AE28*DATOS!$D$16+'COST PER TASK'!Q28*'COST PER TASK'!AE28*DATOS!$D$17+'COST PER TASK'!R28*'COST PER TASK'!AE28*DATOS!$D$18+'COST PER TASK'!S28*'COST PER TASK'!AE28*DATOS!$D$19+'COST PER TASK'!T28*'COST PER TASK'!AE28*DATOS!$D$20+'COST PER TASK'!U28*'COST PER TASK'!AE28*DATOS!$D$21+'COST PER TASK'!V28*'COST PER TASK'!AE28*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK28" s="8">
-        <f t="shared" si="1"/>
-        <v>4783.7665171112585</v>
-      </c>
-      <c r="AL28" s="8">
-        <f t="shared" si="2"/>
-        <v>159.45888390370862</v>
-      </c>
-    </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK28" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL28" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>87</v>
       </c>
@@ -3007,20 +3008,20 @@
         <f>F29*AE29*DATOS!$D$6+'COST PER TASK'!G29*'COST PER TASK'!AE29*DATOS!$D$7+'COST PER TASK'!H29*'COST PER TASK'!AE29*DATOS!$D$8+'COST PER TASK'!I29*'COST PER TASK'!AE29*DATOS!$D$9+'COST PER TASK'!J29*'COST PER TASK'!AE29*DATOS!$D$10+'COST PER TASK'!K29*'COST PER TASK'!AE29*DATOS!$D$11+'COST PER TASK'!L29*'COST PER TASK'!AE29*DATOS!$D$12+'COST PER TASK'!M29*'COST PER TASK'!AE29*DATOS!$D$13+'COST PER TASK'!N29*'COST PER TASK'!AE29*DATOS!$D$14+'COST PER TASK'!O29*'COST PER TASK'!AE29*DATOS!$D$15</f>
         <v>672.94419518543089</v>
       </c>
-      <c r="AI29" s="3">
+      <c r="AI29" s="3" t="e">
         <f>'COST PER TASK'!P29*'COST PER TASK'!AE29*DATOS!$D$16+'COST PER TASK'!Q29*'COST PER TASK'!AE29*DATOS!$D$17+'COST PER TASK'!R29*'COST PER TASK'!AE29*DATOS!$D$18+'COST PER TASK'!S29*'COST PER TASK'!AE29*DATOS!$D$19+'COST PER TASK'!T29*'COST PER TASK'!AE29*DATOS!$D$20+'COST PER TASK'!U29*'COST PER TASK'!AE29*DATOS!$D$21+'COST PER TASK'!V29*'COST PER TASK'!AE29*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="8">
-        <f t="shared" si="1"/>
-        <v>7244.372766614003</v>
-      </c>
-      <c r="AL29" s="8">
-        <f t="shared" si="2"/>
-        <v>144.88745533228007</v>
-      </c>
-    </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK29" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL29" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>88</v>
       </c>
@@ -3067,20 +3068,20 @@
         <f>F30*AE30*DATOS!$D$6+'COST PER TASK'!G30*'COST PER TASK'!AE30*DATOS!$D$7+'COST PER TASK'!H30*'COST PER TASK'!AE30*DATOS!$D$8+'COST PER TASK'!I30*'COST PER TASK'!AE30*DATOS!$D$9+'COST PER TASK'!J30*'COST PER TASK'!AE30*DATOS!$D$10+'COST PER TASK'!K30*'COST PER TASK'!AE30*DATOS!$D$11+'COST PER TASK'!L30*'COST PER TASK'!AE30*DATOS!$D$12+'COST PER TASK'!M30*'COST PER TASK'!AE30*DATOS!$D$13+'COST PER TASK'!N30*'COST PER TASK'!AE30*DATOS!$D$14+'COST PER TASK'!O30*'COST PER TASK'!AE30*DATOS!$D$15</f>
         <v>403.76651711125857</v>
       </c>
-      <c r="AI30" s="3">
+      <c r="AI30" s="3" t="e">
         <f>'COST PER TASK'!P30*'COST PER TASK'!AE30*DATOS!$D$16+'COST PER TASK'!Q30*'COST PER TASK'!AE30*DATOS!$D$17+'COST PER TASK'!R30*'COST PER TASK'!AE30*DATOS!$D$18+'COST PER TASK'!S30*'COST PER TASK'!AE30*DATOS!$D$19+'COST PER TASK'!T30*'COST PER TASK'!AE30*DATOS!$D$20+'COST PER TASK'!U30*'COST PER TASK'!AE30*DATOS!$D$21+'COST PER TASK'!V30*'COST PER TASK'!AE30*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK30" s="8">
-        <f t="shared" si="1"/>
-        <v>4346.6236599684016</v>
-      </c>
-      <c r="AL30" s="8">
-        <f t="shared" si="2"/>
-        <v>144.88745533228004</v>
-      </c>
-    </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK30" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL30" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>89</v>
       </c>
@@ -3127,20 +3128,20 @@
         <f>F31*AE31*DATOS!$D$6+'COST PER TASK'!G31*'COST PER TASK'!AE31*DATOS!$D$7+'COST PER TASK'!H31*'COST PER TASK'!AE31*DATOS!$D$8+'COST PER TASK'!I31*'COST PER TASK'!AE31*DATOS!$D$9+'COST PER TASK'!J31*'COST PER TASK'!AE31*DATOS!$D$10+'COST PER TASK'!K31*'COST PER TASK'!AE31*DATOS!$D$11+'COST PER TASK'!L31*'COST PER TASK'!AE31*DATOS!$D$12+'COST PER TASK'!M31*'COST PER TASK'!AE31*DATOS!$D$13+'COST PER TASK'!N31*'COST PER TASK'!AE31*DATOS!$D$14+'COST PER TASK'!O31*'COST PER TASK'!AE31*DATOS!$D$15</f>
         <v>403.76651711125857</v>
       </c>
-      <c r="AI31" s="3">
+      <c r="AI31" s="3" t="e">
         <f>'COST PER TASK'!P31*'COST PER TASK'!AE31*DATOS!$D$16+'COST PER TASK'!Q31*'COST PER TASK'!AE31*DATOS!$D$17+'COST PER TASK'!R31*'COST PER TASK'!AE31*DATOS!$D$18+'COST PER TASK'!S31*'COST PER TASK'!AE31*DATOS!$D$19+'COST PER TASK'!T31*'COST PER TASK'!AE31*DATOS!$D$20+'COST PER TASK'!U31*'COST PER TASK'!AE31*DATOS!$D$21+'COST PER TASK'!V31*'COST PER TASK'!AE31*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK31" s="8">
-        <f t="shared" si="1"/>
-        <v>4346.6236599684016</v>
-      </c>
-      <c r="AL31" s="8">
-        <f t="shared" si="2"/>
-        <v>144.88745533228004</v>
-      </c>
-    </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK31" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL31" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>90</v>
       </c>
@@ -3187,20 +3188,20 @@
         <f>F32*AE32*DATOS!$D$6+'COST PER TASK'!G32*'COST PER TASK'!AE32*DATOS!$D$7+'COST PER TASK'!H32*'COST PER TASK'!AE32*DATOS!$D$8+'COST PER TASK'!I32*'COST PER TASK'!AE32*DATOS!$D$9+'COST PER TASK'!J32*'COST PER TASK'!AE32*DATOS!$D$10+'COST PER TASK'!K32*'COST PER TASK'!AE32*DATOS!$D$11+'COST PER TASK'!L32*'COST PER TASK'!AE32*DATOS!$D$12+'COST PER TASK'!M32*'COST PER TASK'!AE32*DATOS!$D$13+'COST PER TASK'!N32*'COST PER TASK'!AE32*DATOS!$D$14+'COST PER TASK'!O32*'COST PER TASK'!AE32*DATOS!$D$15</f>
         <v>269.17767807417238</v>
       </c>
-      <c r="AI32" s="3">
+      <c r="AI32" s="3" t="e">
         <f>'COST PER TASK'!P32*'COST PER TASK'!AE32*DATOS!$D$16+'COST PER TASK'!Q32*'COST PER TASK'!AE32*DATOS!$D$17+'COST PER TASK'!R32*'COST PER TASK'!AE32*DATOS!$D$18+'COST PER TASK'!S32*'COST PER TASK'!AE32*DATOS!$D$19+'COST PER TASK'!T32*'COST PER TASK'!AE32*DATOS!$D$20+'COST PER TASK'!U32*'COST PER TASK'!AE32*DATOS!$D$21+'COST PER TASK'!V32*'COST PER TASK'!AE32*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK32" s="8">
-        <f t="shared" si="1"/>
-        <v>2897.7491066456009</v>
-      </c>
-      <c r="AL32" s="8">
-        <f t="shared" si="2"/>
-        <v>144.88745533228004</v>
-      </c>
-    </row>
-    <row r="33" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK32" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL32" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>91</v>
       </c>
@@ -3244,20 +3245,20 @@
         <f>F33*AE33*DATOS!$D$6+'COST PER TASK'!G33*'COST PER TASK'!AE33*DATOS!$D$7+'COST PER TASK'!H33*'COST PER TASK'!AE33*DATOS!$D$8+'COST PER TASK'!I33*'COST PER TASK'!AE33*DATOS!$D$9+'COST PER TASK'!J33*'COST PER TASK'!AE33*DATOS!$D$10+'COST PER TASK'!K33*'COST PER TASK'!AE33*DATOS!$D$11+'COST PER TASK'!L33*'COST PER TASK'!AE33*DATOS!$D$12+'COST PER TASK'!M33*'COST PER TASK'!AE33*DATOS!$D$13+'COST PER TASK'!N33*'COST PER TASK'!AE33*DATOS!$D$14+'COST PER TASK'!O33*'COST PER TASK'!AE33*DATOS!$D$15</f>
         <v>134.58883903708619</v>
       </c>
-      <c r="AI33" s="3">
+      <c r="AI33" s="3" t="e">
         <f>'COST PER TASK'!P33*'COST PER TASK'!AE33*DATOS!$D$16+'COST PER TASK'!Q33*'COST PER TASK'!AE33*DATOS!$D$17+'COST PER TASK'!R33*'COST PER TASK'!AE33*DATOS!$D$18+'COST PER TASK'!S33*'COST PER TASK'!AE33*DATOS!$D$19+'COST PER TASK'!T33*'COST PER TASK'!AE33*DATOS!$D$20+'COST PER TASK'!U33*'COST PER TASK'!AE33*DATOS!$D$21+'COST PER TASK'!V33*'COST PER TASK'!AE33*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK33" s="8">
-        <f t="shared" si="1"/>
-        <v>1654.5888390370862</v>
-      </c>
-      <c r="AL33" s="8">
-        <f t="shared" si="2"/>
-        <v>165.45888390370862</v>
-      </c>
-    </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK33" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL33" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>92</v>
       </c>
@@ -3304,20 +3305,20 @@
         <f>F34*AE34*DATOS!$D$6+'COST PER TASK'!G34*'COST PER TASK'!AE34*DATOS!$D$7+'COST PER TASK'!H34*'COST PER TASK'!AE34*DATOS!$D$8+'COST PER TASK'!I34*'COST PER TASK'!AE34*DATOS!$D$9+'COST PER TASK'!J34*'COST PER TASK'!AE34*DATOS!$D$10+'COST PER TASK'!K34*'COST PER TASK'!AE34*DATOS!$D$11+'COST PER TASK'!L34*'COST PER TASK'!AE34*DATOS!$D$12+'COST PER TASK'!M34*'COST PER TASK'!AE34*DATOS!$D$13+'COST PER TASK'!N34*'COST PER TASK'!AE34*DATOS!$D$14+'COST PER TASK'!O34*'COST PER TASK'!AE34*DATOS!$D$15</f>
         <v>59.290037624734175</v>
       </c>
-      <c r="AI34" s="3">
+      <c r="AI34" s="3" t="e">
         <f>'COST PER TASK'!P34*'COST PER TASK'!AE34*DATOS!$D$16+'COST PER TASK'!Q34*'COST PER TASK'!AE34*DATOS!$D$17+'COST PER TASK'!R34*'COST PER TASK'!AE34*DATOS!$D$18+'COST PER TASK'!S34*'COST PER TASK'!AE34*DATOS!$D$19+'COST PER TASK'!T34*'COST PER TASK'!AE34*DATOS!$D$20+'COST PER TASK'!U34*'COST PER TASK'!AE34*DATOS!$D$21+'COST PER TASK'!V34*'COST PER TASK'!AE34*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK34" s="8">
-        <f t="shared" si="1"/>
-        <v>2687.8614661961628</v>
-      </c>
-      <c r="AL34" s="8">
-        <f t="shared" si="2"/>
-        <v>134.39307330980813</v>
-      </c>
-    </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK34" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL34" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>93</v>
       </c>
@@ -3364,20 +3365,20 @@
         <f>F35*AE35*DATOS!$D$6+'COST PER TASK'!G35*'COST PER TASK'!AE35*DATOS!$D$7+'COST PER TASK'!H35*'COST PER TASK'!AE35*DATOS!$D$8+'COST PER TASK'!I35*'COST PER TASK'!AE35*DATOS!$D$9+'COST PER TASK'!J35*'COST PER TASK'!AE35*DATOS!$D$10+'COST PER TASK'!K35*'COST PER TASK'!AE35*DATOS!$D$11+'COST PER TASK'!L35*'COST PER TASK'!AE35*DATOS!$D$12+'COST PER TASK'!M35*'COST PER TASK'!AE35*DATOS!$D$13+'COST PER TASK'!N35*'COST PER TASK'!AE35*DATOS!$D$14+'COST PER TASK'!O35*'COST PER TASK'!AE35*DATOS!$D$15</f>
         <v>118.58007524946835</v>
       </c>
-      <c r="AI35" s="3">
+      <c r="AI35" s="3" t="e">
         <f>'COST PER TASK'!P35*'COST PER TASK'!AE35*DATOS!$D$16+'COST PER TASK'!Q35*'COST PER TASK'!AE35*DATOS!$D$17+'COST PER TASK'!R35*'COST PER TASK'!AE35*DATOS!$D$18+'COST PER TASK'!S35*'COST PER TASK'!AE35*DATOS!$D$19+'COST PER TASK'!T35*'COST PER TASK'!AE35*DATOS!$D$20+'COST PER TASK'!U35*'COST PER TASK'!AE35*DATOS!$D$21+'COST PER TASK'!V35*'COST PER TASK'!AE35*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK35" s="8">
-        <f t="shared" si="1"/>
-        <v>5375.7229323923257</v>
-      </c>
-      <c r="AL35" s="8">
-        <f t="shared" si="2"/>
-        <v>134.39307330980813</v>
-      </c>
-    </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK35" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL35" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>94</v>
       </c>
@@ -3424,20 +3425,20 @@
         <f>F36*AE36*DATOS!$D$6+'COST PER TASK'!G36*'COST PER TASK'!AE36*DATOS!$D$7+'COST PER TASK'!H36*'COST PER TASK'!AE36*DATOS!$D$8+'COST PER TASK'!I36*'COST PER TASK'!AE36*DATOS!$D$9+'COST PER TASK'!J36*'COST PER TASK'!AE36*DATOS!$D$10+'COST PER TASK'!K36*'COST PER TASK'!AE36*DATOS!$D$11+'COST PER TASK'!L36*'COST PER TASK'!AE36*DATOS!$D$12+'COST PER TASK'!M36*'COST PER TASK'!AE36*DATOS!$D$13+'COST PER TASK'!N36*'COST PER TASK'!AE36*DATOS!$D$14+'COST PER TASK'!O36*'COST PER TASK'!AE36*DATOS!$D$15</f>
         <v>59.290037624734175</v>
       </c>
-      <c r="AI36" s="3">
+      <c r="AI36" s="3" t="e">
         <f>'COST PER TASK'!P36*'COST PER TASK'!AE36*DATOS!$D$16+'COST PER TASK'!Q36*'COST PER TASK'!AE36*DATOS!$D$17+'COST PER TASK'!R36*'COST PER TASK'!AE36*DATOS!$D$18+'COST PER TASK'!S36*'COST PER TASK'!AE36*DATOS!$D$19+'COST PER TASK'!T36*'COST PER TASK'!AE36*DATOS!$D$20+'COST PER TASK'!U36*'COST PER TASK'!AE36*DATOS!$D$21+'COST PER TASK'!V36*'COST PER TASK'!AE36*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="8">
-        <f t="shared" si="1"/>
-        <v>2687.8614661961628</v>
-      </c>
-      <c r="AL36" s="8">
-        <f t="shared" si="2"/>
-        <v>134.39307330980813</v>
-      </c>
-    </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK36" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL36" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>95</v>
       </c>
@@ -3484,20 +3485,20 @@
         <f>F37*AE37*DATOS!$D$6+'COST PER TASK'!G37*'COST PER TASK'!AE37*DATOS!$D$7+'COST PER TASK'!H37*'COST PER TASK'!AE37*DATOS!$D$8+'COST PER TASK'!I37*'COST PER TASK'!AE37*DATOS!$D$9+'COST PER TASK'!J37*'COST PER TASK'!AE37*DATOS!$D$10+'COST PER TASK'!K37*'COST PER TASK'!AE37*DATOS!$D$11+'COST PER TASK'!L37*'COST PER TASK'!AE37*DATOS!$D$12+'COST PER TASK'!M37*'COST PER TASK'!AE37*DATOS!$D$13+'COST PER TASK'!N37*'COST PER TASK'!AE37*DATOS!$D$14+'COST PER TASK'!O37*'COST PER TASK'!AE37*DATOS!$D$15</f>
         <v>2691.7767807417235</v>
       </c>
-      <c r="AI37" s="3">
+      <c r="AI37" s="3" t="e">
         <f>'COST PER TASK'!P37*'COST PER TASK'!AE37*DATOS!$D$16+'COST PER TASK'!Q37*'COST PER TASK'!AE37*DATOS!$D$17+'COST PER TASK'!R37*'COST PER TASK'!AE37*DATOS!$D$18+'COST PER TASK'!S37*'COST PER TASK'!AE37*DATOS!$D$19+'COST PER TASK'!T37*'COST PER TASK'!AE37*DATOS!$D$20+'COST PER TASK'!U37*'COST PER TASK'!AE37*DATOS!$D$21+'COST PER TASK'!V37*'COST PER TASK'!AE37*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK37" s="8">
-        <f t="shared" si="1"/>
-        <v>28977.491066456012</v>
-      </c>
-      <c r="AL37" s="8">
-        <f t="shared" si="2"/>
-        <v>144.88745533228007</v>
-      </c>
-    </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK37" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL37" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>96</v>
       </c>
@@ -3544,20 +3545,20 @@
         <f>F38*AE38*DATOS!$D$6+'COST PER TASK'!G38*'COST PER TASK'!AE38*DATOS!$D$7+'COST PER TASK'!H38*'COST PER TASK'!AE38*DATOS!$D$8+'COST PER TASK'!I38*'COST PER TASK'!AE38*DATOS!$D$9+'COST PER TASK'!J38*'COST PER TASK'!AE38*DATOS!$D$10+'COST PER TASK'!K38*'COST PER TASK'!AE38*DATOS!$D$11+'COST PER TASK'!L38*'COST PER TASK'!AE38*DATOS!$D$12+'COST PER TASK'!M38*'COST PER TASK'!AE38*DATOS!$D$13+'COST PER TASK'!N38*'COST PER TASK'!AE38*DATOS!$D$14+'COST PER TASK'!O38*'COST PER TASK'!AE38*DATOS!$D$15</f>
         <v>807.53303422251713</v>
       </c>
-      <c r="AI38" s="3">
+      <c r="AI38" s="3" t="e">
         <f>'COST PER TASK'!P38*'COST PER TASK'!AE38*DATOS!$D$16+'COST PER TASK'!Q38*'COST PER TASK'!AE38*DATOS!$D$17+'COST PER TASK'!R38*'COST PER TASK'!AE38*DATOS!$D$18+'COST PER TASK'!S38*'COST PER TASK'!AE38*DATOS!$D$19+'COST PER TASK'!T38*'COST PER TASK'!AE38*DATOS!$D$20+'COST PER TASK'!U38*'COST PER TASK'!AE38*DATOS!$D$21+'COST PER TASK'!V38*'COST PER TASK'!AE38*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK38" s="8">
-        <f t="shared" si="1"/>
-        <v>8693.2473199368033</v>
-      </c>
-      <c r="AL38" s="8">
-        <f t="shared" si="2"/>
-        <v>144.88745533228004</v>
-      </c>
-    </row>
-    <row r="39" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK38" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL38" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>97</v>
       </c>
@@ -3604,20 +3605,20 @@
         <f>F39*AE39*DATOS!$D$6+'COST PER TASK'!G39*'COST PER TASK'!AE39*DATOS!$D$7+'COST PER TASK'!H39*'COST PER TASK'!AE39*DATOS!$D$8+'COST PER TASK'!I39*'COST PER TASK'!AE39*DATOS!$D$9+'COST PER TASK'!J39*'COST PER TASK'!AE39*DATOS!$D$10+'COST PER TASK'!K39*'COST PER TASK'!AE39*DATOS!$D$11+'COST PER TASK'!L39*'COST PER TASK'!AE39*DATOS!$D$12+'COST PER TASK'!M39*'COST PER TASK'!AE39*DATOS!$D$13+'COST PER TASK'!N39*'COST PER TASK'!AE39*DATOS!$D$14+'COST PER TASK'!O39*'COST PER TASK'!AE39*DATOS!$D$15</f>
         <v>2691.7767807417235</v>
       </c>
-      <c r="AI39" s="3">
+      <c r="AI39" s="3" t="e">
         <f>'COST PER TASK'!P39*'COST PER TASK'!AE39*DATOS!$D$16+'COST PER TASK'!Q39*'COST PER TASK'!AE39*DATOS!$D$17+'COST PER TASK'!R39*'COST PER TASK'!AE39*DATOS!$D$18+'COST PER TASK'!S39*'COST PER TASK'!AE39*DATOS!$D$19+'COST PER TASK'!T39*'COST PER TASK'!AE39*DATOS!$D$20+'COST PER TASK'!U39*'COST PER TASK'!AE39*DATOS!$D$21+'COST PER TASK'!V39*'COST PER TASK'!AE39*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK39" s="8">
-        <f t="shared" si="1"/>
-        <v>28977.491066456012</v>
-      </c>
-      <c r="AL39" s="8">
-        <f t="shared" si="2"/>
-        <v>144.88745533228007</v>
-      </c>
-    </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK39" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL39" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>98</v>
       </c>
@@ -3664,20 +3665,20 @@
         <f>F40*AE40*DATOS!$D$6+'COST PER TASK'!G40*'COST PER TASK'!AE40*DATOS!$D$7+'COST PER TASK'!H40*'COST PER TASK'!AE40*DATOS!$D$8+'COST PER TASK'!I40*'COST PER TASK'!AE40*DATOS!$D$9+'COST PER TASK'!J40*'COST PER TASK'!AE40*DATOS!$D$10+'COST PER TASK'!K40*'COST PER TASK'!AE40*DATOS!$D$11+'COST PER TASK'!L40*'COST PER TASK'!AE40*DATOS!$D$12+'COST PER TASK'!M40*'COST PER TASK'!AE40*DATOS!$D$13+'COST PER TASK'!N40*'COST PER TASK'!AE40*DATOS!$D$14+'COST PER TASK'!O40*'COST PER TASK'!AE40*DATOS!$D$15</f>
         <v>2691.7767807417235</v>
       </c>
-      <c r="AI40" s="3">
+      <c r="AI40" s="3" t="e">
         <f>'COST PER TASK'!P40*'COST PER TASK'!AE40*DATOS!$D$16+'COST PER TASK'!Q40*'COST PER TASK'!AE40*DATOS!$D$17+'COST PER TASK'!R40*'COST PER TASK'!AE40*DATOS!$D$18+'COST PER TASK'!S40*'COST PER TASK'!AE40*DATOS!$D$19+'COST PER TASK'!T40*'COST PER TASK'!AE40*DATOS!$D$20+'COST PER TASK'!U40*'COST PER TASK'!AE40*DATOS!$D$21+'COST PER TASK'!V40*'COST PER TASK'!AE40*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="8">
-        <f t="shared" si="1"/>
-        <v>28977.491066456012</v>
-      </c>
-      <c r="AL40" s="8">
-        <f t="shared" si="2"/>
-        <v>144.88745533228007</v>
-      </c>
-    </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK40" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL40" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>99</v>
       </c>
@@ -3724,20 +3725,20 @@
         <f>F41*AE41*DATOS!$D$6+'COST PER TASK'!G41*'COST PER TASK'!AE41*DATOS!$D$7+'COST PER TASK'!H41*'COST PER TASK'!AE41*DATOS!$D$8+'COST PER TASK'!I41*'COST PER TASK'!AE41*DATOS!$D$9+'COST PER TASK'!J41*'COST PER TASK'!AE41*DATOS!$D$10+'COST PER TASK'!K41*'COST PER TASK'!AE41*DATOS!$D$11+'COST PER TASK'!L41*'COST PER TASK'!AE41*DATOS!$D$12+'COST PER TASK'!M41*'COST PER TASK'!AE41*DATOS!$D$13+'COST PER TASK'!N41*'COST PER TASK'!AE41*DATOS!$D$14+'COST PER TASK'!O41*'COST PER TASK'!AE41*DATOS!$D$15</f>
         <v>807.53303422251713</v>
       </c>
-      <c r="AI41" s="3">
+      <c r="AI41" s="3" t="e">
         <f>'COST PER TASK'!P41*'COST PER TASK'!AE41*DATOS!$D$16+'COST PER TASK'!Q41*'COST PER TASK'!AE41*DATOS!$D$17+'COST PER TASK'!R41*'COST PER TASK'!AE41*DATOS!$D$18+'COST PER TASK'!S41*'COST PER TASK'!AE41*DATOS!$D$19+'COST PER TASK'!T41*'COST PER TASK'!AE41*DATOS!$D$20+'COST PER TASK'!U41*'COST PER TASK'!AE41*DATOS!$D$21+'COST PER TASK'!V41*'COST PER TASK'!AE41*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK41" s="8">
-        <f t="shared" si="1"/>
-        <v>8693.2473199368033</v>
-      </c>
-      <c r="AL41" s="8">
-        <f t="shared" si="2"/>
-        <v>144.88745533228004</v>
-      </c>
-    </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK41" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL41" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>100</v>
       </c>
@@ -3784,20 +3785,20 @@
         <f>F42*AE42*DATOS!$D$6+'COST PER TASK'!G42*'COST PER TASK'!AE42*DATOS!$D$7+'COST PER TASK'!H42*'COST PER TASK'!AE42*DATOS!$D$8+'COST PER TASK'!I42*'COST PER TASK'!AE42*DATOS!$D$9+'COST PER TASK'!J42*'COST PER TASK'!AE42*DATOS!$D$10+'COST PER TASK'!K42*'COST PER TASK'!AE42*DATOS!$D$11+'COST PER TASK'!L42*'COST PER TASK'!AE42*DATOS!$D$12+'COST PER TASK'!M42*'COST PER TASK'!AE42*DATOS!$D$13+'COST PER TASK'!N42*'COST PER TASK'!AE42*DATOS!$D$14+'COST PER TASK'!O42*'COST PER TASK'!AE42*DATOS!$D$15</f>
         <v>296.4501881236709</v>
       </c>
-      <c r="AI42" s="3">
+      <c r="AI42" s="3" t="e">
         <f>'COST PER TASK'!P42*'COST PER TASK'!AE42*DATOS!$D$16+'COST PER TASK'!Q42*'COST PER TASK'!AE42*DATOS!$D$17+'COST PER TASK'!R42*'COST PER TASK'!AE42*DATOS!$D$18+'COST PER TASK'!S42*'COST PER TASK'!AE42*DATOS!$D$19+'COST PER TASK'!T42*'COST PER TASK'!AE42*DATOS!$D$20+'COST PER TASK'!U42*'COST PER TASK'!AE42*DATOS!$D$21+'COST PER TASK'!V42*'COST PER TASK'!AE42*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK42" s="8">
-        <f t="shared" si="1"/>
-        <v>13439.307330980815</v>
-      </c>
-      <c r="AL42" s="8">
-        <f t="shared" si="2"/>
-        <v>134.39307330980816</v>
-      </c>
-    </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK42" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL42" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>101</v>
       </c>
@@ -3844,20 +3845,20 @@
         <f>F43*AE43*DATOS!$D$6+'COST PER TASK'!G43*'COST PER TASK'!AE43*DATOS!$D$7+'COST PER TASK'!H43*'COST PER TASK'!AE43*DATOS!$D$8+'COST PER TASK'!I43*'COST PER TASK'!AE43*DATOS!$D$9+'COST PER TASK'!J43*'COST PER TASK'!AE43*DATOS!$D$10+'COST PER TASK'!K43*'COST PER TASK'!AE43*DATOS!$D$11+'COST PER TASK'!L43*'COST PER TASK'!AE43*DATOS!$D$12+'COST PER TASK'!M43*'COST PER TASK'!AE43*DATOS!$D$13+'COST PER TASK'!N43*'COST PER TASK'!AE43*DATOS!$D$14+'COST PER TASK'!O43*'COST PER TASK'!AE43*DATOS!$D$15</f>
         <v>533.61033862260763</v>
       </c>
-      <c r="AI43" s="3">
+      <c r="AI43" s="3" t="e">
         <f>'COST PER TASK'!P43*'COST PER TASK'!AE43*DATOS!$D$16+'COST PER TASK'!Q43*'COST PER TASK'!AE43*DATOS!$D$17+'COST PER TASK'!R43*'COST PER TASK'!AE43*DATOS!$D$18+'COST PER TASK'!S43*'COST PER TASK'!AE43*DATOS!$D$19+'COST PER TASK'!T43*'COST PER TASK'!AE43*DATOS!$D$20+'COST PER TASK'!U43*'COST PER TASK'!AE43*DATOS!$D$21+'COST PER TASK'!V43*'COST PER TASK'!AE43*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK43" s="8">
-        <f t="shared" si="1"/>
-        <v>24190.753195765461</v>
-      </c>
-      <c r="AL43" s="8">
-        <f t="shared" si="2"/>
-        <v>134.39307330980813</v>
-      </c>
-    </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK43" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL43" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>102</v>
       </c>
@@ -3904,20 +3905,20 @@
         <f>F44*AE44*DATOS!$D$6+'COST PER TASK'!G44*'COST PER TASK'!AE44*DATOS!$D$7+'COST PER TASK'!H44*'COST PER TASK'!AE44*DATOS!$D$8+'COST PER TASK'!I44*'COST PER TASK'!AE44*DATOS!$D$9+'COST PER TASK'!J44*'COST PER TASK'!AE44*DATOS!$D$10+'COST PER TASK'!K44*'COST PER TASK'!AE44*DATOS!$D$11+'COST PER TASK'!L44*'COST PER TASK'!AE44*DATOS!$D$12+'COST PER TASK'!M44*'COST PER TASK'!AE44*DATOS!$D$13+'COST PER TASK'!N44*'COST PER TASK'!AE44*DATOS!$D$14+'COST PER TASK'!O44*'COST PER TASK'!AE44*DATOS!$D$15</f>
         <v>400.20775396695569</v>
       </c>
-      <c r="AI44" s="3">
+      <c r="AI44" s="3" t="e">
         <f>'COST PER TASK'!P44*'COST PER TASK'!AE44*DATOS!$D$16+'COST PER TASK'!Q44*'COST PER TASK'!AE44*DATOS!$D$17+'COST PER TASK'!R44*'COST PER TASK'!AE44*DATOS!$D$18+'COST PER TASK'!S44*'COST PER TASK'!AE44*DATOS!$D$19+'COST PER TASK'!T44*'COST PER TASK'!AE44*DATOS!$D$20+'COST PER TASK'!U44*'COST PER TASK'!AE44*DATOS!$D$21+'COST PER TASK'!V44*'COST PER TASK'!AE44*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK44" s="8">
-        <f t="shared" si="1"/>
-        <v>18143.064896824097</v>
-      </c>
-      <c r="AL44" s="8">
-        <f t="shared" si="2"/>
-        <v>134.39307330980813</v>
-      </c>
-    </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK44" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL44" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>103</v>
       </c>
@@ -3964,20 +3965,20 @@
         <f>F45*AE45*DATOS!$D$6+'COST PER TASK'!G45*'COST PER TASK'!AE45*DATOS!$D$7+'COST PER TASK'!H45*'COST PER TASK'!AE45*DATOS!$D$8+'COST PER TASK'!I45*'COST PER TASK'!AE45*DATOS!$D$9+'COST PER TASK'!J45*'COST PER TASK'!AE45*DATOS!$D$10+'COST PER TASK'!K45*'COST PER TASK'!AE45*DATOS!$D$11+'COST PER TASK'!L45*'COST PER TASK'!AE45*DATOS!$D$12+'COST PER TASK'!M45*'COST PER TASK'!AE45*DATOS!$D$13+'COST PER TASK'!N45*'COST PER TASK'!AE45*DATOS!$D$14+'COST PER TASK'!O45*'COST PER TASK'!AE45*DATOS!$D$15</f>
         <v>74.112547030917725</v>
       </c>
-      <c r="AI45" s="3">
+      <c r="AI45" s="3" t="e">
         <f>'COST PER TASK'!P45*'COST PER TASK'!AE45*DATOS!$D$16+'COST PER TASK'!Q45*'COST PER TASK'!AE45*DATOS!$D$17+'COST PER TASK'!R45*'COST PER TASK'!AE45*DATOS!$D$18+'COST PER TASK'!S45*'COST PER TASK'!AE45*DATOS!$D$19+'COST PER TASK'!T45*'COST PER TASK'!AE45*DATOS!$D$20+'COST PER TASK'!U45*'COST PER TASK'!AE45*DATOS!$D$21+'COST PER TASK'!V45*'COST PER TASK'!AE45*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK45" s="8">
-        <f t="shared" si="1"/>
-        <v>3359.8268327452038</v>
-      </c>
-      <c r="AL45" s="8">
-        <f t="shared" si="2"/>
-        <v>134.39307330980816</v>
-      </c>
-    </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK45" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL45" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>104</v>
       </c>
@@ -4012,20 +4013,20 @@
         <f>F46*AE46*DATOS!$D$6+'COST PER TASK'!G46*'COST PER TASK'!AE46*DATOS!$D$7+'COST PER TASK'!H46*'COST PER TASK'!AE46*DATOS!$D$8+'COST PER TASK'!I46*'COST PER TASK'!AE46*DATOS!$D$9+'COST PER TASK'!J46*'COST PER TASK'!AE46*DATOS!$D$10+'COST PER TASK'!K46*'COST PER TASK'!AE46*DATOS!$D$11+'COST PER TASK'!L46*'COST PER TASK'!AE46*DATOS!$D$12+'COST PER TASK'!M46*'COST PER TASK'!AE46*DATOS!$D$13+'COST PER TASK'!N46*'COST PER TASK'!AE46*DATOS!$D$14+'COST PER TASK'!O46*'COST PER TASK'!AE46*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI46" s="3">
+      <c r="AI46" s="3" t="e">
         <f>'COST PER TASK'!P46*'COST PER TASK'!AE46*DATOS!$D$16+'COST PER TASK'!Q46*'COST PER TASK'!AE46*DATOS!$D$17+'COST PER TASK'!R46*'COST PER TASK'!AE46*DATOS!$D$18+'COST PER TASK'!S46*'COST PER TASK'!AE46*DATOS!$D$19+'COST PER TASK'!T46*'COST PER TASK'!AE46*DATOS!$D$20+'COST PER TASK'!U46*'COST PER TASK'!AE46*DATOS!$D$21+'COST PER TASK'!V46*'COST PER TASK'!AE46*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK46" s="8">
-        <f t="shared" si="1"/>
-        <v>22400</v>
-      </c>
-      <c r="AL46" s="8">
-        <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK46" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL46" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>105</v>
       </c>
@@ -4069,20 +4070,20 @@
         <f>F47*AE47*DATOS!$D$6+'COST PER TASK'!G47*'COST PER TASK'!AE47*DATOS!$D$7+'COST PER TASK'!H47*'COST PER TASK'!AE47*DATOS!$D$8+'COST PER TASK'!I47*'COST PER TASK'!AE47*DATOS!$D$9+'COST PER TASK'!J47*'COST PER TASK'!AE47*DATOS!$D$10+'COST PER TASK'!K47*'COST PER TASK'!AE47*DATOS!$D$11+'COST PER TASK'!L47*'COST PER TASK'!AE47*DATOS!$D$12+'COST PER TASK'!M47*'COST PER TASK'!AE47*DATOS!$D$13+'COST PER TASK'!N47*'COST PER TASK'!AE47*DATOS!$D$14+'COST PER TASK'!O47*'COST PER TASK'!AE47*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI47" s="3">
+      <c r="AI47" s="3" t="e">
         <f>'COST PER TASK'!P47*'COST PER TASK'!AE47*DATOS!$D$16+'COST PER TASK'!Q47*'COST PER TASK'!AE47*DATOS!$D$17+'COST PER TASK'!R47*'COST PER TASK'!AE47*DATOS!$D$18+'COST PER TASK'!S47*'COST PER TASK'!AE47*DATOS!$D$19+'COST PER TASK'!T47*'COST PER TASK'!AE47*DATOS!$D$20+'COST PER TASK'!U47*'COST PER TASK'!AE47*DATOS!$D$21+'COST PER TASK'!V47*'COST PER TASK'!AE47*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK47" s="8">
-        <f t="shared" si="1"/>
-        <v>16800</v>
-      </c>
-      <c r="AL47" s="8">
-        <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK47" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL47" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>106</v>
       </c>
@@ -4120,20 +4121,20 @@
         <f>F48*AE48*DATOS!$D$6+'COST PER TASK'!G48*'COST PER TASK'!AE48*DATOS!$D$7+'COST PER TASK'!H48*'COST PER TASK'!AE48*DATOS!$D$8+'COST PER TASK'!I48*'COST PER TASK'!AE48*DATOS!$D$9+'COST PER TASK'!J48*'COST PER TASK'!AE48*DATOS!$D$10+'COST PER TASK'!K48*'COST PER TASK'!AE48*DATOS!$D$11+'COST PER TASK'!L48*'COST PER TASK'!AE48*DATOS!$D$12+'COST PER TASK'!M48*'COST PER TASK'!AE48*DATOS!$D$13+'COST PER TASK'!N48*'COST PER TASK'!AE48*DATOS!$D$14+'COST PER TASK'!O48*'COST PER TASK'!AE48*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI48" s="3">
+      <c r="AI48" s="3" t="e">
         <f>'COST PER TASK'!P48*'COST PER TASK'!AE48*DATOS!$D$16+'COST PER TASK'!Q48*'COST PER TASK'!AE48*DATOS!$D$17+'COST PER TASK'!R48*'COST PER TASK'!AE48*DATOS!$D$18+'COST PER TASK'!S48*'COST PER TASK'!AE48*DATOS!$D$19+'COST PER TASK'!T48*'COST PER TASK'!AE48*DATOS!$D$20+'COST PER TASK'!U48*'COST PER TASK'!AE48*DATOS!$D$21+'COST PER TASK'!V48*'COST PER TASK'!AE48*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK48" s="8">
-        <f t="shared" si="1"/>
-        <v>11200</v>
-      </c>
-      <c r="AL48" s="8">
-        <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK48" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL48" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>107</v>
       </c>
@@ -4168,20 +4169,20 @@
         <f>F49*AE49*DATOS!$D$6+'COST PER TASK'!G49*'COST PER TASK'!AE49*DATOS!$D$7+'COST PER TASK'!H49*'COST PER TASK'!AE49*DATOS!$D$8+'COST PER TASK'!I49*'COST PER TASK'!AE49*DATOS!$D$9+'COST PER TASK'!J49*'COST PER TASK'!AE49*DATOS!$D$10+'COST PER TASK'!K49*'COST PER TASK'!AE49*DATOS!$D$11+'COST PER TASK'!L49*'COST PER TASK'!AE49*DATOS!$D$12+'COST PER TASK'!M49*'COST PER TASK'!AE49*DATOS!$D$13+'COST PER TASK'!N49*'COST PER TASK'!AE49*DATOS!$D$14+'COST PER TASK'!O49*'COST PER TASK'!AE49*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="3">
+      <c r="AI49" s="3" t="e">
         <f>'COST PER TASK'!P49*'COST PER TASK'!AE49*DATOS!$D$16+'COST PER TASK'!Q49*'COST PER TASK'!AE49*DATOS!$D$17+'COST PER TASK'!R49*'COST PER TASK'!AE49*DATOS!$D$18+'COST PER TASK'!S49*'COST PER TASK'!AE49*DATOS!$D$19+'COST PER TASK'!T49*'COST PER TASK'!AE49*DATOS!$D$20+'COST PER TASK'!U49*'COST PER TASK'!AE49*DATOS!$D$21+'COST PER TASK'!V49*'COST PER TASK'!AE49*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK49" s="8">
-        <f t="shared" si="1"/>
-        <v>6960</v>
-      </c>
-      <c r="AL49" s="8">
-        <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK49" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL49" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>108</v>
       </c>
@@ -4225,20 +4226,20 @@
         <f>F50*AE50*DATOS!$D$6+'COST PER TASK'!G50*'COST PER TASK'!AE50*DATOS!$D$7+'COST PER TASK'!H50*'COST PER TASK'!AE50*DATOS!$D$8+'COST PER TASK'!I50*'COST PER TASK'!AE50*DATOS!$D$9+'COST PER TASK'!J50*'COST PER TASK'!AE50*DATOS!$D$10+'COST PER TASK'!K50*'COST PER TASK'!AE50*DATOS!$D$11+'COST PER TASK'!L50*'COST PER TASK'!AE50*DATOS!$D$12+'COST PER TASK'!M50*'COST PER TASK'!AE50*DATOS!$D$13+'COST PER TASK'!N50*'COST PER TASK'!AE50*DATOS!$D$14+'COST PER TASK'!O50*'COST PER TASK'!AE50*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI50" s="3">
+      <c r="AI50" s="3" t="e">
         <f>'COST PER TASK'!P50*'COST PER TASK'!AE50*DATOS!$D$16+'COST PER TASK'!Q50*'COST PER TASK'!AE50*DATOS!$D$17+'COST PER TASK'!R50*'COST PER TASK'!AE50*DATOS!$D$18+'COST PER TASK'!S50*'COST PER TASK'!AE50*DATOS!$D$19+'COST PER TASK'!T50*'COST PER TASK'!AE50*DATOS!$D$20+'COST PER TASK'!U50*'COST PER TASK'!AE50*DATOS!$D$21+'COST PER TASK'!V50*'COST PER TASK'!AE50*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK50" s="8">
-        <f t="shared" si="1"/>
-        <v>6960</v>
-      </c>
-      <c r="AL50" s="8">
-        <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK50" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL50" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>109</v>
       </c>
@@ -4273,20 +4274,20 @@
         <f>F51*AE51*DATOS!$D$6+'COST PER TASK'!G51*'COST PER TASK'!AE51*DATOS!$D$7+'COST PER TASK'!H51*'COST PER TASK'!AE51*DATOS!$D$8+'COST PER TASK'!I51*'COST PER TASK'!AE51*DATOS!$D$9+'COST PER TASK'!J51*'COST PER TASK'!AE51*DATOS!$D$10+'COST PER TASK'!K51*'COST PER TASK'!AE51*DATOS!$D$11+'COST PER TASK'!L51*'COST PER TASK'!AE51*DATOS!$D$12+'COST PER TASK'!M51*'COST PER TASK'!AE51*DATOS!$D$13+'COST PER TASK'!N51*'COST PER TASK'!AE51*DATOS!$D$14+'COST PER TASK'!O51*'COST PER TASK'!AE51*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI51" s="3">
+      <c r="AI51" s="3" t="e">
         <f>'COST PER TASK'!P51*'COST PER TASK'!AE51*DATOS!$D$16+'COST PER TASK'!Q51*'COST PER TASK'!AE51*DATOS!$D$17+'COST PER TASK'!R51*'COST PER TASK'!AE51*DATOS!$D$18+'COST PER TASK'!S51*'COST PER TASK'!AE51*DATOS!$D$19+'COST PER TASK'!T51*'COST PER TASK'!AE51*DATOS!$D$20+'COST PER TASK'!U51*'COST PER TASK'!AE51*DATOS!$D$21+'COST PER TASK'!V51*'COST PER TASK'!AE51*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK51" s="8">
-        <f t="shared" si="1"/>
-        <v>5760</v>
-      </c>
-      <c r="AL51" s="8">
-        <f t="shared" si="2"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK51" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL51" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>110</v>
       </c>
@@ -4336,20 +4337,20 @@
         <f>F52*AE52*DATOS!$D$6+'COST PER TASK'!G52*'COST PER TASK'!AE52*DATOS!$D$7+'COST PER TASK'!H52*'COST PER TASK'!AE52*DATOS!$D$8+'COST PER TASK'!I52*'COST PER TASK'!AE52*DATOS!$D$9+'COST PER TASK'!J52*'COST PER TASK'!AE52*DATOS!$D$10+'COST PER TASK'!K52*'COST PER TASK'!AE52*DATOS!$D$11+'COST PER TASK'!L52*'COST PER TASK'!AE52*DATOS!$D$12+'COST PER TASK'!M52*'COST PER TASK'!AE52*DATOS!$D$13+'COST PER TASK'!N52*'COST PER TASK'!AE52*DATOS!$D$14+'COST PER TASK'!O52*'COST PER TASK'!AE52*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI52" s="3">
+      <c r="AI52" s="3" t="e">
         <f>'COST PER TASK'!P52*'COST PER TASK'!AE52*DATOS!$D$16+'COST PER TASK'!Q52*'COST PER TASK'!AE52*DATOS!$D$17+'COST PER TASK'!R52*'COST PER TASK'!AE52*DATOS!$D$18+'COST PER TASK'!S52*'COST PER TASK'!AE52*DATOS!$D$19+'COST PER TASK'!T52*'COST PER TASK'!AE52*DATOS!$D$20+'COST PER TASK'!U52*'COST PER TASK'!AE52*DATOS!$D$21+'COST PER TASK'!V52*'COST PER TASK'!AE52*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK52" s="8">
-        <f t="shared" si="1"/>
-        <v>10240</v>
-      </c>
-      <c r="AL52" s="8">
-        <f t="shared" si="2"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK52" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL52" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>111</v>
       </c>
@@ -4402,20 +4403,20 @@
         <f>F53*AE53*DATOS!$D$6+'COST PER TASK'!G53*'COST PER TASK'!AE53*DATOS!$D$7+'COST PER TASK'!H53*'COST PER TASK'!AE53*DATOS!$D$8+'COST PER TASK'!I53*'COST PER TASK'!AE53*DATOS!$D$9+'COST PER TASK'!J53*'COST PER TASK'!AE53*DATOS!$D$10+'COST PER TASK'!K53*'COST PER TASK'!AE53*DATOS!$D$11+'COST PER TASK'!L53*'COST PER TASK'!AE53*DATOS!$D$12+'COST PER TASK'!M53*'COST PER TASK'!AE53*DATOS!$D$13+'COST PER TASK'!N53*'COST PER TASK'!AE53*DATOS!$D$14+'COST PER TASK'!O53*'COST PER TASK'!AE53*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="3">
+      <c r="AI53" s="3" t="e">
         <f>'COST PER TASK'!P53*'COST PER TASK'!AE53*DATOS!$D$16+'COST PER TASK'!Q53*'COST PER TASK'!AE53*DATOS!$D$17+'COST PER TASK'!R53*'COST PER TASK'!AE53*DATOS!$D$18+'COST PER TASK'!S53*'COST PER TASK'!AE53*DATOS!$D$19+'COST PER TASK'!T53*'COST PER TASK'!AE53*DATOS!$D$20+'COST PER TASK'!U53*'COST PER TASK'!AE53*DATOS!$D$21+'COST PER TASK'!V53*'COST PER TASK'!AE53*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK53" s="8">
-        <f t="shared" si="1"/>
-        <v>9840</v>
-      </c>
-      <c r="AL53" s="8">
-        <f t="shared" si="2"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK53" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL53" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>112</v>
       </c>
@@ -4453,20 +4454,20 @@
         <f>F54*AE54*DATOS!$D$6+'COST PER TASK'!G54*'COST PER TASK'!AE54*DATOS!$D$7+'COST PER TASK'!H54*'COST PER TASK'!AE54*DATOS!$D$8+'COST PER TASK'!I54*'COST PER TASK'!AE54*DATOS!$D$9+'COST PER TASK'!J54*'COST PER TASK'!AE54*DATOS!$D$10+'COST PER TASK'!K54*'COST PER TASK'!AE54*DATOS!$D$11+'COST PER TASK'!L54*'COST PER TASK'!AE54*DATOS!$D$12+'COST PER TASK'!M54*'COST PER TASK'!AE54*DATOS!$D$13+'COST PER TASK'!N54*'COST PER TASK'!AE54*DATOS!$D$14+'COST PER TASK'!O54*'COST PER TASK'!AE54*DATOS!$D$15</f>
         <v>23.71601504989367</v>
       </c>
-      <c r="AI54" s="3">
+      <c r="AI54" s="3" t="e">
         <f>'COST PER TASK'!P54*'COST PER TASK'!AE54*DATOS!$D$16+'COST PER TASK'!Q54*'COST PER TASK'!AE54*DATOS!$D$17+'COST PER TASK'!R54*'COST PER TASK'!AE54*DATOS!$D$18+'COST PER TASK'!S54*'COST PER TASK'!AE54*DATOS!$D$19+'COST PER TASK'!T54*'COST PER TASK'!AE54*DATOS!$D$20+'COST PER TASK'!U54*'COST PER TASK'!AE54*DATOS!$D$21+'COST PER TASK'!V54*'COST PER TASK'!AE54*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK54" s="8">
-        <f t="shared" si="1"/>
-        <v>1191.7160150498937</v>
-      </c>
-      <c r="AL54" s="8">
-        <f t="shared" si="2"/>
-        <v>148.96450188123671</v>
-      </c>
-    </row>
-    <row r="55" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK54" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL54" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>113</v>
       </c>
@@ -4504,20 +4505,20 @@
         <f>F55*AE55*DATOS!$D$6+'COST PER TASK'!G55*'COST PER TASK'!AE55*DATOS!$D$7+'COST PER TASK'!H55*'COST PER TASK'!AE55*DATOS!$D$8+'COST PER TASK'!I55*'COST PER TASK'!AE55*DATOS!$D$9+'COST PER TASK'!J55*'COST PER TASK'!AE55*DATOS!$D$10+'COST PER TASK'!K55*'COST PER TASK'!AE55*DATOS!$D$11+'COST PER TASK'!L55*'COST PER TASK'!AE55*DATOS!$D$12+'COST PER TASK'!M55*'COST PER TASK'!AE55*DATOS!$D$13+'COST PER TASK'!N55*'COST PER TASK'!AE55*DATOS!$D$14+'COST PER TASK'!O55*'COST PER TASK'!AE55*DATOS!$D$15</f>
         <v>14.822509406183544</v>
       </c>
-      <c r="AI55" s="3">
+      <c r="AI55" s="3" t="e">
         <f>'COST PER TASK'!P55*'COST PER TASK'!AE55*DATOS!$D$16+'COST PER TASK'!Q55*'COST PER TASK'!AE55*DATOS!$D$17+'COST PER TASK'!R55*'COST PER TASK'!AE55*DATOS!$D$18+'COST PER TASK'!S55*'COST PER TASK'!AE55*DATOS!$D$19+'COST PER TASK'!T55*'COST PER TASK'!AE55*DATOS!$D$20+'COST PER TASK'!U55*'COST PER TASK'!AE55*DATOS!$D$21+'COST PER TASK'!V55*'COST PER TASK'!AE55*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK55" s="8">
-        <f t="shared" si="1"/>
-        <v>744.8225094061836</v>
-      </c>
-      <c r="AL55" s="8">
-        <f t="shared" si="2"/>
-        <v>148.96450188123671</v>
-      </c>
-    </row>
-    <row r="56" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK55" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL55" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>114</v>
       </c>
@@ -4555,20 +4556,20 @@
         <f>F56*AE56*DATOS!$D$6+'COST PER TASK'!G56*'COST PER TASK'!AE56*DATOS!$D$7+'COST PER TASK'!H56*'COST PER TASK'!AE56*DATOS!$D$8+'COST PER TASK'!I56*'COST PER TASK'!AE56*DATOS!$D$9+'COST PER TASK'!J56*'COST PER TASK'!AE56*DATOS!$D$10+'COST PER TASK'!K56*'COST PER TASK'!AE56*DATOS!$D$11+'COST PER TASK'!L56*'COST PER TASK'!AE56*DATOS!$D$12+'COST PER TASK'!M56*'COST PER TASK'!AE56*DATOS!$D$13+'COST PER TASK'!N56*'COST PER TASK'!AE56*DATOS!$D$14+'COST PER TASK'!O56*'COST PER TASK'!AE56*DATOS!$D$15</f>
         <v>29.645018812367088</v>
       </c>
-      <c r="AI56" s="3">
+      <c r="AI56" s="3" t="e">
         <f>'COST PER TASK'!P56*'COST PER TASK'!AE56*DATOS!$D$16+'COST PER TASK'!Q56*'COST PER TASK'!AE56*DATOS!$D$17+'COST PER TASK'!R56*'COST PER TASK'!AE56*DATOS!$D$18+'COST PER TASK'!S56*'COST PER TASK'!AE56*DATOS!$D$19+'COST PER TASK'!T56*'COST PER TASK'!AE56*DATOS!$D$20+'COST PER TASK'!U56*'COST PER TASK'!AE56*DATOS!$D$21+'COST PER TASK'!V56*'COST PER TASK'!AE56*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK56" s="8">
-        <f t="shared" si="1"/>
-        <v>1549.6450188123672</v>
-      </c>
-      <c r="AL56" s="8">
-        <f t="shared" si="2"/>
-        <v>154.96450188123671</v>
-      </c>
-    </row>
-    <row r="57" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK56" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL56" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>115</v>
       </c>
@@ -4609,20 +4610,20 @@
         <f>F57*AE57*DATOS!$D$6+'COST PER TASK'!G57*'COST PER TASK'!AE57*DATOS!$D$7+'COST PER TASK'!H57*'COST PER TASK'!AE57*DATOS!$D$8+'COST PER TASK'!I57*'COST PER TASK'!AE57*DATOS!$D$9+'COST PER TASK'!J57*'COST PER TASK'!AE57*DATOS!$D$10+'COST PER TASK'!K57*'COST PER TASK'!AE57*DATOS!$D$11+'COST PER TASK'!L57*'COST PER TASK'!AE57*DATOS!$D$12+'COST PER TASK'!M57*'COST PER TASK'!AE57*DATOS!$D$13+'COST PER TASK'!N57*'COST PER TASK'!AE57*DATOS!$D$14+'COST PER TASK'!O57*'COST PER TASK'!AE57*DATOS!$D$15</f>
         <v>187.71601504989366</v>
       </c>
-      <c r="AI57" s="3">
+      <c r="AI57" s="3" t="e">
         <f>'COST PER TASK'!P57*'COST PER TASK'!AE57*DATOS!$D$16+'COST PER TASK'!Q57*'COST PER TASK'!AE57*DATOS!$D$17+'COST PER TASK'!R57*'COST PER TASK'!AE57*DATOS!$D$18+'COST PER TASK'!S57*'COST PER TASK'!AE57*DATOS!$D$19+'COST PER TASK'!T57*'COST PER TASK'!AE57*DATOS!$D$20+'COST PER TASK'!U57*'COST PER TASK'!AE57*DATOS!$D$21+'COST PER TASK'!V57*'COST PER TASK'!AE57*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK57" s="8">
-        <f t="shared" si="1"/>
-        <v>1442.1160150498938</v>
-      </c>
-      <c r="AL57" s="8">
-        <f t="shared" si="2"/>
-        <v>180.26450188123673</v>
-      </c>
-    </row>
-    <row r="58" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK57" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL57" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>116</v>
       </c>
@@ -4663,20 +4664,20 @@
         <f>F58*AE58*DATOS!$D$6+'COST PER TASK'!G58*'COST PER TASK'!AE58*DATOS!$D$7+'COST PER TASK'!H58*'COST PER TASK'!AE58*DATOS!$D$8+'COST PER TASK'!I58*'COST PER TASK'!AE58*DATOS!$D$9+'COST PER TASK'!J58*'COST PER TASK'!AE58*DATOS!$D$10+'COST PER TASK'!K58*'COST PER TASK'!AE58*DATOS!$D$11+'COST PER TASK'!L58*'COST PER TASK'!AE58*DATOS!$D$12+'COST PER TASK'!M58*'COST PER TASK'!AE58*DATOS!$D$13+'COST PER TASK'!N58*'COST PER TASK'!AE58*DATOS!$D$14+'COST PER TASK'!O58*'COST PER TASK'!AE58*DATOS!$D$15</f>
         <v>74.112547030917725</v>
       </c>
-      <c r="AI58" s="3">
+      <c r="AI58" s="3" t="e">
         <f>'COST PER TASK'!P58*'COST PER TASK'!AE58*DATOS!$D$16+'COST PER TASK'!Q58*'COST PER TASK'!AE58*DATOS!$D$17+'COST PER TASK'!R58*'COST PER TASK'!AE58*DATOS!$D$18+'COST PER TASK'!S58*'COST PER TASK'!AE58*DATOS!$D$19+'COST PER TASK'!T58*'COST PER TASK'!AE58*DATOS!$D$20+'COST PER TASK'!U58*'COST PER TASK'!AE58*DATOS!$D$21+'COST PER TASK'!V58*'COST PER TASK'!AE58*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK58" s="8">
-        <f t="shared" si="1"/>
-        <v>3874.1125470309175</v>
-      </c>
-      <c r="AL58" s="8">
-        <f t="shared" si="2"/>
-        <v>154.96450188123671</v>
-      </c>
-    </row>
-    <row r="59" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK58" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL58" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>117</v>
       </c>
@@ -4711,20 +4712,20 @@
         <f>F59*AE59*DATOS!$D$6+'COST PER TASK'!G59*'COST PER TASK'!AE59*DATOS!$D$7+'COST PER TASK'!H59*'COST PER TASK'!AE59*DATOS!$D$8+'COST PER TASK'!I59*'COST PER TASK'!AE59*DATOS!$D$9+'COST PER TASK'!J59*'COST PER TASK'!AE59*DATOS!$D$10+'COST PER TASK'!K59*'COST PER TASK'!AE59*DATOS!$D$11+'COST PER TASK'!L59*'COST PER TASK'!AE59*DATOS!$D$12+'COST PER TASK'!M59*'COST PER TASK'!AE59*DATOS!$D$13+'COST PER TASK'!N59*'COST PER TASK'!AE59*DATOS!$D$14+'COST PER TASK'!O59*'COST PER TASK'!AE59*DATOS!$D$15</f>
         <v>676.5</v>
       </c>
-      <c r="AI59" s="3">
+      <c r="AI59" s="3" t="e">
         <f>'COST PER TASK'!P59*'COST PER TASK'!AE59*DATOS!$D$16+'COST PER TASK'!Q59*'COST PER TASK'!AE59*DATOS!$D$17+'COST PER TASK'!R59*'COST PER TASK'!AE59*DATOS!$D$18+'COST PER TASK'!S59*'COST PER TASK'!AE59*DATOS!$D$19+'COST PER TASK'!T59*'COST PER TASK'!AE59*DATOS!$D$20+'COST PER TASK'!U59*'COST PER TASK'!AE59*DATOS!$D$21+'COST PER TASK'!V59*'COST PER TASK'!AE59*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK59" s="8">
-        <f t="shared" si="1"/>
-        <v>14356.5</v>
-      </c>
-      <c r="AL59" s="8">
-        <f t="shared" si="2"/>
-        <v>159.51666666666668</v>
-      </c>
-    </row>
-    <row r="60" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK59" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL59" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>118</v>
       </c>
@@ -4756,20 +4757,20 @@
         <f>F60*AE60*DATOS!$D$6+'COST PER TASK'!G60*'COST PER TASK'!AE60*DATOS!$D$7+'COST PER TASK'!H60*'COST PER TASK'!AE60*DATOS!$D$8+'COST PER TASK'!I60*'COST PER TASK'!AE60*DATOS!$D$9+'COST PER TASK'!J60*'COST PER TASK'!AE60*DATOS!$D$10+'COST PER TASK'!K60*'COST PER TASK'!AE60*DATOS!$D$11+'COST PER TASK'!L60*'COST PER TASK'!AE60*DATOS!$D$12+'COST PER TASK'!M60*'COST PER TASK'!AE60*DATOS!$D$13+'COST PER TASK'!N60*'COST PER TASK'!AE60*DATOS!$D$14+'COST PER TASK'!O60*'COST PER TASK'!AE60*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI60" s="3">
+      <c r="AI60" s="3" t="e">
         <f>'COST PER TASK'!P60*'COST PER TASK'!AE60*DATOS!$D$16+'COST PER TASK'!Q60*'COST PER TASK'!AE60*DATOS!$D$17+'COST PER TASK'!R60*'COST PER TASK'!AE60*DATOS!$D$18+'COST PER TASK'!S60*'COST PER TASK'!AE60*DATOS!$D$19+'COST PER TASK'!T60*'COST PER TASK'!AE60*DATOS!$D$20+'COST PER TASK'!U60*'COST PER TASK'!AE60*DATOS!$D$21+'COST PER TASK'!V60*'COST PER TASK'!AE60*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK60" s="8">
-        <f t="shared" si="1"/>
-        <v>117040</v>
-      </c>
-      <c r="AL60" s="8">
-        <f t="shared" si="2"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK60" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL60" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>119</v>
       </c>
@@ -4804,20 +4805,20 @@
         <f>F61*AE61*DATOS!$D$6+'COST PER TASK'!G61*'COST PER TASK'!AE61*DATOS!$D$7+'COST PER TASK'!H61*'COST PER TASK'!AE61*DATOS!$D$8+'COST PER TASK'!I61*'COST PER TASK'!AE61*DATOS!$D$9+'COST PER TASK'!J61*'COST PER TASK'!AE61*DATOS!$D$10+'COST PER TASK'!K61*'COST PER TASK'!AE61*DATOS!$D$11+'COST PER TASK'!L61*'COST PER TASK'!AE61*DATOS!$D$12+'COST PER TASK'!M61*'COST PER TASK'!AE61*DATOS!$D$13+'COST PER TASK'!N61*'COST PER TASK'!AE61*DATOS!$D$14+'COST PER TASK'!O61*'COST PER TASK'!AE61*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="3">
+      <c r="AI61" s="3" t="e">
         <f>'COST PER TASK'!P61*'COST PER TASK'!AE61*DATOS!$D$16+'COST PER TASK'!Q61*'COST PER TASK'!AE61*DATOS!$D$17+'COST PER TASK'!R61*'COST PER TASK'!AE61*DATOS!$D$18+'COST PER TASK'!S61*'COST PER TASK'!AE61*DATOS!$D$19+'COST PER TASK'!T61*'COST PER TASK'!AE61*DATOS!$D$20+'COST PER TASK'!U61*'COST PER TASK'!AE61*DATOS!$D$21+'COST PER TASK'!V61*'COST PER TASK'!AE61*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK61" s="8">
-        <f t="shared" si="1"/>
-        <v>130720</v>
-      </c>
-      <c r="AL61" s="8">
-        <f t="shared" si="2"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK61" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL61" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>120</v>
       </c>
@@ -4849,20 +4850,20 @@
         <f>F62*AE62*DATOS!$D$6+'COST PER TASK'!G62*'COST PER TASK'!AE62*DATOS!$D$7+'COST PER TASK'!H62*'COST PER TASK'!AE62*DATOS!$D$8+'COST PER TASK'!I62*'COST PER TASK'!AE62*DATOS!$D$9+'COST PER TASK'!J62*'COST PER TASK'!AE62*DATOS!$D$10+'COST PER TASK'!K62*'COST PER TASK'!AE62*DATOS!$D$11+'COST PER TASK'!L62*'COST PER TASK'!AE62*DATOS!$D$12+'COST PER TASK'!M62*'COST PER TASK'!AE62*DATOS!$D$13+'COST PER TASK'!N62*'COST PER TASK'!AE62*DATOS!$D$14+'COST PER TASK'!O62*'COST PER TASK'!AE62*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI62" s="3">
+      <c r="AI62" s="3" t="e">
         <f>'COST PER TASK'!P62*'COST PER TASK'!AE62*DATOS!$D$16+'COST PER TASK'!Q62*'COST PER TASK'!AE62*DATOS!$D$17+'COST PER TASK'!R62*'COST PER TASK'!AE62*DATOS!$D$18+'COST PER TASK'!S62*'COST PER TASK'!AE62*DATOS!$D$19+'COST PER TASK'!T62*'COST PER TASK'!AE62*DATOS!$D$20+'COST PER TASK'!U62*'COST PER TASK'!AE62*DATOS!$D$21+'COST PER TASK'!V62*'COST PER TASK'!AE62*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK62" s="8">
-        <f t="shared" si="1"/>
-        <v>130720</v>
-      </c>
-      <c r="AL62" s="8">
-        <f t="shared" si="2"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK62" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL62" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>121</v>
       </c>
@@ -4900,20 +4901,20 @@
         <f>F63*AE63*DATOS!$D$6+'COST PER TASK'!G63*'COST PER TASK'!AE63*DATOS!$D$7+'COST PER TASK'!H63*'COST PER TASK'!AE63*DATOS!$D$8+'COST PER TASK'!I63*'COST PER TASK'!AE63*DATOS!$D$9+'COST PER TASK'!J63*'COST PER TASK'!AE63*DATOS!$D$10+'COST PER TASK'!K63*'COST PER TASK'!AE63*DATOS!$D$11+'COST PER TASK'!L63*'COST PER TASK'!AE63*DATOS!$D$12+'COST PER TASK'!M63*'COST PER TASK'!AE63*DATOS!$D$13+'COST PER TASK'!N63*'COST PER TASK'!AE63*DATOS!$D$14+'COST PER TASK'!O63*'COST PER TASK'!AE63*DATOS!$D$15</f>
         <v>243.99999999999997</v>
       </c>
-      <c r="AI63" s="3">
+      <c r="AI63" s="3" t="e">
         <f>'COST PER TASK'!P63*'COST PER TASK'!AE63*DATOS!$D$16+'COST PER TASK'!Q63*'COST PER TASK'!AE63*DATOS!$D$17+'COST PER TASK'!R63*'COST PER TASK'!AE63*DATOS!$D$18+'COST PER TASK'!S63*'COST PER TASK'!AE63*DATOS!$D$19+'COST PER TASK'!T63*'COST PER TASK'!AE63*DATOS!$D$20+'COST PER TASK'!U63*'COST PER TASK'!AE63*DATOS!$D$21+'COST PER TASK'!V63*'COST PER TASK'!AE63*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK63" s="8">
-        <f t="shared" si="1"/>
-        <v>130964</v>
-      </c>
-      <c r="AL63" s="8">
-        <f t="shared" si="2"/>
-        <v>152.28372093023256</v>
-      </c>
-    </row>
-    <row r="64" spans="2:38" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK63" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL63" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>122</v>
       </c>
@@ -4951,20 +4952,20 @@
         <f>F64*AE64*DATOS!$D$6+'COST PER TASK'!G64*'COST PER TASK'!AE64*DATOS!$D$7+'COST PER TASK'!H64*'COST PER TASK'!AE64*DATOS!$D$8+'COST PER TASK'!I64*'COST PER TASK'!AE64*DATOS!$D$9+'COST PER TASK'!J64*'COST PER TASK'!AE64*DATOS!$D$10+'COST PER TASK'!K64*'COST PER TASK'!AE64*DATOS!$D$11+'COST PER TASK'!L64*'COST PER TASK'!AE64*DATOS!$D$12+'COST PER TASK'!M64*'COST PER TASK'!AE64*DATOS!$D$13+'COST PER TASK'!N64*'COST PER TASK'!AE64*DATOS!$D$14+'COST PER TASK'!O64*'COST PER TASK'!AE64*DATOS!$D$15</f>
         <v>243.99999999999997</v>
       </c>
-      <c r="AI64" s="3">
+      <c r="AI64" s="3" t="e">
         <f>'COST PER TASK'!P64*'COST PER TASK'!AE64*DATOS!$D$16+'COST PER TASK'!Q64*'COST PER TASK'!AE64*DATOS!$D$17+'COST PER TASK'!R64*'COST PER TASK'!AE64*DATOS!$D$18+'COST PER TASK'!S64*'COST PER TASK'!AE64*DATOS!$D$19+'COST PER TASK'!T64*'COST PER TASK'!AE64*DATOS!$D$20+'COST PER TASK'!U64*'COST PER TASK'!AE64*DATOS!$D$21+'COST PER TASK'!V64*'COST PER TASK'!AE64*DATOS!$D$22</f>
-        <v>0</v>
-      </c>
-      <c r="AK64" s="8">
-        <f t="shared" si="1"/>
-        <v>130964</v>
-      </c>
-      <c r="AL64" s="8">
-        <f t="shared" si="2"/>
-        <v>152.28372093023256</v>
-      </c>
-    </row>
-    <row r="65" spans="6:29" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK64" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL64" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="6:29" x14ac:dyDescent="0.3">
       <c r="F65" s="12">
         <f>F2*$AE2+F3*$AE3+F4*$AE4+F5*$AE5+F6*$AE6+F7*$AE7+F8*$AE8+F9*$AE9+F10*$AE10+F11*$AE11+F12*$AE12+F13*$AE13+F14*$AE14+F15*$AE15+F16*$AE16+F17*$AE17+F18*$AE18+F19*$AE19+F20*$AE20+F21*$AE21+F22*$AE22+F23*$AE23+F24*$AE24+F25*$AE25+F26*$AE26+F27*$AE27+F28*$AE28+F29*$AE29+F30*$AE30+F31*$AE31+F32*$AE32+F33*$AE33+F34*$AE34+F35*$AE35+F36*$AE36+F37*$AE37+F38*$AE38+F39*$AE39+F40*$AE40+F41*$AE41+F42*$AE42+F43*$AE43+F44*$AE44+F45*$AE45+F46*$AE46+F47*$AE47+F48*$AE48+F49*$AE49+F50*$AE50+F51*$AE51+F52*$AE52+F53*$AE53+F54*$AE54+F55*$AE55+F56*$AE56+F57*$AE57+F58*$AE58+F59*$AE59+F60*$AE60+F61*$AE61+F62*$AE62+F63*$AE63+F64*$AE64</f>
         <v>62664</v>
@@ -5068,19 +5069,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E67439D-E1D1-2D40-B576-DC587E33645E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AGW65"/>
   <sheetViews>
     <sheetView topLeftCell="BA47" zoomScale="101" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="881" width="3.83203125" customWidth="1"/>
+    <col min="2" max="881" width="3.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:881" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -7722,322 +7723,322 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:881" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="2:880" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:880" x14ac:dyDescent="0.3">
       <c r="B65">
         <f>SUM(B2:B64)</f>
         <v>0</v>
@@ -11561,19 +11562,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE878835-55AC-F340-BA81-54AC84F1938A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -11584,7 +11585,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -11595,7 +11596,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -11606,7 +11607,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -11617,7 +11618,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -11632,7 +11633,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -11650,7 +11651,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -11668,7 +11669,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -11686,7 +11687,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -11704,7 +11705,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -11722,7 +11723,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -11740,7 +11741,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -11758,7 +11759,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>141</v>
       </c>
@@ -11776,7 +11777,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -11794,7 +11795,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -11809,7 +11810,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -11824,7 +11825,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>147</v>
       </c>
@@ -11839,7 +11840,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -11854,102 +11855,132 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>149</v>
       </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
       <c r="C20" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="15" t="e">
         <f>B20/'COST PER TASK'!T65</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>150</v>
       </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
       <c r="C21" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="15" t="e">
         <f>B21/'COST PER TASK'!U65</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>151</v>
       </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
       <c r="C22" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="15" t="e">
         <f>B22/'COST PER TASK'!V65</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
       <c r="C23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
       <c r="C24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
       <c r="C25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
+      <c r="B26">
+        <v>14</v>
+      </c>
       <c r="C26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
       <c r="C27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
       <c r="C28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>129</v>

--- a/Deliverable 2/Deliverable2/Costs task 8.xlsx
+++ b/Deliverable 2/Deliverable2/Costs task 8.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\M1B\Direcció de Projectes d'Aeronaus i Vehicles Aeroespacials\5. PROJECTE\projectsGroup3\Deliverable 2\Deliverable2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Santi/Documents/GitHub/projectsGroup3/Deliverable 2/Deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9944405E-FC48-734D-BB32-34E9DA39D072}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14316" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="155">
   <si>
     <t>Resource Cost</t>
   </si>
@@ -493,15 +494,12 @@
   </si>
   <si>
     <t>COSTE DIARIO</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -717,31 +715,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A3:G12" totalsRowShown="0">
-  <autoFilter ref="A3:G12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:G12" totalsRowShown="0">
+  <autoFilter ref="A3:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Resource ID"/>
-    <tableColumn id="2" name="Resource Description"/>
-    <tableColumn id="3" name="Type of resource"/>
-    <tableColumn id="4" name="Annual Gross Salary" dataDxfId="3" dataCellStyle="Moneda"/>
-    <tableColumn id="5" name="Monthly Pay" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Resource ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Resource Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type of resource"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Annual Gross Salary" dataDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Monthly Pay" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>D4/12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hourly Cost (€/h)" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Hourly Cost (€/h)" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>E4/180</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Reference" dataCellStyle="Moneda"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Reference" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Employee Group"/>
-    <tableColumn id="2" name="Hourly" dataDxfId="0" dataCellStyle="Moneda"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Employee Group"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Hourly" dataDxfId="0" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1043,29 +1041,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.19921875" customWidth="1"/>
-    <col min="2" max="2" width="42.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" customWidth="1"/>
-    <col min="6" max="6" width="17.296875" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1088,7 +1086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1113,7 +1111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +1186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1213,7 +1211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1238,7 +1236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1263,7 +1261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1313,7 +1311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G14" t="s">
         <v>33</v>
       </c>
@@ -1328,19 +1326,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1348,7 +1346,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1359,7 +1357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1367,7 +1365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1384,40 +1382,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="3.796875" customWidth="1"/>
-    <col min="6" max="9" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="22" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3.83203125" customWidth="1"/>
+    <col min="6" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="127.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>153</v>
       </c>
@@ -1530,7 +1528,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -1572,22 +1570,22 @@
       </c>
       <c r="AH2" s="3">
         <f>F2*AE2*DATOS!$D$6+'COST PER TASK'!G2*'COST PER TASK'!AE2*DATOS!$D$7+'COST PER TASK'!H2*'COST PER TASK'!AE2*DATOS!$D$8+'COST PER TASK'!I2*'COST PER TASK'!AE2*DATOS!$D$9+'COST PER TASK'!J2*'COST PER TASK'!AE2*DATOS!$D$10+'COST PER TASK'!K2*'COST PER TASK'!AE2*DATOS!$D$11+'COST PER TASK'!L2*'COST PER TASK'!AE2*DATOS!$D$12+'COST PER TASK'!M2*'COST PER TASK'!AE2*DATOS!$D$13+'COST PER TASK'!N2*'COST PER TASK'!AE2*DATOS!$D$14+'COST PER TASK'!O2*'COST PER TASK'!AE2*DATOS!$D$15</f>
-        <v>59.290037624734175</v>
-      </c>
-      <c r="AI2" s="3" t="e">
+        <v>70.77988825667596</v>
+      </c>
+      <c r="AI2" s="3">
         <f>'COST PER TASK'!P2*'COST PER TASK'!AE2*DATOS!$D$16+'COST PER TASK'!Q2*'COST PER TASK'!AE2*DATOS!$D$17+'COST PER TASK'!R2*'COST PER TASK'!AE2*DATOS!$D$18+'COST PER TASK'!S2*'COST PER TASK'!AE2*DATOS!$D$19+'COST PER TASK'!T2*'COST PER TASK'!AE2*DATOS!$D$20+'COST PER TASK'!U2*'COST PER TASK'!AE2*DATOS!$D$21+'COST PER TASK'!V2*'COST PER TASK'!AE2*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK2" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="8">
         <f>AG2+AH2+AI2+AJ2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL2" s="8" t="e">
+        <v>3350.7798882566758</v>
+      </c>
+      <c r="AL2" s="8">
         <f>AK2/AD2</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+        <v>167.5389944128338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -1625,20 +1623,20 @@
         <f>F3*AE3*DATOS!$D$6+'COST PER TASK'!G3*'COST PER TASK'!AE3*DATOS!$D$7+'COST PER TASK'!H3*'COST PER TASK'!AE3*DATOS!$D$8+'COST PER TASK'!I3*'COST PER TASK'!AE3*DATOS!$D$9+'COST PER TASK'!J3*'COST PER TASK'!AE3*DATOS!$D$10+'COST PER TASK'!K3*'COST PER TASK'!AE3*DATOS!$D$11+'COST PER TASK'!L3*'COST PER TASK'!AE3*DATOS!$D$12+'COST PER TASK'!M3*'COST PER TASK'!AE3*DATOS!$D$13+'COST PER TASK'!N3*'COST PER TASK'!AE3*DATOS!$D$14+'COST PER TASK'!O3*'COST PER TASK'!AE3*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="3" t="e">
+      <c r="AI3" s="3">
         <f>'COST PER TASK'!P3*'COST PER TASK'!AE3*DATOS!$D$16+'COST PER TASK'!Q3*'COST PER TASK'!AE3*DATOS!$D$17+'COST PER TASK'!R3*'COST PER TASK'!AE3*DATOS!$D$18+'COST PER TASK'!S3*'COST PER TASK'!AE3*DATOS!$D$19+'COST PER TASK'!T3*'COST PER TASK'!AE3*DATOS!$D$20+'COST PER TASK'!U3*'COST PER TASK'!AE3*DATOS!$D$21+'COST PER TASK'!V3*'COST PER TASK'!AE3*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK3" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="8">
         <f t="shared" ref="AK3:AK64" si="1">AG3+AH3+AI3+AJ3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL3" s="8" t="e">
+        <v>144320</v>
+      </c>
+      <c r="AL3" s="8">
         <f t="shared" ref="AL3:AL64" si="2">AK3/AD3</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>62</v>
       </c>
@@ -1676,20 +1674,20 @@
         <f>F4*AE4*DATOS!$D$6+'COST PER TASK'!G4*'COST PER TASK'!AE4*DATOS!$D$7+'COST PER TASK'!H4*'COST PER TASK'!AE4*DATOS!$D$8+'COST PER TASK'!I4*'COST PER TASK'!AE4*DATOS!$D$9+'COST PER TASK'!J4*'COST PER TASK'!AE4*DATOS!$D$10+'COST PER TASK'!K4*'COST PER TASK'!AE4*DATOS!$D$11+'COST PER TASK'!L4*'COST PER TASK'!AE4*DATOS!$D$12+'COST PER TASK'!M4*'COST PER TASK'!AE4*DATOS!$D$13+'COST PER TASK'!N4*'COST PER TASK'!AE4*DATOS!$D$14+'COST PER TASK'!O4*'COST PER TASK'!AE4*DATOS!$D$15</f>
         <v>4264</v>
       </c>
-      <c r="AI4" s="3" t="e">
+      <c r="AI4" s="3">
         <f>'COST PER TASK'!P4*'COST PER TASK'!AE4*DATOS!$D$16+'COST PER TASK'!Q4*'COST PER TASK'!AE4*DATOS!$D$17+'COST PER TASK'!R4*'COST PER TASK'!AE4*DATOS!$D$18+'COST PER TASK'!S4*'COST PER TASK'!AE4*DATOS!$D$19+'COST PER TASK'!T4*'COST PER TASK'!AE4*DATOS!$D$20+'COST PER TASK'!U4*'COST PER TASK'!AE4*DATOS!$D$21+'COST PER TASK'!V4*'COST PER TASK'!AE4*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK4" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL4" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="8">
+        <f t="shared" si="1"/>
+        <v>148584</v>
+      </c>
+      <c r="AL4" s="8">
+        <f t="shared" si="2"/>
+        <v>168.84545454545454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -1731,22 +1729,22 @@
       </c>
       <c r="AH5" s="3">
         <f>F5*AE5*DATOS!$D$6+'COST PER TASK'!G5*'COST PER TASK'!AE5*DATOS!$D$7+'COST PER TASK'!H5*'COST PER TASK'!AE5*DATOS!$D$8+'COST PER TASK'!I5*'COST PER TASK'!AE5*DATOS!$D$9+'COST PER TASK'!J5*'COST PER TASK'!AE5*DATOS!$D$10+'COST PER TASK'!K5*'COST PER TASK'!AE5*DATOS!$D$11+'COST PER TASK'!L5*'COST PER TASK'!AE5*DATOS!$D$12+'COST PER TASK'!M5*'COST PER TASK'!AE5*DATOS!$D$13+'COST PER TASK'!N5*'COST PER TASK'!AE5*DATOS!$D$14+'COST PER TASK'!O5*'COST PER TASK'!AE5*DATOS!$D$15</f>
-        <v>2608.7616554883039</v>
-      </c>
-      <c r="AI5" s="3" t="e">
+        <v>3114.3150832937426</v>
+      </c>
+      <c r="AI5" s="3">
         <f>'COST PER TASK'!P5*'COST PER TASK'!AE5*DATOS!$D$16+'COST PER TASK'!Q5*'COST PER TASK'!AE5*DATOS!$D$17+'COST PER TASK'!R5*'COST PER TASK'!AE5*DATOS!$D$18+'COST PER TASK'!S5*'COST PER TASK'!AE5*DATOS!$D$19+'COST PER TASK'!T5*'COST PER TASK'!AE5*DATOS!$D$20+'COST PER TASK'!U5*'COST PER TASK'!AE5*DATOS!$D$21+'COST PER TASK'!V5*'COST PER TASK'!AE5*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK5" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL5" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="8">
+        <f t="shared" si="1"/>
+        <v>147434.31508329374</v>
+      </c>
+      <c r="AL5" s="8">
+        <f t="shared" si="2"/>
+        <v>167.5389944128338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>64</v>
       </c>
@@ -1778,20 +1776,20 @@
         <f>F6*AE6*DATOS!$D$6+'COST PER TASK'!G6*'COST PER TASK'!AE6*DATOS!$D$7+'COST PER TASK'!H6*'COST PER TASK'!AE6*DATOS!$D$8+'COST PER TASK'!I6*'COST PER TASK'!AE6*DATOS!$D$9+'COST PER TASK'!J6*'COST PER TASK'!AE6*DATOS!$D$10+'COST PER TASK'!K6*'COST PER TASK'!AE6*DATOS!$D$11+'COST PER TASK'!L6*'COST PER TASK'!AE6*DATOS!$D$12+'COST PER TASK'!M6*'COST PER TASK'!AE6*DATOS!$D$13+'COST PER TASK'!N6*'COST PER TASK'!AE6*DATOS!$D$14+'COST PER TASK'!O6*'COST PER TASK'!AE6*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="3" t="e">
+      <c r="AI6" s="3">
         <f>'COST PER TASK'!P6*'COST PER TASK'!AE6*DATOS!$D$16+'COST PER TASK'!Q6*'COST PER TASK'!AE6*DATOS!$D$17+'COST PER TASK'!R6*'COST PER TASK'!AE6*DATOS!$D$18+'COST PER TASK'!S6*'COST PER TASK'!AE6*DATOS!$D$19+'COST PER TASK'!T6*'COST PER TASK'!AE6*DATOS!$D$20+'COST PER TASK'!U6*'COST PER TASK'!AE6*DATOS!$D$21+'COST PER TASK'!V6*'COST PER TASK'!AE6*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK6" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL6" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="8">
+        <f t="shared" si="1"/>
+        <v>144320</v>
+      </c>
+      <c r="AL6" s="8">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -1823,20 +1821,20 @@
         <f>F7*AE7*DATOS!$D$6+'COST PER TASK'!G7*'COST PER TASK'!AE7*DATOS!$D$7+'COST PER TASK'!H7*'COST PER TASK'!AE7*DATOS!$D$8+'COST PER TASK'!I7*'COST PER TASK'!AE7*DATOS!$D$9+'COST PER TASK'!J7*'COST PER TASK'!AE7*DATOS!$D$10+'COST PER TASK'!K7*'COST PER TASK'!AE7*DATOS!$D$11+'COST PER TASK'!L7*'COST PER TASK'!AE7*DATOS!$D$12+'COST PER TASK'!M7*'COST PER TASK'!AE7*DATOS!$D$13+'COST PER TASK'!N7*'COST PER TASK'!AE7*DATOS!$D$14+'COST PER TASK'!O7*'COST PER TASK'!AE7*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="3" t="e">
+      <c r="AI7" s="3">
         <f>'COST PER TASK'!P7*'COST PER TASK'!AE7*DATOS!$D$16+'COST PER TASK'!Q7*'COST PER TASK'!AE7*DATOS!$D$17+'COST PER TASK'!R7*'COST PER TASK'!AE7*DATOS!$D$18+'COST PER TASK'!S7*'COST PER TASK'!AE7*DATOS!$D$19+'COST PER TASK'!T7*'COST PER TASK'!AE7*DATOS!$D$20+'COST PER TASK'!U7*'COST PER TASK'!AE7*DATOS!$D$21+'COST PER TASK'!V7*'COST PER TASK'!AE7*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK7" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL7" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="8">
+        <f t="shared" si="1"/>
+        <v>4920</v>
+      </c>
+      <c r="AL7" s="8">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -1868,20 +1866,20 @@
         <f>F8*AE8*DATOS!$D$6+'COST PER TASK'!G8*'COST PER TASK'!AE8*DATOS!$D$7+'COST PER TASK'!H8*'COST PER TASK'!AE8*DATOS!$D$8+'COST PER TASK'!I8*'COST PER TASK'!AE8*DATOS!$D$9+'COST PER TASK'!J8*'COST PER TASK'!AE8*DATOS!$D$10+'COST PER TASK'!K8*'COST PER TASK'!AE8*DATOS!$D$11+'COST PER TASK'!L8*'COST PER TASK'!AE8*DATOS!$D$12+'COST PER TASK'!M8*'COST PER TASK'!AE8*DATOS!$D$13+'COST PER TASK'!N8*'COST PER TASK'!AE8*DATOS!$D$14+'COST PER TASK'!O8*'COST PER TASK'!AE8*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="3" t="e">
+      <c r="AI8" s="3">
         <f>'COST PER TASK'!P8*'COST PER TASK'!AE8*DATOS!$D$16+'COST PER TASK'!Q8*'COST PER TASK'!AE8*DATOS!$D$17+'COST PER TASK'!R8*'COST PER TASK'!AE8*DATOS!$D$18+'COST PER TASK'!S8*'COST PER TASK'!AE8*DATOS!$D$19+'COST PER TASK'!T8*'COST PER TASK'!AE8*DATOS!$D$20+'COST PER TASK'!U8*'COST PER TASK'!AE8*DATOS!$D$21+'COST PER TASK'!V8*'COST PER TASK'!AE8*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK8" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL8" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="8">
+        <f t="shared" si="1"/>
+        <v>136120</v>
+      </c>
+      <c r="AL8" s="8">
+        <f>AK8/AD8</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -1920,22 +1918,22 @@
       </c>
       <c r="AH9" s="3">
         <f>F9*AE9*DATOS!$D$6+'COST PER TASK'!G9*'COST PER TASK'!AE9*DATOS!$D$7+'COST PER TASK'!H9*'COST PER TASK'!AE9*DATOS!$D$8+'COST PER TASK'!I9*'COST PER TASK'!AE9*DATOS!$D$9+'COST PER TASK'!J9*'COST PER TASK'!AE9*DATOS!$D$10+'COST PER TASK'!K9*'COST PER TASK'!AE9*DATOS!$D$11+'COST PER TASK'!L9*'COST PER TASK'!AE9*DATOS!$D$12+'COST PER TASK'!M9*'COST PER TASK'!AE9*DATOS!$D$13+'COST PER TASK'!N9*'COST PER TASK'!AE9*DATOS!$D$14+'COST PER TASK'!O9*'COST PER TASK'!AE9*DATOS!$D$15</f>
-        <v>46.929003762473414</v>
-      </c>
-      <c r="AI9" s="3" t="e">
+        <v>48.077988825667596</v>
+      </c>
+      <c r="AI9" s="3">
         <f>'COST PER TASK'!P9*'COST PER TASK'!AE9*DATOS!$D$16+'COST PER TASK'!Q9*'COST PER TASK'!AE9*DATOS!$D$17+'COST PER TASK'!R9*'COST PER TASK'!AE9*DATOS!$D$18+'COST PER TASK'!S9*'COST PER TASK'!AE9*DATOS!$D$19+'COST PER TASK'!T9*'COST PER TASK'!AE9*DATOS!$D$20+'COST PER TASK'!U9*'COST PER TASK'!AE9*DATOS!$D$21+'COST PER TASK'!V9*'COST PER TASK'!AE9*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK9" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL9" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="8">
+        <f t="shared" si="1"/>
+        <v>376.0779888256676</v>
+      </c>
+      <c r="AL9" s="8">
+        <f t="shared" si="2"/>
+        <v>188.0389944128338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>68</v>
       </c>
@@ -1974,22 +1972,22 @@
       </c>
       <c r="AH10" s="3">
         <f>F10*AE10*DATOS!$D$6+'COST PER TASK'!G10*'COST PER TASK'!AE10*DATOS!$D$7+'COST PER TASK'!H10*'COST PER TASK'!AE10*DATOS!$D$8+'COST PER TASK'!I10*'COST PER TASK'!AE10*DATOS!$D$9+'COST PER TASK'!J10*'COST PER TASK'!AE10*DATOS!$D$10+'COST PER TASK'!K10*'COST PER TASK'!AE10*DATOS!$D$11+'COST PER TASK'!L10*'COST PER TASK'!AE10*DATOS!$D$12+'COST PER TASK'!M10*'COST PER TASK'!AE10*DATOS!$D$13+'COST PER TASK'!N10*'COST PER TASK'!AE10*DATOS!$D$14+'COST PER TASK'!O10*'COST PER TASK'!AE10*DATOS!$D$15</f>
-        <v>46.929003762473414</v>
-      </c>
-      <c r="AI10" s="3" t="e">
+        <v>48.077988825667596</v>
+      </c>
+      <c r="AI10" s="3">
         <f>'COST PER TASK'!P10*'COST PER TASK'!AE10*DATOS!$D$16+'COST PER TASK'!Q10*'COST PER TASK'!AE10*DATOS!$D$17+'COST PER TASK'!R10*'COST PER TASK'!AE10*DATOS!$D$18+'COST PER TASK'!S10*'COST PER TASK'!AE10*DATOS!$D$19+'COST PER TASK'!T10*'COST PER TASK'!AE10*DATOS!$D$20+'COST PER TASK'!U10*'COST PER TASK'!AE10*DATOS!$D$21+'COST PER TASK'!V10*'COST PER TASK'!AE10*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK10" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL10" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="8">
+        <f t="shared" si="1"/>
+        <v>376.0779888256676</v>
+      </c>
+      <c r="AL10" s="8">
+        <f t="shared" si="2"/>
+        <v>188.0389944128338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>69</v>
       </c>
@@ -2028,22 +2026,22 @@
       </c>
       <c r="AH11" s="3">
         <f>F11*AE11*DATOS!$D$6+'COST PER TASK'!G11*'COST PER TASK'!AE11*DATOS!$D$7+'COST PER TASK'!H11*'COST PER TASK'!AE11*DATOS!$D$8+'COST PER TASK'!I11*'COST PER TASK'!AE11*DATOS!$D$9+'COST PER TASK'!J11*'COST PER TASK'!AE11*DATOS!$D$10+'COST PER TASK'!K11*'COST PER TASK'!AE11*DATOS!$D$11+'COST PER TASK'!L11*'COST PER TASK'!AE11*DATOS!$D$12+'COST PER TASK'!M11*'COST PER TASK'!AE11*DATOS!$D$13+'COST PER TASK'!N11*'COST PER TASK'!AE11*DATOS!$D$14+'COST PER TASK'!O11*'COST PER TASK'!AE11*DATOS!$D$15</f>
-        <v>70.393505643710128</v>
-      </c>
-      <c r="AI11" s="3" t="e">
+        <v>72.11698323850139</v>
+      </c>
+      <c r="AI11" s="3">
         <f>'COST PER TASK'!P11*'COST PER TASK'!AE11*DATOS!$D$16+'COST PER TASK'!Q11*'COST PER TASK'!AE11*DATOS!$D$17+'COST PER TASK'!R11*'COST PER TASK'!AE11*DATOS!$D$18+'COST PER TASK'!S11*'COST PER TASK'!AE11*DATOS!$D$19+'COST PER TASK'!T11*'COST PER TASK'!AE11*DATOS!$D$20+'COST PER TASK'!U11*'COST PER TASK'!AE11*DATOS!$D$21+'COST PER TASK'!V11*'COST PER TASK'!AE11*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK11" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL11" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="8">
+        <f t="shared" si="1"/>
+        <v>564.11698323850135</v>
+      </c>
+      <c r="AL11" s="8">
+        <f t="shared" si="2"/>
+        <v>188.03899441283377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>70</v>
       </c>
@@ -2082,22 +2080,22 @@
       </c>
       <c r="AH12" s="3">
         <f>F12*AE12*DATOS!$D$6+'COST PER TASK'!G12*'COST PER TASK'!AE12*DATOS!$D$7+'COST PER TASK'!H12*'COST PER TASK'!AE12*DATOS!$D$8+'COST PER TASK'!I12*'COST PER TASK'!AE12*DATOS!$D$9+'COST PER TASK'!J12*'COST PER TASK'!AE12*DATOS!$D$10+'COST PER TASK'!K12*'COST PER TASK'!AE12*DATOS!$D$11+'COST PER TASK'!L12*'COST PER TASK'!AE12*DATOS!$D$12+'COST PER TASK'!M12*'COST PER TASK'!AE12*DATOS!$D$13+'COST PER TASK'!N12*'COST PER TASK'!AE12*DATOS!$D$14+'COST PER TASK'!O12*'COST PER TASK'!AE12*DATOS!$D$15</f>
-        <v>117.32250940618354</v>
-      </c>
-      <c r="AI12" s="3" t="e">
+        <v>120.19497206416899</v>
+      </c>
+      <c r="AI12" s="3">
         <f>'COST PER TASK'!P12*'COST PER TASK'!AE12*DATOS!$D$16+'COST PER TASK'!Q12*'COST PER TASK'!AE12*DATOS!$D$17+'COST PER TASK'!R12*'COST PER TASK'!AE12*DATOS!$D$18+'COST PER TASK'!S12*'COST PER TASK'!AE12*DATOS!$D$19+'COST PER TASK'!T12*'COST PER TASK'!AE12*DATOS!$D$20+'COST PER TASK'!U12*'COST PER TASK'!AE12*DATOS!$D$21+'COST PER TASK'!V12*'COST PER TASK'!AE12*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK12" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL12" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="8">
+        <f t="shared" si="1"/>
+        <v>940.19497206416895</v>
+      </c>
+      <c r="AL12" s="8">
+        <f t="shared" si="2"/>
+        <v>188.0389944128338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>71</v>
       </c>
@@ -2133,22 +2131,22 @@
       </c>
       <c r="AH13" s="3">
         <f>F13*AE13*DATOS!$D$6+'COST PER TASK'!G13*'COST PER TASK'!AE13*DATOS!$D$7+'COST PER TASK'!H13*'COST PER TASK'!AE13*DATOS!$D$8+'COST PER TASK'!I13*'COST PER TASK'!AE13*DATOS!$D$9+'COST PER TASK'!J13*'COST PER TASK'!AE13*DATOS!$D$10+'COST PER TASK'!K13*'COST PER TASK'!AE13*DATOS!$D$11+'COST PER TASK'!L13*'COST PER TASK'!AE13*DATOS!$D$12+'COST PER TASK'!M13*'COST PER TASK'!AE13*DATOS!$D$13+'COST PER TASK'!N13*'COST PER TASK'!AE13*DATOS!$D$14+'COST PER TASK'!O13*'COST PER TASK'!AE13*DATOS!$D$15</f>
-        <v>14.822509406183544</v>
-      </c>
-      <c r="AI13" s="3" t="e">
+        <v>17.69497206416899</v>
+      </c>
+      <c r="AI13" s="3">
         <f>'COST PER TASK'!P13*'COST PER TASK'!AE13*DATOS!$D$16+'COST PER TASK'!Q13*'COST PER TASK'!AE13*DATOS!$D$17+'COST PER TASK'!R13*'COST PER TASK'!AE13*DATOS!$D$18+'COST PER TASK'!S13*'COST PER TASK'!AE13*DATOS!$D$19+'COST PER TASK'!T13*'COST PER TASK'!AE13*DATOS!$D$20+'COST PER TASK'!U13*'COST PER TASK'!AE13*DATOS!$D$21+'COST PER TASK'!V13*'COST PER TASK'!AE13*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK13" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL13" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="8">
+        <f t="shared" si="1"/>
+        <v>837.69497206416895</v>
+      </c>
+      <c r="AL13" s="8">
+        <f t="shared" si="2"/>
+        <v>167.5389944128338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>72</v>
       </c>
@@ -2180,20 +2178,20 @@
         <f>F14*AE14*DATOS!$D$6+'COST PER TASK'!G14*'COST PER TASK'!AE14*DATOS!$D$7+'COST PER TASK'!H14*'COST PER TASK'!AE14*DATOS!$D$8+'COST PER TASK'!I14*'COST PER TASK'!AE14*DATOS!$D$9+'COST PER TASK'!J14*'COST PER TASK'!AE14*DATOS!$D$10+'COST PER TASK'!K14*'COST PER TASK'!AE14*DATOS!$D$11+'COST PER TASK'!L14*'COST PER TASK'!AE14*DATOS!$D$12+'COST PER TASK'!M14*'COST PER TASK'!AE14*DATOS!$D$13+'COST PER TASK'!N14*'COST PER TASK'!AE14*DATOS!$D$14+'COST PER TASK'!O14*'COST PER TASK'!AE14*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="3" t="e">
+      <c r="AI14" s="3">
         <f>'COST PER TASK'!P14*'COST PER TASK'!AE14*DATOS!$D$16+'COST PER TASK'!Q14*'COST PER TASK'!AE14*DATOS!$D$17+'COST PER TASK'!R14*'COST PER TASK'!AE14*DATOS!$D$18+'COST PER TASK'!S14*'COST PER TASK'!AE14*DATOS!$D$19+'COST PER TASK'!T14*'COST PER TASK'!AE14*DATOS!$D$20+'COST PER TASK'!U14*'COST PER TASK'!AE14*DATOS!$D$21+'COST PER TASK'!V14*'COST PER TASK'!AE14*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK14" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL14" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="8">
+        <f t="shared" si="1"/>
+        <v>492</v>
+      </c>
+      <c r="AL14" s="8">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>73</v>
       </c>
@@ -2232,22 +2230,22 @@
       </c>
       <c r="AH15" s="3">
         <f>F15*AE15*DATOS!$D$6+'COST PER TASK'!G15*'COST PER TASK'!AE15*DATOS!$D$7+'COST PER TASK'!H15*'COST PER TASK'!AE15*DATOS!$D$8+'COST PER TASK'!I15*'COST PER TASK'!AE15*DATOS!$D$9+'COST PER TASK'!J15*'COST PER TASK'!AE15*DATOS!$D$10+'COST PER TASK'!K15*'COST PER TASK'!AE15*DATOS!$D$11+'COST PER TASK'!L15*'COST PER TASK'!AE15*DATOS!$D$12+'COST PER TASK'!M15*'COST PER TASK'!AE15*DATOS!$D$13+'COST PER TASK'!N15*'COST PER TASK'!AE15*DATOS!$D$14+'COST PER TASK'!O15*'COST PER TASK'!AE15*DATOS!$D$15</f>
-        <v>2608.7616554883039</v>
-      </c>
-      <c r="AI15" s="3" t="e">
+        <v>3114.3150832937426</v>
+      </c>
+      <c r="AI15" s="3">
         <f>'COST PER TASK'!P15*'COST PER TASK'!AE15*DATOS!$D$16+'COST PER TASK'!Q15*'COST PER TASK'!AE15*DATOS!$D$17+'COST PER TASK'!R15*'COST PER TASK'!AE15*DATOS!$D$18+'COST PER TASK'!S15*'COST PER TASK'!AE15*DATOS!$D$19+'COST PER TASK'!T15*'COST PER TASK'!AE15*DATOS!$D$20+'COST PER TASK'!U15*'COST PER TASK'!AE15*DATOS!$D$21+'COST PER TASK'!V15*'COST PER TASK'!AE15*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK15" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL15" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="8">
+        <f t="shared" si="1"/>
+        <v>147434.31508329374</v>
+      </c>
+      <c r="AL15" s="8">
+        <f t="shared" si="2"/>
+        <v>167.5389944128338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>74</v>
       </c>
@@ -2286,22 +2284,22 @@
       </c>
       <c r="AH16" s="3">
         <f>F16*AE16*DATOS!$D$6+'COST PER TASK'!G16*'COST PER TASK'!AE16*DATOS!$D$7+'COST PER TASK'!H16*'COST PER TASK'!AE16*DATOS!$D$8+'COST PER TASK'!I16*'COST PER TASK'!AE16*DATOS!$D$9+'COST PER TASK'!J16*'COST PER TASK'!AE16*DATOS!$D$10+'COST PER TASK'!K16*'COST PER TASK'!AE16*DATOS!$D$11+'COST PER TASK'!L16*'COST PER TASK'!AE16*DATOS!$D$12+'COST PER TASK'!M16*'COST PER TASK'!AE16*DATOS!$D$13+'COST PER TASK'!N16*'COST PER TASK'!AE16*DATOS!$D$14+'COST PER TASK'!O16*'COST PER TASK'!AE16*DATOS!$D$15</f>
-        <v>2608.7616554883039</v>
-      </c>
-      <c r="AI16" s="3" t="e">
+        <v>3114.3150832937426</v>
+      </c>
+      <c r="AI16" s="3">
         <f>'COST PER TASK'!P16*'COST PER TASK'!AE16*DATOS!$D$16+'COST PER TASK'!Q16*'COST PER TASK'!AE16*DATOS!$D$17+'COST PER TASK'!R16*'COST PER TASK'!AE16*DATOS!$D$18+'COST PER TASK'!S16*'COST PER TASK'!AE16*DATOS!$D$19+'COST PER TASK'!T16*'COST PER TASK'!AE16*DATOS!$D$20+'COST PER TASK'!U16*'COST PER TASK'!AE16*DATOS!$D$21+'COST PER TASK'!V16*'COST PER TASK'!AE16*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK16" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL16" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="8">
+        <f t="shared" si="1"/>
+        <v>147434.31508329374</v>
+      </c>
+      <c r="AL16" s="8">
+        <f t="shared" si="2"/>
+        <v>167.5389944128338</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>75</v>
       </c>
@@ -2340,22 +2338,22 @@
       </c>
       <c r="AH17" s="3">
         <f>F17*AE17*DATOS!$D$6+'COST PER TASK'!G17*'COST PER TASK'!AE17*DATOS!$D$7+'COST PER TASK'!H17*'COST PER TASK'!AE17*DATOS!$D$8+'COST PER TASK'!I17*'COST PER TASK'!AE17*DATOS!$D$9+'COST PER TASK'!J17*'COST PER TASK'!AE17*DATOS!$D$10+'COST PER TASK'!K17*'COST PER TASK'!AE17*DATOS!$D$11+'COST PER TASK'!L17*'COST PER TASK'!AE17*DATOS!$D$12+'COST PER TASK'!M17*'COST PER TASK'!AE17*DATOS!$D$13+'COST PER TASK'!N17*'COST PER TASK'!AE17*DATOS!$D$14+'COST PER TASK'!O17*'COST PER TASK'!AE17*DATOS!$D$15</f>
-        <v>2608.7616554883039</v>
-      </c>
-      <c r="AI17" s="3" t="e">
+        <v>3114.3150832937426</v>
+      </c>
+      <c r="AI17" s="3">
         <f>'COST PER TASK'!P17*'COST PER TASK'!AE17*DATOS!$D$16+'COST PER TASK'!Q17*'COST PER TASK'!AE17*DATOS!$D$17+'COST PER TASK'!R17*'COST PER TASK'!AE17*DATOS!$D$18+'COST PER TASK'!S17*'COST PER TASK'!AE17*DATOS!$D$19+'COST PER TASK'!T17*'COST PER TASK'!AE17*DATOS!$D$20+'COST PER TASK'!U17*'COST PER TASK'!AE17*DATOS!$D$21+'COST PER TASK'!V17*'COST PER TASK'!AE17*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK17" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL17" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="8">
+        <f t="shared" si="1"/>
+        <v>147434.31508329374</v>
+      </c>
+      <c r="AL17" s="8">
+        <f t="shared" si="2"/>
+        <v>167.5389944128338</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>76</v>
       </c>
@@ -2394,22 +2392,22 @@
       </c>
       <c r="AH18" s="3">
         <f>F18*AE18*DATOS!$D$6+'COST PER TASK'!G18*'COST PER TASK'!AE18*DATOS!$D$7+'COST PER TASK'!H18*'COST PER TASK'!AE18*DATOS!$D$8+'COST PER TASK'!I18*'COST PER TASK'!AE18*DATOS!$D$9+'COST PER TASK'!J18*'COST PER TASK'!AE18*DATOS!$D$10+'COST PER TASK'!K18*'COST PER TASK'!AE18*DATOS!$D$11+'COST PER TASK'!L18*'COST PER TASK'!AE18*DATOS!$D$12+'COST PER TASK'!M18*'COST PER TASK'!AE18*DATOS!$D$13+'COST PER TASK'!N18*'COST PER TASK'!AE18*DATOS!$D$14+'COST PER TASK'!O18*'COST PER TASK'!AE18*DATOS!$D$15</f>
-        <v>2608.7616554883039</v>
-      </c>
-      <c r="AI18" s="3" t="e">
+        <v>3114.3150832937426</v>
+      </c>
+      <c r="AI18" s="3">
         <f>'COST PER TASK'!P18*'COST PER TASK'!AE18*DATOS!$D$16+'COST PER TASK'!Q18*'COST PER TASK'!AE18*DATOS!$D$17+'COST PER TASK'!R18*'COST PER TASK'!AE18*DATOS!$D$18+'COST PER TASK'!S18*'COST PER TASK'!AE18*DATOS!$D$19+'COST PER TASK'!T18*'COST PER TASK'!AE18*DATOS!$D$20+'COST PER TASK'!U18*'COST PER TASK'!AE18*DATOS!$D$21+'COST PER TASK'!V18*'COST PER TASK'!AE18*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK18" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL18" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="8">
+        <f t="shared" si="1"/>
+        <v>147434.31508329374</v>
+      </c>
+      <c r="AL18" s="8">
+        <f t="shared" si="2"/>
+        <v>167.5389944128338</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>77</v>
       </c>
@@ -2444,20 +2442,20 @@
         <f>F19*AE19*DATOS!$D$6+'COST PER TASK'!G19*'COST PER TASK'!AE19*DATOS!$D$7+'COST PER TASK'!H19*'COST PER TASK'!AE19*DATOS!$D$8+'COST PER TASK'!I19*'COST PER TASK'!AE19*DATOS!$D$9+'COST PER TASK'!J19*'COST PER TASK'!AE19*DATOS!$D$10+'COST PER TASK'!K19*'COST PER TASK'!AE19*DATOS!$D$11+'COST PER TASK'!L19*'COST PER TASK'!AE19*DATOS!$D$12+'COST PER TASK'!M19*'COST PER TASK'!AE19*DATOS!$D$13+'COST PER TASK'!N19*'COST PER TASK'!AE19*DATOS!$D$14+'COST PER TASK'!O19*'COST PER TASK'!AE19*DATOS!$D$15</f>
         <v>4264</v>
       </c>
-      <c r="AI19" s="3" t="e">
+      <c r="AI19" s="3">
         <f>'COST PER TASK'!P19*'COST PER TASK'!AE19*DATOS!$D$16+'COST PER TASK'!Q19*'COST PER TASK'!AE19*DATOS!$D$17+'COST PER TASK'!R19*'COST PER TASK'!AE19*DATOS!$D$18+'COST PER TASK'!S19*'COST PER TASK'!AE19*DATOS!$D$19+'COST PER TASK'!T19*'COST PER TASK'!AE19*DATOS!$D$20+'COST PER TASK'!U19*'COST PER TASK'!AE19*DATOS!$D$21+'COST PER TASK'!V19*'COST PER TASK'!AE19*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="8">
+        <f t="shared" si="1"/>
+        <v>148584</v>
+      </c>
+      <c r="AL19" s="8">
+        <f t="shared" si="2"/>
+        <v>168.84545454545454</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -2499,22 +2497,22 @@
       </c>
       <c r="AH20" s="3">
         <f>F20*AE20*DATOS!$D$6+'COST PER TASK'!G20*'COST PER TASK'!AE20*DATOS!$D$7+'COST PER TASK'!H20*'COST PER TASK'!AE20*DATOS!$D$8+'COST PER TASK'!I20*'COST PER TASK'!AE20*DATOS!$D$9+'COST PER TASK'!J20*'COST PER TASK'!AE20*DATOS!$D$10+'COST PER TASK'!K20*'COST PER TASK'!AE20*DATOS!$D$11+'COST PER TASK'!L20*'COST PER TASK'!AE20*DATOS!$D$12+'COST PER TASK'!M20*'COST PER TASK'!AE20*DATOS!$D$13+'COST PER TASK'!N20*'COST PER TASK'!AE20*DATOS!$D$14+'COST PER TASK'!O20*'COST PER TASK'!AE20*DATOS!$D$15</f>
-        <v>88.935056437101267</v>
-      </c>
-      <c r="AI20" s="3" t="e">
+        <v>106.16983238501395</v>
+      </c>
+      <c r="AI20" s="3">
         <f>'COST PER TASK'!P20*'COST PER TASK'!AE20*DATOS!$D$16+'COST PER TASK'!Q20*'COST PER TASK'!AE20*DATOS!$D$17+'COST PER TASK'!R20*'COST PER TASK'!AE20*DATOS!$D$18+'COST PER TASK'!S20*'COST PER TASK'!AE20*DATOS!$D$19+'COST PER TASK'!T20*'COST PER TASK'!AE20*DATOS!$D$20+'COST PER TASK'!U20*'COST PER TASK'!AE20*DATOS!$D$21+'COST PER TASK'!V20*'COST PER TASK'!AE20*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK20" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL20" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="8">
+        <f t="shared" si="1"/>
+        <v>4090.1698323850142</v>
+      </c>
+      <c r="AL20" s="8">
+        <f t="shared" si="2"/>
+        <v>136.33899441283381</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>79</v>
       </c>
@@ -2553,22 +2551,22 @@
       </c>
       <c r="AH21" s="3">
         <f>F21*AE21*DATOS!$D$6+'COST PER TASK'!G21*'COST PER TASK'!AE21*DATOS!$D$7+'COST PER TASK'!H21*'COST PER TASK'!AE21*DATOS!$D$8+'COST PER TASK'!I21*'COST PER TASK'!AE21*DATOS!$D$9+'COST PER TASK'!J21*'COST PER TASK'!AE21*DATOS!$D$10+'COST PER TASK'!K21*'COST PER TASK'!AE21*DATOS!$D$11+'COST PER TASK'!L21*'COST PER TASK'!AE21*DATOS!$D$12+'COST PER TASK'!M21*'COST PER TASK'!AE21*DATOS!$D$13+'COST PER TASK'!N21*'COST PER TASK'!AE21*DATOS!$D$14+'COST PER TASK'!O21*'COST PER TASK'!AE21*DATOS!$D$15</f>
-        <v>74.112547030917725</v>
-      </c>
-      <c r="AI21" s="3" t="e">
+        <v>88.474860320844954</v>
+      </c>
+      <c r="AI21" s="3">
         <f>'COST PER TASK'!P21*'COST PER TASK'!AE21*DATOS!$D$16+'COST PER TASK'!Q21*'COST PER TASK'!AE21*DATOS!$D$17+'COST PER TASK'!R21*'COST PER TASK'!AE21*DATOS!$D$18+'COST PER TASK'!S21*'COST PER TASK'!AE21*DATOS!$D$19+'COST PER TASK'!T21*'COST PER TASK'!AE21*DATOS!$D$20+'COST PER TASK'!U21*'COST PER TASK'!AE21*DATOS!$D$21+'COST PER TASK'!V21*'COST PER TASK'!AE21*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK21" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL21" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="8">
+        <f t="shared" si="1"/>
+        <v>3888.474860320845</v>
+      </c>
+      <c r="AL21" s="8">
+        <f t="shared" si="2"/>
+        <v>155.5389944128338</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>80</v>
       </c>
@@ -2610,22 +2608,22 @@
       </c>
       <c r="AH22" s="3">
         <f>F22*AE22*DATOS!$D$6+'COST PER TASK'!G22*'COST PER TASK'!AE22*DATOS!$D$7+'COST PER TASK'!H22*'COST PER TASK'!AE22*DATOS!$D$8+'COST PER TASK'!I22*'COST PER TASK'!AE22*DATOS!$D$9+'COST PER TASK'!J22*'COST PER TASK'!AE22*DATOS!$D$10+'COST PER TASK'!K22*'COST PER TASK'!AE22*DATOS!$D$11+'COST PER TASK'!L22*'COST PER TASK'!AE22*DATOS!$D$12+'COST PER TASK'!M22*'COST PER TASK'!AE22*DATOS!$D$13+'COST PER TASK'!N22*'COST PER TASK'!AE22*DATOS!$D$14+'COST PER TASK'!O22*'COST PER TASK'!AE22*DATOS!$D$15</f>
-        <v>74.112547030917725</v>
-      </c>
-      <c r="AI22" s="3" t="e">
+        <v>88.474860320844954</v>
+      </c>
+      <c r="AI22" s="3">
         <f>'COST PER TASK'!P22*'COST PER TASK'!AE22*DATOS!$D$16+'COST PER TASK'!Q22*'COST PER TASK'!AE22*DATOS!$D$17+'COST PER TASK'!R22*'COST PER TASK'!AE22*DATOS!$D$18+'COST PER TASK'!S22*'COST PER TASK'!AE22*DATOS!$D$19+'COST PER TASK'!T22*'COST PER TASK'!AE22*DATOS!$D$20+'COST PER TASK'!U22*'COST PER TASK'!AE22*DATOS!$D$21+'COST PER TASK'!V22*'COST PER TASK'!AE22*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK22" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL22" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="8">
+        <f t="shared" si="1"/>
+        <v>3408.474860320845</v>
+      </c>
+      <c r="AL22" s="8">
+        <f t="shared" si="2"/>
+        <v>136.33899441283381</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>81</v>
       </c>
@@ -2664,22 +2662,22 @@
       </c>
       <c r="AH23" s="3">
         <f>F23*AE23*DATOS!$D$6+'COST PER TASK'!G23*'COST PER TASK'!AE23*DATOS!$D$7+'COST PER TASK'!H23*'COST PER TASK'!AE23*DATOS!$D$8+'COST PER TASK'!I23*'COST PER TASK'!AE23*DATOS!$D$9+'COST PER TASK'!J23*'COST PER TASK'!AE23*DATOS!$D$10+'COST PER TASK'!K23*'COST PER TASK'!AE23*DATOS!$D$11+'COST PER TASK'!L23*'COST PER TASK'!AE23*DATOS!$D$12+'COST PER TASK'!M23*'COST PER TASK'!AE23*DATOS!$D$13+'COST PER TASK'!N23*'COST PER TASK'!AE23*DATOS!$D$14+'COST PER TASK'!O23*'COST PER TASK'!AE23*DATOS!$D$15</f>
-        <v>88.935056437101267</v>
-      </c>
-      <c r="AI23" s="3" t="e">
+        <v>106.16983238501395</v>
+      </c>
+      <c r="AI23" s="3">
         <f>'COST PER TASK'!P23*'COST PER TASK'!AE23*DATOS!$D$16+'COST PER TASK'!Q23*'COST PER TASK'!AE23*DATOS!$D$17+'COST PER TASK'!R23*'COST PER TASK'!AE23*DATOS!$D$18+'COST PER TASK'!S23*'COST PER TASK'!AE23*DATOS!$D$19+'COST PER TASK'!T23*'COST PER TASK'!AE23*DATOS!$D$20+'COST PER TASK'!U23*'COST PER TASK'!AE23*DATOS!$D$21+'COST PER TASK'!V23*'COST PER TASK'!AE23*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK23" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL23" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="8">
+        <f t="shared" si="1"/>
+        <v>4666.1698323850142</v>
+      </c>
+      <c r="AL23" s="8">
+        <f t="shared" si="2"/>
+        <v>155.5389944128338</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -2721,22 +2719,22 @@
       </c>
       <c r="AH24" s="3">
         <f>F24*AE24*DATOS!$D$6+'COST PER TASK'!G24*'COST PER TASK'!AE24*DATOS!$D$7+'COST PER TASK'!H24*'COST PER TASK'!AE24*DATOS!$D$8+'COST PER TASK'!I24*'COST PER TASK'!AE24*DATOS!$D$9+'COST PER TASK'!J24*'COST PER TASK'!AE24*DATOS!$D$10+'COST PER TASK'!K24*'COST PER TASK'!AE24*DATOS!$D$11+'COST PER TASK'!L24*'COST PER TASK'!AE24*DATOS!$D$12+'COST PER TASK'!M24*'COST PER TASK'!AE24*DATOS!$D$13+'COST PER TASK'!N24*'COST PER TASK'!AE24*DATOS!$D$14+'COST PER TASK'!O24*'COST PER TASK'!AE24*DATOS!$D$15</f>
-        <v>59.290037624734175</v>
-      </c>
-      <c r="AI24" s="3" t="e">
+        <v>70.77988825667596</v>
+      </c>
+      <c r="AI24" s="3">
         <f>'COST PER TASK'!P24*'COST PER TASK'!AE24*DATOS!$D$16+'COST PER TASK'!Q24*'COST PER TASK'!AE24*DATOS!$D$17+'COST PER TASK'!R24*'COST PER TASK'!AE24*DATOS!$D$18+'COST PER TASK'!S24*'COST PER TASK'!AE24*DATOS!$D$19+'COST PER TASK'!T24*'COST PER TASK'!AE24*DATOS!$D$20+'COST PER TASK'!U24*'COST PER TASK'!AE24*DATOS!$D$21+'COST PER TASK'!V24*'COST PER TASK'!AE24*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK24" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL24" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="8">
+        <f t="shared" si="1"/>
+        <v>2726.7798882566758</v>
+      </c>
+      <c r="AL24" s="8">
+        <f t="shared" si="2"/>
+        <v>136.33899441283378</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>83</v>
       </c>
@@ -2778,22 +2776,22 @@
       </c>
       <c r="AH25" s="3">
         <f>F25*AE25*DATOS!$D$6+'COST PER TASK'!G25*'COST PER TASK'!AE25*DATOS!$D$7+'COST PER TASK'!H25*'COST PER TASK'!AE25*DATOS!$D$8+'COST PER TASK'!I25*'COST PER TASK'!AE25*DATOS!$D$9+'COST PER TASK'!J25*'COST PER TASK'!AE25*DATOS!$D$10+'COST PER TASK'!K25*'COST PER TASK'!AE25*DATOS!$D$11+'COST PER TASK'!L25*'COST PER TASK'!AE25*DATOS!$D$12+'COST PER TASK'!M25*'COST PER TASK'!AE25*DATOS!$D$13+'COST PER TASK'!N25*'COST PER TASK'!AE25*DATOS!$D$14+'COST PER TASK'!O25*'COST PER TASK'!AE25*DATOS!$D$15</f>
-        <v>59.290037624734175</v>
-      </c>
-      <c r="AI25" s="3" t="e">
+        <v>70.77988825667596</v>
+      </c>
+      <c r="AI25" s="3">
         <f>'COST PER TASK'!P25*'COST PER TASK'!AE25*DATOS!$D$16+'COST PER TASK'!Q25*'COST PER TASK'!AE25*DATOS!$D$17+'COST PER TASK'!R25*'COST PER TASK'!AE25*DATOS!$D$18+'COST PER TASK'!S25*'COST PER TASK'!AE25*DATOS!$D$19+'COST PER TASK'!T25*'COST PER TASK'!AE25*DATOS!$D$20+'COST PER TASK'!U25*'COST PER TASK'!AE25*DATOS!$D$21+'COST PER TASK'!V25*'COST PER TASK'!AE25*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK25" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL25" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="8">
+        <f t="shared" si="1"/>
+        <v>2726.7798882566758</v>
+      </c>
+      <c r="AL25" s="8">
+        <f t="shared" si="2"/>
+        <v>136.33899441283378</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -2835,22 +2833,22 @@
       </c>
       <c r="AH26" s="3">
         <f>F26*AE26*DATOS!$D$6+'COST PER TASK'!G26*'COST PER TASK'!AE26*DATOS!$D$7+'COST PER TASK'!H26*'COST PER TASK'!AE26*DATOS!$D$8+'COST PER TASK'!I26*'COST PER TASK'!AE26*DATOS!$D$9+'COST PER TASK'!J26*'COST PER TASK'!AE26*DATOS!$D$10+'COST PER TASK'!K26*'COST PER TASK'!AE26*DATOS!$D$11+'COST PER TASK'!L26*'COST PER TASK'!AE26*DATOS!$D$12+'COST PER TASK'!M26*'COST PER TASK'!AE26*DATOS!$D$13+'COST PER TASK'!N26*'COST PER TASK'!AE26*DATOS!$D$14+'COST PER TASK'!O26*'COST PER TASK'!AE26*DATOS!$D$15</f>
-        <v>59.290037624734175</v>
-      </c>
-      <c r="AI26" s="3" t="e">
+        <v>70.77988825667596</v>
+      </c>
+      <c r="AI26" s="3">
         <f>'COST PER TASK'!P26*'COST PER TASK'!AE26*DATOS!$D$16+'COST PER TASK'!Q26*'COST PER TASK'!AE26*DATOS!$D$17+'COST PER TASK'!R26*'COST PER TASK'!AE26*DATOS!$D$18+'COST PER TASK'!S26*'COST PER TASK'!AE26*DATOS!$D$19+'COST PER TASK'!T26*'COST PER TASK'!AE26*DATOS!$D$20+'COST PER TASK'!U26*'COST PER TASK'!AE26*DATOS!$D$21+'COST PER TASK'!V26*'COST PER TASK'!AE26*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK26" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL26" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="8">
+        <f t="shared" si="1"/>
+        <v>2726.7798882566758</v>
+      </c>
+      <c r="AL26" s="8">
+        <f t="shared" si="2"/>
+        <v>136.33899441283378</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>85</v>
       </c>
@@ -2889,22 +2887,22 @@
       </c>
       <c r="AH27" s="3">
         <f>F27*AE27*DATOS!$D$6+'COST PER TASK'!G27*'COST PER TASK'!AE27*DATOS!$D$7+'COST PER TASK'!H27*'COST PER TASK'!AE27*DATOS!$D$8+'COST PER TASK'!I27*'COST PER TASK'!AE27*DATOS!$D$9+'COST PER TASK'!J27*'COST PER TASK'!AE27*DATOS!$D$10+'COST PER TASK'!K27*'COST PER TASK'!AE27*DATOS!$D$11+'COST PER TASK'!L27*'COST PER TASK'!AE27*DATOS!$D$12+'COST PER TASK'!M27*'COST PER TASK'!AE27*DATOS!$D$13+'COST PER TASK'!N27*'COST PER TASK'!AE27*DATOS!$D$14+'COST PER TASK'!O27*'COST PER TASK'!AE27*DATOS!$D$15</f>
-        <v>118.58007524946835</v>
-      </c>
-      <c r="AI27" s="3" t="e">
+        <v>141.55977651335192</v>
+      </c>
+      <c r="AI27" s="3">
         <f>'COST PER TASK'!P27*'COST PER TASK'!AE27*DATOS!$D$16+'COST PER TASK'!Q27*'COST PER TASK'!AE27*DATOS!$D$17+'COST PER TASK'!R27*'COST PER TASK'!AE27*DATOS!$D$18+'COST PER TASK'!S27*'COST PER TASK'!AE27*DATOS!$D$19+'COST PER TASK'!T27*'COST PER TASK'!AE27*DATOS!$D$20+'COST PER TASK'!U27*'COST PER TASK'!AE27*DATOS!$D$21+'COST PER TASK'!V27*'COST PER TASK'!AE27*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK27" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL27" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="8">
+        <f t="shared" si="1"/>
+        <v>6221.5597765133516</v>
+      </c>
+      <c r="AL27" s="8">
+        <f t="shared" si="2"/>
+        <v>155.5389944128338</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -2946,22 +2944,22 @@
       </c>
       <c r="AH28" s="3">
         <f>F28*AE28*DATOS!$D$6+'COST PER TASK'!G28*'COST PER TASK'!AE28*DATOS!$D$7+'COST PER TASK'!H28*'COST PER TASK'!AE28*DATOS!$D$8+'COST PER TASK'!I28*'COST PER TASK'!AE28*DATOS!$D$9+'COST PER TASK'!J28*'COST PER TASK'!AE28*DATOS!$D$10+'COST PER TASK'!K28*'COST PER TASK'!AE28*DATOS!$D$11+'COST PER TASK'!L28*'COST PER TASK'!AE28*DATOS!$D$12+'COST PER TASK'!M28*'COST PER TASK'!AE28*DATOS!$D$13+'COST PER TASK'!N28*'COST PER TASK'!AE28*DATOS!$D$14+'COST PER TASK'!O28*'COST PER TASK'!AE28*DATOS!$D$15</f>
-        <v>403.76651711125857</v>
-      </c>
-      <c r="AI28" s="3" t="e">
+        <v>421.00129305917125</v>
+      </c>
+      <c r="AI28" s="3">
         <f>'COST PER TASK'!P28*'COST PER TASK'!AE28*DATOS!$D$16+'COST PER TASK'!Q28*'COST PER TASK'!AE28*DATOS!$D$17+'COST PER TASK'!R28*'COST PER TASK'!AE28*DATOS!$D$18+'COST PER TASK'!S28*'COST PER TASK'!AE28*DATOS!$D$19+'COST PER TASK'!T28*'COST PER TASK'!AE28*DATOS!$D$20+'COST PER TASK'!U28*'COST PER TASK'!AE28*DATOS!$D$21+'COST PER TASK'!V28*'COST PER TASK'!AE28*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK28" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL28" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="8">
+        <f t="shared" si="1"/>
+        <v>4801.0012930591711</v>
+      </c>
+      <c r="AL28" s="8">
+        <f t="shared" si="2"/>
+        <v>160.03337643530571</v>
+      </c>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>87</v>
       </c>
@@ -3006,22 +3004,22 @@
       </c>
       <c r="AH29" s="3">
         <f>F29*AE29*DATOS!$D$6+'COST PER TASK'!G29*'COST PER TASK'!AE29*DATOS!$D$7+'COST PER TASK'!H29*'COST PER TASK'!AE29*DATOS!$D$8+'COST PER TASK'!I29*'COST PER TASK'!AE29*DATOS!$D$9+'COST PER TASK'!J29*'COST PER TASK'!AE29*DATOS!$D$10+'COST PER TASK'!K29*'COST PER TASK'!AE29*DATOS!$D$11+'COST PER TASK'!L29*'COST PER TASK'!AE29*DATOS!$D$12+'COST PER TASK'!M29*'COST PER TASK'!AE29*DATOS!$D$13+'COST PER TASK'!N29*'COST PER TASK'!AE29*DATOS!$D$14+'COST PER TASK'!O29*'COST PER TASK'!AE29*DATOS!$D$15</f>
-        <v>672.94419518543089</v>
-      </c>
-      <c r="AI29" s="3" t="e">
+        <v>701.66882176528543</v>
+      </c>
+      <c r="AI29" s="3">
         <f>'COST PER TASK'!P29*'COST PER TASK'!AE29*DATOS!$D$16+'COST PER TASK'!Q29*'COST PER TASK'!AE29*DATOS!$D$17+'COST PER TASK'!R29*'COST PER TASK'!AE29*DATOS!$D$18+'COST PER TASK'!S29*'COST PER TASK'!AE29*DATOS!$D$19+'COST PER TASK'!T29*'COST PER TASK'!AE29*DATOS!$D$20+'COST PER TASK'!U29*'COST PER TASK'!AE29*DATOS!$D$21+'COST PER TASK'!V29*'COST PER TASK'!AE29*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK29" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL29" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="8">
+        <f t="shared" si="1"/>
+        <v>7273.0973931938579</v>
+      </c>
+      <c r="AL29" s="8">
+        <f t="shared" si="2"/>
+        <v>145.46194786387716</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>88</v>
       </c>
@@ -3066,22 +3064,22 @@
       </c>
       <c r="AH30" s="3">
         <f>F30*AE30*DATOS!$D$6+'COST PER TASK'!G30*'COST PER TASK'!AE30*DATOS!$D$7+'COST PER TASK'!H30*'COST PER TASK'!AE30*DATOS!$D$8+'COST PER TASK'!I30*'COST PER TASK'!AE30*DATOS!$D$9+'COST PER TASK'!J30*'COST PER TASK'!AE30*DATOS!$D$10+'COST PER TASK'!K30*'COST PER TASK'!AE30*DATOS!$D$11+'COST PER TASK'!L30*'COST PER TASK'!AE30*DATOS!$D$12+'COST PER TASK'!M30*'COST PER TASK'!AE30*DATOS!$D$13+'COST PER TASK'!N30*'COST PER TASK'!AE30*DATOS!$D$14+'COST PER TASK'!O30*'COST PER TASK'!AE30*DATOS!$D$15</f>
-        <v>403.76651711125857</v>
-      </c>
-      <c r="AI30" s="3" t="e">
+        <v>421.00129305917125</v>
+      </c>
+      <c r="AI30" s="3">
         <f>'COST PER TASK'!P30*'COST PER TASK'!AE30*DATOS!$D$16+'COST PER TASK'!Q30*'COST PER TASK'!AE30*DATOS!$D$17+'COST PER TASK'!R30*'COST PER TASK'!AE30*DATOS!$D$18+'COST PER TASK'!S30*'COST PER TASK'!AE30*DATOS!$D$19+'COST PER TASK'!T30*'COST PER TASK'!AE30*DATOS!$D$20+'COST PER TASK'!U30*'COST PER TASK'!AE30*DATOS!$D$21+'COST PER TASK'!V30*'COST PER TASK'!AE30*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK30" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL30" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="8">
+        <f t="shared" si="1"/>
+        <v>4363.8584359163142</v>
+      </c>
+      <c r="AL30" s="8">
+        <f t="shared" si="2"/>
+        <v>145.46194786387713</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>89</v>
       </c>
@@ -3126,22 +3124,22 @@
       </c>
       <c r="AH31" s="3">
         <f>F31*AE31*DATOS!$D$6+'COST PER TASK'!G31*'COST PER TASK'!AE31*DATOS!$D$7+'COST PER TASK'!H31*'COST PER TASK'!AE31*DATOS!$D$8+'COST PER TASK'!I31*'COST PER TASK'!AE31*DATOS!$D$9+'COST PER TASK'!J31*'COST PER TASK'!AE31*DATOS!$D$10+'COST PER TASK'!K31*'COST PER TASK'!AE31*DATOS!$D$11+'COST PER TASK'!L31*'COST PER TASK'!AE31*DATOS!$D$12+'COST PER TASK'!M31*'COST PER TASK'!AE31*DATOS!$D$13+'COST PER TASK'!N31*'COST PER TASK'!AE31*DATOS!$D$14+'COST PER TASK'!O31*'COST PER TASK'!AE31*DATOS!$D$15</f>
-        <v>403.76651711125857</v>
-      </c>
-      <c r="AI31" s="3" t="e">
+        <v>421.00129305917125</v>
+      </c>
+      <c r="AI31" s="3">
         <f>'COST PER TASK'!P31*'COST PER TASK'!AE31*DATOS!$D$16+'COST PER TASK'!Q31*'COST PER TASK'!AE31*DATOS!$D$17+'COST PER TASK'!R31*'COST PER TASK'!AE31*DATOS!$D$18+'COST PER TASK'!S31*'COST PER TASK'!AE31*DATOS!$D$19+'COST PER TASK'!T31*'COST PER TASK'!AE31*DATOS!$D$20+'COST PER TASK'!U31*'COST PER TASK'!AE31*DATOS!$D$21+'COST PER TASK'!V31*'COST PER TASK'!AE31*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK31" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL31" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="8">
+        <f t="shared" si="1"/>
+        <v>4363.8584359163142</v>
+      </c>
+      <c r="AL31" s="8">
+        <f t="shared" si="2"/>
+        <v>145.46194786387713</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>90</v>
       </c>
@@ -3186,22 +3184,22 @@
       </c>
       <c r="AH32" s="3">
         <f>F32*AE32*DATOS!$D$6+'COST PER TASK'!G32*'COST PER TASK'!AE32*DATOS!$D$7+'COST PER TASK'!H32*'COST PER TASK'!AE32*DATOS!$D$8+'COST PER TASK'!I32*'COST PER TASK'!AE32*DATOS!$D$9+'COST PER TASK'!J32*'COST PER TASK'!AE32*DATOS!$D$10+'COST PER TASK'!K32*'COST PER TASK'!AE32*DATOS!$D$11+'COST PER TASK'!L32*'COST PER TASK'!AE32*DATOS!$D$12+'COST PER TASK'!M32*'COST PER TASK'!AE32*DATOS!$D$13+'COST PER TASK'!N32*'COST PER TASK'!AE32*DATOS!$D$14+'COST PER TASK'!O32*'COST PER TASK'!AE32*DATOS!$D$15</f>
-        <v>269.17767807417238</v>
-      </c>
-      <c r="AI32" s="3" t="e">
+        <v>280.66752870611418</v>
+      </c>
+      <c r="AI32" s="3">
         <f>'COST PER TASK'!P32*'COST PER TASK'!AE32*DATOS!$D$16+'COST PER TASK'!Q32*'COST PER TASK'!AE32*DATOS!$D$17+'COST PER TASK'!R32*'COST PER TASK'!AE32*DATOS!$D$18+'COST PER TASK'!S32*'COST PER TASK'!AE32*DATOS!$D$19+'COST PER TASK'!T32*'COST PER TASK'!AE32*DATOS!$D$20+'COST PER TASK'!U32*'COST PER TASK'!AE32*DATOS!$D$21+'COST PER TASK'!V32*'COST PER TASK'!AE32*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK32" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL32" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="8">
+        <f t="shared" si="1"/>
+        <v>2909.2389572775428</v>
+      </c>
+      <c r="AL32" s="8">
+        <f t="shared" si="2"/>
+        <v>145.46194786387713</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>91</v>
       </c>
@@ -3243,22 +3241,22 @@
       </c>
       <c r="AH33" s="3">
         <f>F33*AE33*DATOS!$D$6+'COST PER TASK'!G33*'COST PER TASK'!AE33*DATOS!$D$7+'COST PER TASK'!H33*'COST PER TASK'!AE33*DATOS!$D$8+'COST PER TASK'!I33*'COST PER TASK'!AE33*DATOS!$D$9+'COST PER TASK'!J33*'COST PER TASK'!AE33*DATOS!$D$10+'COST PER TASK'!K33*'COST PER TASK'!AE33*DATOS!$D$11+'COST PER TASK'!L33*'COST PER TASK'!AE33*DATOS!$D$12+'COST PER TASK'!M33*'COST PER TASK'!AE33*DATOS!$D$13+'COST PER TASK'!N33*'COST PER TASK'!AE33*DATOS!$D$14+'COST PER TASK'!O33*'COST PER TASK'!AE33*DATOS!$D$15</f>
-        <v>134.58883903708619</v>
-      </c>
-      <c r="AI33" s="3" t="e">
+        <v>140.33376435305709</v>
+      </c>
+      <c r="AI33" s="3">
         <f>'COST PER TASK'!P33*'COST PER TASK'!AE33*DATOS!$D$16+'COST PER TASK'!Q33*'COST PER TASK'!AE33*DATOS!$D$17+'COST PER TASK'!R33*'COST PER TASK'!AE33*DATOS!$D$18+'COST PER TASK'!S33*'COST PER TASK'!AE33*DATOS!$D$19+'COST PER TASK'!T33*'COST PER TASK'!AE33*DATOS!$D$20+'COST PER TASK'!U33*'COST PER TASK'!AE33*DATOS!$D$21+'COST PER TASK'!V33*'COST PER TASK'!AE33*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK33" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL33" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="8">
+        <f t="shared" si="1"/>
+        <v>1660.3337643530572</v>
+      </c>
+      <c r="AL33" s="8">
+        <f t="shared" si="2"/>
+        <v>166.03337643530571</v>
+      </c>
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>92</v>
       </c>
@@ -3303,22 +3301,22 @@
       </c>
       <c r="AH34" s="3">
         <f>F34*AE34*DATOS!$D$6+'COST PER TASK'!G34*'COST PER TASK'!AE34*DATOS!$D$7+'COST PER TASK'!H34*'COST PER TASK'!AE34*DATOS!$D$8+'COST PER TASK'!I34*'COST PER TASK'!AE34*DATOS!$D$9+'COST PER TASK'!J34*'COST PER TASK'!AE34*DATOS!$D$10+'COST PER TASK'!K34*'COST PER TASK'!AE34*DATOS!$D$11+'COST PER TASK'!L34*'COST PER TASK'!AE34*DATOS!$D$12+'COST PER TASK'!M34*'COST PER TASK'!AE34*DATOS!$D$13+'COST PER TASK'!N34*'COST PER TASK'!AE34*DATOS!$D$14+'COST PER TASK'!O34*'COST PER TASK'!AE34*DATOS!$D$15</f>
-        <v>59.290037624734175</v>
-      </c>
-      <c r="AI34" s="3" t="e">
+        <v>70.77988825667596</v>
+      </c>
+      <c r="AI34" s="3">
         <f>'COST PER TASK'!P34*'COST PER TASK'!AE34*DATOS!$D$16+'COST PER TASK'!Q34*'COST PER TASK'!AE34*DATOS!$D$17+'COST PER TASK'!R34*'COST PER TASK'!AE34*DATOS!$D$18+'COST PER TASK'!S34*'COST PER TASK'!AE34*DATOS!$D$19+'COST PER TASK'!T34*'COST PER TASK'!AE34*DATOS!$D$20+'COST PER TASK'!U34*'COST PER TASK'!AE34*DATOS!$D$21+'COST PER TASK'!V34*'COST PER TASK'!AE34*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK34" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL34" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="8">
+        <f t="shared" si="1"/>
+        <v>2699.3513168281042</v>
+      </c>
+      <c r="AL34" s="8">
+        <f t="shared" si="2"/>
+        <v>134.96756584140522</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>93</v>
       </c>
@@ -3363,22 +3361,22 @@
       </c>
       <c r="AH35" s="3">
         <f>F35*AE35*DATOS!$D$6+'COST PER TASK'!G35*'COST PER TASK'!AE35*DATOS!$D$7+'COST PER TASK'!H35*'COST PER TASK'!AE35*DATOS!$D$8+'COST PER TASK'!I35*'COST PER TASK'!AE35*DATOS!$D$9+'COST PER TASK'!J35*'COST PER TASK'!AE35*DATOS!$D$10+'COST PER TASK'!K35*'COST PER TASK'!AE35*DATOS!$D$11+'COST PER TASK'!L35*'COST PER TASK'!AE35*DATOS!$D$12+'COST PER TASK'!M35*'COST PER TASK'!AE35*DATOS!$D$13+'COST PER TASK'!N35*'COST PER TASK'!AE35*DATOS!$D$14+'COST PER TASK'!O35*'COST PER TASK'!AE35*DATOS!$D$15</f>
-        <v>118.58007524946835</v>
-      </c>
-      <c r="AI35" s="3" t="e">
+        <v>141.55977651335192</v>
+      </c>
+      <c r="AI35" s="3">
         <f>'COST PER TASK'!P35*'COST PER TASK'!AE35*DATOS!$D$16+'COST PER TASK'!Q35*'COST PER TASK'!AE35*DATOS!$D$17+'COST PER TASK'!R35*'COST PER TASK'!AE35*DATOS!$D$18+'COST PER TASK'!S35*'COST PER TASK'!AE35*DATOS!$D$19+'COST PER TASK'!T35*'COST PER TASK'!AE35*DATOS!$D$20+'COST PER TASK'!U35*'COST PER TASK'!AE35*DATOS!$D$21+'COST PER TASK'!V35*'COST PER TASK'!AE35*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK35" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL35" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="8">
+        <f t="shared" si="1"/>
+        <v>5398.7026336562085</v>
+      </c>
+      <c r="AL35" s="8">
+        <f t="shared" si="2"/>
+        <v>134.96756584140522</v>
+      </c>
+    </row>
+    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>94</v>
       </c>
@@ -3423,22 +3421,22 @@
       </c>
       <c r="AH36" s="3">
         <f>F36*AE36*DATOS!$D$6+'COST PER TASK'!G36*'COST PER TASK'!AE36*DATOS!$D$7+'COST PER TASK'!H36*'COST PER TASK'!AE36*DATOS!$D$8+'COST PER TASK'!I36*'COST PER TASK'!AE36*DATOS!$D$9+'COST PER TASK'!J36*'COST PER TASK'!AE36*DATOS!$D$10+'COST PER TASK'!K36*'COST PER TASK'!AE36*DATOS!$D$11+'COST PER TASK'!L36*'COST PER TASK'!AE36*DATOS!$D$12+'COST PER TASK'!M36*'COST PER TASK'!AE36*DATOS!$D$13+'COST PER TASK'!N36*'COST PER TASK'!AE36*DATOS!$D$14+'COST PER TASK'!O36*'COST PER TASK'!AE36*DATOS!$D$15</f>
-        <v>59.290037624734175</v>
-      </c>
-      <c r="AI36" s="3" t="e">
+        <v>70.77988825667596</v>
+      </c>
+      <c r="AI36" s="3">
         <f>'COST PER TASK'!P36*'COST PER TASK'!AE36*DATOS!$D$16+'COST PER TASK'!Q36*'COST PER TASK'!AE36*DATOS!$D$17+'COST PER TASK'!R36*'COST PER TASK'!AE36*DATOS!$D$18+'COST PER TASK'!S36*'COST PER TASK'!AE36*DATOS!$D$19+'COST PER TASK'!T36*'COST PER TASK'!AE36*DATOS!$D$20+'COST PER TASK'!U36*'COST PER TASK'!AE36*DATOS!$D$21+'COST PER TASK'!V36*'COST PER TASK'!AE36*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK36" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL36" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="8">
+        <f t="shared" si="1"/>
+        <v>2699.3513168281042</v>
+      </c>
+      <c r="AL36" s="8">
+        <f t="shared" si="2"/>
+        <v>134.96756584140522</v>
+      </c>
+    </row>
+    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>95</v>
       </c>
@@ -3483,22 +3481,22 @@
       </c>
       <c r="AH37" s="3">
         <f>F37*AE37*DATOS!$D$6+'COST PER TASK'!G37*'COST PER TASK'!AE37*DATOS!$D$7+'COST PER TASK'!H37*'COST PER TASK'!AE37*DATOS!$D$8+'COST PER TASK'!I37*'COST PER TASK'!AE37*DATOS!$D$9+'COST PER TASK'!J37*'COST PER TASK'!AE37*DATOS!$D$10+'COST PER TASK'!K37*'COST PER TASK'!AE37*DATOS!$D$11+'COST PER TASK'!L37*'COST PER TASK'!AE37*DATOS!$D$12+'COST PER TASK'!M37*'COST PER TASK'!AE37*DATOS!$D$13+'COST PER TASK'!N37*'COST PER TASK'!AE37*DATOS!$D$14+'COST PER TASK'!O37*'COST PER TASK'!AE37*DATOS!$D$15</f>
-        <v>2691.7767807417235</v>
-      </c>
-      <c r="AI37" s="3" t="e">
+        <v>2806.6752870611417</v>
+      </c>
+      <c r="AI37" s="3">
         <f>'COST PER TASK'!P37*'COST PER TASK'!AE37*DATOS!$D$16+'COST PER TASK'!Q37*'COST PER TASK'!AE37*DATOS!$D$17+'COST PER TASK'!R37*'COST PER TASK'!AE37*DATOS!$D$18+'COST PER TASK'!S37*'COST PER TASK'!AE37*DATOS!$D$19+'COST PER TASK'!T37*'COST PER TASK'!AE37*DATOS!$D$20+'COST PER TASK'!U37*'COST PER TASK'!AE37*DATOS!$D$21+'COST PER TASK'!V37*'COST PER TASK'!AE37*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK37" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL37" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="8">
+        <f t="shared" si="1"/>
+        <v>29092.389572775432</v>
+      </c>
+      <c r="AL37" s="8">
+        <f t="shared" si="2"/>
+        <v>145.46194786387716</v>
+      </c>
+    </row>
+    <row r="38" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>96</v>
       </c>
@@ -3543,22 +3541,22 @@
       </c>
       <c r="AH38" s="3">
         <f>F38*AE38*DATOS!$D$6+'COST PER TASK'!G38*'COST PER TASK'!AE38*DATOS!$D$7+'COST PER TASK'!H38*'COST PER TASK'!AE38*DATOS!$D$8+'COST PER TASK'!I38*'COST PER TASK'!AE38*DATOS!$D$9+'COST PER TASK'!J38*'COST PER TASK'!AE38*DATOS!$D$10+'COST PER TASK'!K38*'COST PER TASK'!AE38*DATOS!$D$11+'COST PER TASK'!L38*'COST PER TASK'!AE38*DATOS!$D$12+'COST PER TASK'!M38*'COST PER TASK'!AE38*DATOS!$D$13+'COST PER TASK'!N38*'COST PER TASK'!AE38*DATOS!$D$14+'COST PER TASK'!O38*'COST PER TASK'!AE38*DATOS!$D$15</f>
-        <v>807.53303422251713</v>
-      </c>
-      <c r="AI38" s="3" t="e">
+        <v>842.00258611834249</v>
+      </c>
+      <c r="AI38" s="3">
         <f>'COST PER TASK'!P38*'COST PER TASK'!AE38*DATOS!$D$16+'COST PER TASK'!Q38*'COST PER TASK'!AE38*DATOS!$D$17+'COST PER TASK'!R38*'COST PER TASK'!AE38*DATOS!$D$18+'COST PER TASK'!S38*'COST PER TASK'!AE38*DATOS!$D$19+'COST PER TASK'!T38*'COST PER TASK'!AE38*DATOS!$D$20+'COST PER TASK'!U38*'COST PER TASK'!AE38*DATOS!$D$21+'COST PER TASK'!V38*'COST PER TASK'!AE38*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK38" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL38" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="8">
+        <f t="shared" si="1"/>
+        <v>8727.7168718326284</v>
+      </c>
+      <c r="AL38" s="8">
+        <f t="shared" si="2"/>
+        <v>145.46194786387713</v>
+      </c>
+    </row>
+    <row r="39" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>97</v>
       </c>
@@ -3603,22 +3601,22 @@
       </c>
       <c r="AH39" s="3">
         <f>F39*AE39*DATOS!$D$6+'COST PER TASK'!G39*'COST PER TASK'!AE39*DATOS!$D$7+'COST PER TASK'!H39*'COST PER TASK'!AE39*DATOS!$D$8+'COST PER TASK'!I39*'COST PER TASK'!AE39*DATOS!$D$9+'COST PER TASK'!J39*'COST PER TASK'!AE39*DATOS!$D$10+'COST PER TASK'!K39*'COST PER TASK'!AE39*DATOS!$D$11+'COST PER TASK'!L39*'COST PER TASK'!AE39*DATOS!$D$12+'COST PER TASK'!M39*'COST PER TASK'!AE39*DATOS!$D$13+'COST PER TASK'!N39*'COST PER TASK'!AE39*DATOS!$D$14+'COST PER TASK'!O39*'COST PER TASK'!AE39*DATOS!$D$15</f>
-        <v>2691.7767807417235</v>
-      </c>
-      <c r="AI39" s="3" t="e">
+        <v>2806.6752870611417</v>
+      </c>
+      <c r="AI39" s="3">
         <f>'COST PER TASK'!P39*'COST PER TASK'!AE39*DATOS!$D$16+'COST PER TASK'!Q39*'COST PER TASK'!AE39*DATOS!$D$17+'COST PER TASK'!R39*'COST PER TASK'!AE39*DATOS!$D$18+'COST PER TASK'!S39*'COST PER TASK'!AE39*DATOS!$D$19+'COST PER TASK'!T39*'COST PER TASK'!AE39*DATOS!$D$20+'COST PER TASK'!U39*'COST PER TASK'!AE39*DATOS!$D$21+'COST PER TASK'!V39*'COST PER TASK'!AE39*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK39" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL39" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="8">
+        <f t="shared" si="1"/>
+        <v>29092.389572775432</v>
+      </c>
+      <c r="AL39" s="8">
+        <f t="shared" si="2"/>
+        <v>145.46194786387716</v>
+      </c>
+    </row>
+    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>98</v>
       </c>
@@ -3663,22 +3661,22 @@
       </c>
       <c r="AH40" s="3">
         <f>F40*AE40*DATOS!$D$6+'COST PER TASK'!G40*'COST PER TASK'!AE40*DATOS!$D$7+'COST PER TASK'!H40*'COST PER TASK'!AE40*DATOS!$D$8+'COST PER TASK'!I40*'COST PER TASK'!AE40*DATOS!$D$9+'COST PER TASK'!J40*'COST PER TASK'!AE40*DATOS!$D$10+'COST PER TASK'!K40*'COST PER TASK'!AE40*DATOS!$D$11+'COST PER TASK'!L40*'COST PER TASK'!AE40*DATOS!$D$12+'COST PER TASK'!M40*'COST PER TASK'!AE40*DATOS!$D$13+'COST PER TASK'!N40*'COST PER TASK'!AE40*DATOS!$D$14+'COST PER TASK'!O40*'COST PER TASK'!AE40*DATOS!$D$15</f>
-        <v>2691.7767807417235</v>
-      </c>
-      <c r="AI40" s="3" t="e">
+        <v>2806.6752870611417</v>
+      </c>
+      <c r="AI40" s="3">
         <f>'COST PER TASK'!P40*'COST PER TASK'!AE40*DATOS!$D$16+'COST PER TASK'!Q40*'COST PER TASK'!AE40*DATOS!$D$17+'COST PER TASK'!R40*'COST PER TASK'!AE40*DATOS!$D$18+'COST PER TASK'!S40*'COST PER TASK'!AE40*DATOS!$D$19+'COST PER TASK'!T40*'COST PER TASK'!AE40*DATOS!$D$20+'COST PER TASK'!U40*'COST PER TASK'!AE40*DATOS!$D$21+'COST PER TASK'!V40*'COST PER TASK'!AE40*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK40" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL40" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="8">
+        <f t="shared" si="1"/>
+        <v>29092.389572775432</v>
+      </c>
+      <c r="AL40" s="8">
+        <f t="shared" si="2"/>
+        <v>145.46194786387716</v>
+      </c>
+    </row>
+    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>99</v>
       </c>
@@ -3723,22 +3721,22 @@
       </c>
       <c r="AH41" s="3">
         <f>F41*AE41*DATOS!$D$6+'COST PER TASK'!G41*'COST PER TASK'!AE41*DATOS!$D$7+'COST PER TASK'!H41*'COST PER TASK'!AE41*DATOS!$D$8+'COST PER TASK'!I41*'COST PER TASK'!AE41*DATOS!$D$9+'COST PER TASK'!J41*'COST PER TASK'!AE41*DATOS!$D$10+'COST PER TASK'!K41*'COST PER TASK'!AE41*DATOS!$D$11+'COST PER TASK'!L41*'COST PER TASK'!AE41*DATOS!$D$12+'COST PER TASK'!M41*'COST PER TASK'!AE41*DATOS!$D$13+'COST PER TASK'!N41*'COST PER TASK'!AE41*DATOS!$D$14+'COST PER TASK'!O41*'COST PER TASK'!AE41*DATOS!$D$15</f>
-        <v>807.53303422251713</v>
-      </c>
-      <c r="AI41" s="3" t="e">
+        <v>842.00258611834249</v>
+      </c>
+      <c r="AI41" s="3">
         <f>'COST PER TASK'!P41*'COST PER TASK'!AE41*DATOS!$D$16+'COST PER TASK'!Q41*'COST PER TASK'!AE41*DATOS!$D$17+'COST PER TASK'!R41*'COST PER TASK'!AE41*DATOS!$D$18+'COST PER TASK'!S41*'COST PER TASK'!AE41*DATOS!$D$19+'COST PER TASK'!T41*'COST PER TASK'!AE41*DATOS!$D$20+'COST PER TASK'!U41*'COST PER TASK'!AE41*DATOS!$D$21+'COST PER TASK'!V41*'COST PER TASK'!AE41*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK41" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL41" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="8">
+        <f t="shared" si="1"/>
+        <v>8727.7168718326284</v>
+      </c>
+      <c r="AL41" s="8">
+        <f t="shared" si="2"/>
+        <v>145.46194786387713</v>
+      </c>
+    </row>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>100</v>
       </c>
@@ -3783,22 +3781,22 @@
       </c>
       <c r="AH42" s="3">
         <f>F42*AE42*DATOS!$D$6+'COST PER TASK'!G42*'COST PER TASK'!AE42*DATOS!$D$7+'COST PER TASK'!H42*'COST PER TASK'!AE42*DATOS!$D$8+'COST PER TASK'!I42*'COST PER TASK'!AE42*DATOS!$D$9+'COST PER TASK'!J42*'COST PER TASK'!AE42*DATOS!$D$10+'COST PER TASK'!K42*'COST PER TASK'!AE42*DATOS!$D$11+'COST PER TASK'!L42*'COST PER TASK'!AE42*DATOS!$D$12+'COST PER TASK'!M42*'COST PER TASK'!AE42*DATOS!$D$13+'COST PER TASK'!N42*'COST PER TASK'!AE42*DATOS!$D$14+'COST PER TASK'!O42*'COST PER TASK'!AE42*DATOS!$D$15</f>
-        <v>296.4501881236709</v>
-      </c>
-      <c r="AI42" s="3" t="e">
+        <v>353.89944128337982</v>
+      </c>
+      <c r="AI42" s="3">
         <f>'COST PER TASK'!P42*'COST PER TASK'!AE42*DATOS!$D$16+'COST PER TASK'!Q42*'COST PER TASK'!AE42*DATOS!$D$17+'COST PER TASK'!R42*'COST PER TASK'!AE42*DATOS!$D$18+'COST PER TASK'!S42*'COST PER TASK'!AE42*DATOS!$D$19+'COST PER TASK'!T42*'COST PER TASK'!AE42*DATOS!$D$20+'COST PER TASK'!U42*'COST PER TASK'!AE42*DATOS!$D$21+'COST PER TASK'!V42*'COST PER TASK'!AE42*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK42" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL42" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="8">
+        <f t="shared" si="1"/>
+        <v>13496.756584140525</v>
+      </c>
+      <c r="AL42" s="8">
+        <f t="shared" si="2"/>
+        <v>134.96756584140525</v>
+      </c>
+    </row>
+    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>101</v>
       </c>
@@ -3843,22 +3841,22 @@
       </c>
       <c r="AH43" s="3">
         <f>F43*AE43*DATOS!$D$6+'COST PER TASK'!G43*'COST PER TASK'!AE43*DATOS!$D$7+'COST PER TASK'!H43*'COST PER TASK'!AE43*DATOS!$D$8+'COST PER TASK'!I43*'COST PER TASK'!AE43*DATOS!$D$9+'COST PER TASK'!J43*'COST PER TASK'!AE43*DATOS!$D$10+'COST PER TASK'!K43*'COST PER TASK'!AE43*DATOS!$D$11+'COST PER TASK'!L43*'COST PER TASK'!AE43*DATOS!$D$12+'COST PER TASK'!M43*'COST PER TASK'!AE43*DATOS!$D$13+'COST PER TASK'!N43*'COST PER TASK'!AE43*DATOS!$D$14+'COST PER TASK'!O43*'COST PER TASK'!AE43*DATOS!$D$15</f>
-        <v>533.61033862260763</v>
-      </c>
-      <c r="AI43" s="3" t="e">
+        <v>637.01899431008371</v>
+      </c>
+      <c r="AI43" s="3">
         <f>'COST PER TASK'!P43*'COST PER TASK'!AE43*DATOS!$D$16+'COST PER TASK'!Q43*'COST PER TASK'!AE43*DATOS!$D$17+'COST PER TASK'!R43*'COST PER TASK'!AE43*DATOS!$D$18+'COST PER TASK'!S43*'COST PER TASK'!AE43*DATOS!$D$19+'COST PER TASK'!T43*'COST PER TASK'!AE43*DATOS!$D$20+'COST PER TASK'!U43*'COST PER TASK'!AE43*DATOS!$D$21+'COST PER TASK'!V43*'COST PER TASK'!AE43*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK43" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL43" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="8">
+        <f t="shared" si="1"/>
+        <v>24294.16185145294</v>
+      </c>
+      <c r="AL43" s="8">
+        <f t="shared" si="2"/>
+        <v>134.96756584140522</v>
+      </c>
+    </row>
+    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>102</v>
       </c>
@@ -3903,22 +3901,22 @@
       </c>
       <c r="AH44" s="3">
         <f>F44*AE44*DATOS!$D$6+'COST PER TASK'!G44*'COST PER TASK'!AE44*DATOS!$D$7+'COST PER TASK'!H44*'COST PER TASK'!AE44*DATOS!$D$8+'COST PER TASK'!I44*'COST PER TASK'!AE44*DATOS!$D$9+'COST PER TASK'!J44*'COST PER TASK'!AE44*DATOS!$D$10+'COST PER TASK'!K44*'COST PER TASK'!AE44*DATOS!$D$11+'COST PER TASK'!L44*'COST PER TASK'!AE44*DATOS!$D$12+'COST PER TASK'!M44*'COST PER TASK'!AE44*DATOS!$D$13+'COST PER TASK'!N44*'COST PER TASK'!AE44*DATOS!$D$14+'COST PER TASK'!O44*'COST PER TASK'!AE44*DATOS!$D$15</f>
-        <v>400.20775396695569</v>
-      </c>
-      <c r="AI44" s="3" t="e">
+        <v>477.76424573256276</v>
+      </c>
+      <c r="AI44" s="3">
         <f>'COST PER TASK'!P44*'COST PER TASK'!AE44*DATOS!$D$16+'COST PER TASK'!Q44*'COST PER TASK'!AE44*DATOS!$D$17+'COST PER TASK'!R44*'COST PER TASK'!AE44*DATOS!$D$18+'COST PER TASK'!S44*'COST PER TASK'!AE44*DATOS!$D$19+'COST PER TASK'!T44*'COST PER TASK'!AE44*DATOS!$D$20+'COST PER TASK'!U44*'COST PER TASK'!AE44*DATOS!$D$21+'COST PER TASK'!V44*'COST PER TASK'!AE44*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK44" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL44" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="8">
+        <f t="shared" si="1"/>
+        <v>18220.621388589705</v>
+      </c>
+      <c r="AL44" s="8">
+        <f t="shared" si="2"/>
+        <v>134.96756584140522</v>
+      </c>
+    </row>
+    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>103</v>
       </c>
@@ -3963,22 +3961,22 @@
       </c>
       <c r="AH45" s="3">
         <f>F45*AE45*DATOS!$D$6+'COST PER TASK'!G45*'COST PER TASK'!AE45*DATOS!$D$7+'COST PER TASK'!H45*'COST PER TASK'!AE45*DATOS!$D$8+'COST PER TASK'!I45*'COST PER TASK'!AE45*DATOS!$D$9+'COST PER TASK'!J45*'COST PER TASK'!AE45*DATOS!$D$10+'COST PER TASK'!K45*'COST PER TASK'!AE45*DATOS!$D$11+'COST PER TASK'!L45*'COST PER TASK'!AE45*DATOS!$D$12+'COST PER TASK'!M45*'COST PER TASK'!AE45*DATOS!$D$13+'COST PER TASK'!N45*'COST PER TASK'!AE45*DATOS!$D$14+'COST PER TASK'!O45*'COST PER TASK'!AE45*DATOS!$D$15</f>
-        <v>74.112547030917725</v>
-      </c>
-      <c r="AI45" s="3" t="e">
+        <v>88.474860320844954</v>
+      </c>
+      <c r="AI45" s="3">
         <f>'COST PER TASK'!P45*'COST PER TASK'!AE45*DATOS!$D$16+'COST PER TASK'!Q45*'COST PER TASK'!AE45*DATOS!$D$17+'COST PER TASK'!R45*'COST PER TASK'!AE45*DATOS!$D$18+'COST PER TASK'!S45*'COST PER TASK'!AE45*DATOS!$D$19+'COST PER TASK'!T45*'COST PER TASK'!AE45*DATOS!$D$20+'COST PER TASK'!U45*'COST PER TASK'!AE45*DATOS!$D$21+'COST PER TASK'!V45*'COST PER TASK'!AE45*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK45" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL45" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="8">
+        <f t="shared" si="1"/>
+        <v>3374.1891460351312</v>
+      </c>
+      <c r="AL45" s="8">
+        <f t="shared" si="2"/>
+        <v>134.96756584140525</v>
+      </c>
+    </row>
+    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>104</v>
       </c>
@@ -4013,20 +4011,20 @@
         <f>F46*AE46*DATOS!$D$6+'COST PER TASK'!G46*'COST PER TASK'!AE46*DATOS!$D$7+'COST PER TASK'!H46*'COST PER TASK'!AE46*DATOS!$D$8+'COST PER TASK'!I46*'COST PER TASK'!AE46*DATOS!$D$9+'COST PER TASK'!J46*'COST PER TASK'!AE46*DATOS!$D$10+'COST PER TASK'!K46*'COST PER TASK'!AE46*DATOS!$D$11+'COST PER TASK'!L46*'COST PER TASK'!AE46*DATOS!$D$12+'COST PER TASK'!M46*'COST PER TASK'!AE46*DATOS!$D$13+'COST PER TASK'!N46*'COST PER TASK'!AE46*DATOS!$D$14+'COST PER TASK'!O46*'COST PER TASK'!AE46*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI46" s="3" t="e">
+      <c r="AI46" s="3">
         <f>'COST PER TASK'!P46*'COST PER TASK'!AE46*DATOS!$D$16+'COST PER TASK'!Q46*'COST PER TASK'!AE46*DATOS!$D$17+'COST PER TASK'!R46*'COST PER TASK'!AE46*DATOS!$D$18+'COST PER TASK'!S46*'COST PER TASK'!AE46*DATOS!$D$19+'COST PER TASK'!T46*'COST PER TASK'!AE46*DATOS!$D$20+'COST PER TASK'!U46*'COST PER TASK'!AE46*DATOS!$D$21+'COST PER TASK'!V46*'COST PER TASK'!AE46*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK46" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL46" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="8">
+        <f t="shared" si="1"/>
+        <v>22400</v>
+      </c>
+      <c r="AL46" s="8">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>105</v>
       </c>
@@ -4070,20 +4068,20 @@
         <f>F47*AE47*DATOS!$D$6+'COST PER TASK'!G47*'COST PER TASK'!AE47*DATOS!$D$7+'COST PER TASK'!H47*'COST PER TASK'!AE47*DATOS!$D$8+'COST PER TASK'!I47*'COST PER TASK'!AE47*DATOS!$D$9+'COST PER TASK'!J47*'COST PER TASK'!AE47*DATOS!$D$10+'COST PER TASK'!K47*'COST PER TASK'!AE47*DATOS!$D$11+'COST PER TASK'!L47*'COST PER TASK'!AE47*DATOS!$D$12+'COST PER TASK'!M47*'COST PER TASK'!AE47*DATOS!$D$13+'COST PER TASK'!N47*'COST PER TASK'!AE47*DATOS!$D$14+'COST PER TASK'!O47*'COST PER TASK'!AE47*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI47" s="3" t="e">
+      <c r="AI47" s="3">
         <f>'COST PER TASK'!P47*'COST PER TASK'!AE47*DATOS!$D$16+'COST PER TASK'!Q47*'COST PER TASK'!AE47*DATOS!$D$17+'COST PER TASK'!R47*'COST PER TASK'!AE47*DATOS!$D$18+'COST PER TASK'!S47*'COST PER TASK'!AE47*DATOS!$D$19+'COST PER TASK'!T47*'COST PER TASK'!AE47*DATOS!$D$20+'COST PER TASK'!U47*'COST PER TASK'!AE47*DATOS!$D$21+'COST PER TASK'!V47*'COST PER TASK'!AE47*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK47" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL47" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="8">
+        <f t="shared" si="1"/>
+        <v>16800</v>
+      </c>
+      <c r="AL47" s="8">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>106</v>
       </c>
@@ -4121,20 +4119,20 @@
         <f>F48*AE48*DATOS!$D$6+'COST PER TASK'!G48*'COST PER TASK'!AE48*DATOS!$D$7+'COST PER TASK'!H48*'COST PER TASK'!AE48*DATOS!$D$8+'COST PER TASK'!I48*'COST PER TASK'!AE48*DATOS!$D$9+'COST PER TASK'!J48*'COST PER TASK'!AE48*DATOS!$D$10+'COST PER TASK'!K48*'COST PER TASK'!AE48*DATOS!$D$11+'COST PER TASK'!L48*'COST PER TASK'!AE48*DATOS!$D$12+'COST PER TASK'!M48*'COST PER TASK'!AE48*DATOS!$D$13+'COST PER TASK'!N48*'COST PER TASK'!AE48*DATOS!$D$14+'COST PER TASK'!O48*'COST PER TASK'!AE48*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI48" s="3" t="e">
+      <c r="AI48" s="3">
         <f>'COST PER TASK'!P48*'COST PER TASK'!AE48*DATOS!$D$16+'COST PER TASK'!Q48*'COST PER TASK'!AE48*DATOS!$D$17+'COST PER TASK'!R48*'COST PER TASK'!AE48*DATOS!$D$18+'COST PER TASK'!S48*'COST PER TASK'!AE48*DATOS!$D$19+'COST PER TASK'!T48*'COST PER TASK'!AE48*DATOS!$D$20+'COST PER TASK'!U48*'COST PER TASK'!AE48*DATOS!$D$21+'COST PER TASK'!V48*'COST PER TASK'!AE48*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK48" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL48" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="49" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="8">
+        <f t="shared" si="1"/>
+        <v>11200</v>
+      </c>
+      <c r="AL48" s="8">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>107</v>
       </c>
@@ -4169,20 +4167,20 @@
         <f>F49*AE49*DATOS!$D$6+'COST PER TASK'!G49*'COST PER TASK'!AE49*DATOS!$D$7+'COST PER TASK'!H49*'COST PER TASK'!AE49*DATOS!$D$8+'COST PER TASK'!I49*'COST PER TASK'!AE49*DATOS!$D$9+'COST PER TASK'!J49*'COST PER TASK'!AE49*DATOS!$D$10+'COST PER TASK'!K49*'COST PER TASK'!AE49*DATOS!$D$11+'COST PER TASK'!L49*'COST PER TASK'!AE49*DATOS!$D$12+'COST PER TASK'!M49*'COST PER TASK'!AE49*DATOS!$D$13+'COST PER TASK'!N49*'COST PER TASK'!AE49*DATOS!$D$14+'COST PER TASK'!O49*'COST PER TASK'!AE49*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="3" t="e">
+      <c r="AI49" s="3">
         <f>'COST PER TASK'!P49*'COST PER TASK'!AE49*DATOS!$D$16+'COST PER TASK'!Q49*'COST PER TASK'!AE49*DATOS!$D$17+'COST PER TASK'!R49*'COST PER TASK'!AE49*DATOS!$D$18+'COST PER TASK'!S49*'COST PER TASK'!AE49*DATOS!$D$19+'COST PER TASK'!T49*'COST PER TASK'!AE49*DATOS!$D$20+'COST PER TASK'!U49*'COST PER TASK'!AE49*DATOS!$D$21+'COST PER TASK'!V49*'COST PER TASK'!AE49*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK49" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL49" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="8">
+        <f t="shared" si="1"/>
+        <v>6960</v>
+      </c>
+      <c r="AL49" s="8">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>108</v>
       </c>
@@ -4226,20 +4224,20 @@
         <f>F50*AE50*DATOS!$D$6+'COST PER TASK'!G50*'COST PER TASK'!AE50*DATOS!$D$7+'COST PER TASK'!H50*'COST PER TASK'!AE50*DATOS!$D$8+'COST PER TASK'!I50*'COST PER TASK'!AE50*DATOS!$D$9+'COST PER TASK'!J50*'COST PER TASK'!AE50*DATOS!$D$10+'COST PER TASK'!K50*'COST PER TASK'!AE50*DATOS!$D$11+'COST PER TASK'!L50*'COST PER TASK'!AE50*DATOS!$D$12+'COST PER TASK'!M50*'COST PER TASK'!AE50*DATOS!$D$13+'COST PER TASK'!N50*'COST PER TASK'!AE50*DATOS!$D$14+'COST PER TASK'!O50*'COST PER TASK'!AE50*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI50" s="3" t="e">
+      <c r="AI50" s="3">
         <f>'COST PER TASK'!P50*'COST PER TASK'!AE50*DATOS!$D$16+'COST PER TASK'!Q50*'COST PER TASK'!AE50*DATOS!$D$17+'COST PER TASK'!R50*'COST PER TASK'!AE50*DATOS!$D$18+'COST PER TASK'!S50*'COST PER TASK'!AE50*DATOS!$D$19+'COST PER TASK'!T50*'COST PER TASK'!AE50*DATOS!$D$20+'COST PER TASK'!U50*'COST PER TASK'!AE50*DATOS!$D$21+'COST PER TASK'!V50*'COST PER TASK'!AE50*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK50" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL50" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="8">
+        <f t="shared" si="1"/>
+        <v>6960</v>
+      </c>
+      <c r="AL50" s="8">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>109</v>
       </c>
@@ -4274,20 +4272,20 @@
         <f>F51*AE51*DATOS!$D$6+'COST PER TASK'!G51*'COST PER TASK'!AE51*DATOS!$D$7+'COST PER TASK'!H51*'COST PER TASK'!AE51*DATOS!$D$8+'COST PER TASK'!I51*'COST PER TASK'!AE51*DATOS!$D$9+'COST PER TASK'!J51*'COST PER TASK'!AE51*DATOS!$D$10+'COST PER TASK'!K51*'COST PER TASK'!AE51*DATOS!$D$11+'COST PER TASK'!L51*'COST PER TASK'!AE51*DATOS!$D$12+'COST PER TASK'!M51*'COST PER TASK'!AE51*DATOS!$D$13+'COST PER TASK'!N51*'COST PER TASK'!AE51*DATOS!$D$14+'COST PER TASK'!O51*'COST PER TASK'!AE51*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI51" s="3" t="e">
+      <c r="AI51" s="3">
         <f>'COST PER TASK'!P51*'COST PER TASK'!AE51*DATOS!$D$16+'COST PER TASK'!Q51*'COST PER TASK'!AE51*DATOS!$D$17+'COST PER TASK'!R51*'COST PER TASK'!AE51*DATOS!$D$18+'COST PER TASK'!S51*'COST PER TASK'!AE51*DATOS!$D$19+'COST PER TASK'!T51*'COST PER TASK'!AE51*DATOS!$D$20+'COST PER TASK'!U51*'COST PER TASK'!AE51*DATOS!$D$21+'COST PER TASK'!V51*'COST PER TASK'!AE51*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK51" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL51" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="8">
+        <f t="shared" si="1"/>
+        <v>5760</v>
+      </c>
+      <c r="AL51" s="8">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>110</v>
       </c>
@@ -4337,20 +4335,20 @@
         <f>F52*AE52*DATOS!$D$6+'COST PER TASK'!G52*'COST PER TASK'!AE52*DATOS!$D$7+'COST PER TASK'!H52*'COST PER TASK'!AE52*DATOS!$D$8+'COST PER TASK'!I52*'COST PER TASK'!AE52*DATOS!$D$9+'COST PER TASK'!J52*'COST PER TASK'!AE52*DATOS!$D$10+'COST PER TASK'!K52*'COST PER TASK'!AE52*DATOS!$D$11+'COST PER TASK'!L52*'COST PER TASK'!AE52*DATOS!$D$12+'COST PER TASK'!M52*'COST PER TASK'!AE52*DATOS!$D$13+'COST PER TASK'!N52*'COST PER TASK'!AE52*DATOS!$D$14+'COST PER TASK'!O52*'COST PER TASK'!AE52*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI52" s="3" t="e">
+      <c r="AI52" s="3">
         <f>'COST PER TASK'!P52*'COST PER TASK'!AE52*DATOS!$D$16+'COST PER TASK'!Q52*'COST PER TASK'!AE52*DATOS!$D$17+'COST PER TASK'!R52*'COST PER TASK'!AE52*DATOS!$D$18+'COST PER TASK'!S52*'COST PER TASK'!AE52*DATOS!$D$19+'COST PER TASK'!T52*'COST PER TASK'!AE52*DATOS!$D$20+'COST PER TASK'!U52*'COST PER TASK'!AE52*DATOS!$D$21+'COST PER TASK'!V52*'COST PER TASK'!AE52*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK52" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL52" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="8">
+        <f t="shared" si="1"/>
+        <v>10240</v>
+      </c>
+      <c r="AL52" s="8">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>111</v>
       </c>
@@ -4403,20 +4401,20 @@
         <f>F53*AE53*DATOS!$D$6+'COST PER TASK'!G53*'COST PER TASK'!AE53*DATOS!$D$7+'COST PER TASK'!H53*'COST PER TASK'!AE53*DATOS!$D$8+'COST PER TASK'!I53*'COST PER TASK'!AE53*DATOS!$D$9+'COST PER TASK'!J53*'COST PER TASK'!AE53*DATOS!$D$10+'COST PER TASK'!K53*'COST PER TASK'!AE53*DATOS!$D$11+'COST PER TASK'!L53*'COST PER TASK'!AE53*DATOS!$D$12+'COST PER TASK'!M53*'COST PER TASK'!AE53*DATOS!$D$13+'COST PER TASK'!N53*'COST PER TASK'!AE53*DATOS!$D$14+'COST PER TASK'!O53*'COST PER TASK'!AE53*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="3" t="e">
+      <c r="AI53" s="3">
         <f>'COST PER TASK'!P53*'COST PER TASK'!AE53*DATOS!$D$16+'COST PER TASK'!Q53*'COST PER TASK'!AE53*DATOS!$D$17+'COST PER TASK'!R53*'COST PER TASK'!AE53*DATOS!$D$18+'COST PER TASK'!S53*'COST PER TASK'!AE53*DATOS!$D$19+'COST PER TASK'!T53*'COST PER TASK'!AE53*DATOS!$D$20+'COST PER TASK'!U53*'COST PER TASK'!AE53*DATOS!$D$21+'COST PER TASK'!V53*'COST PER TASK'!AE53*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK53" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL53" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="8">
+        <f t="shared" si="1"/>
+        <v>9840</v>
+      </c>
+      <c r="AL53" s="8">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>112</v>
       </c>
@@ -4452,22 +4450,22 @@
       </c>
       <c r="AH54" s="3">
         <f>F54*AE54*DATOS!$D$6+'COST PER TASK'!G54*'COST PER TASK'!AE54*DATOS!$D$7+'COST PER TASK'!H54*'COST PER TASK'!AE54*DATOS!$D$8+'COST PER TASK'!I54*'COST PER TASK'!AE54*DATOS!$D$9+'COST PER TASK'!J54*'COST PER TASK'!AE54*DATOS!$D$10+'COST PER TASK'!K54*'COST PER TASK'!AE54*DATOS!$D$11+'COST PER TASK'!L54*'COST PER TASK'!AE54*DATOS!$D$12+'COST PER TASK'!M54*'COST PER TASK'!AE54*DATOS!$D$13+'COST PER TASK'!N54*'COST PER TASK'!AE54*DATOS!$D$14+'COST PER TASK'!O54*'COST PER TASK'!AE54*DATOS!$D$15</f>
-        <v>23.71601504989367</v>
-      </c>
-      <c r="AI54" s="3" t="e">
+        <v>28.311955302670384</v>
+      </c>
+      <c r="AI54" s="3">
         <f>'COST PER TASK'!P54*'COST PER TASK'!AE54*DATOS!$D$16+'COST PER TASK'!Q54*'COST PER TASK'!AE54*DATOS!$D$17+'COST PER TASK'!R54*'COST PER TASK'!AE54*DATOS!$D$18+'COST PER TASK'!S54*'COST PER TASK'!AE54*DATOS!$D$19+'COST PER TASK'!T54*'COST PER TASK'!AE54*DATOS!$D$20+'COST PER TASK'!U54*'COST PER TASK'!AE54*DATOS!$D$21+'COST PER TASK'!V54*'COST PER TASK'!AE54*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK54" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL54" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="55" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="8">
+        <f t="shared" si="1"/>
+        <v>1196.3119553026704</v>
+      </c>
+      <c r="AL54" s="8">
+        <f t="shared" si="2"/>
+        <v>149.5389944128338</v>
+      </c>
+    </row>
+    <row r="55" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>113</v>
       </c>
@@ -4503,22 +4501,22 @@
       </c>
       <c r="AH55" s="3">
         <f>F55*AE55*DATOS!$D$6+'COST PER TASK'!G55*'COST PER TASK'!AE55*DATOS!$D$7+'COST PER TASK'!H55*'COST PER TASK'!AE55*DATOS!$D$8+'COST PER TASK'!I55*'COST PER TASK'!AE55*DATOS!$D$9+'COST PER TASK'!J55*'COST PER TASK'!AE55*DATOS!$D$10+'COST PER TASK'!K55*'COST PER TASK'!AE55*DATOS!$D$11+'COST PER TASK'!L55*'COST PER TASK'!AE55*DATOS!$D$12+'COST PER TASK'!M55*'COST PER TASK'!AE55*DATOS!$D$13+'COST PER TASK'!N55*'COST PER TASK'!AE55*DATOS!$D$14+'COST PER TASK'!O55*'COST PER TASK'!AE55*DATOS!$D$15</f>
-        <v>14.822509406183544</v>
-      </c>
-      <c r="AI55" s="3" t="e">
+        <v>17.69497206416899</v>
+      </c>
+      <c r="AI55" s="3">
         <f>'COST PER TASK'!P55*'COST PER TASK'!AE55*DATOS!$D$16+'COST PER TASK'!Q55*'COST PER TASK'!AE55*DATOS!$D$17+'COST PER TASK'!R55*'COST PER TASK'!AE55*DATOS!$D$18+'COST PER TASK'!S55*'COST PER TASK'!AE55*DATOS!$D$19+'COST PER TASK'!T55*'COST PER TASK'!AE55*DATOS!$D$20+'COST PER TASK'!U55*'COST PER TASK'!AE55*DATOS!$D$21+'COST PER TASK'!V55*'COST PER TASK'!AE55*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK55" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL55" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="8">
+        <f t="shared" si="1"/>
+        <v>747.69497206416895</v>
+      </c>
+      <c r="AL55" s="8">
+        <f t="shared" si="2"/>
+        <v>149.5389944128338</v>
+      </c>
+    </row>
+    <row r="56" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>114</v>
       </c>
@@ -4554,22 +4552,22 @@
       </c>
       <c r="AH56" s="3">
         <f>F56*AE56*DATOS!$D$6+'COST PER TASK'!G56*'COST PER TASK'!AE56*DATOS!$D$7+'COST PER TASK'!H56*'COST PER TASK'!AE56*DATOS!$D$8+'COST PER TASK'!I56*'COST PER TASK'!AE56*DATOS!$D$9+'COST PER TASK'!J56*'COST PER TASK'!AE56*DATOS!$D$10+'COST PER TASK'!K56*'COST PER TASK'!AE56*DATOS!$D$11+'COST PER TASK'!L56*'COST PER TASK'!AE56*DATOS!$D$12+'COST PER TASK'!M56*'COST PER TASK'!AE56*DATOS!$D$13+'COST PER TASK'!N56*'COST PER TASK'!AE56*DATOS!$D$14+'COST PER TASK'!O56*'COST PER TASK'!AE56*DATOS!$D$15</f>
-        <v>29.645018812367088</v>
-      </c>
-      <c r="AI56" s="3" t="e">
+        <v>35.38994412833798</v>
+      </c>
+      <c r="AI56" s="3">
         <f>'COST PER TASK'!P56*'COST PER TASK'!AE56*DATOS!$D$16+'COST PER TASK'!Q56*'COST PER TASK'!AE56*DATOS!$D$17+'COST PER TASK'!R56*'COST PER TASK'!AE56*DATOS!$D$18+'COST PER TASK'!S56*'COST PER TASK'!AE56*DATOS!$D$19+'COST PER TASK'!T56*'COST PER TASK'!AE56*DATOS!$D$20+'COST PER TASK'!U56*'COST PER TASK'!AE56*DATOS!$D$21+'COST PER TASK'!V56*'COST PER TASK'!AE56*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK56" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL56" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="57" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="8">
+        <f t="shared" si="1"/>
+        <v>1555.3899441283379</v>
+      </c>
+      <c r="AL56" s="8">
+        <f t="shared" si="2"/>
+        <v>155.5389944128338</v>
+      </c>
+    </row>
+    <row r="57" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>115</v>
       </c>
@@ -4608,22 +4606,22 @@
       </c>
       <c r="AH57" s="3">
         <f>F57*AE57*DATOS!$D$6+'COST PER TASK'!G57*'COST PER TASK'!AE57*DATOS!$D$7+'COST PER TASK'!H57*'COST PER TASK'!AE57*DATOS!$D$8+'COST PER TASK'!I57*'COST PER TASK'!AE57*DATOS!$D$9+'COST PER TASK'!J57*'COST PER TASK'!AE57*DATOS!$D$10+'COST PER TASK'!K57*'COST PER TASK'!AE57*DATOS!$D$11+'COST PER TASK'!L57*'COST PER TASK'!AE57*DATOS!$D$12+'COST PER TASK'!M57*'COST PER TASK'!AE57*DATOS!$D$13+'COST PER TASK'!N57*'COST PER TASK'!AE57*DATOS!$D$14+'COST PER TASK'!O57*'COST PER TASK'!AE57*DATOS!$D$15</f>
-        <v>187.71601504989366</v>
-      </c>
-      <c r="AI57" s="3" t="e">
+        <v>192.31195530267038</v>
+      </c>
+      <c r="AI57" s="3">
         <f>'COST PER TASK'!P57*'COST PER TASK'!AE57*DATOS!$D$16+'COST PER TASK'!Q57*'COST PER TASK'!AE57*DATOS!$D$17+'COST PER TASK'!R57*'COST PER TASK'!AE57*DATOS!$D$18+'COST PER TASK'!S57*'COST PER TASK'!AE57*DATOS!$D$19+'COST PER TASK'!T57*'COST PER TASK'!AE57*DATOS!$D$20+'COST PER TASK'!U57*'COST PER TASK'!AE57*DATOS!$D$21+'COST PER TASK'!V57*'COST PER TASK'!AE57*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK57" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL57" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="58" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="8">
+        <f t="shared" si="1"/>
+        <v>1446.7119553026705</v>
+      </c>
+      <c r="AL57" s="8">
+        <f t="shared" si="2"/>
+        <v>180.83899441283381</v>
+      </c>
+    </row>
+    <row r="58" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>116</v>
       </c>
@@ -4662,22 +4660,22 @@
       </c>
       <c r="AH58" s="3">
         <f>F58*AE58*DATOS!$D$6+'COST PER TASK'!G58*'COST PER TASK'!AE58*DATOS!$D$7+'COST PER TASK'!H58*'COST PER TASK'!AE58*DATOS!$D$8+'COST PER TASK'!I58*'COST PER TASK'!AE58*DATOS!$D$9+'COST PER TASK'!J58*'COST PER TASK'!AE58*DATOS!$D$10+'COST PER TASK'!K58*'COST PER TASK'!AE58*DATOS!$D$11+'COST PER TASK'!L58*'COST PER TASK'!AE58*DATOS!$D$12+'COST PER TASK'!M58*'COST PER TASK'!AE58*DATOS!$D$13+'COST PER TASK'!N58*'COST PER TASK'!AE58*DATOS!$D$14+'COST PER TASK'!O58*'COST PER TASK'!AE58*DATOS!$D$15</f>
-        <v>74.112547030917725</v>
-      </c>
-      <c r="AI58" s="3" t="e">
+        <v>88.474860320844954</v>
+      </c>
+      <c r="AI58" s="3">
         <f>'COST PER TASK'!P58*'COST PER TASK'!AE58*DATOS!$D$16+'COST PER TASK'!Q58*'COST PER TASK'!AE58*DATOS!$D$17+'COST PER TASK'!R58*'COST PER TASK'!AE58*DATOS!$D$18+'COST PER TASK'!S58*'COST PER TASK'!AE58*DATOS!$D$19+'COST PER TASK'!T58*'COST PER TASK'!AE58*DATOS!$D$20+'COST PER TASK'!U58*'COST PER TASK'!AE58*DATOS!$D$21+'COST PER TASK'!V58*'COST PER TASK'!AE58*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK58" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL58" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="59" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="8">
+        <f t="shared" si="1"/>
+        <v>3888.474860320845</v>
+      </c>
+      <c r="AL58" s="8">
+        <f t="shared" si="2"/>
+        <v>155.5389944128338</v>
+      </c>
+    </row>
+    <row r="59" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>117</v>
       </c>
@@ -4712,20 +4710,20 @@
         <f>F59*AE59*DATOS!$D$6+'COST PER TASK'!G59*'COST PER TASK'!AE59*DATOS!$D$7+'COST PER TASK'!H59*'COST PER TASK'!AE59*DATOS!$D$8+'COST PER TASK'!I59*'COST PER TASK'!AE59*DATOS!$D$9+'COST PER TASK'!J59*'COST PER TASK'!AE59*DATOS!$D$10+'COST PER TASK'!K59*'COST PER TASK'!AE59*DATOS!$D$11+'COST PER TASK'!L59*'COST PER TASK'!AE59*DATOS!$D$12+'COST PER TASK'!M59*'COST PER TASK'!AE59*DATOS!$D$13+'COST PER TASK'!N59*'COST PER TASK'!AE59*DATOS!$D$14+'COST PER TASK'!O59*'COST PER TASK'!AE59*DATOS!$D$15</f>
         <v>676.5</v>
       </c>
-      <c r="AI59" s="3" t="e">
+      <c r="AI59" s="3">
         <f>'COST PER TASK'!P59*'COST PER TASK'!AE59*DATOS!$D$16+'COST PER TASK'!Q59*'COST PER TASK'!AE59*DATOS!$D$17+'COST PER TASK'!R59*'COST PER TASK'!AE59*DATOS!$D$18+'COST PER TASK'!S59*'COST PER TASK'!AE59*DATOS!$D$19+'COST PER TASK'!T59*'COST PER TASK'!AE59*DATOS!$D$20+'COST PER TASK'!U59*'COST PER TASK'!AE59*DATOS!$D$21+'COST PER TASK'!V59*'COST PER TASK'!AE59*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK59" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL59" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="8">
+        <f t="shared" si="1"/>
+        <v>14356.5</v>
+      </c>
+      <c r="AL59" s="8">
+        <f t="shared" si="2"/>
+        <v>159.51666666666668</v>
+      </c>
+    </row>
+    <row r="60" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>118</v>
       </c>
@@ -4757,20 +4755,20 @@
         <f>F60*AE60*DATOS!$D$6+'COST PER TASK'!G60*'COST PER TASK'!AE60*DATOS!$D$7+'COST PER TASK'!H60*'COST PER TASK'!AE60*DATOS!$D$8+'COST PER TASK'!I60*'COST PER TASK'!AE60*DATOS!$D$9+'COST PER TASK'!J60*'COST PER TASK'!AE60*DATOS!$D$10+'COST PER TASK'!K60*'COST PER TASK'!AE60*DATOS!$D$11+'COST PER TASK'!L60*'COST PER TASK'!AE60*DATOS!$D$12+'COST PER TASK'!M60*'COST PER TASK'!AE60*DATOS!$D$13+'COST PER TASK'!N60*'COST PER TASK'!AE60*DATOS!$D$14+'COST PER TASK'!O60*'COST PER TASK'!AE60*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI60" s="3" t="e">
+      <c r="AI60" s="3">
         <f>'COST PER TASK'!P60*'COST PER TASK'!AE60*DATOS!$D$16+'COST PER TASK'!Q60*'COST PER TASK'!AE60*DATOS!$D$17+'COST PER TASK'!R60*'COST PER TASK'!AE60*DATOS!$D$18+'COST PER TASK'!S60*'COST PER TASK'!AE60*DATOS!$D$19+'COST PER TASK'!T60*'COST PER TASK'!AE60*DATOS!$D$20+'COST PER TASK'!U60*'COST PER TASK'!AE60*DATOS!$D$21+'COST PER TASK'!V60*'COST PER TASK'!AE60*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK60" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL60" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="61" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="8">
+        <f t="shared" si="1"/>
+        <v>117040</v>
+      </c>
+      <c r="AL60" s="8">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>119</v>
       </c>
@@ -4805,20 +4803,20 @@
         <f>F61*AE61*DATOS!$D$6+'COST PER TASK'!G61*'COST PER TASK'!AE61*DATOS!$D$7+'COST PER TASK'!H61*'COST PER TASK'!AE61*DATOS!$D$8+'COST PER TASK'!I61*'COST PER TASK'!AE61*DATOS!$D$9+'COST PER TASK'!J61*'COST PER TASK'!AE61*DATOS!$D$10+'COST PER TASK'!K61*'COST PER TASK'!AE61*DATOS!$D$11+'COST PER TASK'!L61*'COST PER TASK'!AE61*DATOS!$D$12+'COST PER TASK'!M61*'COST PER TASK'!AE61*DATOS!$D$13+'COST PER TASK'!N61*'COST PER TASK'!AE61*DATOS!$D$14+'COST PER TASK'!O61*'COST PER TASK'!AE61*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="3" t="e">
+      <c r="AI61" s="3">
         <f>'COST PER TASK'!P61*'COST PER TASK'!AE61*DATOS!$D$16+'COST PER TASK'!Q61*'COST PER TASK'!AE61*DATOS!$D$17+'COST PER TASK'!R61*'COST PER TASK'!AE61*DATOS!$D$18+'COST PER TASK'!S61*'COST PER TASK'!AE61*DATOS!$D$19+'COST PER TASK'!T61*'COST PER TASK'!AE61*DATOS!$D$20+'COST PER TASK'!U61*'COST PER TASK'!AE61*DATOS!$D$21+'COST PER TASK'!V61*'COST PER TASK'!AE61*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK61" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL61" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="8">
+        <f t="shared" si="1"/>
+        <v>130720</v>
+      </c>
+      <c r="AL61" s="8">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>120</v>
       </c>
@@ -4850,20 +4848,20 @@
         <f>F62*AE62*DATOS!$D$6+'COST PER TASK'!G62*'COST PER TASK'!AE62*DATOS!$D$7+'COST PER TASK'!H62*'COST PER TASK'!AE62*DATOS!$D$8+'COST PER TASK'!I62*'COST PER TASK'!AE62*DATOS!$D$9+'COST PER TASK'!J62*'COST PER TASK'!AE62*DATOS!$D$10+'COST PER TASK'!K62*'COST PER TASK'!AE62*DATOS!$D$11+'COST PER TASK'!L62*'COST PER TASK'!AE62*DATOS!$D$12+'COST PER TASK'!M62*'COST PER TASK'!AE62*DATOS!$D$13+'COST PER TASK'!N62*'COST PER TASK'!AE62*DATOS!$D$14+'COST PER TASK'!O62*'COST PER TASK'!AE62*DATOS!$D$15</f>
         <v>0</v>
       </c>
-      <c r="AI62" s="3" t="e">
+      <c r="AI62" s="3">
         <f>'COST PER TASK'!P62*'COST PER TASK'!AE62*DATOS!$D$16+'COST PER TASK'!Q62*'COST PER TASK'!AE62*DATOS!$D$17+'COST PER TASK'!R62*'COST PER TASK'!AE62*DATOS!$D$18+'COST PER TASK'!S62*'COST PER TASK'!AE62*DATOS!$D$19+'COST PER TASK'!T62*'COST PER TASK'!AE62*DATOS!$D$20+'COST PER TASK'!U62*'COST PER TASK'!AE62*DATOS!$D$21+'COST PER TASK'!V62*'COST PER TASK'!AE62*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK62" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL62" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="8">
+        <f t="shared" si="1"/>
+        <v>130720</v>
+      </c>
+      <c r="AL62" s="8">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>121</v>
       </c>
@@ -4899,22 +4897,22 @@
       </c>
       <c r="AH63" s="3">
         <f>F63*AE63*DATOS!$D$6+'COST PER TASK'!G63*'COST PER TASK'!AE63*DATOS!$D$7+'COST PER TASK'!H63*'COST PER TASK'!AE63*DATOS!$D$8+'COST PER TASK'!I63*'COST PER TASK'!AE63*DATOS!$D$9+'COST PER TASK'!J63*'COST PER TASK'!AE63*DATOS!$D$10+'COST PER TASK'!K63*'COST PER TASK'!AE63*DATOS!$D$11+'COST PER TASK'!L63*'COST PER TASK'!AE63*DATOS!$D$12+'COST PER TASK'!M63*'COST PER TASK'!AE63*DATOS!$D$13+'COST PER TASK'!N63*'COST PER TASK'!AE63*DATOS!$D$14+'COST PER TASK'!O63*'COST PER TASK'!AE63*DATOS!$D$15</f>
-        <v>243.99999999999997</v>
-      </c>
-      <c r="AI63" s="3" t="e">
+        <v>738.0635771734967</v>
+      </c>
+      <c r="AI63" s="3">
         <f>'COST PER TASK'!P63*'COST PER TASK'!AE63*DATOS!$D$16+'COST PER TASK'!Q63*'COST PER TASK'!AE63*DATOS!$D$17+'COST PER TASK'!R63*'COST PER TASK'!AE63*DATOS!$D$18+'COST PER TASK'!S63*'COST PER TASK'!AE63*DATOS!$D$19+'COST PER TASK'!T63*'COST PER TASK'!AE63*DATOS!$D$20+'COST PER TASK'!U63*'COST PER TASK'!AE63*DATOS!$D$21+'COST PER TASK'!V63*'COST PER TASK'!AE63*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK63" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL63" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="2:38" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="8">
+        <f t="shared" si="1"/>
+        <v>131458.06357717351</v>
+      </c>
+      <c r="AL63" s="8">
+        <f t="shared" si="2"/>
+        <v>152.85821346182965</v>
+      </c>
+    </row>
+    <row r="64" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>122</v>
       </c>
@@ -4950,22 +4948,22 @@
       </c>
       <c r="AH64" s="3">
         <f>F64*AE64*DATOS!$D$6+'COST PER TASK'!G64*'COST PER TASK'!AE64*DATOS!$D$7+'COST PER TASK'!H64*'COST PER TASK'!AE64*DATOS!$D$8+'COST PER TASK'!I64*'COST PER TASK'!AE64*DATOS!$D$9+'COST PER TASK'!J64*'COST PER TASK'!AE64*DATOS!$D$10+'COST PER TASK'!K64*'COST PER TASK'!AE64*DATOS!$D$11+'COST PER TASK'!L64*'COST PER TASK'!AE64*DATOS!$D$12+'COST PER TASK'!M64*'COST PER TASK'!AE64*DATOS!$D$13+'COST PER TASK'!N64*'COST PER TASK'!AE64*DATOS!$D$14+'COST PER TASK'!O64*'COST PER TASK'!AE64*DATOS!$D$15</f>
-        <v>243.99999999999997</v>
-      </c>
-      <c r="AI64" s="3" t="e">
+        <v>738.0635771734967</v>
+      </c>
+      <c r="AI64" s="3">
         <f>'COST PER TASK'!P64*'COST PER TASK'!AE64*DATOS!$D$16+'COST PER TASK'!Q64*'COST PER TASK'!AE64*DATOS!$D$17+'COST PER TASK'!R64*'COST PER TASK'!AE64*DATOS!$D$18+'COST PER TASK'!S64*'COST PER TASK'!AE64*DATOS!$D$19+'COST PER TASK'!T64*'COST PER TASK'!AE64*DATOS!$D$20+'COST PER TASK'!U64*'COST PER TASK'!AE64*DATOS!$D$21+'COST PER TASK'!V64*'COST PER TASK'!AE64*DATOS!$D$22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK64" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL64" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="6:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="8">
+        <f t="shared" si="1"/>
+        <v>131458.06357717351</v>
+      </c>
+      <c r="AL64" s="8">
+        <f t="shared" si="2"/>
+        <v>152.85821346182965</v>
+      </c>
+    </row>
+    <row r="65" spans="6:29" x14ac:dyDescent="0.2">
       <c r="F65" s="12">
         <f>F2*$AE2+F3*$AE3+F4*$AE4+F5*$AE5+F6*$AE6+F7*$AE7+F8*$AE8+F9*$AE9+F10*$AE10+F11*$AE11+F12*$AE12+F13*$AE13+F14*$AE14+F15*$AE15+F16*$AE16+F17*$AE17+F18*$AE18+F19*$AE19+F20*$AE20+F21*$AE21+F22*$AE22+F23*$AE23+F24*$AE24+F25*$AE25+F26*$AE26+F27*$AE27+F28*$AE28+F29*$AE29+F30*$AE30+F31*$AE31+F32*$AE32+F33*$AE33+F34*$AE34+F35*$AE35+F36*$AE36+F37*$AE37+F38*$AE38+F39*$AE39+F40*$AE40+F41*$AE41+F42*$AE42+F43*$AE43+F44*$AE44+F45*$AE45+F46*$AE46+F47*$AE47+F48*$AE48+F49*$AE49+F50*$AE50+F51*$AE51+F52*$AE52+F53*$AE53+F54*$AE54+F55*$AE55+F56*$AE56+F57*$AE57+F58*$AE58+F59*$AE59+F60*$AE60+F61*$AE61+F62*$AE62+F63*$AE63+F64*$AE64</f>
         <v>62664</v>
@@ -5069,19 +5067,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AGW65"/>
   <sheetViews>
-    <sheetView topLeftCell="BA47" zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScale="101" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="881" width="3.796875" customWidth="1"/>
+    <col min="2" max="881" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:881" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -7723,322 +7721,322 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:881" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="2:880" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:880" x14ac:dyDescent="0.2">
       <c r="B65">
         <f>SUM(B2:B64)</f>
         <v>0</v>
@@ -11562,19 +11560,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -11585,7 +11583,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -11596,7 +11594,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -11607,7 +11605,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -11618,22 +11616,25 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>144</v>
       </c>
+      <c r="B6">
+        <v>4500</v>
+      </c>
       <c r="C6" t="s">
         <v>152</v>
       </c>
       <c r="D6" s="15">
         <f>B6/'COST PER TASK'!F65</f>
-        <v>0</v>
+        <v>7.1811566449636155E-2</v>
       </c>
       <c r="E6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -11651,7 +11652,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -11669,7 +11670,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -11687,7 +11688,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -11705,7 +11706,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -11723,7 +11724,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -11741,7 +11742,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -11759,7 +11760,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>141</v>
       </c>
@@ -11777,7 +11778,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -11795,7 +11796,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -11810,7 +11811,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -11825,7 +11826,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>147</v>
       </c>
@@ -11840,7 +11841,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -11855,61 +11856,52 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>149</v>
       </c>
-      <c r="B20" t="s">
-        <v>155</v>
-      </c>
       <c r="C20" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="15" t="e">
+      <c r="D20" s="15">
         <f>B20/'COST PER TASK'!T65</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>150</v>
       </c>
-      <c r="B21" t="s">
-        <v>155</v>
-      </c>
       <c r="C21" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="15" t="e">
+      <c r="D21" s="15">
         <f>B21/'COST PER TASK'!U65</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>151</v>
       </c>
-      <c r="B22" t="s">
-        <v>155</v>
-      </c>
       <c r="C22" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="15" t="e">
+      <c r="D22" s="15">
         <f>B22/'COST PER TASK'!V65</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -11920,7 +11912,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -11931,7 +11923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -11942,7 +11934,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -11953,7 +11945,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -11964,7 +11956,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -11975,7 +11967,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>44</v>
       </c>

--- a/Deliverable 2/Deliverable2/Costs task 8.xlsx
+++ b/Deliverable 2/Deliverable2/Costs task 8.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Santi/Documents/GitHub/projectsGroup3/Deliverable 2/Deliverable2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odnan\Documents\GitHub\projectsGroup3\Deliverable 2\Deliverable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9944405E-FC48-734D-BB32-34E9DA39D072}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14322"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -499,7 +498,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -715,31 +714,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:G12" totalsRowShown="0">
-  <autoFilter ref="A3:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A3:G12" totalsRowShown="0">
+  <autoFilter ref="A3:G12"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Resource ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Resource Description"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type of resource"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Annual Gross Salary" dataDxfId="3" dataCellStyle="Moneda"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Monthly Pay" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="1" name="Resource ID"/>
+    <tableColumn id="2" name="Resource Description"/>
+    <tableColumn id="3" name="Type of resource"/>
+    <tableColumn id="4" name="Annual Gross Salary" dataDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="5" name="Monthly Pay" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>D4/12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Hourly Cost (€/h)" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="6" name="Hourly Cost (€/h)" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>E4/180</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Reference" dataCellStyle="Moneda"/>
+    <tableColumn id="7" name="Reference" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Employee Group"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Hourly" dataDxfId="0" dataCellStyle="Moneda"/>
+    <tableColumn id="1" name="Employee Group"/>
+    <tableColumn id="2" name="Hourly" dataDxfId="0" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1041,29 +1040,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1484375" customWidth="1"/>
+    <col min="2" max="2" width="42.6484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.84765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1484375" customWidth="1"/>
+    <col min="6" max="6" width="17.34765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1186,7 +1185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1211,7 +1210,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1286,7 +1285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="G14" t="s">
         <v>33</v>
       </c>
@@ -1326,19 +1325,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1346,7 +1345,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1382,40 +1381,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="3.83203125" customWidth="1"/>
-    <col min="6" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="22" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3.84765625" customWidth="1"/>
+    <col min="6" max="9" width="6.1484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.1484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.1484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.1484375" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="5.1484375" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="6.1484375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1484375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.1484375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.1484375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.1484375" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="5.1484375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.84765625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.84765625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.34765625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.6484375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.84765625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.34765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="128" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="123.3" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="6" t="s">
         <v>153</v>
       </c>
@@ -1528,7 +1527,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>167.5389944128338</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -1636,7 +1635,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B4" t="s">
         <v>62</v>
       </c>
@@ -1687,7 +1686,7 @@
         <v>168.84545454545454</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -1744,7 +1743,7 @@
         <v>167.5389944128338</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B6" t="s">
         <v>64</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -1834,7 +1833,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>188.0389944128338</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B10" t="s">
         <v>68</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>188.0389944128338</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B11" t="s">
         <v>69</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>188.03899441283377</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B12" t="s">
         <v>70</v>
       </c>
@@ -2095,7 +2094,7 @@
         <v>188.0389944128338</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B13" t="s">
         <v>71</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>167.5389944128338</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B14" t="s">
         <v>72</v>
       </c>
@@ -2191,7 +2190,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B15" t="s">
         <v>73</v>
       </c>
@@ -2245,7 +2244,7 @@
         <v>167.5389944128338</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.6">
       <c r="B16" t="s">
         <v>74</v>
       </c>
@@ -2299,7 +2298,7 @@
         <v>167.5389944128338</v>
       </c>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B17" t="s">
         <v>75</v>
       </c>
@@ -2353,7 +2352,7 @@
         <v>167.5389944128338</v>
       </c>
     </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B18" t="s">
         <v>76</v>
       </c>
@@ -2407,7 +2406,7 @@
         <v>167.5389944128338</v>
       </c>
     </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B19" t="s">
         <v>77</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>168.84545454545454</v>
       </c>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>136.33899441283381</v>
       </c>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B21" t="s">
         <v>79</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>155.5389944128338</v>
       </c>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B22" t="s">
         <v>80</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>136.33899441283381</v>
       </c>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B23" t="s">
         <v>81</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>155.5389944128338</v>
       </c>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>136.33899441283378</v>
       </c>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B25" t="s">
         <v>83</v>
       </c>
@@ -2791,7 +2790,7 @@
         <v>136.33899441283378</v>
       </c>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>136.33899441283378</v>
       </c>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B27" t="s">
         <v>85</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>155.5389944128338</v>
       </c>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>160.03337643530571</v>
       </c>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B29" t="s">
         <v>87</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>145.46194786387716</v>
       </c>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B30" t="s">
         <v>88</v>
       </c>
@@ -3079,7 +3078,7 @@
         <v>145.46194786387713</v>
       </c>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B31" t="s">
         <v>89</v>
       </c>
@@ -3139,7 +3138,7 @@
         <v>145.46194786387713</v>
       </c>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B32" t="s">
         <v>90</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>145.46194786387713</v>
       </c>
     </row>
-    <row r="33" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B33" t="s">
         <v>91</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>166.03337643530571</v>
       </c>
     </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B34" t="s">
         <v>92</v>
       </c>
@@ -3316,7 +3315,7 @@
         <v>134.96756584140522</v>
       </c>
     </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B35" t="s">
         <v>93</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>134.96756584140522</v>
       </c>
     </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B36" t="s">
         <v>94</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>134.96756584140522</v>
       </c>
     </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B37" t="s">
         <v>95</v>
       </c>
@@ -3496,7 +3495,7 @@
         <v>145.46194786387716</v>
       </c>
     </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B38" t="s">
         <v>96</v>
       </c>
@@ -3556,7 +3555,7 @@
         <v>145.46194786387713</v>
       </c>
     </row>
-    <row r="39" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B39" t="s">
         <v>97</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>145.46194786387716</v>
       </c>
     </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B40" t="s">
         <v>98</v>
       </c>
@@ -3676,7 +3675,7 @@
         <v>145.46194786387716</v>
       </c>
     </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B41" t="s">
         <v>99</v>
       </c>
@@ -3736,7 +3735,7 @@
         <v>145.46194786387713</v>
       </c>
     </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B42" t="s">
         <v>100</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>134.96756584140525</v>
       </c>
     </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B43" t="s">
         <v>101</v>
       </c>
@@ -3856,7 +3855,7 @@
         <v>134.96756584140522</v>
       </c>
     </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B44" t="s">
         <v>102</v>
       </c>
@@ -3916,7 +3915,7 @@
         <v>134.96756584140522</v>
       </c>
     </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B45" t="s">
         <v>103</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>134.96756584140525</v>
       </c>
     </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B46" t="s">
         <v>104</v>
       </c>
@@ -4024,7 +4023,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B47" t="s">
         <v>105</v>
       </c>
@@ -4081,7 +4080,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B48" t="s">
         <v>106</v>
       </c>
@@ -4132,7 +4131,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B49" t="s">
         <v>107</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B50" t="s">
         <v>108</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B51" t="s">
         <v>109</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B52" t="s">
         <v>110</v>
       </c>
@@ -4348,7 +4347,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B53" t="s">
         <v>111</v>
       </c>
@@ -4414,7 +4413,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B54" t="s">
         <v>112</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>149.5389944128338</v>
       </c>
     </row>
-    <row r="55" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B55" t="s">
         <v>113</v>
       </c>
@@ -4516,7 +4515,7 @@
         <v>149.5389944128338</v>
       </c>
     </row>
-    <row r="56" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B56" t="s">
         <v>114</v>
       </c>
@@ -4567,7 +4566,7 @@
         <v>155.5389944128338</v>
       </c>
     </row>
-    <row r="57" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B57" t="s">
         <v>115</v>
       </c>
@@ -4621,7 +4620,7 @@
         <v>180.83899441283381</v>
       </c>
     </row>
-    <row r="58" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B58" t="s">
         <v>116</v>
       </c>
@@ -4675,7 +4674,7 @@
         <v>155.5389944128338</v>
       </c>
     </row>
-    <row r="59" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B59" t="s">
         <v>117</v>
       </c>
@@ -4723,7 +4722,7 @@
         <v>159.51666666666668</v>
       </c>
     </row>
-    <row r="60" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B60" t="s">
         <v>118</v>
       </c>
@@ -4768,7 +4767,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B61" t="s">
         <v>119</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B62" t="s">
         <v>120</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B63" t="s">
         <v>121</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>152.85821346182965</v>
       </c>
     </row>
-    <row r="64" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:38" x14ac:dyDescent="0.6">
       <c r="B64" t="s">
         <v>122</v>
       </c>
@@ -4963,7 +4962,7 @@
         <v>152.85821346182965</v>
       </c>
     </row>
-    <row r="65" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:29" x14ac:dyDescent="0.6">
       <c r="F65" s="12">
         <f>F2*$AE2+F3*$AE3+F4*$AE4+F5*$AE5+F6*$AE6+F7*$AE7+F8*$AE8+F9*$AE9+F10*$AE10+F11*$AE11+F12*$AE12+F13*$AE13+F14*$AE14+F15*$AE15+F16*$AE16+F17*$AE17+F18*$AE18+F19*$AE19+F20*$AE20+F21*$AE21+F22*$AE22+F23*$AE23+F24*$AE24+F25*$AE25+F26*$AE26+F27*$AE27+F28*$AE28+F29*$AE29+F30*$AE30+F31*$AE31+F32*$AE32+F33*$AE33+F34*$AE34+F35*$AE35+F36*$AE36+F37*$AE37+F38*$AE38+F39*$AE39+F40*$AE40+F41*$AE41+F42*$AE42+F43*$AE43+F44*$AE44+F45*$AE45+F46*$AE46+F47*$AE47+F48*$AE48+F49*$AE49+F50*$AE50+F51*$AE51+F52*$AE52+F53*$AE53+F54*$AE54+F55*$AE55+F56*$AE56+F57*$AE57+F58*$AE58+F59*$AE59+F60*$AE60+F61*$AE61+F62*$AE62+F63*$AE63+F64*$AE64</f>
         <v>62664</v>
@@ -5067,19 +5066,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AGW65"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="101" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="881" width="3.83203125" customWidth="1"/>
+    <col min="2" max="881" width="3.84765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:881" x14ac:dyDescent="0.6">
       <c r="B1">
         <v>1</v>
       </c>
@@ -7721,322 +7720,322 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:881" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="2:880" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:880" x14ac:dyDescent="0.6">
       <c r="B65">
         <f>SUM(B2:B64)</f>
         <v>0</v>
@@ -11560,19 +11559,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.34765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -11583,7 +11582,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -11594,7 +11593,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -11605,7 +11604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -11616,7 +11615,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -11634,7 +11633,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -11652,7 +11651,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -11670,7 +11669,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>136</v>
       </c>
@@ -11688,7 +11687,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -11706,7 +11705,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -11724,7 +11723,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -11742,7 +11741,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -11760,7 +11759,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>141</v>
       </c>
@@ -11778,7 +11777,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -11796,7 +11795,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -11811,7 +11810,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -11826,7 +11825,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>147</v>
       </c>
@@ -11841,7 +11840,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -11856,7 +11855,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -11871,7 +11870,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>150</v>
       </c>
@@ -11886,7 +11885,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -11901,7 +11900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -11912,7 +11911,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -11923,7 +11922,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -11934,7 +11933,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -11945,7 +11944,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -11956,7 +11955,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -11967,7 +11966,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>44</v>
       </c>

--- a/Deliverable 2/Deliverable2/Costs task 8.xlsx
+++ b/Deliverable 2/Deliverable2/Costs task 8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Santi/Documents/GitHub/projectsGroup3/Deliverable 2/Deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9944405E-FC48-734D-BB32-34E9DA39D072}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03BF5E0C-8B0C-D346-B65B-7DF6AE983C56}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,6 +579,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -664,11 +670,17 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1385,11 +1397,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL9" sqref="AL9"/>
+      <selection pane="bottomRight" activeCell="AC67" sqref="AC67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1408,8 +1420,8 @@
     <col min="29" max="30" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -1500,31 +1512,31 @@
       <c r="AC1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AK1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="15" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4013,15 +4025,15 @@
       </c>
       <c r="AI46" s="3">
         <f>'COST PER TASK'!P46*'COST PER TASK'!AE46*DATOS!$D$16+'COST PER TASK'!Q46*'COST PER TASK'!AE46*DATOS!$D$17+'COST PER TASK'!R46*'COST PER TASK'!AE46*DATOS!$D$18+'COST PER TASK'!S46*'COST PER TASK'!AE46*DATOS!$D$19+'COST PER TASK'!T46*'COST PER TASK'!AE46*DATOS!$D$20+'COST PER TASK'!U46*'COST PER TASK'!AE46*DATOS!$D$21+'COST PER TASK'!V46*'COST PER TASK'!AE46*DATOS!$D$22</f>
-        <v>0</v>
+        <v>87500</v>
       </c>
       <c r="AK46" s="8">
         <f t="shared" si="1"/>
-        <v>22400</v>
+        <v>109900</v>
       </c>
       <c r="AL46" s="8">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>549.5</v>
       </c>
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.2">
@@ -4070,15 +4082,15 @@
       </c>
       <c r="AI47" s="3">
         <f>'COST PER TASK'!P47*'COST PER TASK'!AE47*DATOS!$D$16+'COST PER TASK'!Q47*'COST PER TASK'!AE47*DATOS!$D$17+'COST PER TASK'!R47*'COST PER TASK'!AE47*DATOS!$D$18+'COST PER TASK'!S47*'COST PER TASK'!AE47*DATOS!$D$19+'COST PER TASK'!T47*'COST PER TASK'!AE47*DATOS!$D$20+'COST PER TASK'!U47*'COST PER TASK'!AE47*DATOS!$D$21+'COST PER TASK'!V47*'COST PER TASK'!AE47*DATOS!$D$22</f>
-        <v>0</v>
+        <v>94285.71428571429</v>
       </c>
       <c r="AK47" s="8">
         <f t="shared" si="1"/>
-        <v>16800</v>
+        <v>111085.71428571429</v>
       </c>
       <c r="AL47" s="8">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>740.57142857142856</v>
       </c>
     </row>
     <row r="48" spans="2:38" x14ac:dyDescent="0.2">
@@ -4121,15 +4133,15 @@
       </c>
       <c r="AI48" s="3">
         <f>'COST PER TASK'!P48*'COST PER TASK'!AE48*DATOS!$D$16+'COST PER TASK'!Q48*'COST PER TASK'!AE48*DATOS!$D$17+'COST PER TASK'!R48*'COST PER TASK'!AE48*DATOS!$D$18+'COST PER TASK'!S48*'COST PER TASK'!AE48*DATOS!$D$19+'COST PER TASK'!T48*'COST PER TASK'!AE48*DATOS!$D$20+'COST PER TASK'!U48*'COST PER TASK'!AE48*DATOS!$D$21+'COST PER TASK'!V48*'COST PER TASK'!AE48*DATOS!$D$22</f>
-        <v>0</v>
+        <v>22807.017543859649</v>
       </c>
       <c r="AK48" s="8">
         <f t="shared" si="1"/>
-        <v>11200</v>
+        <v>34007.017543859649</v>
       </c>
       <c r="AL48" s="8">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>340.07017543859649</v>
       </c>
     </row>
     <row r="49" spans="2:38" x14ac:dyDescent="0.2">
@@ -4169,15 +4181,15 @@
       </c>
       <c r="AI49" s="3">
         <f>'COST PER TASK'!P49*'COST PER TASK'!AE49*DATOS!$D$16+'COST PER TASK'!Q49*'COST PER TASK'!AE49*DATOS!$D$17+'COST PER TASK'!R49*'COST PER TASK'!AE49*DATOS!$D$18+'COST PER TASK'!S49*'COST PER TASK'!AE49*DATOS!$D$19+'COST PER TASK'!T49*'COST PER TASK'!AE49*DATOS!$D$20+'COST PER TASK'!U49*'COST PER TASK'!AE49*DATOS!$D$21+'COST PER TASK'!V49*'COST PER TASK'!AE49*DATOS!$D$22</f>
-        <v>0</v>
+        <v>26250</v>
       </c>
       <c r="AK49" s="8">
         <f t="shared" si="1"/>
-        <v>6960</v>
+        <v>33210</v>
       </c>
       <c r="AL49" s="8">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>553.5</v>
       </c>
     </row>
     <row r="50" spans="2:38" x14ac:dyDescent="0.2">
@@ -4226,15 +4238,15 @@
       </c>
       <c r="AI50" s="3">
         <f>'COST PER TASK'!P50*'COST PER TASK'!AE50*DATOS!$D$16+'COST PER TASK'!Q50*'COST PER TASK'!AE50*DATOS!$D$17+'COST PER TASK'!R50*'COST PER TASK'!AE50*DATOS!$D$18+'COST PER TASK'!S50*'COST PER TASK'!AE50*DATOS!$D$19+'COST PER TASK'!T50*'COST PER TASK'!AE50*DATOS!$D$20+'COST PER TASK'!U50*'COST PER TASK'!AE50*DATOS!$D$21+'COST PER TASK'!V50*'COST PER TASK'!AE50*DATOS!$D$22</f>
-        <v>0</v>
+        <v>37714.285714285717</v>
       </c>
       <c r="AK50" s="8">
         <f t="shared" si="1"/>
-        <v>6960</v>
+        <v>44674.285714285717</v>
       </c>
       <c r="AL50" s="8">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>744.57142857142867</v>
       </c>
     </row>
     <row r="51" spans="2:38" x14ac:dyDescent="0.2">
@@ -4274,15 +4286,15 @@
       </c>
       <c r="AI51" s="3">
         <f>'COST PER TASK'!P51*'COST PER TASK'!AE51*DATOS!$D$16+'COST PER TASK'!Q51*'COST PER TASK'!AE51*DATOS!$D$17+'COST PER TASK'!R51*'COST PER TASK'!AE51*DATOS!$D$18+'COST PER TASK'!S51*'COST PER TASK'!AE51*DATOS!$D$19+'COST PER TASK'!T51*'COST PER TASK'!AE51*DATOS!$D$20+'COST PER TASK'!U51*'COST PER TASK'!AE51*DATOS!$D$21+'COST PER TASK'!V51*'COST PER TASK'!AE51*DATOS!$D$22</f>
-        <v>0</v>
+        <v>10263.157894736843</v>
       </c>
       <c r="AK51" s="8">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>16023.157894736843</v>
       </c>
       <c r="AL51" s="8">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>356.07017543859649</v>
       </c>
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.2">
@@ -4337,15 +4349,15 @@
       </c>
       <c r="AI52" s="3">
         <f>'COST PER TASK'!P52*'COST PER TASK'!AE52*DATOS!$D$16+'COST PER TASK'!Q52*'COST PER TASK'!AE52*DATOS!$D$17+'COST PER TASK'!R52*'COST PER TASK'!AE52*DATOS!$D$18+'COST PER TASK'!S52*'COST PER TASK'!AE52*DATOS!$D$19+'COST PER TASK'!T52*'COST PER TASK'!AE52*DATOS!$D$20+'COST PER TASK'!U52*'COST PER TASK'!AE52*DATOS!$D$21+'COST PER TASK'!V52*'COST PER TASK'!AE52*DATOS!$D$22</f>
-        <v>0</v>
+        <v>103531.32832080201</v>
       </c>
       <c r="AK52" s="8">
         <f t="shared" si="1"/>
-        <v>10240</v>
+        <v>113771.32832080201</v>
       </c>
       <c r="AL52" s="8">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>1422.1416040100253</v>
       </c>
     </row>
     <row r="53" spans="2:38" x14ac:dyDescent="0.2">
@@ -4403,15 +4415,15 @@
       </c>
       <c r="AI53" s="3">
         <f>'COST PER TASK'!P53*'COST PER TASK'!AE53*DATOS!$D$16+'COST PER TASK'!Q53*'COST PER TASK'!AE53*DATOS!$D$17+'COST PER TASK'!R53*'COST PER TASK'!AE53*DATOS!$D$18+'COST PER TASK'!S53*'COST PER TASK'!AE53*DATOS!$D$19+'COST PER TASK'!T53*'COST PER TASK'!AE53*DATOS!$D$20+'COST PER TASK'!U53*'COST PER TASK'!AE53*DATOS!$D$21+'COST PER TASK'!V53*'COST PER TASK'!AE53*DATOS!$D$22</f>
-        <v>0</v>
+        <v>77648.496240601511</v>
       </c>
       <c r="AK53" s="8">
         <f t="shared" si="1"/>
-        <v>9840</v>
+        <v>87488.496240601511</v>
       </c>
       <c r="AL53" s="8">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>1458.1416040100253</v>
       </c>
     </row>
     <row r="54" spans="2:38" x14ac:dyDescent="0.2">
@@ -4963,7 +4975,7 @@
         <v>152.85821346182965</v>
       </c>
     </row>
-    <row r="65" spans="6:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:37" x14ac:dyDescent="0.2">
       <c r="F65" s="12">
         <f>F2*$AE2+F3*$AE3+F4*$AE4+F5*$AE5+F6*$AE6+F7*$AE7+F8*$AE8+F9*$AE9+F10*$AE10+F11*$AE11+F12*$AE12+F13*$AE13+F14*$AE14+F15*$AE15+F16*$AE16+F17*$AE17+F18*$AE18+F19*$AE19+F20*$AE20+F21*$AE21+F22*$AE22+F23*$AE23+F24*$AE24+F25*$AE25+F26*$AE26+F27*$AE27+F28*$AE28+F29*$AE29+F30*$AE30+F31*$AE31+F32*$AE32+F33*$AE33+F34*$AE34+F35*$AE35+F36*$AE36+F37*$AE37+F38*$AE38+F39*$AE39+F40*$AE40+F41*$AE41+F42*$AE42+F43*$AE43+F44*$AE44+F45*$AE45+F46*$AE46+F47*$AE47+F48*$AE48+F49*$AE49+F50*$AE50+F51*$AE51+F52*$AE52+F53*$AE53+F54*$AE54+F55*$AE55+F56*$AE56+F57*$AE57+F58*$AE58+F59*$AE59+F60*$AE60+F61*$AE61+F62*$AE62+F63*$AE63+F64*$AE64</f>
         <v>62664</v>
@@ -5060,9 +5072,26 @@
         <f t="shared" si="10"/>
         <v>480</v>
       </c>
+      <c r="AG65" s="17">
+        <f>SUM(AG2:AG64)</f>
+        <v>2414381.5428571426</v>
+      </c>
+      <c r="AH65" s="18">
+        <f>SUM(AH2:AH64)</f>
+        <v>42064.5</v>
+      </c>
+      <c r="AI65" s="18">
+        <f>SUM(AI2:AI64)</f>
+        <v>460000.00000000006</v>
+      </c>
+      <c r="AK65" s="19">
+        <f>SUM(AK2:AK64)</f>
+        <v>2916446.0428571422</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -11563,8 +11592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11626,7 +11655,7 @@
       <c r="C6" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <f>B6/'COST PER TASK'!F65</f>
         <v>7.1811566449636155E-2</v>
       </c>
@@ -11638,13 +11667,13 @@
       <c r="A7" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <f>B7/'COST PER TASK'!G65</f>
         <v>0</v>
       </c>
@@ -11656,13 +11685,13 @@
       <c r="A8" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>18122</v>
       </c>
       <c r="C8" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f>B8/'COST PER TASK'!H65</f>
         <v>0.3705627351545886</v>
       </c>
@@ -11674,13 +11703,13 @@
       <c r="A9" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>8528</v>
       </c>
       <c r="C9" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f>B9/'COST PER TASK'!I65</f>
         <v>0.60568181818181821</v>
       </c>
@@ -11692,13 +11721,13 @@
       <c r="A10" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>9340</v>
       </c>
       <c r="C10" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <f>B10/'COST PER TASK'!J65</f>
         <v>1.3117977528089888</v>
       </c>
@@ -11710,13 +11739,13 @@
       <c r="A11" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <f>B11/'COST PER TASK'!K65</f>
         <v>0</v>
       </c>
@@ -11728,13 +11757,13 @@
       <c r="A12" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>410</v>
       </c>
       <c r="C12" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <f>B12/'COST PER TASK'!L65</f>
         <v>2.5625</v>
       </c>
@@ -11746,13 +11775,13 @@
       <c r="A13" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>676.5</v>
       </c>
       <c r="C13" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <f>B13/'COST PER TASK'!M65</f>
         <v>0.93958333333333333</v>
       </c>
@@ -11764,13 +11793,13 @@
       <c r="A14" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <f>B14/'COST PER TASK'!N65</f>
         <v>0</v>
       </c>
@@ -11782,13 +11811,13 @@
       <c r="A15" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>488</v>
       </c>
       <c r="C15" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <f>B15/'COST PER TASK'!O65</f>
         <v>3.5465116279069765E-2</v>
       </c>
@@ -11800,12 +11829,15 @@
       <c r="A16" t="s">
         <v>145</v>
       </c>
+      <c r="B16" s="13">
+        <v>175000</v>
+      </c>
       <c r="C16" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <f>B16/'COST PER TASK'!P65</f>
-        <v>0</v>
+        <v>54.6875</v>
       </c>
       <c r="E16" t="s">
         <v>129</v>
@@ -11815,12 +11847,15 @@
       <c r="A17" t="s">
         <v>146</v>
       </c>
+      <c r="B17" s="13">
+        <v>15000</v>
+      </c>
       <c r="C17" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <f>B17/'COST PER TASK'!Q65</f>
-        <v>0</v>
+        <v>5.3571428571428568</v>
       </c>
       <c r="E17" t="s">
         <v>129</v>
@@ -11830,12 +11865,15 @@
       <c r="A18" t="s">
         <v>147</v>
       </c>
+      <c r="B18" s="13">
+        <v>30000</v>
+      </c>
       <c r="C18" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <f>B18/'COST PER TASK'!R65</f>
-        <v>0</v>
+        <v>10.714285714285714</v>
       </c>
       <c r="E18" t="s">
         <v>129</v>
@@ -11845,12 +11883,15 @@
       <c r="A19" t="s">
         <v>148</v>
       </c>
+      <c r="B19" s="13">
+        <v>100000</v>
+      </c>
       <c r="C19" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <f>B19/'COST PER TASK'!S65</f>
-        <v>0</v>
+        <v>35.714285714285715</v>
       </c>
       <c r="E19" t="s">
         <v>129</v>
@@ -11860,12 +11901,15 @@
       <c r="A20" t="s">
         <v>149</v>
       </c>
+      <c r="B20" s="13">
+        <v>75000</v>
+      </c>
       <c r="C20" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <f>B20/'COST PER TASK'!T65</f>
-        <v>0</v>
+        <v>26.785714285714285</v>
       </c>
       <c r="E20" t="s">
         <v>129</v>
@@ -11875,12 +11919,15 @@
       <c r="A21" t="s">
         <v>150</v>
       </c>
+      <c r="B21" s="13">
+        <v>40000</v>
+      </c>
       <c r="C21" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <f>B21/'COST PER TASK'!U65</f>
-        <v>0</v>
+        <v>17.543859649122808</v>
       </c>
       <c r="E21" t="s">
         <v>129</v>
@@ -11890,12 +11937,15 @@
       <c r="A22" t="s">
         <v>151</v>
       </c>
+      <c r="B22" s="13">
+        <v>25000</v>
+      </c>
       <c r="C22" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <f>B22/'COST PER TASK'!V65</f>
-        <v>0</v>
+        <v>10.964912280701755</v>
       </c>
       <c r="E22" t="s">
         <v>129</v>
